--- a/documentation/KPCrew Flows.xlsx
+++ b/documentation/KPCrew Flows.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="398">
   <si>
     <t xml:space="preserve">KPCREW FOR ZIBO BOEING 737-800 FREEWARE (V2.1x)</t>
   </si>
@@ -557,16 +557,30 @@
     <t xml:space="preserve">FLIGHT CONTROLS TEST</t>
   </si>
   <si>
-    <t xml:space="preserve">MOVE COLUMN FULL LEFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FULL LEFT – CTR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVE COLUMN FULL RIGHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FULL RIGHT – CTR</t>
+    <t xml:space="preserve">AILERON</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">FULL LEFT – CTR – </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">FULL RIGHT – CTR</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">ELEVATORS</t>
@@ -593,79 +607,85 @@
     <t xml:space="preserve">ALTIMETERS</t>
   </si>
   <si>
+    <t xml:space="preserve">NAV AIDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET AND CHECKED</t>
+  </si>
+  <si>
     <t xml:space="preserve">ISOLATION VALVES/PACKS</t>
   </si>
   <si>
-    <t xml:space="preserve">NAV AIDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SET AND CHECKED</t>
-  </si>
-  <si>
     <t xml:space="preserve">HYDRAULICS</t>
   </si>
   <si>
     <t xml:space="preserve">ALL ON</t>
   </si>
   <si>
+    <t xml:space="preserve">LANDING PROCEDURE</t>
+  </si>
+  <si>
     <t xml:space="preserve">ENGINE START SWITCHES</t>
   </si>
   <si>
     <t xml:space="preserve">CONTINUOUS</t>
   </si>
   <si>
-    <t xml:space="preserve">LANDING PROCEDURE</t>
+    <t xml:space="preserve">LIGHTS</t>
   </si>
   <si>
     <t xml:space="preserve">APU</t>
   </si>
   <si>
-    <t xml:space="preserve">LIGHTS</t>
+    <t xml:space="preserve">AT 210 KTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAPS 1</t>
   </si>
   <si>
     <t xml:space="preserve">TAKEOFF FLAPS</t>
   </si>
   <si>
-    <t xml:space="preserve">AT 210 KTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAPS 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">AT 180 KTS</t>
   </si>
   <si>
     <t xml:space="preserve">FLAPS 5</t>
   </si>
   <si>
+    <t xml:space="preserve">AT 160 KTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAPS 15 &amp; GEAR DOWN</t>
+  </si>
+  <si>
     <t xml:space="preserve">BEFORE TAXI CHECKLIST</t>
   </si>
   <si>
-    <t xml:space="preserve">AT 160 KTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAPS 15 &amp; GEAR DOWN</t>
-  </si>
-  <si>
     <t xml:space="preserve">AT 155 KTS</t>
   </si>
   <si>
     <t xml:space="preserve">FLAPS 30</t>
   </si>
   <si>
+    <t xml:space="preserve">MISSED APPROACH ALTITUDE</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANTI-ICE</t>
   </si>
   <si>
-    <t xml:space="preserve">MISSED APPROACH ALTITUDE</t>
+    <t xml:space="preserve">LANDING CHECKLIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">IDLE DETENT</t>
   </si>
   <si>
-    <t xml:space="preserve">LANDING CHECKLIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">CABIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SECURE</t>
   </si>
   <si>
     <t xml:space="preserve">FLIGHT CONTROLS </t>
@@ -674,12 +694,6 @@
     <t xml:space="preserve">CHECKED</t>
   </si>
   <si>
-    <t xml:space="preserve">CABIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SECURE</t>
-  </si>
-  <si>
     <t xml:space="preserve">CONT</t>
   </si>
   <si>
@@ -692,39 +706,39 @@
     <t xml:space="preserve">DOWN</t>
   </si>
   <si>
+    <t xml:space="preserve">FLAPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">___ GREEN LIGHT</t>
+  </si>
+  <si>
     <t xml:space="preserve">GROUND EQUIPMENT </t>
   </si>
   <si>
     <t xml:space="preserve">CLEAR</t>
   </si>
   <si>
-    <t xml:space="preserve">FLAPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">___ GREEN LIGHT</t>
+    <t xml:space="preserve">FINAL PROCEDURE</t>
   </si>
   <si>
     <t xml:space="preserve">BEFORE TAKEOFF CHECKLIST</t>
   </si>
   <si>
-    <t xml:space="preserve">FINAL PROCEDURE</t>
+    <t xml:space="preserve">CLEARED FOR LANDING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLEARED</t>
   </si>
   <si>
     <t xml:space="preserve">FLAPS ___ , GREEN LIGHT</t>
   </si>
   <si>
-    <t xml:space="preserve">CLEARED FOR LANDING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLEARED</t>
+    <t xml:space="preserve">AUTOPILOT</t>
   </si>
   <si>
     <t xml:space="preserve">___  POINT   ___  UNITS</t>
   </si>
   <si>
-    <t xml:space="preserve">AUTOPILOT</t>
-  </si>
-  <si>
     <t xml:space="preserve">TAKEOFF BRIEFING</t>
   </si>
   <si>
@@ -734,36 +748,36 @@
     <t xml:space="preserve">AFTER LANDING - CLEANUP</t>
   </si>
   <si>
+    <t xml:space="preserve">SPEEDBRAKES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UP</t>
+  </si>
+  <si>
     <t xml:space="preserve">BEFORE TAKEOFF PROCEDURE                                 </t>
   </si>
   <si>
-    <t xml:space="preserve">SPEEDBRAKES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UP</t>
+    <t xml:space="preserve">CHRONO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOP</t>
   </si>
   <si>
     <t xml:space="preserve">LANDING LIGHTS</t>
   </si>
   <si>
-    <t xml:space="preserve">CHRONO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STOP</t>
+    <t xml:space="preserve">WX RADAR (EFIS PANEL)</t>
   </si>
   <si>
     <t xml:space="preserve">STROBES</t>
   </si>
   <si>
-    <t xml:space="preserve">WX RADAR (EFIS PANEL)</t>
+    <t xml:space="preserve">START</t>
   </si>
   <si>
     <t xml:space="preserve">TAXI LIGHTS</t>
   </si>
   <si>
-    <t xml:space="preserve">START</t>
-  </si>
-  <si>
     <t xml:space="preserve">TRANSPONDER</t>
   </si>
   <si>
@@ -785,37 +799,52 @@
     <t xml:space="preserve">TAKEOFF AND CLIMB PROCEDURE</t>
   </si>
   <si>
+    <t xml:space="preserve">TRAFFIC</t>
+  </si>
+  <si>
     <t xml:space="preserve">TAKEOFF THRUST</t>
   </si>
   <si>
-    <t xml:space="preserve">TRAFFIC</t>
-  </si>
-  <si>
     <t xml:space="preserve">HDG SEL</t>
   </si>
   <si>
+    <t xml:space="preserve">STANDBY</t>
+  </si>
+  <si>
     <t xml:space="preserve">EFIS WXR</t>
   </si>
   <si>
-    <t xml:space="preserve">STANDBY</t>
-  </si>
-  <si>
     <t xml:space="preserve">CALLOUTS</t>
   </si>
   <si>
+    <t xml:space="preserve">SHUTDOWN PROCEDURE</t>
+  </si>
+  <si>
     <t xml:space="preserve">GEAR</t>
   </si>
   <si>
-    <t xml:space="preserve">UP AND OFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHUTDOWN PROCEDURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A/P MODES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LNAV/VNAV or HDG/FLCH</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">UP AND OFF/</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">MANUAL</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">CMD A</t>
@@ -884,322 +913,340 @@
     <t xml:space="preserve">PACKS</t>
   </si>
   <si>
+    <t xml:space="preserve">UP AND OFF</t>
+  </si>
+  <si>
     <t xml:space="preserve">UP, NO LIGHTS</t>
   </si>
   <si>
     <t xml:space="preserve">ELAPSED TIME</t>
   </si>
   <si>
+    <t xml:space="preserve">SHUTDOWN CHECKLIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPROACH BRIEFING – OPTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok, we will be arriving via &lt;ARRIVALTYPE&gt; &lt;ARRIVALNAME&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After the arrival we can expect an &lt;TYPE&gt; approach into our destination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UP NO LIGHTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runway assigned is &lt;RWY&gt; and the condition is &lt;CONDITION&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti Ice is &lt;ANTIICE SETTING&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landing flaps will be &lt;FLAPS&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEATHER RADAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for auto brake we will use level &lt;ABRKLVL&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Packs will be &lt;ON/OFF&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SECURING AIRCRAFT PROCEDURE - OPTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decision Height/Altitude will be &lt;HEIGHT&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAB/UTIL &amp; IFE GALLEY POWER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approach speed &lt;SPD&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference speed &lt;SPD&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMERGENCY EXIT LIGHTS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missed approach altitude &gt;ALT&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WINDOW HEAT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACKS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESCENT CHECKLIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRESSURIZATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LANDING ALTITUDE ___</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BATTERY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSITION LIGHT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">______</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LANDING DATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VREF ___, MINIMUMS ___ FEET*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SECURE CHECKLIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPROACH BRIEFING </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRSs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THROTTLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDLE FOR ZIBO DURING DESCENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPCREW FOR FLYJSIM B732 PAYWARE (V2.1x)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TURN AROUND STATE – OPTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONNECT GPU IN MENU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APU START</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GASPER FANS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAVIGATION PANEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEAT BELTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORMAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUEL QTY TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIR COND &amp; PRESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACK(S) SET, BLEEDS ON, SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSTRUMENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X-CHECKED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RADIOS, RADAR, TRANSPONDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OXYGEN &amp; INTERPHONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N1 &amp; IAS BUGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRELIMINARY FLIGHT COMPARTMENT CHECKLIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OVERHEAT DETECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLEARED FOR START PROCEDURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIRE WARNING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISOLATION VLV OPEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTINGUISHER TEST SWITCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYDRAULIC PANEL SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARGO SMOKE/FIRE SYSTEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APU (IF REQUIRED)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">START/ON BUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERIFY TAKEOFF SPEEDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANNOUNCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMERGENCY EQUIPMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIRCUIT BREAKERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLIGHT RECORDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLEARED FOR START CHECKLIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOBILE PHONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">START PRESSURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASSENGER OXYGEN SWITCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTICOLLISION LIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALLEY POWER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOORS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLOSED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIR CONDITIONING PACKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO SMOKING SIGNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTO PILOT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISENGAGED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTI-SKID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAP LEVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STABILIZER TRIM CUTOUT SWITCHES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHEEL WELL FIRE WARNING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIGHT TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FREE &amp; ZERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAVIGATION TRANSFER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAPERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON BOARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMC/CDU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESCENT APPROACH CHECKLIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVE COLUMN FULL LEFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FULL LEFT – CTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTI–ICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVE COLUMN FULL RIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FULL RIGHT – CTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTIMETER &amp; INSTRUMENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET &amp; X-CHECKED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFTER START PROCEDURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFTER START CHECKLIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELECTRICAL GENERATORS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACKS ON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLIGHT CONTROLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABIN DOOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LANDING LIGHTS &amp; STROBES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A/P MODES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPS/IAS or HDG/IAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELECTRICAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON GPU/APU</t>
+  </si>
+  <si>
     <t xml:space="preserve">SET BOTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHUTDOWN CHECKLIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPROACH BRIEFING – OPTIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ok, we will be arriving via &lt;ARRIVALTYPE&gt; &lt;ARRIVALNAME&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After the arrival we can expect an &lt;TYPE&gt; approach into our destination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UP NO LIGHTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Runway assigned is &lt;RWY&gt; and the condition is &lt;CONDITION&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anti Ice is &lt;ANTIICE SETTING&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landing flaps will be &lt;FLAPS&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEATHER RADAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for auto brake we will use level &lt;ABRKLVL&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Packs will be &lt;ON/OFF&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SECURING AIRCRAFT PROCEDURE - OPTIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decision Height/Altitude will be &lt;HEIGHT&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAB/UTIL &amp; IFE GALLEY POWER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approach speed &lt;SPD&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference speed &lt;SPD&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMERGENCY EXIT LIGHTS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missed approach altitude &gt;ALT&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WINDOW HEAT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PACKS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESCENT CHECKLIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APU </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRESSURIZATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LANDING ALTITUDE ___</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BATTERY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">POSITION LIGHT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">______</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LANDING DATA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VREF ___, MINIMUMS ___ FEET*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SECURE CHECKLIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPROACH BRIEFING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRSs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THROTTLES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDLE FOR ZIBO DURING DESCENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPCREW FOR FLYJSIM B732 PAYWARE (V2.1x)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TURN AROUND STATE – OPTIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONNECT GPU IN MENU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APU START</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GASPER FANS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAVIGATION PANEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEAT BELTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NORMAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUEL QTY TEST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESTED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIR COND &amp; PRESS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PACK(S) SET, BLEEDS ON, SET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INSTRUMENTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X-CHECKED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RADIOS, RADAR, TRANSPONDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OXYGEN &amp; INTERPHONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N1 &amp; IAS BUGS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRELIMINARY FLIGHT COMPARTMENT CHECKLIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OVERHEAT DETECTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLEARED FOR START PROCEDURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIRE WARNING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISOLATION VLV OPEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXTINGUISHER TEST SWITCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HYDRAULIC PANEL SET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARGO SMOKE/FIRE SYSTEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APU (IF REQUIRED)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">START/ON BUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VERIFY TAKEOFF SPEEDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANNOUNCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMERGENCY EQUIPMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIRCUIT BREAKERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLIGHT RECORDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLEARED FOR START CHECKLIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOBILE PHONES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">START PRESSURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PASSENGER OXYGEN SWITCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTICOLLISION LIGHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GALLEY POWER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOORS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLOSED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIR CONDITIONING PACKS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO SMOKING SIGNS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUTO PILOT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISENGAGED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTI-SKID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAP LEVER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STABILIZER TRIM CUTOUT SWITCHES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHEEL WELL FIRE WARNING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT TEST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FREE &amp; ZERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAVIGATION TRANSFER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAPERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ON BOARD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FMC/CDU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESCENT APPROACH CHECKLIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTI–ICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALTIMETER &amp; INSTRUMENTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SET &amp; X-CHECKED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFTER START PROCEDURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFTER START CHECKLIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELECTRICAL GENERATORS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PACKS ON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLIGHT CONTROLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CABIN DOOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LANDING LIGHTS &amp; STROBES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPS/IAS or HDG/IAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELECTRICAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ON GPU/APU</t>
   </si>
   <si>
     <t xml:space="preserve">FASTEN BELTS</t>
@@ -1240,7 +1287,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$-409]D\-MMM\-YY"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1323,6 +1370,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1696,15 +1750,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1791,21 +1845,21 @@
   </sheetPr>
   <dimension ref="A1:L433"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B155" activeCellId="0" sqref="B155:B157"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A122" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G135" activeCellId="0" sqref="G135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="1.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="30.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="30.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="31.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="31.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2206,7 +2260,7 @@
       <c r="A36" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="18" t="s">
         <v>84</v>
       </c>
       <c r="D36" s="9" t="s">
@@ -2887,7 +2941,7 @@
       <c r="K76" s="19"/>
       <c r="L76" s="19"/>
     </row>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D77" s="9" t="s">
         <v>178</v>
       </c>
@@ -2900,7 +2954,7 @@
       <c r="K77" s="19"/>
       <c r="L77" s="19"/>
     </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D78" s="9" t="s">
         <v>180</v>
       </c>
@@ -2913,11 +2967,11 @@
       <c r="K78" s="19"/>
       <c r="L78" s="19"/>
     </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D79" s="9" t="s">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D79" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="E79" s="17" t="s">
+      <c r="E79" s="33" t="s">
         <v>183</v>
       </c>
       <c r="H79" s="19"/>
@@ -2926,13 +2980,9 @@
       <c r="K79" s="19"/>
       <c r="L79" s="19"/>
     </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D80" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="E80" s="33" t="s">
-        <v>185</v>
-      </c>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D80" s="0"/>
+      <c r="E80" s="0"/>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
       <c r="J80" s="19"/>
@@ -2953,7 +3003,7 @@
       <c r="K81" s="19"/>
       <c r="L81" s="19"/>
     </row>
-    <row r="82" customFormat="false" ht="7.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="7.45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="20"/>
       <c r="B82" s="20"/>
       <c r="D82" s="19"/>
@@ -2966,11 +3016,11 @@
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B83" s="34"/>
       <c r="D83" s="24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E83" s="25"/>
       <c r="H83" s="19"/>
@@ -2981,13 +3031,13 @@
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B84" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E84" s="28" t="s">
         <v>16</v>
@@ -2998,18 +3048,18 @@
       <c r="K84" s="19"/>
       <c r="L84" s="19"/>
     </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="9" t="s">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E85" s="35" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -3017,12 +3067,12 @@
       <c r="K85" s="19"/>
       <c r="L85" s="19"/>
     </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
@@ -3032,15 +3082,15 @@
       <c r="K86" s="19"/>
       <c r="L86" s="19"/>
     </row>
-    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D87" s="34" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E87" s="34"/>
       <c r="H87" s="19"/>
@@ -3049,15 +3099,15 @@
       <c r="K87" s="19"/>
       <c r="L87" s="19"/>
     </row>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E88" s="18" t="s">
         <v>16</v>
@@ -3068,18 +3118,18 @@
       <c r="K88" s="19"/>
       <c r="L88" s="19"/>
     </row>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="B89" s="14" t="s">
-        <v>16</v>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>129</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3087,12 +3137,18 @@
       <c r="K89" s="19"/>
       <c r="L89" s="19"/>
     </row>
-    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="D90" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3100,16 +3156,12 @@
       <c r="K90" s="19"/>
       <c r="L90" s="19"/>
     </row>
-    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="B91" s="25"/>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D91" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3117,13 +3169,11 @@
       <c r="K91" s="19"/>
       <c r="L91" s="19"/>
     </row>
-    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="B92" s="27" t="s">
-        <v>22</v>
-      </c>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B92" s="25"/>
       <c r="D92" s="9" t="s">
         <v>83</v>
       </c>
@@ -3136,18 +3186,18 @@
       <c r="K92" s="19"/>
       <c r="L92" s="19"/>
     </row>
-    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="26" t="s">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="B93" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3155,78 +3205,78 @@
       <c r="K93" s="19"/>
       <c r="L93" s="19"/>
     </row>
-    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="26" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="B94" s="27" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E94" s="33" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="26" t="s">
-        <v>115</v>
+        <v>209</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c r="D95" s="19"/>
       <c r="E95" s="19"/>
     </row>
     <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="B96" s="28" t="s">
-        <v>212</v>
+        <v>115</v>
+      </c>
+      <c r="B96" s="27" t="s">
+        <v>165</v>
       </c>
       <c r="D96" s="24" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E96" s="25" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B97" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="D97" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="E97" s="27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="B97" s="28" t="s">
+      <c r="B98" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="D97" s="26" t="s">
+      <c r="D98" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="E98" s="27" t="s">
         <v>217</v>
-      </c>
-      <c r="E97" s="27" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="B98" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="D98" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="E98" s="27" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="B99" s="28" t="s">
-        <v>216</v>
+        <v>124</v>
+      </c>
+      <c r="B99" s="27" t="s">
+        <v>125</v>
       </c>
       <c r="D99" s="26" t="s">
         <v>83</v>
@@ -3237,69 +3287,69 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="B100" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B100" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="D100" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="D100" s="26" t="s">
+      <c r="E100" s="36" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="B101" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="D101" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="E100" s="36" t="s">
+      <c r="E101" s="37" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="29" t="s">
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="B101" s="35" t="s">
+      <c r="B102" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="D101" s="29" t="s">
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0"/>
+      <c r="B103" s="0"/>
+      <c r="D103" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="E101" s="37" t="s">
+      <c r="E103" s="34"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="24" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0"/>
-      <c r="B102" s="0"/>
-    </row>
-    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="24" t="s">
+      <c r="B104" s="25"/>
+      <c r="D104" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="B103" s="25"/>
-      <c r="D103" s="34" t="s">
+      <c r="E104" s="17" t="s">
         <v>228</v>
-      </c>
-      <c r="E103" s="34"/>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="B104" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="E104" s="17" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="26" t="s">
-        <v>104</v>
+        <v>221</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E105" s="17" t="s">
         <v>129</v>
@@ -3307,10 +3357,10 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="26" t="s">
-        <v>234</v>
+        <v>104</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D106" s="13" t="s">
         <v>99</v>
@@ -3319,93 +3369,93 @@
         <v>129</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B107" s="35" t="s">
-        <v>218</v>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="B107" s="28" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0"/>
-      <c r="B108" s="0"/>
+      <c r="A108" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="B108" s="35" t="s">
+        <v>214</v>
+      </c>
       <c r="D108" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="E108" s="34"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0"/>
+      <c r="B109" s="0"/>
+      <c r="D109" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E109" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="E108" s="34"/>
-    </row>
-    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="34" t="s">
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="B109" s="34"/>
-      <c r="D109" s="9" t="s">
+      <c r="B110" s="34"/>
+      <c r="D110" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="E109" s="18" t="s">
+      <c r="E110" s="18" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="9" t="s">
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="9" t="s">
         <v>240</v>
-      </c>
-      <c r="B110" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="E110" s="18" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="9" t="s">
-        <v>243</v>
       </c>
       <c r="B111" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D111" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B112" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E112" s="18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="E111" s="18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="9" t="s">
+      <c r="B113" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E113" s="18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="9" t="s">
         <v>245</v>
-      </c>
-      <c r="B112" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="E112" s="18" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="B113" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="E113" s="18" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="9" t="s">
-        <v>248</v>
       </c>
       <c r="B114" s="18" t="s">
         <v>22</v>
@@ -3419,10 +3469,10 @@
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>240</v>
@@ -3432,61 +3482,61 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="B116" s="14" t="s">
-        <v>219</v>
+      <c r="A116" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B116" s="18" t="s">
+        <v>248</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E116" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="19"/>
-      <c r="B117" s="21"/>
+      <c r="A117" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>217</v>
+      </c>
       <c r="D117" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E117" s="18" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="B118" s="34"/>
+      <c r="A118" s="19"/>
+      <c r="B118" s="21"/>
       <c r="D118" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E118" s="18" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="B119" s="18" t="s">
+      <c r="A119" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="B119" s="34"/>
+      <c r="D119" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="E119" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B120" s="18" t="s">
         <v>16</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="E119" s="18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="B120" s="18" t="s">
-        <v>22</v>
       </c>
       <c r="D120" s="9" t="s">
         <v>240</v>
@@ -3497,21 +3547,21 @@
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B121" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E121" s="14" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B122" s="18" t="s">
         <v>22</v>
@@ -3520,26 +3570,26 @@
       <c r="E122" s="19"/>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="16" t="s">
-        <v>260</v>
+      <c r="A123" s="9" t="s">
+        <v>257</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="D123" s="38" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E123" s="39"/>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="16" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E124" s="18" t="s">
         <v>129</v>
@@ -3547,13 +3597,13 @@
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="16" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B125" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E125" s="40" t="s">
         <v>63</v>
@@ -3561,10 +3611,10 @@
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D126" s="9" t="s">
         <v>112</v>
@@ -3575,7 +3625,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B127" s="18" t="s">
         <v>129</v>
@@ -3612,18 +3662,18 @@
         <v>153</v>
       </c>
       <c r="E129" s="18" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="9" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E130" s="18" t="s">
         <v>129</v>
@@ -3631,13 +3681,13 @@
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="13" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E131" s="18" t="s">
         <v>129</v>
@@ -3653,11 +3703,11 @@
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="24" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B133" s="25"/>
       <c r="D133" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E133" s="18" t="s">
         <v>22</v>
@@ -3665,7 +3715,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="26" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B134" s="27" t="s">
         <v>22</v>
@@ -3680,7 +3730,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="26" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B135" s="27" t="s">
         <v>165</v>
@@ -3695,13 +3745,13 @@
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="26" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B136" s="27" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E136" s="18" t="s">
         <v>76</v>
@@ -3709,13 +3759,13 @@
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="26" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B137" s="27" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E137" s="14" t="s">
         <v>76</v>
@@ -3723,21 +3773,21 @@
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B138" s="35" t="s">
-        <v>282</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D139" s="41" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E139" s="42"/>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B140" s="5"/>
       <c r="D140" s="26" t="s">
@@ -3749,7 +3799,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="9" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B141" s="18"/>
       <c r="D141" s="26" t="s">
@@ -3761,7 +3811,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="9" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B142" s="18"/>
       <c r="D142" s="26" t="s">
@@ -3777,15 +3827,15 @@
       </c>
       <c r="B143" s="18"/>
       <c r="D143" s="26" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E143" s="28" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="9" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B144" s="18"/>
       <c r="D144" s="26" t="s">
@@ -3797,7 +3847,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="9" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B145" s="18"/>
       <c r="D145" s="26" t="s">
@@ -3809,11 +3859,11 @@
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="9" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B146" s="18"/>
       <c r="D146" s="29" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E146" s="35" t="s">
         <v>129</v>
@@ -3821,27 +3871,27 @@
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="9" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B147" s="18"/>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="9" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B148" s="18"/>
       <c r="D148" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E148" s="5"/>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="9" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B149" s="18"/>
       <c r="D149" s="9" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E149" s="18" t="s">
         <v>129</v>
@@ -3849,11 +3899,11 @@
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="9" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B150" s="18"/>
       <c r="D150" s="9" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E150" s="18" t="s">
         <v>129</v>
@@ -3861,11 +3911,11 @@
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="9" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B151" s="18"/>
       <c r="D151" s="9" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E151" s="18" t="s">
         <v>129</v>
@@ -3873,11 +3923,11 @@
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="13" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B152" s="14"/>
       <c r="D152" s="9" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E152" s="18" t="s">
         <v>129</v>
@@ -3885,7 +3935,7 @@
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D153" s="9" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E153" s="18" t="s">
         <v>129</v>
@@ -3893,13 +3943,13 @@
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="24" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B154" s="25" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E154" s="18" t="s">
         <v>129</v>
@@ -3907,13 +3957,13 @@
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="26" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B155" s="27" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E155" s="18" t="s">
         <v>129</v>
@@ -3921,13 +3971,13 @@
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="26" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B156" s="27" t="s">
         <v>216</v>
       </c>
       <c r="D156" s="13" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E156" s="14" t="s">
         <v>129</v>
@@ -3938,32 +3988,32 @@
         <v>124</v>
       </c>
       <c r="B157" s="27" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="26" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B158" s="28" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="26" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B159" s="28" t="s">
         <v>143</v>
       </c>
       <c r="D159" s="26" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E159" s="28" t="s">
         <v>129</v>
@@ -3971,21 +4021,23 @@
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="29" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B160" s="35" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D160" s="26" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E160" s="28" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0"/>
+      <c r="B161" s="0"/>
       <c r="D161" s="26" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E161" s="28" t="s">
         <v>129</v>
@@ -3993,7 +4045,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D162" s="29" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E162" s="35" t="s">
         <v>129</v>
@@ -4252,8 +4304,8 @@
     <mergeCell ref="D87:E87"/>
     <mergeCell ref="D103:E103"/>
     <mergeCell ref="D108:E108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A119:B119"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4273,25 +4325,25 @@
   <dimension ref="A1:L433"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D172" activeCellId="1" sqref="B155:B157 D172"/>
+      <selection pane="topLeft" activeCell="D172" activeCellId="0" sqref="D172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="1.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="30.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="30.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="31.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="31.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4328,7 +4380,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="10"/>
@@ -4391,7 +4443,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="16" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>63</v>
@@ -4407,7 +4459,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="9" t="s">
@@ -4697,7 +4749,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>22</v>
@@ -4777,13 +4829,13 @@
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="9" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B43" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E43" s="28" t="s">
         <v>22</v>
@@ -4799,10 +4851,10 @@
         <v>16</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
@@ -4813,16 +4865,16 @@
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="9" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G45" s="19"/>
       <c r="H45" s="19"/>
@@ -4839,10 +4891,10 @@
         <v>76</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -4896,7 +4948,7 @@
         <v>16</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E49" s="28" t="s">
         <v>16</v>
@@ -4934,7 +4986,7 @@
         <v>63</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E51" s="28" t="s">
         <v>216</v>
@@ -4966,7 +5018,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D53" s="29" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E53" s="35" t="s">
         <v>16</v>
@@ -4979,7 +5031,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="24" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B54" s="25"/>
       <c r="H54" s="19"/>
@@ -4990,13 +5042,13 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="26" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B55" s="28" t="s">
         <v>216</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E55" s="15"/>
       <c r="H55" s="19"/>
@@ -5007,13 +5059,13 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="26" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B56" s="28" t="s">
         <v>216</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E56" s="18" t="s">
         <v>116</v>
@@ -5026,13 +5078,13 @@
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="26" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B57" s="28" t="s">
         <v>216</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E57" s="18" t="s">
         <v>16</v>
@@ -5045,7 +5097,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="26" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B58" s="28" t="s">
         <v>216</v>
@@ -5064,16 +5116,16 @@
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="26" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -5083,7 +5135,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="26" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B60" s="28" t="s">
         <v>216</v>
@@ -5102,7 +5154,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="26" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B61" s="28" t="s">
         <v>216</v>
@@ -5115,13 +5167,13 @@
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="26" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E62" s="25"/>
       <c r="H62" s="19"/>
@@ -5135,10 +5187,10 @@
         <v>142</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E63" s="28" t="s">
         <v>129</v>
@@ -5154,10 +5206,10 @@
         <v>59</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E64" s="28" t="s">
         <v>16</v>
@@ -5170,13 +5222,13 @@
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="26" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E65" s="27" t="s">
         <v>22</v>
@@ -5189,16 +5241,16 @@
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="26" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B66" s="28" t="s">
         <v>22</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E66" s="28" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -5214,7 +5266,7 @@
         <v>93</v>
       </c>
       <c r="D67" s="29" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E67" s="35" t="s">
         <v>129</v>
@@ -5227,7 +5279,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="26" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B68" s="28" t="s">
         <v>16</v>
@@ -5240,10 +5292,10 @@
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="26" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B69" s="28" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>156</v>
@@ -5257,7 +5309,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="26" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B70" s="28" t="s">
         <v>22</v>
@@ -5270,7 +5322,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="26" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B71" s="28" t="s">
         <v>216</v>
@@ -5289,10 +5341,10 @@
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="26" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>162</v>
@@ -5308,7 +5360,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="26" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B73" s="28" t="s">
         <v>216</v>
@@ -5327,7 +5379,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="26" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B74" s="28" t="s">
         <v>216</v>
@@ -5349,7 +5401,7 @@
         <v>107</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>166</v>
@@ -5384,10 +5436,10 @@
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="26" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="20"/>
@@ -5397,10 +5449,10 @@
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="26" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="20"/>
@@ -5410,7 +5462,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="29" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B79" s="35" t="s">
         <v>16</v>
@@ -5430,7 +5482,7 @@
     </row>
     <row r="81" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -5459,10 +5511,10 @@
       </c>
       <c r="B83" s="5"/>
       <c r="D83" s="24" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E83" s="25" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -5472,13 +5524,13 @@
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="9" t="s">
-        <v>178</v>
+        <v>369</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>179</v>
+        <v>370</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E84" s="28" t="s">
         <v>57</v>
@@ -5491,13 +5543,13 @@
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="9" t="s">
-        <v>180</v>
+        <v>372</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>181</v>
+        <v>373</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E85" s="28" t="s">
         <v>16</v>
@@ -5510,16 +5562,16 @@
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E86" s="28" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -5529,10 +5581,10 @@
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B87" s="33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D87" s="26" t="s">
         <v>374</v>
@@ -5548,7 +5600,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D88" s="26" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E88" s="28" t="s">
         <v>216</v>
@@ -5578,13 +5630,13 @@
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B90" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D90" s="29" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E90" s="35" t="s">
         <v>143</v>
@@ -5610,13 +5662,13 @@
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="D92" s="34" t="s">
         <v>193</v>
-      </c>
-      <c r="B92" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="D92" s="34" t="s">
-        <v>197</v>
       </c>
       <c r="E92" s="34"/>
       <c r="H92" s="19"/>
@@ -5627,13 +5679,13 @@
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B93" s="18" t="s">
         <v>129</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E93" s="18" t="s">
         <v>16</v>
@@ -5652,18 +5704,18 @@
         <v>16</v>
       </c>
       <c r="D94" s="16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D95" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5672,10 +5724,10 @@
       </c>
       <c r="B96" s="25"/>
       <c r="D96" s="16" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5700,21 +5752,21 @@
         <v>22</v>
       </c>
       <c r="D98" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B99" s="28" t="s">
         <v>57</v>
       </c>
       <c r="D99" s="45" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E99" s="14" t="s">
         <v>16</v>
@@ -5722,7 +5774,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="26" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B100" s="28" t="s">
         <v>379</v>
@@ -5736,29 +5788,29 @@
         <v>165</v>
       </c>
       <c r="D101" s="24" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E101" s="25" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B102" s="28" t="s">
         <v>57</v>
       </c>
       <c r="D102" s="26" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E102" s="28" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B103" s="30" t="s">
         <v>212</v>
@@ -5772,27 +5824,27 @@
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D104" s="26" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E104" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B105" s="25"/>
       <c r="D105" s="29" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E105" s="35" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="26" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B106" s="28" t="s">
         <v>216</v>
@@ -5806,22 +5858,22 @@
         <v>216</v>
       </c>
       <c r="D107" s="34" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E107" s="34"/>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="26" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B108" s="27" t="s">
         <v>229</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E108" s="18" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5829,24 +5881,24 @@
         <v>104</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E110" s="18" t="s">
         <v>129</v>
@@ -5860,18 +5912,18 @@
         <v>136</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D112" s="9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E112" s="18" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5902,13 +5954,13 @@
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B115" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E115" s="18" t="s">
         <v>22</v>
@@ -5916,13 +5968,13 @@
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B116" s="18" t="s">
         <v>129</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E116" s="18" t="s">
         <v>129</v>
@@ -5930,7 +5982,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B117" s="18" t="s">
         <v>22</v>
@@ -5944,39 +5996,39 @@
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B118" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E118" s="14" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D120" s="38" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E120" s="39"/>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="34" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B121" s="34"/>
       <c r="D121" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E121" s="18" t="s">
         <v>129</v>
@@ -5984,13 +6036,13 @@
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B122" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E122" s="40" t="s">
         <v>63</v>
@@ -5998,7 +6050,7 @@
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B123" s="18" t="s">
         <v>22</v>
@@ -6012,7 +6064,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B124" s="18" t="s">
         <v>22</v>
@@ -6026,10 +6078,10 @@
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="D125" s="9" t="s">
         <v>34</v>
@@ -6040,10 +6092,10 @@
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="16" t="s">
-        <v>263</v>
+        <v>383</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D126" s="9" t="s">
         <v>98</v>
@@ -6054,13 +6106,13 @@
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B127" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E127" s="18" t="s">
         <v>129</v>
@@ -6068,13 +6120,13 @@
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E128" s="18" t="s">
         <v>129</v>
@@ -6082,7 +6134,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B129" s="18" t="s">
         <v>129</v>
@@ -6102,7 +6154,7 @@
         <v>129</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E130" s="18" t="s">
         <v>22</v>
@@ -6124,10 +6176,10 @@
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="9" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D132" s="9" t="s">
         <v>138</v>
@@ -6138,13 +6190,13 @@
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="13" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E133" s="18" t="s">
         <v>76</v>
@@ -6152,7 +6204,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D134" s="13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E134" s="14" t="s">
         <v>76</v>
@@ -6161,26 +6213,26 @@
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="24" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B135" s="25"/>
       <c r="F135" s="19"/>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="26" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B136" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D136" s="41" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E136" s="42"/>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="26" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B137" s="27" t="s">
         <v>22</v>
@@ -6194,13 +6246,13 @@
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="26" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B138" s="27" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="D138" s="26" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E138" s="28" t="s">
         <v>57</v>
@@ -6208,27 +6260,27 @@
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="26" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B139" s="27" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D139" s="26" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E139" s="28" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B140" s="35" t="s">
-        <v>282</v>
+        <v>387</v>
       </c>
       <c r="D140" s="26" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E140" s="28" t="s">
         <v>129</v>
@@ -6244,7 +6296,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B142" s="5"/>
       <c r="D142" s="26" t="s">
@@ -6256,11 +6308,11 @@
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="9" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B143" s="18"/>
       <c r="D143" s="26" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E143" s="28" t="s">
         <v>129</v>
@@ -6268,7 +6320,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="9" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B144" s="18"/>
       <c r="D144" s="26" t="s">
@@ -6292,23 +6344,23 @@
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="9" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B146" s="18"/>
       <c r="D146" s="26" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E146" s="28" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="9" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B147" s="18"/>
       <c r="D147" s="26" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E147" s="28" t="s">
         <v>57</v>
@@ -6316,11 +6368,11 @@
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="9" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B148" s="18"/>
       <c r="D148" s="26" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E148" s="28" t="s">
         <v>129</v>
@@ -6328,11 +6380,11 @@
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="9" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B149" s="18"/>
       <c r="D149" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E149" s="28" t="s">
         <v>129</v>
@@ -6340,7 +6392,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="9" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B150" s="18"/>
       <c r="D150" s="26" t="s">
@@ -6352,11 +6404,11 @@
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="9" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B151" s="18"/>
       <c r="D151" s="26" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E151" s="28" t="s">
         <v>84</v>
@@ -6364,19 +6416,19 @@
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="9" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B152" s="18"/>
       <c r="D152" s="26" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E152" s="28" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="9" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B153" s="18"/>
       <c r="D153" s="26" t="s">
@@ -6388,11 +6440,11 @@
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="13" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B154" s="14"/>
       <c r="D154" s="26" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E154" s="28" t="s">
         <v>19</v>
@@ -6400,7 +6452,7 @@
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D155" s="26" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E155" s="28" t="s">
         <v>129</v>
@@ -6408,10 +6460,10 @@
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D156" s="29" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E156" s="35" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -6421,7 +6473,7 @@
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="162" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -6431,13 +6483,13 @@
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B164" s="5"/>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="9" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B165" s="18" t="s">
         <v>129</v>
@@ -6445,7 +6497,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="9" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B166" s="18" t="s">
         <v>129</v>
@@ -6453,7 +6505,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="9" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B167" s="18" t="s">
         <v>129</v>
@@ -6461,7 +6513,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="9" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B168" s="18" t="s">
         <v>129</v>
@@ -6469,7 +6521,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="9" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B169" s="18" t="s">
         <v>129</v>
@@ -6477,7 +6529,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="9" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B170" s="18" t="s">
         <v>129</v>
@@ -6485,7 +6537,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="9" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B171" s="18" t="s">
         <v>129</v>
@@ -6493,7 +6545,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="13" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B172" s="14" t="s">
         <v>129</v>
@@ -6502,15 +6554,15 @@
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="26" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B175" s="28" t="s">
         <v>129</v>
@@ -6518,7 +6570,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="26" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B176" s="28" t="s">
         <v>129</v>
@@ -6526,7 +6578,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="26" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B177" s="28" t="s">
         <v>129</v>
@@ -6534,15 +6586,15 @@
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="26" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B178" s="28" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="29" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B179" s="35" t="s">
         <v>129</v>

--- a/documentation/KPCrew Flows.xlsx
+++ b/documentation/KPCrew Flows.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="502">
   <si>
     <t xml:space="preserve">KPCREW FOR ZIBO BOEING 737-800 FREEWARE (V2.2x)</t>
   </si>
@@ -299,39 +299,87 @@
     <t xml:space="preserve">DONE</t>
   </si>
   <si>
+    <t xml:space="preserve">STARTUP AND PUSHBACK</t>
+  </si>
+  <si>
     <t xml:space="preserve">SET INSTRUMENTS</t>
   </si>
   <si>
     <t xml:space="preserve">MCP, PFD/ND, QNH, COM, NAV</t>
   </si>
   <si>
+    <t xml:space="preserve">PUSHBACK SERVICES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">START SEQUENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 THEN 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">PREFLIGHT PROCEDURE</t>
   </si>
   <si>
+    <t xml:space="preserve">PACKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">START ENGINE 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARTING ENGINE 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">SET COCKPIT LIGHTING</t>
   </si>
   <si>
     <t xml:space="preserve">AS REQUIRED</t>
   </si>
   <si>
+    <t xml:space="preserve">   START PROCEDURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGINE 2 START</t>
+  </si>
+  <si>
     <t xml:space="preserve">MASTER LIGHTS TEST</t>
   </si>
   <si>
     <t xml:space="preserve">PERFORM</t>
   </si>
   <si>
+    <t xml:space="preserve">   ANNOUNCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARTER CUTOUT</t>
+  </si>
+  <si>
     <t xml:space="preserve">OXYGEN</t>
   </si>
   <si>
     <t xml:space="preserve">TEST AND SET</t>
   </si>
   <si>
+    <t xml:space="preserve">START ENGINE 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARTING ENGINE 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">DISPLAY UNITS</t>
   </si>
   <si>
     <t xml:space="preserve">SELECTED</t>
   </si>
   <si>
+    <t xml:space="preserve">ENGINE 1 START</t>
+  </si>
+  <si>
     <t xml:space="preserve">SPEED BRAKE LEVER</t>
   </si>
   <si>
@@ -341,39 +389,84 @@
     <t xml:space="preserve">APU</t>
   </si>
   <si>
+    <t xml:space="preserve">2 GOOD STARTS?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIRM</t>
+  </si>
+  <si>
     <t xml:space="preserve">EMERGENCY EXIT</t>
   </si>
   <si>
     <t xml:space="preserve">LIGHTS ARMED</t>
   </si>
   <si>
+    <t xml:space="preserve">GENERATORS</t>
+  </si>
+  <si>
     <t xml:space="preserve">CABIN SIGNS</t>
   </si>
   <si>
+    <t xml:space="preserve">PROBE HEAT</t>
+  </si>
+  <si>
     <t xml:space="preserve">WINDOW HEAT</t>
   </si>
   <si>
+    <t xml:space="preserve">ANTI-ICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACKS &amp; ISOLATION</t>
+  </si>
+  <si>
     <t xml:space="preserve">TRIM AIR &amp; RECIRC FANS</t>
   </si>
   <si>
+    <t xml:space="preserve">BLEEDS</t>
+  </si>
+  <si>
     <t xml:space="preserve">PACK SWITCHES</t>
   </si>
   <si>
     <t xml:space="preserve">AUTO</t>
   </si>
   <si>
+    <t xml:space="preserve">ENGINE START SWITCHES</t>
+  </si>
+  <si>
     <t xml:space="preserve">ENGINE BLEEDS</t>
   </si>
   <si>
+    <t xml:space="preserve">HYDRAULICS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL PUMPS ON</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLIGHT ALTITUDE &amp; LAND ALTITUDE</t>
   </si>
   <si>
+    <t xml:space="preserve">TAKEOFF FLAPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET AS REQUESTED</t>
+  </si>
+  <si>
     <t xml:space="preserve">ENGINE START IGNITION SWITCH </t>
   </si>
   <si>
+    <t xml:space="preserve">FLIGHT CONTROL CHECKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">START</t>
+  </si>
+  <si>
     <t xml:space="preserve">WING &amp; LOGO LIGHTS</t>
   </si>
   <si>
+    <t xml:space="preserve">FINISHED</t>
+  </si>
+  <si>
     <t xml:space="preserve">OXYGEN TEST AND SET</t>
   </si>
   <si>
@@ -386,6 +479,9 @@
     <t xml:space="preserve">TRANSPONDER CONTROL PANEL</t>
   </si>
   <si>
+    <t xml:space="preserve">BEFORE TAXI CHECKLIST</t>
+  </si>
+  <si>
     <t xml:space="preserve">NAVIGATION AND DISPLAYS PANEL</t>
   </si>
   <si>
@@ -401,21 +497,45 @@
     <t xml:space="preserve">RESET</t>
   </si>
   <si>
-    <t xml:space="preserve">PROBE HEAT</t>
+    <t xml:space="preserve">CONT</t>
   </si>
   <si>
     <t xml:space="preserve">AIR CONDITIONING PANEL</t>
   </si>
   <si>
+    <t xml:space="preserve">RECALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHECKED</t>
+  </si>
+  <si>
     <t xml:space="preserve">CABIN PRESSURIZATION PANEL</t>
   </si>
   <si>
+    <t xml:space="preserve">AUTOBRAKE</t>
+  </si>
+  <si>
     <t xml:space="preserve">YAW DAMPER</t>
   </si>
   <si>
+    <t xml:space="preserve">ENGINE START LEVERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDLE DETENT</t>
+  </si>
+  <si>
     <t xml:space="preserve">LIGHTING PANEL</t>
   </si>
   <si>
+    <t xml:space="preserve">FLIGHT CONTROLS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROUND EQUIPMENT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLEAR</t>
+  </si>
+  <si>
     <t xml:space="preserve">PREFLIGHT CHECKLIST</t>
   </si>
   <si>
@@ -425,27 +545,60 @@
     <t xml:space="preserve">TESTED 100 %</t>
   </si>
   <si>
+    <t xml:space="preserve">BEFORE TAKEOFF CHECKLIST</t>
+  </si>
+  <si>
     <t xml:space="preserve">NAV TRANSFER AND DISP SWITCHES</t>
   </si>
   <si>
     <t xml:space="preserve">NORMAL   , AUTO</t>
   </si>
   <si>
+    <t xml:space="preserve">TAKEOFF BRIEFING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REVIEWED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAPS ___ , GREEN LIGHT</t>
+  </si>
+  <si>
     <t xml:space="preserve">PRESSURIZATION MODE SELECTOR</t>
   </si>
   <si>
+    <t xml:space="preserve">STABILIZER TRIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">___  POINT   ___  UNITS</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLIGHT INSTRUMENTS</t>
   </si>
   <si>
     <t xml:space="preserve">HEADING __, ALTIMETER __</t>
   </si>
   <si>
+    <t xml:space="preserve">CABIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SECURE</t>
+  </si>
+  <si>
     <t xml:space="preserve">GEAR PINS</t>
   </si>
   <si>
     <t xml:space="preserve">REMOVED</t>
   </si>
   <si>
+    <t xml:space="preserve">ENTERING RUNWAY PROCEDURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STROBES</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLIGHT BRIEFINGS</t>
   </si>
   <si>
@@ -461,226 +614,853 @@
     <t xml:space="preserve">CHARTS &amp; FMS CHECKED</t>
   </si>
   <si>
+    <t xml:space="preserve">FIXED LANDING LIGHTS</t>
+  </si>
+  <si>
     <t xml:space="preserve">TAXI BRIEFING</t>
   </si>
   <si>
     <t xml:space="preserve">TAXI ROUTE</t>
   </si>
   <si>
-    <t xml:space="preserve">TAKEOFF BRIEFING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPCREW FOR ZIBO BOEING 737-800 FREEWARE (V2.1x)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEFORE TAXI CHECKLIST</t>
+    <t xml:space="preserve">RWY TURNOFF LIGHTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAXI LIGHTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPCREW FOR ZIBO BOEING 737-800 FREEWARE (V2.2.x)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAKEOFF &amp; CLIMB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHUTDOWN PROCEDURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOTHROTTLE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A/P MODES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET AS CONFIGURED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHUTDOWN ENGINES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAKEOFF PROCEDURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEATBELT SIGNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAKEOFF THRUST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMD-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WING &amp; ENGINE ANTI-ICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELEC HYD PUMPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFTER TAKEOFF CHECKLIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APU BLEED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLIGHT DIRECTORS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LANDING GEAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UP AND OFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UP, NO LIGHTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTIMETERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELAPSED TIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOORS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPROACH BRIEFING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHUTDOWN CHECKLIST </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESCEND CHECKLIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRESSURIZATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LANDING ALTITUDE ___</t>
+  </si>
+  <si>
+    <t xml:space="preserve">______</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UP NO LIGHTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LANDING DATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VREF ___, MINIMUMS ___ FEET*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPROACH BRIEFING </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEATHER RADAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET QNH ____</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SECURE AIRCRAFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAV AIDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET AND CHECKED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAB/UTIL &amp; IFE GALLEY POWER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIM AIR SWITCHES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LANDING PROCEDURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMERGENCY EXIT LIGHTS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIGHTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WINDOW HEAT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEAT BELTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACKS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGINE STARTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DH/DA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BATTERY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSITION LIGHT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTO BRAKE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT ___ KTS FLAPS 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPEEDCHECK FLAPS 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT ___ KTS FLAPS 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPEEDCHECK FLAPS 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAPS 15, GEAR DOWN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPEEDCHECK FLAPS 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT ___ KTS FLAPS 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPEEDCHECK FLAPS 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRSs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAPS 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF CONFIGURED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MISSED APPROACH ALTITUDE</t>
   </si>
   <si>
     <t xml:space="preserve">LANDING CHECKLIST</t>
   </si>
   <si>
+    <t xml:space="preserve">SPEEDBRAKE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARMED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOWN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">___ GREEN LIGHT</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">GENERATORS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CABIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SECURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENGINE START SWITCHES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTI-ICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPEEDBRAKE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARMED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LANDING GEAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOWN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENGINE START LEVERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDLE DETENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">___ GREEN LIGHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLIGHT CONTROLS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHECKED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUTOBRAKE</t>
-  </si>
-  <si>
     <t xml:space="preserve">FINAL PROCEDURE</t>
   </si>
   <si>
-    <t xml:space="preserve">RECALL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLEARED FOR LANDING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLEARED</t>
+    <t xml:space="preserve">CLEARED FOR LANDING?</t>
   </si>
   <si>
     <t xml:space="preserve">AUTOPILOT</t>
   </si>
   <si>
-    <t xml:space="preserve">GROUND EQUIPMENT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLEAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEFORE TAKEOFF CHECKLIST</t>
+    <t xml:space="preserve">CLEANUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPEEDBRAKES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHRONO and ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WX RADAR (EFIS PANEL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LANDING LIGHTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRAFFIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDBY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are located at [ORIGIN ICAO] parking stand [POSITION]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a gate position, pushback required [PUSHBACK DIRECTION] or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  This is an outer position, pushback required [PUSHBACK DIRECTION] or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  We require no pushback at this position, start clearance only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We will be taxiing to holding point runway [RWY] via [TAXI ROUTE]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK, I will be the pilot flying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have no M E L issues today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This will be a standard takeoff, noise abatement departure procedure [NOISE ABATMENT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This will be a standard instrument departure via [SID] transition [SIDTRANSITION] or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The departure will be ATC vectors  or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The departure will be via tracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We will take off from runway [RUNWAY]. Runway conditions are [CONDITION]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial altitude will be [ALTITUDE] ft. Today's cruise altitude will be FL [CRUISE LEVEL]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transition altitude is [ALTITUDE]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial heading is [HEADING]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departure routing: [ROUTING]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We will take off from runway [RWY] runway condition is [CONDITION]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our take off thrust is [TRUST RATING]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We will use Flaps [FLAPS] for takeoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti Ice is [ANTI-ICE], bleeds will be [BLEED SETTING]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum Safe Altitude along our initial route is [ALTITUDE] ft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In case of forced return we are [WEIGHT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The takeoff speeds are set. V1 is ___ Vr is ___and V2 today ___</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAFETY BRIEFING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 0 to 100 knots for any malfunction I will call reject </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  and we will confirm the autobrakes are operating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If not operating I will apply maximum manual breaking and </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  maximum symmetric reverse thrust and come to a full stop on the runway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After full stop on the runway we decide on course of further actions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 100 knots to V1 I will reject only for one of the following reasons, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  engine fire, engine failure or takeoff configuration warning horn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At and above V1 we will continue into the air and the only actions for you below </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  400 feet are to silence any alarm bells and confirm any failures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Above 400 feet I will call for failure action drills as required and </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  you'll perform memory items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At 800 feet above field elevation I will call for altitude hold </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  and we will retract the flaps on schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At 1500 feet I will call for the checklist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If we are above maximum landing weight we will make decision on </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  whether to perform an overweight landing if the situation requires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If we have a wheel well, engine or wing fire, I will turn the aircraft in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  such a way the flames will be downwind and we will evacuate through the upwind side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If we have a cargo fire you need to ensure emergency services </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  do not open the cargo doors until evac is completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any questions or concerns?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPCREW FOR FLYJSIM B732 PAYWARE (V2.1x)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLD &amp; DARK - OPTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROCEDURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TURN AROUND STATE – OPTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POWER UP PROCEDURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPARTURE BRIEFING – OPTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">READY FOR THE TAKEOFF BRIEF?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have no MEL issues today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONNECT GPU IN MENU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This will be a standard takeoff, noise abatement departure procedure &lt;XXX&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APU START</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The departure will be via &lt;TYPE&gt; &lt;NAME&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our take off thrust is &lt;THRUST SETTING&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFF (EXCEPT FOR APU)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We will use Flaps &lt;FLAP SETTING&gt; for takeoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runway condition is &lt;CONDITION&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti Ice is &lt;ANTI ICE SETTING&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bleeds will be &lt;BLEED SETTINGS&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In case of forced return we are &lt;UNDER/OVERWEIGHT&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the takeoff safety brief</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COCKPIT LIGHTING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 0 to 100 knots for any malfunction I will call reject and we will confirm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  the autobrakes are operating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If not operating I will apply maximum manual breaking and maximum symmetric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  reverse thrust and come to a full stop on the runway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 100 knots to V 1 I will reject only for one of the following reasons,   engine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP (COURSES, V2, RWY HDG, ALT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  fire, engine failure or takeoff configuration warning horn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDBY INSTRUMENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At and above V 1 we will continue into the air and the only actions for you below </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET UP RADIO TUNING PANEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Above 400 feet I will call for failure action drills as required and you'll perform </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  memory items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at 800 feet above field elevation I will call for altitude hold and we will retract </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMERGENCY EXIT LIGHTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  the flaps on schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON / AUTOMATIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If we are above maximum landing weight we will make decision on whether to </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  perform an overweight landing if the situation requires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIM AIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If we have a wheel well, engine or wing fire, I will turn the aircraft in such a way </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GASPER FANS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the flames will be downwind and we will evacuate through the upwind side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACKS, ISO VALVE, BLEEDS, APU BLEED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTO,  OPEN,  ON,  OFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If we have a cargo fire you need to ensure emergency services do not open the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLIGHT ALTITUDE AND LAND ALT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cargo doors until evac is completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHEEL &amp; LOGO LIGHTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON WHEN DARK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">___ KGS PUMPS ON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAVIGATION PANEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORMAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUEL QTY TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIR COND &amp; PRESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACK(S) SET, BLEEDS ON, SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSTRUMENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X-CHECKED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RADIOS, RADAR, TRANSPONDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIRE TESTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OXYGEN &amp; INTERPHONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUDDER &amp; AILERON TRIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N1 &amp; IAS BUGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRELIMINARY FLIGHT COMPARTMENT CHECKLIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OVERHEAT DETECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLEARED FOR START PROCEDURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIRE WARNING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISOLATION VLV OPEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTINGUISHER TEST SWITCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYDRAULIC PANEL SET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARGO SMOKE/FIRE SYSTEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEACON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APU (IF REQUIRED)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">START/ON BUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERIFY TAKEOFF SPEEDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANNOUNCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMERGENCY EQUIPMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIRCUIT BREAKERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLIGHT RECORDER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLEARED FOR START CHECKLIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MACH AIRSPEED WARNING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOBILE PHONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">START PRESSURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASSENGER OXYGEN SWITCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTICOLLISION LIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GALLEY POWER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLOSED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIR CONDITIONING PACKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO SMOKING SIGNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTO PILOT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISENGAGED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUSHBACK - OPTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTI-SKID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAP LEVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ENGINE START PROCEDURE&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORMAL START</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STABILIZER TRIM CUTOUT SWITCHES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANNOUNCE ENGINE START SEQUENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">START SEQUENCE IS 2 THEN 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHEEL WELL FIRE WARNING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMMAND FO TO START ENGINES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIGHT TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2 IS AT 25%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUEL LEVER TO RUN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FREE &amp; ZERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2 IS AT 20%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAVIGATION TRANSFER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAPERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON BOARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMC/CDU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLIGHT CONTROLS TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESCENT APPROACH CHECKLIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVE COLUMN FULL LEFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FULL LEFT – CTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTI–ICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVE COLUMN FULL RIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FULL RIGHT – CTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELEVATORS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FULL UP - FULL DOWN – CTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUDDERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FULL LEFT–CTR-FULL RIGHT-CTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTIMETER &amp; INSTRUMENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET &amp; X-CHECKED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFTER START PROCEDURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISOLATION VALVES/PACKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL ON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT 210 KTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT 180 KTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFTER START CHECKLIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT 160 KTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELECTRICAL GENERATORS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT 155 KTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACKS ON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLIGHT CONTROLS</t>
   </si>
   <si>
     <t xml:space="preserve">AFTER LANDING - CLEANUP</t>
   </si>
   <si>
-    <t xml:space="preserve">FLAPS ___ , GREEN LIGHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPEEDBRAKES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STABILIZER TRIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">___  POINT   ___  UNITS</t>
-  </si>
-  <si>
     <t xml:space="preserve">CHRONO</t>
   </si>
   <si>
-    <t xml:space="preserve">STOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REVIEWED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WX RADAR (EFIS PANEL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">START</t>
+    <t xml:space="preserve">CABIN DOOR</t>
   </si>
   <si>
     <t xml:space="preserve">BEFORE TAKEOFF PROCEDURE                                 </t>
   </si>
   <si>
-    <t xml:space="preserve">LANDING LIGHTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STROBES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAXI LIGHTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RWY TURNOFF LIGHTS</t>
+    <t xml:space="preserve">LANDING LIGHTS &amp; STROBES</t>
   </si>
   <si>
     <t xml:space="preserve">WX RADAR</t>
   </si>
   <si>
-    <t xml:space="preserve">TRAFFIC</t>
-  </si>
-  <si>
     <t xml:space="preserve">CHRONOMETER</t>
   </si>
   <si>
     <t xml:space="preserve">ET MODE</t>
   </si>
   <si>
-    <t xml:space="preserve">ENGINE STARTER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDBY</t>
-  </si>
-  <si>
     <t xml:space="preserve">TAKEOFF AND CLIMB PROCEDURE</t>
   </si>
   <si>
-    <t xml:space="preserve">SHUTDOWN PROCEDURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAKEOFF THRUST</t>
-  </si>
-  <si>
     <t xml:space="preserve">HDG SEL</t>
   </si>
   <si>
-    <t xml:space="preserve">SHUTDOWN ENGINES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EFIS WXR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEATBELT SIGNS</t>
-  </si>
-  <si>
     <t xml:space="preserve">CALLOUTS</t>
   </si>
   <si>
-    <t xml:space="preserve">BEACON</t>
-  </si>
-  <si>
     <t xml:space="preserve">GEAR</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">UP AND OFF/</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FFC9211E"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">MANUAL</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">CMD A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFF (WHEN N2 &lt; 20%)</t>
+    <t xml:space="preserve">GPS/IAS or HDG/IAS</t>
   </si>
   <si>
     <t xml:space="preserve">FLAP RETRACTION</t>
@@ -710,660 +1490,51 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">WING &amp; ENGINE ANTI-ICE</t>
+    <t xml:space="preserve">ELEC HYD </t>
   </si>
   <si>
     <t xml:space="preserve">ENGINE STARTERS</t>
   </si>
   <si>
-    <t xml:space="preserve">ELEC HYD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">APU BLEED</t>
-  </si>
-  <si>
     <t xml:space="preserve">TRANSITION ALTITUDE</t>
   </si>
   <si>
     <t xml:space="preserve">AUTOMATIC</t>
   </si>
   <si>
-    <t xml:space="preserve">FLIGHT DIRECTORS</t>
-  </si>
-  <si>
     <t xml:space="preserve">TEN THOUSAND</t>
   </si>
   <si>
-    <t xml:space="preserve">AFTER TAKEOFF PROCEDURE &amp; CHECKLIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELAPSED TIME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PACKS</t>
-  </si>
-  <si>
     <t xml:space="preserve">SHUTDOWN CHECKLIST</t>
   </si>
   <si>
-    <t xml:space="preserve">UP AND OFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UP, NO LIGHTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALTIMETERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UP NO LIGHTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPROACH BRIEFING – OPTIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ok, we will be arriving via &lt;ARRIVALTYPE&gt; &lt;ARRIVALNAME&gt;</t>
+    <t xml:space="preserve">ELECTRICAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON GPU/APU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET BOTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FASTEN BELTS</t>
   </si>
   <si>
     <t xml:space="preserve">After the arrival we can expect an &lt;TYPE&gt; approach into our destination</t>
   </si>
   <si>
-    <t xml:space="preserve">WEATHER RADAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This will be a standard takeoff, noise abatement departure procedure &lt;XXX&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Runway assigned is &lt;RWY&gt; and the condition is &lt;CONDITION&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SECURING AIRCRAFT PROCEDURE - OPTIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anti Ice is &lt;ANTIICE SETTING&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAB/UTIL &amp; IFE GALLEY POWER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landing flaps will be &lt;FLAPS&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">for auto brake we will use level &lt;ABRKLVL&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMERGENCY EXIT LIGHTS </t>
+    <t xml:space="preserve">AIR COND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">___ PACK(S), BLEEDS ON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTERIOR LIGHTS</t>
   </si>
   <si>
     <t xml:space="preserve">Packs will be &lt;ON/OFF&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">WINDOW HEAT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decision Height/Altitude will be &lt;HEIGHT&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PACKS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approach speed &lt;SPD&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APU </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference speed &lt;SPD&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BATTERY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Missed approach altitude &gt;ALT&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POSITION LIGHT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESCENT CHECKLIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SECURE CHECKLIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRESSURIZATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LANDING ALTITUDE ___</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRSs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">______</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LANDING DATA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VREF ___, MINIMUMS ___ FEET*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPROACH BRIEFING </t>
-  </si>
-  <si>
-    <t xml:space="preserve">THROTTLES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDLE FOR ZIBO DURING DESCENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPROACH CHECKLIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAV AIDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SET AND CHECKED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPCREW FOR FLYJSIM B732 PAYWARE (V2.1x)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLD &amp; DARK - OPTIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROCEDURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TURN AROUND STATE – OPTIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POWER UP PROCEDURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEPARTURE BRIEFING – OPTIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">READY FOR THE TAKEOFF BRIEF?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OK, I will be the pilot flying</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We have no MEL issues today</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONNECT GPU IN MENU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APU START</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The departure will be via &lt;TYPE&gt; &lt;NAME&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Our take off thrust is &lt;THRUST SETTING&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFF (EXCEPT FOR APU)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We will use Flaps &lt;FLAP SETTING&gt; for takeoff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Runway condition is &lt;CONDITION&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anti Ice is &lt;ANTI ICE SETTING&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bleeds will be &lt;BLEED SETTINGS&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In case of forced return we are &lt;UNDER/OVERWEIGHT&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For the takeoff safety brief</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COCKPIT LIGHTING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From 0 to 100 knots for any malfunction I will call reject and we will confirm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  the autobrakes are operating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If not operating I will apply maximum manual breaking and maximum symmetric </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  reverse thrust and come to a full stop on the runway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After full stop on the runway we decide on course of further actions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From 100 knots to V 1 I will reject only for one of the following reasons,   engine </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCP (COURSES, V2, RWY HDG, ALT)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SET      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  fire, engine failure or takeoff configuration warning horn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDBY INSTRUMENTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At and above V 1 we will continue into the air and the only actions for you below </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  400 feet are to silence any alarm bells and confirm any failures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SET UP RADIO TUNING PANEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Above 400 feet I will call for failure action drills as required and you'll perform </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  memory items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">at 800 feet above field elevation I will call for altitude hold and we will retract </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMERGENCY EXIT LIGHTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  the flaps on schedule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ON / AUTOMATIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At 1500 feet I will call for the checklist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If we are above maximum landing weight we will make decision on whether to </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  perform an overweight landing if the situation requires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRIM AIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If we have a wheel well, engine or wing fire, I will turn the aircraft in such a way </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GASPER FANS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the flames will be downwind and we will evacuate through the upwind side</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PACKS, ISO VALVE, BLEEDS, APU BLEED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUTO,  OPEN,  ON,  OFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If we have a cargo fire you need to ensure emergency services do not open the </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLIGHT ALTITUDE AND LAND ALT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SET  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  cargo doors until evac is completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHEEL &amp; LOGO LIGHTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ON WHEN DARK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">___ KGS PUMPS ON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAVIGATION PANEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEAT BELTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HYDRAULICS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NORMAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUEL QTY TEST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESTED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIR COND &amp; PRESS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PACK(S) SET, BLEEDS ON, SET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INSTRUMENTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X-CHECKED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RADIOS, RADAR, TRANSPONDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIRE TESTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OXYGEN &amp; INTERPHONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUDDER &amp; AILERON TRIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N1 &amp; IAS BUGS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRELIMINARY FLIGHT COMPARTMENT CHECKLIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OVERHEAT DETECTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLEARED FOR START PROCEDURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIRE WARNING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISOLATION VLV OPEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXTINGUISHER TEST SWITCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HYDRAULIC PANEL SET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARGO SMOKE/FIRE SYSTEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APU (IF REQUIRED)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">START/ON BUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VERIFY TAKEOFF SPEEDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANNOUNCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMERGENCY EQUIPMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIRCUIT BREAKERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLIGHT RECORDER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLEARED FOR START CHECKLIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MACH AIRSPEED WARNING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOBILE PHONES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">START PRESSURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PASSENGER OXYGEN SWITCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTICOLLISION LIGHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GALLEY POWER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOORS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLOSED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIR CONDITIONING PACKS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO SMOKING SIGNS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUTO PILOT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISENGAGED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUSHBACK - OPTIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTI-SKID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAP LEVER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;ENGINE START PROCEDURE&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NORMAL START</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STABILIZER TRIM CUTOUT SWITCHES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANNOUNCE ENGINE START SEQUENCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">START SEQUENCE IS 2 THEN 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHEEL WELL FIRE WARNING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMMAND FO TO START ENGINES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">START ENGINE 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHT TEST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2 IS AT 25%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUEL LEVER TO RUN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FREE &amp; ZERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">START ENGINE 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2 IS AT 20%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAVIGATION TRANSFER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAPERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ON BOARD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FMC/CDU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLIGHT CONTROLS TEST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESCENT APPROACH CHECKLIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVE COLUMN FULL LEFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FULL LEFT – CTR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTI–ICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVE COLUMN FULL RIGHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FULL RIGHT – CTR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELEVATORS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FULL UP - FULL DOWN – CTR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUDDERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FULL LEFT–CTR-FULL RIGHT-CTR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALTIMETER &amp; INSTRUMENTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SET &amp; X-CHECKED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFTER START PROCEDURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISOLATION VALVES/PACKS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALL ON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LANDING PROCEDURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAKEOFF FLAPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT 210 KTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAPS 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT 180 KTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAPS 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFTER START CHECKLIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT 160 KTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAPS 15 &amp; GEAR DOWN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELECTRICAL GENERATORS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT 155 KTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLAPS 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MISSED APPROACH ALTITUDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PACKS ON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLIGHT CONTROLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CABIN DOOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LANDING LIGHTS &amp; STROBES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A/P MODES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPS/IAS or HDG/IAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFTER TAKEOFF CHECKLIST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELECTRICAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ON GPU/APU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SET BOTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FASTEN BELTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIR COND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">___ PACK(S), BLEEDS ON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXTERIOR LIGHTS</t>
-  </si>
-  <si>
     <t xml:space="preserve">SPEED BRAKE</t>
   </si>
   <si>
@@ -1377,9 +1548,6 @@
   </si>
   <si>
     <t xml:space="preserve">APU/GROUND POWER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BATTERIES</t>
   </si>
 </sst>
 </file>
@@ -1389,7 +1557,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1477,13 +1645,6 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
       <color rgb="FFED1C24"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1515,13 +1676,12 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <color rgb="FFFFFF00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1584,12 +1744,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF72BF44"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF5B9BD5"/>
         <bgColor rgb="FF5983B0"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1666,6 +1832,20 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
@@ -1696,29 +1876,6 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
@@ -1751,7 +1908,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1880,11 +2037,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1892,19 +2061,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1912,7 +2073,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1924,11 +2085,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1936,63 +2097,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="10" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="11" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="11" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2004,12 +2141,40 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2065,7 +2230,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF2E75B6"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF72BF44"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFEF413D"/>
@@ -2089,18 +2254,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N422"/>
+  <dimension ref="A1:AA422"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A149" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G181" activeCellId="0" sqref="G181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="30.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="28.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="7.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="28.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="7.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="4.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="30.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="28.25"/>
@@ -2483,7 +2648,7 @@
       <c r="A23" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="23" t="s">
         <v>61</v>
       </c>
       <c r="C23" s="27" t="s">
@@ -2495,7 +2660,7 @@
       <c r="F23" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="32" t="s">
         <v>64</v>
       </c>
       <c r="I23" s="0"/>
@@ -2577,7 +2742,7 @@
       <c r="F27" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="32" t="s">
         <v>74</v>
       </c>
       <c r="I27" s="0"/>
@@ -2612,7 +2777,7 @@
       <c r="F29" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="32" t="s">
         <v>79</v>
       </c>
       <c r="I29" s="0"/>
@@ -2625,7 +2790,7 @@
       <c r="B30" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="33" t="s">
         <v>81</v>
       </c>
       <c r="E30" s="26" t="s">
@@ -2647,7 +2812,7 @@
       <c r="B31" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="34" t="s">
         <v>84</v>
       </c>
       <c r="E31" s="26" t="s">
@@ -2656,7 +2821,7 @@
       <c r="F31" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="33" t="s">
+      <c r="G31" s="32" t="s">
         <v>22</v>
       </c>
       <c r="I31" s="0"/>
@@ -2669,12 +2834,12 @@
       <c r="B32" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
       <c r="I32" s="0"/>
       <c r="J32" s="0"/>
     </row>
@@ -2685,7 +2850,7 @@
       <c r="B33" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="34" t="s">
         <v>88</v>
       </c>
       <c r="E33" s="0"/>
@@ -2701,12 +2866,14 @@
       <c r="B34" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="0"/>
-      <c r="F34" s="0"/>
-      <c r="G34" s="0"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="17"/>
       <c r="I34" s="0"/>
       <c r="J34" s="0"/>
     </row>
@@ -2715,14 +2882,20 @@
         <v>23</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E35" s="0"/>
-      <c r="F35" s="0"/>
-      <c r="G35" s="0"/>
+        <v>94</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>96</v>
+      </c>
       <c r="I35" s="0"/>
       <c r="J35" s="0"/>
     </row>
@@ -2730,30 +2903,48 @@
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="E36" s="0"/>
-      <c r="F36" s="0"/>
-      <c r="G36" s="0"/>
+      <c r="E36" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>97</v>
+      </c>
       <c r="I36" s="0"/>
       <c r="J36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
-      <c r="E37" s="0"/>
-      <c r="F37" s="0"/>
-      <c r="G37" s="0"/>
+      <c r="E37" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>99</v>
+      </c>
       <c r="I37" s="0"/>
       <c r="J37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="16"/>
       <c r="B38" s="9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C38" s="17"/>
-      <c r="E38" s="0"/>
-      <c r="F38" s="0"/>
-      <c r="G38" s="0"/>
+      <c r="E38" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>47</v>
+      </c>
       <c r="I38" s="0"/>
       <c r="J38" s="0"/>
     </row>
@@ -2767,9 +2958,15 @@
       <c r="C39" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E39" s="0"/>
-      <c r="F39" s="0"/>
-      <c r="G39" s="0"/>
+      <c r="E39" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>103</v>
+      </c>
       <c r="I39" s="0"/>
       <c r="J39" s="0"/>
     </row>
@@ -2778,13 +2975,20 @@
         <v>23</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="F40" s="0"/>
-      <c r="G40" s="0"/>
+        <v>105</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>107</v>
+      </c>
       <c r="I40" s="0"/>
       <c r="J40" s="0"/>
     </row>
@@ -2793,13 +2997,20 @@
         <v>23</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="F41" s="0"/>
-      <c r="G41" s="0"/>
+        <v>108</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>111</v>
+      </c>
       <c r="I41" s="0"/>
       <c r="J41" s="0"/>
     </row>
@@ -2808,13 +3019,20 @@
         <v>23</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="F42" s="0"/>
-      <c r="G42" s="0"/>
+        <v>113</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42" s="32" t="s">
+        <v>115</v>
+      </c>
       <c r="I42" s="0"/>
       <c r="J42" s="0"/>
     </row>
@@ -2823,13 +3041,20 @@
         <v>68</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="F43" s="0"/>
-      <c r="G43" s="0"/>
+        <v>117</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>118</v>
+      </c>
       <c r="I43" s="0"/>
       <c r="J43" s="0"/>
     </row>
@@ -2838,13 +3063,20 @@
         <v>23</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="F44" s="0"/>
-      <c r="G44" s="0"/>
+        <v>120</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>111</v>
+      </c>
       <c r="I44" s="0"/>
       <c r="J44" s="0"/>
       <c r="K44" s="23"/>
@@ -2857,17 +3089,24 @@
         <v>23</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C45" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F45" s="0"/>
-      <c r="G45" s="0"/>
+      <c r="E45" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>123</v>
+      </c>
       <c r="I45" s="0"/>
       <c r="J45" s="0"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
       <c r="M45" s="23"/>
       <c r="N45" s="23"/>
     </row>
@@ -2876,17 +3115,24 @@
         <v>20</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="F46" s="0"/>
-      <c r="G46" s="0"/>
+        <v>125</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>22</v>
+      </c>
       <c r="I46" s="0"/>
       <c r="J46" s="0"/>
       <c r="K46" s="23"/>
-      <c r="L46" s="38"/>
+      <c r="L46" s="39"/>
       <c r="M46" s="23"/>
       <c r="N46" s="23"/>
     </row>
@@ -2895,13 +3141,20 @@
         <v>20</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C47" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F47" s="0"/>
-      <c r="G47" s="0"/>
+      <c r="E47" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>22</v>
+      </c>
       <c r="I47" s="0"/>
       <c r="J47" s="0"/>
       <c r="K47" s="23"/>
@@ -2914,17 +3167,24 @@
         <v>20</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="C48" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F48" s="0"/>
-      <c r="G48" s="0"/>
+      <c r="E48" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="G48" s="27" t="s">
+        <v>105</v>
+      </c>
       <c r="I48" s="0"/>
       <c r="J48" s="0"/>
       <c r="K48" s="23"/>
-      <c r="L48" s="38"/>
+      <c r="L48" s="39"/>
       <c r="M48" s="23"/>
       <c r="N48" s="23"/>
     </row>
@@ -2938,12 +3198,19 @@
       <c r="C49" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F49" s="0"/>
-      <c r="G49" s="0"/>
+      <c r="E49" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>105</v>
+      </c>
       <c r="I49" s="0"/>
       <c r="J49" s="0"/>
       <c r="K49" s="23"/>
-      <c r="L49" s="38"/>
+      <c r="L49" s="39"/>
       <c r="M49" s="23"/>
       <c r="N49" s="23"/>
     </row>
@@ -2952,17 +3219,24 @@
         <v>20</v>
       </c>
       <c r="B50" s="23" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="C50" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F50" s="0"/>
-      <c r="G50" s="0"/>
+      <c r="E50" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="G50" s="27" t="s">
+        <v>22</v>
+      </c>
       <c r="I50" s="0"/>
       <c r="J50" s="0"/>
       <c r="K50" s="23"/>
-      <c r="L50" s="38"/>
+      <c r="L50" s="39"/>
       <c r="M50" s="23"/>
       <c r="N50" s="23"/>
     </row>
@@ -2971,17 +3245,24 @@
         <v>20</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="F51" s="0"/>
-      <c r="G51" s="0"/>
+        <v>135</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="I51" s="0"/>
       <c r="J51" s="0"/>
       <c r="K51" s="23"/>
-      <c r="L51" s="38"/>
+      <c r="L51" s="39"/>
       <c r="M51" s="23"/>
       <c r="N51" s="23"/>
     </row>
@@ -2995,12 +3276,19 @@
       <c r="C52" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="F52" s="0"/>
-      <c r="G52" s="0"/>
+      <c r="E52" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G52" s="27" t="s">
+        <v>47</v>
+      </c>
       <c r="I52" s="0"/>
       <c r="J52" s="0"/>
       <c r="K52" s="23"/>
-      <c r="L52" s="38"/>
+      <c r="L52" s="39"/>
       <c r="M52" s="23"/>
       <c r="N52" s="23"/>
     </row>
@@ -3009,13 +3297,20 @@
         <v>20</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="C53" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F53" s="0"/>
-      <c r="G53" s="0"/>
+      <c r="E53" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>139</v>
+      </c>
       <c r="I53" s="0"/>
       <c r="J53" s="0"/>
       <c r="K53" s="23"/>
@@ -3028,17 +3323,24 @@
         <v>20</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="C54" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F54" s="0"/>
-      <c r="G54" s="0"/>
+      <c r="E54" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="G54" s="27" t="s">
+        <v>142</v>
+      </c>
       <c r="I54" s="0"/>
       <c r="J54" s="0"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="41"/>
       <c r="M54" s="23"/>
       <c r="N54" s="23"/>
     </row>
@@ -3047,17 +3349,24 @@
         <v>20</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="C55" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F55" s="0"/>
-      <c r="G55" s="0"/>
+      <c r="E55" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="G55" s="31" t="s">
+        <v>145</v>
+      </c>
       <c r="I55" s="0"/>
       <c r="J55" s="0"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="38"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="39"/>
       <c r="M55" s="23"/>
       <c r="N55" s="23"/>
     </row>
@@ -3066,15 +3375,22 @@
         <v>20</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="F56" s="0"/>
-      <c r="G56" s="0"/>
+        <v>105</v>
+      </c>
+      <c r="E56" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="G56" s="32" t="s">
+        <v>147</v>
+      </c>
       <c r="K56" s="23"/>
-      <c r="L56" s="38"/>
+      <c r="L56" s="39"/>
       <c r="M56" s="23"/>
       <c r="N56" s="23"/>
     </row>
@@ -3083,17 +3399,18 @@
         <v>20</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F57" s="0"/>
-      <c r="G57" s="0"/>
+        <v>149</v>
+      </c>
+      <c r="E57" s="16"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="17"/>
       <c r="I57" s="0"/>
       <c r="J57" s="0"/>
       <c r="K57" s="23"/>
-      <c r="L57" s="38"/>
+      <c r="L57" s="39"/>
       <c r="M57" s="23"/>
       <c r="N57" s="23"/>
     </row>
@@ -3102,7 +3419,7 @@
         <v>20</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C58" s="27" t="s">
         <v>25</v>
@@ -3112,7 +3429,7 @@
       <c r="I58" s="0"/>
       <c r="J58" s="0"/>
       <c r="K58" s="23"/>
-      <c r="L58" s="38"/>
+      <c r="L58" s="39"/>
       <c r="M58" s="23"/>
       <c r="N58" s="23"/>
     </row>
@@ -3121,17 +3438,22 @@
         <v>20</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C59" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F59" s="0"/>
-      <c r="G59" s="0"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="G59" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="I59" s="0"/>
       <c r="J59" s="0"/>
       <c r="K59" s="23"/>
-      <c r="L59" s="38"/>
+      <c r="L59" s="39"/>
       <c r="M59" s="23"/>
       <c r="N59" s="23"/>
     </row>
@@ -3140,17 +3462,24 @@
         <v>23</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="C60" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F60" s="0"/>
-      <c r="G60" s="0"/>
+      <c r="E60" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="G60" s="31" t="s">
+        <v>22</v>
+      </c>
       <c r="I60" s="0"/>
       <c r="J60" s="0"/>
       <c r="K60" s="23"/>
-      <c r="L60" s="38"/>
+      <c r="L60" s="39"/>
       <c r="M60" s="23"/>
       <c r="N60" s="23"/>
     </row>
@@ -3164,12 +3493,19 @@
       <c r="C61" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F61" s="0"/>
-      <c r="G61" s="0"/>
+      <c r="E61" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G61" s="32" t="s">
+        <v>22</v>
+      </c>
       <c r="I61" s="0"/>
       <c r="J61" s="0"/>
       <c r="K61" s="23"/>
-      <c r="L61" s="38"/>
+      <c r="L61" s="39"/>
       <c r="M61" s="23"/>
       <c r="N61" s="23"/>
     </row>
@@ -3178,13 +3514,20 @@
         <v>20</v>
       </c>
       <c r="B62" s="23" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="F62" s="0"/>
-      <c r="G62" s="0"/>
+        <v>155</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G62" s="31" t="s">
+        <v>105</v>
+      </c>
       <c r="I62" s="0"/>
       <c r="J62" s="0"/>
       <c r="K62" s="23"/>
@@ -3197,13 +3540,20 @@
         <v>20</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="F63" s="0"/>
-      <c r="G63" s="0"/>
+        <v>157</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G63" s="32" t="s">
+        <v>135</v>
+      </c>
       <c r="I63" s="0"/>
       <c r="J63" s="0"/>
       <c r="K63" s="23"/>
@@ -3216,13 +3566,20 @@
         <v>20</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C64" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F64" s="0"/>
-      <c r="G64" s="0"/>
+      <c r="E64" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="G64" s="31" t="s">
+        <v>158</v>
+      </c>
       <c r="I64" s="0"/>
       <c r="J64" s="0"/>
       <c r="K64" s="23"/>
@@ -3235,13 +3592,20 @@
         <v>20</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="C65" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F65" s="0"/>
-      <c r="G65" s="0"/>
+      <c r="E65" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="G65" s="32" t="s">
+        <v>161</v>
+      </c>
       <c r="I65" s="0"/>
       <c r="J65" s="0"/>
       <c r="K65" s="23"/>
@@ -3254,13 +3618,20 @@
         <v>20</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="C66" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F66" s="0"/>
-      <c r="G66" s="0"/>
+      <c r="E66" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G66" s="31" t="s">
+        <v>155</v>
+      </c>
       <c r="I66" s="0"/>
       <c r="J66" s="0"/>
       <c r="K66" s="23"/>
@@ -3273,13 +3644,20 @@
         <v>23</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="C67" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F67" s="0"/>
-      <c r="G67" s="0"/>
+      <c r="E67" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="G67" s="32" t="s">
+        <v>166</v>
+      </c>
       <c r="I67" s="0"/>
       <c r="J67" s="0"/>
       <c r="K67" s="23"/>
@@ -3292,13 +3670,20 @@
         <v>23</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="C68" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F68" s="0"/>
-      <c r="G68" s="0"/>
+      <c r="E68" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="G68" s="31" t="s">
+        <v>161</v>
+      </c>
       <c r="I68" s="0"/>
       <c r="J68" s="0"/>
       <c r="K68" s="23"/>
@@ -3310,41 +3695,49 @@
       <c r="A69" s="16"/>
       <c r="B69" s="9"/>
       <c r="C69" s="17"/>
-      <c r="F69" s="0"/>
-      <c r="G69" s="0"/>
+      <c r="E69" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F69" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="G69" s="32" t="s">
+        <v>170</v>
+      </c>
       <c r="I69" s="0"/>
       <c r="J69" s="0"/>
-      <c r="K69" s="37"/>
-      <c r="L69" s="37"/>
+      <c r="K69" s="38"/>
+      <c r="L69" s="38"/>
       <c r="M69" s="23"/>
       <c r="N69" s="23"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0"/>
       <c r="C70" s="0"/>
-      <c r="F70" s="0"/>
-      <c r="G70" s="0"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
       <c r="I70" s="0"/>
       <c r="J70" s="0"/>
-      <c r="K70" s="37"/>
-      <c r="L70" s="37"/>
+      <c r="K70" s="38"/>
+      <c r="L70" s="38"/>
       <c r="M70" s="23"/>
       <c r="N70" s="23"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="29"/>
       <c r="B71" s="30" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="F71" s="0"/>
       <c r="G71" s="0"/>
       <c r="I71" s="0"/>
       <c r="J71" s="0"/>
-      <c r="K71" s="37"/>
-      <c r="L71" s="37"/>
+      <c r="K71" s="38"/>
+      <c r="L71" s="38"/>
       <c r="M71" s="23"/>
       <c r="N71" s="23"/>
     </row>
@@ -3352,18 +3745,23 @@
       <c r="A72" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B72" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C72" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="F72" s="0"/>
-      <c r="G72" s="0"/>
+      <c r="B72" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C72" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="E72" s="29"/>
+      <c r="F72" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="G72" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="I72" s="0"/>
       <c r="J72" s="0"/>
-      <c r="K72" s="37"/>
-      <c r="L72" s="37"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="38"/>
       <c r="M72" s="23"/>
       <c r="N72" s="23"/>
     </row>
@@ -3372,17 +3770,24 @@
         <v>89</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="C73" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="F73" s="0"/>
-      <c r="G73" s="0"/>
+        <v>175</v>
+      </c>
+      <c r="C73" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="E73" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G73" s="31" t="s">
+        <v>178</v>
+      </c>
       <c r="I73" s="0"/>
       <c r="J73" s="0"/>
-      <c r="K73" s="37"/>
-      <c r="L73" s="37"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="38"/>
       <c r="M73" s="23"/>
       <c r="N73" s="23"/>
     </row>
@@ -3390,18 +3795,25 @@
       <c r="A74" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B74" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="C74" s="44" t="s">
+      <c r="B74" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C74" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="F74" s="0"/>
-      <c r="G74" s="0"/>
+      <c r="E74" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="G74" s="32" t="s">
+        <v>180</v>
+      </c>
       <c r="I74" s="0"/>
       <c r="J74" s="0"/>
-      <c r="K74" s="37"/>
-      <c r="L74" s="37"/>
+      <c r="K74" s="38"/>
+      <c r="L74" s="38"/>
       <c r="M74" s="23"/>
       <c r="N74" s="23"/>
     </row>
@@ -3410,17 +3822,24 @@
         <v>89</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="C75" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="F75" s="0"/>
-      <c r="G75" s="0"/>
+        <v>181</v>
+      </c>
+      <c r="C75" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="E75" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="G75" s="31" t="s">
+        <v>183</v>
+      </c>
       <c r="I75" s="0"/>
       <c r="J75" s="0"/>
-      <c r="K75" s="37"/>
-      <c r="L75" s="37"/>
+      <c r="K75" s="38"/>
+      <c r="L75" s="38"/>
       <c r="M75" s="23"/>
       <c r="N75" s="23"/>
     </row>
@@ -3428,18 +3847,25 @@
       <c r="A76" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B76" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="C76" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="F76" s="0"/>
-      <c r="G76" s="0"/>
+      <c r="B76" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="C76" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="E76" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="G76" s="32" t="s">
+        <v>187</v>
+      </c>
       <c r="I76" s="0"/>
       <c r="J76" s="0"/>
-      <c r="K76" s="37"/>
-      <c r="L76" s="37"/>
+      <c r="K76" s="38"/>
+      <c r="L76" s="38"/>
       <c r="M76" s="23"/>
       <c r="N76" s="23"/>
     </row>
@@ -3450,15 +3876,16 @@
       <c r="B77" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C77" s="43" t="s">
+      <c r="C77" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="F77" s="0"/>
-      <c r="G77" s="0"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
       <c r="I77" s="0"/>
       <c r="J77" s="0"/>
-      <c r="K77" s="37"/>
-      <c r="L77" s="37"/>
+      <c r="K77" s="38"/>
+      <c r="L77" s="38"/>
       <c r="M77" s="23"/>
       <c r="N77" s="23"/>
     </row>
@@ -3466,26 +3893,29 @@
       <c r="A78" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B78" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="C78" s="45" t="s">
-        <v>140</v>
+      <c r="B78" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="C78" s="46" t="s">
+        <v>189</v>
       </c>
       <c r="F78" s="0"/>
       <c r="G78" s="0"/>
       <c r="J78" s="23"/>
-      <c r="K78" s="37"/>
-      <c r="L78" s="37"/>
+      <c r="K78" s="38"/>
+      <c r="L78" s="38"/>
       <c r="M78" s="23"/>
       <c r="N78" s="23"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="29"/>
-      <c r="B79" s="29"/>
-      <c r="C79" s="29"/>
-      <c r="F79" s="0"/>
-      <c r="G79" s="0"/>
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="G79" s="17"/>
       <c r="J79" s="23"/>
       <c r="K79" s="23"/>
       <c r="L79" s="23"/>
@@ -3496,8 +3926,13 @@
       <c r="A80" s="0"/>
       <c r="B80" s="0"/>
       <c r="C80" s="0"/>
-      <c r="F80" s="0"/>
-      <c r="G80" s="0"/>
+      <c r="E80" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="G80" s="22"/>
       <c r="J80" s="23"/>
       <c r="K80" s="23"/>
       <c r="L80" s="23"/>
@@ -3507,15 +3942,19 @@
     <row r="81" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="5"/>
       <c r="B81" s="6" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D81" s="0"/>
-      <c r="E81" s="0"/>
-      <c r="F81" s="0"/>
-      <c r="G81" s="0"/>
+      <c r="E81" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F81" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" s="27"/>
       <c r="J81" s="23"/>
       <c r="K81" s="23"/>
       <c r="L81" s="23"/>
@@ -3527,10 +3966,10 @@
         <v>89</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="D82" s="0"/>
       <c r="E82" s="0"/>
@@ -3547,15 +3986,19 @@
         <v>89</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="D83" s="0"/>
-      <c r="E83" s="0"/>
-      <c r="F83" s="0"/>
-      <c r="G83" s="0"/>
+      <c r="E83" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F83" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G83" s="22"/>
       <c r="J83" s="23"/>
       <c r="K83" s="23"/>
       <c r="L83" s="23"/>
@@ -3567,15 +4010,19 @@
         <v>89</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="D84" s="0"/>
-      <c r="E84" s="0"/>
-      <c r="F84" s="0"/>
-      <c r="G84" s="0"/>
+      <c r="E84" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F84" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="G84" s="27"/>
       <c r="J84" s="23"/>
       <c r="K84" s="23"/>
       <c r="L84" s="23"/>
@@ -3587,15 +4034,19 @@
         <v>89</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="D85" s="0"/>
-      <c r="E85" s="0"/>
-      <c r="F85" s="0"/>
-      <c r="G85" s="0"/>
+      <c r="E85" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F85" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="G85" s="22"/>
       <c r="J85" s="23"/>
       <c r="K85" s="23"/>
       <c r="L85" s="23"/>
@@ -3607,9 +4058,9 @@
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
       <c r="D86" s="0"/>
-      <c r="E86" s="0"/>
-      <c r="F86" s="0"/>
-      <c r="G86" s="0"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="17"/>
       <c r="J86" s="23"/>
       <c r="K86" s="23"/>
       <c r="L86" s="23"/>
@@ -3644,9 +4095,9 @@
       <c r="M88" s="23"/>
       <c r="N88" s="23"/>
     </row>
-    <row r="89" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B89" s="3" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -3660,10 +4111,10 @@
       <c r="N89" s="23"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="37"/>
-      <c r="C90" s="37"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="38"/>
       <c r="F90" s="23"/>
-      <c r="G90" s="38"/>
+      <c r="G90" s="39"/>
       <c r="J90" s="23"/>
       <c r="K90" s="23"/>
       <c r="L90" s="23"/>
@@ -3671,16 +4122,16 @@
       <c r="N90" s="23"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="C91" s="29"/>
-      <c r="F91" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="G91" s="29" t="s">
-        <v>152</v>
-      </c>
+      <c r="A91" s="16"/>
+      <c r="B91" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C91" s="17"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="G91" s="17"/>
       <c r="J91" s="23"/>
       <c r="K91" s="23"/>
       <c r="L91" s="23"/>
@@ -3688,17 +4139,23 @@
       <c r="N91" s="23"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="C92" s="42" t="s">
+      <c r="A92" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C92" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F92" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="G92" s="42" t="s">
-        <v>155</v>
+      <c r="E92" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F92" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="G92" s="31" t="s">
+        <v>47</v>
       </c>
       <c r="J92" s="23"/>
       <c r="K92" s="23"/>
@@ -3707,17 +4164,23 @@
       <c r="N92" s="23"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="C93" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F93" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="G93" s="42" t="s">
-        <v>157</v>
+      <c r="A93" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B93" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C93" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="E93" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F93" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="G93" s="32" t="s">
+        <v>109</v>
       </c>
       <c r="J93" s="23"/>
       <c r="K93" s="23"/>
@@ -3726,850 +4189,1062 @@
       <c r="N93" s="23"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="C94" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="F94" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="G94" s="42" t="s">
-        <v>160</v>
+      <c r="A94" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E94" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F94" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G94" s="22" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="41" t="s">
+      <c r="A95" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B95" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="C95" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E95" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F95" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G95" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C96" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F96" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G96" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="16"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="17"/>
+      <c r="E97" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F97" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="G97" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="0"/>
+      <c r="C98" s="0"/>
+      <c r="E98" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F98" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="G98" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="29"/>
+      <c r="B99" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="C99" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="E99" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F99" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C95" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="F95" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="G95" s="46" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B96" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="C96" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="F96" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="G96" s="48" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="C97" s="44" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="C98" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="F98" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="G98" s="49"/>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="C99" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="F99" s="10" t="s">
+      <c r="G99" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="G99" s="43" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="C100" s="42" t="s">
+      <c r="B100" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E100" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F100" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="G100" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B101" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E101" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F101" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="G101" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B102" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C102" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="E102" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F102" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G102" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="F100" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="G100" s="43" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="C101" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F101" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="G101" s="52" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="0"/>
-      <c r="C102" s="0"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="C103" s="29"/>
-      <c r="F103" s="49" t="s">
-        <v>178</v>
-      </c>
-      <c r="G103" s="49"/>
+      <c r="A103" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B103" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="C103" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E103" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F103" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103" s="27" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="C104" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="F104" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="G104" s="27" t="s">
-        <v>181</v>
+      <c r="A104" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B104" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="C104" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E104" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F104" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="G104" s="22" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="C105" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="F105" s="10" t="s">
-        <v>184</v>
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="E105" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F105" s="23" t="s">
+        <v>223</v>
       </c>
       <c r="G105" s="27" t="s">
-        <v>185</v>
+        <v>51</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="C106" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="F106" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="G106" s="27" t="s">
-        <v>47</v>
-      </c>
+      <c r="B106" s="0"/>
+      <c r="C106" s="0"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="17"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="47" t="s">
-        <v>154</v>
-      </c>
-      <c r="C107" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="F107" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="G107" s="27" t="s">
-        <v>188</v>
-      </c>
+      <c r="A107" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F107" s="0"/>
+      <c r="G107" s="0"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0"/>
       <c r="C108" s="0"/>
-      <c r="F108" s="10" t="s">
+      <c r="E108" s="29"/>
+      <c r="F108" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="G108" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="29"/>
+      <c r="B109" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="C109" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="E109" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F109" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G109" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B110" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="C110" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="E110" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F110" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G110" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B111" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C111" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="E111" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F111" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G111" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B112" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C112" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="E112" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F112" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="G112" s="32" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B113" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="C113" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="E113" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F113" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="G108" s="27" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="C109" s="49"/>
-      <c r="F109" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="G109" s="27" t="s">
+      <c r="G113" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B114" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C114" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E114" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F114" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="G114" s="32" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C110" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F110" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="G110" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C111" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F111" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="G111" s="27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C112" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F112" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="G112" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C113" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F113" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G113" s="27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C114" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F114" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="G114" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B115" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C115" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="F115" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="G115" s="27" t="s">
-        <v>47</v>
+      <c r="A115" s="7"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="E115" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F115" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G115" s="31" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B116" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="C116" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="F116" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G116" s="53" t="s">
-        <v>199</v>
-      </c>
+      <c r="B116" s="0"/>
+      <c r="C116" s="0"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B117" s="23"/>
-      <c r="C117" s="38"/>
+      <c r="A117" s="29"/>
+      <c r="B117" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="C117" s="29" t="s">
+        <v>172</v>
+      </c>
       <c r="F117" s="23"/>
       <c r="G117" s="23"/>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B118" s="49" t="s">
-        <v>200</v>
-      </c>
-      <c r="C118" s="49"/>
-      <c r="F118" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="G118" s="55"/>
+      <c r="A118" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B118" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="C118" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="E118" s="5"/>
+      <c r="F118" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G118" s="6"/>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B119" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="C119" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="F119" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="G119" s="27" t="s">
+      <c r="A119" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B119" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="C119" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="E119" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F119" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="G119" s="22" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B120" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C120" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F120" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="G120" s="57" t="s">
-        <v>98</v>
+      <c r="A120" s="7"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+      <c r="E120" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F120" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="G120" s="27" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B121" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C121" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F121" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="G121" s="27" t="s">
+      <c r="B121" s="0"/>
+      <c r="C121" s="0"/>
+      <c r="E121" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F121" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="G121" s="22" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B122" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C122" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F122" s="10" t="s">
-        <v>208</v>
+      <c r="A122" s="16"/>
+      <c r="B122" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C122" s="17"/>
+      <c r="E122" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F122" s="23" t="s">
+        <v>243</v>
       </c>
       <c r="G122" s="27" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B123" s="56" t="s">
-        <v>209</v>
-      </c>
-      <c r="C123" s="27" t="s">
-        <v>210</v>
-      </c>
-      <c r="F123" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G123" s="27" t="s">
+      <c r="A123" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B123" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="C123" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E123" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F123" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="G123" s="22" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B124" s="56" t="s">
-        <v>211</v>
+      <c r="A124" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B124" s="23" t="s">
+        <v>246</v>
       </c>
       <c r="C124" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E124" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F124" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="G124" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C125" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E125" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F125" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="G125" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B126" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="C126" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F124" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G124" s="27" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B125" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C125" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="F125" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="G125" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B126" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C126" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F126" s="10" t="s">
-        <v>217</v>
+      <c r="E126" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F126" s="23" t="s">
+        <v>251</v>
       </c>
       <c r="G126" s="27" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B127" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C127" s="27" t="s">
+      <c r="A127" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B127" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C127" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E127" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F127" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="G127" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F127" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G127" s="27" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B128" s="10" t="s">
-        <v>169</v>
+      <c r="A128" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B128" s="23" t="s">
+        <v>253</v>
       </c>
       <c r="C128" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E128" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F128" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G128" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F128" s="10" t="s">
+    </row>
+    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B129" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="C129" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E129" s="5"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B130" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C130" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="F130" s="0"/>
+      <c r="G130" s="0"/>
+    </row>
+    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B131" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="C131" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="E131" s="29"/>
+      <c r="F131" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="G131" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B132" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="C132" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="E132" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F132" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="G132" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B133" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C133" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="E133" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F133" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="G133" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B134" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="C134" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E134" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F134" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="G134" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="H134" s="23"/>
+    </row>
+    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="16"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="17"/>
+      <c r="E135" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F135" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="G135" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="H135" s="23"/>
+    </row>
+    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B136" s="0"/>
+      <c r="C136" s="0"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+    </row>
+    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A137" s="29"/>
+      <c r="B137" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="C137" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="F137" s="0"/>
+      <c r="G137" s="0"/>
+    </row>
+    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B138" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C138" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="F138" s="0"/>
+      <c r="G138" s="0"/>
+    </row>
+    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A139" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B139" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C139" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="F139" s="0"/>
+      <c r="G139" s="0"/>
+    </row>
+    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A140" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B140" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="C140" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="F140" s="0"/>
+      <c r="G140" s="0"/>
+    </row>
+    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A141" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B141" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="G128" s="27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B129" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C129" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="F129" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="G129" s="27" t="s">
+      <c r="C141" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="F141" s="0"/>
+      <c r="G141" s="0"/>
+    </row>
+    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A142" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B142" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C142" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA142" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A143" s="7"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="7"/>
+      <c r="F143" s="0"/>
+      <c r="G143" s="0"/>
+    </row>
+    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B144" s="0"/>
+      <c r="C144" s="0"/>
+      <c r="F144" s="0"/>
+      <c r="G144" s="0"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A145" s="16"/>
+      <c r="B145" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C145" s="17"/>
+      <c r="F145" s="0"/>
+      <c r="G145" s="0"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A146" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B146" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="C146" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F146" s="0"/>
+      <c r="G146" s="0"/>
+    </row>
+    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A147" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B147" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="C147" s="32" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B130" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="C130" s="53" t="s">
-        <v>220</v>
-      </c>
-      <c r="F130" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G130" s="27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F131" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G131" s="27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B132" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="C132" s="29"/>
-      <c r="F132" s="51" t="s">
-        <v>224</v>
-      </c>
-      <c r="G132" s="53" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B133" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="C133" s="42" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B134" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="C134" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="F134" s="58" t="s">
-        <v>226</v>
-      </c>
-      <c r="G134" s="59"/>
-      <c r="H134" s="23"/>
-    </row>
-    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B135" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="C135" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="F135" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="G135" s="44" t="s">
+      <c r="F147" s="0"/>
+      <c r="G147" s="0"/>
+    </row>
+    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B148" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C148" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="H135" s="23"/>
-    </row>
-    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B136" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="C136" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="F136" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="G136" s="44" t="s">
+      <c r="F148" s="0"/>
+      <c r="G148" s="0"/>
+    </row>
+    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A149" s="16"/>
+      <c r="B149" s="9"/>
+      <c r="C149" s="17"/>
+      <c r="F149" s="0"/>
+      <c r="G149" s="0"/>
+    </row>
+    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B150" s="0"/>
+      <c r="C150" s="0"/>
+      <c r="F150" s="0"/>
+      <c r="G150" s="0"/>
+    </row>
+    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A151" s="16"/>
+      <c r="B151" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C151" s="17"/>
+      <c r="F151" s="0"/>
+      <c r="G151" s="0"/>
+    </row>
+    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B152" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="C152" s="22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B153" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="C153" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="F153" s="0"/>
+      <c r="G153" s="0"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A154" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B154" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="C154" s="22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B137" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="C137" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="F137" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="G137" s="44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F138" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="G138" s="44" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B139" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="C139" s="60"/>
-      <c r="F139" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="G139" s="44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B140" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C140" s="27"/>
-      <c r="F140" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="G140" s="44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B141" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C141" s="27"/>
-      <c r="F141" s="47" t="s">
-        <v>234</v>
-      </c>
-      <c r="G141" s="50" t="s">
+      <c r="F154" s="0"/>
+      <c r="G154" s="0"/>
+    </row>
+    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A155" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B155" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C155" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="F155" s="0"/>
+      <c r="G155" s="0"/>
+    </row>
+    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B156" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C156" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="F156" s="0"/>
+      <c r="G156" s="0"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A157" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B157" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C157" s="27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B142" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C142" s="27"/>
-    </row>
-    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B143" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C143" s="27"/>
-      <c r="F143" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="G143" s="60"/>
-    </row>
-    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B144" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C144" s="27"/>
-      <c r="F144" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="G144" s="27" t="s">
+      <c r="F157" s="0"/>
+      <c r="G157" s="0"/>
+    </row>
+    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A158" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B158" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="C158" s="22" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B145" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="C145" s="27"/>
-      <c r="F145" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="G145" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B146" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="C146" s="27"/>
-      <c r="F146" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="G146" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B147" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C147" s="27"/>
-      <c r="F147" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="G147" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B148" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="C148" s="27"/>
-      <c r="F148" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="G148" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B149" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="C149" s="27"/>
-      <c r="F149" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="G149" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B150" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="C150" s="27"/>
-      <c r="F150" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="G150" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B151" s="51" t="s">
-        <v>252</v>
-      </c>
-      <c r="C151" s="53"/>
-      <c r="F151" s="51" t="s">
-        <v>253</v>
-      </c>
-      <c r="G151" s="53" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B153" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="C153" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="F153" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="G153" s="60" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B154" s="41" t="s">
-        <v>256</v>
-      </c>
-      <c r="C154" s="42" t="s">
-        <v>257</v>
-      </c>
-      <c r="F154" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="G154" s="44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B155" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="C155" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="F155" s="41" t="s">
-        <v>243</v>
-      </c>
-      <c r="G155" s="44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B156" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="C156" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="F156" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="G156" s="44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B157" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="C157" s="44" t="s">
-        <v>261</v>
-      </c>
-      <c r="F157" s="47" t="s">
-        <v>247</v>
-      </c>
-      <c r="G157" s="50" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B158" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="C158" s="44" t="s">
-        <v>76</v>
       </c>
       <c r="F158" s="0"/>
       <c r="G158" s="0"/>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B159" s="47" t="s">
-        <v>263</v>
-      </c>
-      <c r="C159" s="50" t="s">
-        <v>264</v>
+      <c r="A159" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B159" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C159" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="F159" s="0"/>
       <c r="G159" s="0"/>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B160" s="0"/>
-      <c r="C160" s="0"/>
+      <c r="A160" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B160" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C160" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="F160" s="0"/>
       <c r="G160" s="0"/>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B161" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="C161" s="29"/>
+      <c r="A161" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B161" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C161" s="27" t="s">
+        <v>135</v>
+      </c>
       <c r="F161" s="0"/>
       <c r="G161" s="0"/>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B162" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="C162" s="44" t="s">
-        <v>25</v>
+      <c r="A162" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B162" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="C162" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="F162" s="0"/>
       <c r="G162" s="0"/>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B163" s="47" t="s">
-        <v>266</v>
-      </c>
-      <c r="C163" s="50" t="s">
-        <v>267</v>
+      <c r="A163" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B163" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="C163" s="27" t="s">
+        <v>47</v>
       </c>
       <c r="F163" s="0"/>
       <c r="G163" s="0"/>
     </row>
-    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A164" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B164" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C164" s="22" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A165" s="16"/>
+      <c r="B165" s="9"/>
+      <c r="C165" s="17"/>
+    </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4581,64 +5256,309 @@
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B177" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+    </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A179" s="48"/>
+      <c r="B179" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="C179" s="48"/>
+      <c r="D179" s="48"/>
+      <c r="E179" s="48"/>
+    </row>
+    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B180" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B181" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B182" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B183" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B184" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A185" s="48"/>
+      <c r="B185" s="48"/>
+      <c r="C185" s="48"/>
+      <c r="D185" s="48"/>
+      <c r="E185" s="48"/>
+    </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A187" s="48"/>
+      <c r="B187" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="C187" s="48"/>
+      <c r="D187" s="48"/>
+      <c r="E187" s="48"/>
+    </row>
+    <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B188" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B189" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B190" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B191" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B192" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B193" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B194" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B195" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B196" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B197" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B198" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A199" s="48"/>
+      <c r="B199" s="48"/>
+      <c r="C199" s="48"/>
+      <c r="D199" s="48"/>
+      <c r="E199" s="48"/>
+    </row>
     <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="201" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="201" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A201" s="48"/>
+      <c r="B201" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="C201" s="48"/>
+      <c r="D201" s="48"/>
+      <c r="E201" s="48"/>
+    </row>
+    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B202" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B203" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B204" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B205" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B206" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B207" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B208" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B209" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A210" s="48"/>
+      <c r="B210" s="48"/>
+      <c r="C210" s="48"/>
+      <c r="D210" s="48"/>
+      <c r="E210" s="48"/>
+    </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="232" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="233" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A212" s="48"/>
+      <c r="B212" s="49" t="s">
+        <v>307</v>
+      </c>
+      <c r="C212" s="48"/>
+      <c r="D212" s="48"/>
+      <c r="E212" s="48"/>
+    </row>
+    <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B213" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B214" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B215" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B216" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B217" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B218" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B219" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B220" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B221" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B222" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B223" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B224" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B225" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B226" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B227" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B228" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B229" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B230" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B231" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B232" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B233" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A234" s="48"/>
+      <c r="B234" s="48"/>
+      <c r="C234" s="48"/>
+      <c r="D234" s="48"/>
+      <c r="E234" s="48"/>
+    </row>
     <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4661,16 +5581,13 @@
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="6">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="K45:L45"/>
     <mergeCell ref="K54:K55"/>
     <mergeCell ref="K69:L69"/>
     <mergeCell ref="B89:G89"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B177:G177"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4689,7 +5606,7 @@
   </sheetPr>
   <dimension ref="A1:L422"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D172" activeCellId="0" sqref="D172"/>
     </sheetView>
   </sheetViews>
@@ -4708,7 +5625,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>268</v>
+        <v>329</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4724,9 +5641,9 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="B3" s="60"/>
+        <v>330</v>
+      </c>
+      <c r="B3" s="50"/>
       <c r="C3" s="4"/>
       <c r="D3" s="7" t="s">
         <v>4</v>
@@ -4737,7 +5654,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="9" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>7</v>
@@ -4745,9 +5662,9 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="B5" s="60"/>
+        <v>332</v>
+      </c>
+      <c r="B5" s="50"/>
       <c r="C5" s="11"/>
       <c r="D5" s="12" t="s">
         <v>9</v>
@@ -4757,11 +5674,11 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>272</v>
+        <v>333</v>
       </c>
       <c r="B7" s="17"/>
       <c r="D7" s="12" t="s">
-        <v>273</v>
+        <v>334</v>
       </c>
       <c r="E7" s="12"/>
     </row>
@@ -4773,11 +5690,11 @@
         <v>25</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="56" t="s">
-        <v>274</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>275</v>
+      <c r="D8" s="51" t="s">
+        <v>335</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4789,7 +5706,7 @@
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="10" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="E9" s="27"/>
     </row>
@@ -4802,20 +5719,20 @@
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="10" t="s">
-        <v>277</v>
+        <v>337</v>
       </c>
       <c r="E10" s="27"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="56" t="s">
-        <v>278</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>98</v>
+      <c r="A11" s="51" t="s">
+        <v>338</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>109</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="10" t="s">
-        <v>235</v>
+        <v>339</v>
       </c>
       <c r="E11" s="27"/>
     </row>
@@ -4824,11 +5741,11 @@
         <v>29</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>279</v>
+        <v>340</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="10" t="s">
-        <v>280</v>
+        <v>341</v>
       </c>
       <c r="E12" s="27"/>
     </row>
@@ -4840,7 +5757,7 @@
         <v>36</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>281</v>
+        <v>342</v>
       </c>
       <c r="E13" s="27"/>
     </row>
@@ -4849,10 +5766,10 @@
         <v>43</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>282</v>
+        <v>343</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>283</v>
+        <v>344</v>
       </c>
       <c r="E14" s="27"/>
     </row>
@@ -4864,7 +5781,7 @@
         <v>22</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>284</v>
+        <v>345</v>
       </c>
       <c r="E15" s="27"/>
     </row>
@@ -4876,47 +5793,47 @@
         <v>53</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>285</v>
+        <v>346</v>
       </c>
       <c r="E16" s="27"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="52" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="53" t="s">
         <v>40</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>286</v>
+        <v>347</v>
       </c>
       <c r="E17" s="27"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="10" t="s">
-        <v>287</v>
+        <v>348</v>
       </c>
       <c r="E18" s="27"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B19" s="17"/>
       <c r="D19" s="10" t="s">
-        <v>288</v>
+        <v>349</v>
       </c>
       <c r="E19" s="27"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>289</v>
+        <v>350</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>290</v>
+        <v>351</v>
       </c>
       <c r="E20" s="27"/>
     </row>
@@ -4928,7 +5845,7 @@
         <v>36</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>291</v>
+        <v>352</v>
       </c>
       <c r="E21" s="27"/>
     </row>
@@ -4940,103 +5857,103 @@
         <v>25</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>292</v>
+        <v>353</v>
       </c>
       <c r="E22" s="27"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="43" t="s">
-        <v>98</v>
+      <c r="B23" s="44" t="s">
+        <v>109</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>293</v>
+        <v>354</v>
       </c>
       <c r="E23" s="27"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>98</v>
+      <c r="A24" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>109</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="E24" s="27"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B25" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>295</v>
+        <v>355</v>
       </c>
       <c r="E25" s="27"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>296</v>
+        <v>356</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>297</v>
+        <v>357</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="E26" s="27"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>299</v>
+        <v>359</v>
       </c>
       <c r="B27" s="27" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="E27" s="27"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>104</v>
+        <v>267</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>120</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="E28" s="27"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="56" t="s">
-        <v>302</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>98</v>
+      <c r="A29" s="51" t="s">
+        <v>361</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>109</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>303</v>
+        <v>362</v>
       </c>
       <c r="E29" s="27"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="B30" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>304</v>
+        <v>363</v>
       </c>
       <c r="E30" s="27"/>
     </row>
@@ -5048,43 +5965,43 @@
         <v>22</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>305</v>
+        <v>364</v>
       </c>
       <c r="E31" s="27"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>306</v>
+        <v>365</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>160</v>
+        <v>268</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
       <c r="E32" s="27"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>308</v>
+        <v>367</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="E33" s="27"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="B34" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>310</v>
+        <v>368</v>
       </c>
       <c r="E34" s="27"/>
     </row>
@@ -5096,31 +6013,31 @@
         <v>25</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>311</v>
+        <v>369</v>
       </c>
       <c r="E35" s="27"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
-        <v>312</v>
+        <v>370</v>
       </c>
       <c r="B36" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>313</v>
+        <v>371</v>
       </c>
       <c r="E36" s="27"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
-        <v>314</v>
+        <v>372</v>
       </c>
       <c r="B37" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>315</v>
+        <v>373</v>
       </c>
       <c r="E37" s="27"/>
       <c r="G37" s="23"/>
@@ -5128,43 +6045,43 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
-        <v>316</v>
+        <v>374</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>317</v>
+        <v>375</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>318</v>
+        <v>376</v>
       </c>
       <c r="E38" s="27"/>
       <c r="H38" s="23"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
-        <v>319</v>
+        <v>377</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="D39" s="51" t="s">
-        <v>321</v>
+        <v>378</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>379</v>
       </c>
       <c r="E39" s="53"/>
       <c r="H39" s="23"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
-        <v>322</v>
+        <v>380</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>323</v>
+        <v>381</v>
       </c>
       <c r="G40" s="23"/>
       <c r="H40" s="23"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="B41" s="27" t="s">
         <v>25</v>
@@ -5178,31 +6095,31 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="B42" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="41" t="s">
+      <c r="D42" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="44" t="s">
-        <v>324</v>
+      <c r="E42" s="45" t="s">
+        <v>382</v>
       </c>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="s">
-        <v>325</v>
+        <v>383</v>
       </c>
       <c r="B43" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="41" t="s">
-        <v>326</v>
-      </c>
-      <c r="E43" s="44" t="s">
+      <c r="D43" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="E43" s="45" t="s">
         <v>22</v>
       </c>
       <c r="G43" s="23"/>
@@ -5215,11 +6132,11 @@
       <c r="B44" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="41" t="s">
-        <v>327</v>
-      </c>
-      <c r="E44" s="44" t="s">
-        <v>328</v>
+      <c r="D44" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" s="45" t="s">
+        <v>384</v>
       </c>
       <c r="G44" s="23"/>
       <c r="H44" s="23"/>
@@ -5230,54 +6147,54 @@
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
-        <v>329</v>
+        <v>385</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="D45" s="41" t="s">
-        <v>331</v>
-      </c>
-      <c r="E45" s="44" t="s">
-        <v>332</v>
+        <v>386</v>
+      </c>
+      <c r="D45" s="42" t="s">
+        <v>387</v>
+      </c>
+      <c r="E45" s="45" t="s">
+        <v>388</v>
       </c>
       <c r="G45" s="23"/>
       <c r="H45" s="23"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="D46" s="41" t="s">
-        <v>333</v>
-      </c>
-      <c r="E46" s="44" t="s">
-        <v>334</v>
+        <v>157</v>
+      </c>
+      <c r="D46" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="E46" s="45" t="s">
+        <v>390</v>
       </c>
       <c r="H46" s="23"/>
       <c r="I46" s="23"/>
-      <c r="J46" s="38"/>
+      <c r="J46" s="39"/>
       <c r="K46" s="23"/>
       <c r="L46" s="23"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B47" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="E47" s="44" t="s">
+      <c r="D47" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="E47" s="45" t="s">
         <v>25</v>
       </c>
       <c r="H47" s="23"/>
@@ -5288,104 +6205,104 @@
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="B48" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="E48" s="44" t="s">
-        <v>104</v>
+      <c r="D48" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="E48" s="45" t="s">
+        <v>120</v>
       </c>
       <c r="H48" s="23"/>
       <c r="I48" s="23"/>
-      <c r="J48" s="38"/>
+      <c r="J48" s="39"/>
       <c r="K48" s="23"/>
       <c r="L48" s="23"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="B49" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="41" t="s">
-        <v>335</v>
-      </c>
-      <c r="E49" s="44" t="s">
+      <c r="D49" s="42" t="s">
+        <v>391</v>
+      </c>
+      <c r="E49" s="45" t="s">
         <v>25</v>
       </c>
       <c r="H49" s="23"/>
       <c r="I49" s="23"/>
-      <c r="J49" s="38"/>
+      <c r="J49" s="39"/>
       <c r="K49" s="23"/>
       <c r="L49" s="23"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="B50" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="41" t="s">
+      <c r="D50" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="E50" s="44" t="s">
+      <c r="E50" s="45" t="s">
         <v>25</v>
       </c>
       <c r="H50" s="23"/>
       <c r="I50" s="23"/>
-      <c r="J50" s="38"/>
+      <c r="J50" s="39"/>
       <c r="K50" s="23"/>
       <c r="L50" s="23"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="10" t="s">
-        <v>336</v>
+        <v>392</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="D51" s="41" t="s">
-        <v>337</v>
-      </c>
-      <c r="E51" s="44" t="s">
-        <v>168</v>
+        <v>109</v>
+      </c>
+      <c r="D51" s="42" t="s">
+        <v>393</v>
+      </c>
+      <c r="E51" s="45" t="s">
+        <v>161</v>
       </c>
       <c r="H51" s="23"/>
       <c r="I51" s="23"/>
-      <c r="J51" s="38"/>
+      <c r="J51" s="39"/>
       <c r="K51" s="23"/>
       <c r="L51" s="23"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="51" t="s">
-        <v>338</v>
+      <c r="A52" s="52" t="s">
+        <v>394</v>
       </c>
       <c r="B52" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="E52" s="44" t="s">
+      <c r="D52" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E52" s="45" t="s">
         <v>22</v>
       </c>
       <c r="H52" s="23"/>
       <c r="I52" s="23"/>
-      <c r="J52" s="38"/>
+      <c r="J52" s="39"/>
       <c r="K52" s="23"/>
       <c r="L52" s="23"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D53" s="47" t="s">
-        <v>339</v>
-      </c>
-      <c r="E53" s="50" t="s">
+      <c r="D53" s="54" t="s">
+        <v>395</v>
+      </c>
+      <c r="E53" s="55" t="s">
         <v>25</v>
       </c>
       <c r="H53" s="23"/>
@@ -5396,149 +6313,149 @@
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="30" t="s">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="B54" s="29"/>
       <c r="H54" s="23"/>
-      <c r="I54" s="39"/>
-      <c r="J54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="41"/>
       <c r="K54" s="23"/>
       <c r="L54" s="23"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="41" t="s">
-        <v>341</v>
-      </c>
-      <c r="B55" s="44" t="s">
-        <v>168</v>
+      <c r="A55" s="42" t="s">
+        <v>397</v>
+      </c>
+      <c r="B55" s="45" t="s">
+        <v>161</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>342</v>
+        <v>398</v>
       </c>
       <c r="E55" s="17"/>
       <c r="H55" s="23"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="38"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="39"/>
       <c r="K55" s="23"/>
       <c r="L55" s="23"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="41" t="s">
-        <v>343</v>
-      </c>
-      <c r="B56" s="44" t="s">
-        <v>168</v>
+      <c r="A56" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="B56" s="45" t="s">
+        <v>161</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="E56" s="27" t="s">
         <v>51</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="23"/>
-      <c r="J56" s="38"/>
+      <c r="J56" s="39"/>
       <c r="K56" s="23"/>
       <c r="L56" s="23"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="41" t="s">
-        <v>345</v>
-      </c>
-      <c r="B57" s="44" t="s">
-        <v>168</v>
+      <c r="A57" s="42" t="s">
+        <v>401</v>
+      </c>
+      <c r="B57" s="45" t="s">
+        <v>161</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>346</v>
+        <v>402</v>
       </c>
       <c r="E57" s="27" t="s">
         <v>25</v>
       </c>
       <c r="H57" s="23"/>
       <c r="I57" s="23"/>
-      <c r="J57" s="38"/>
+      <c r="J57" s="39"/>
       <c r="K57" s="23"/>
       <c r="L57" s="23"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="41" t="s">
-        <v>347</v>
-      </c>
-      <c r="B58" s="44" t="s">
-        <v>168</v>
+      <c r="A58" s="42" t="s">
+        <v>403</v>
+      </c>
+      <c r="B58" s="45" t="s">
+        <v>161</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>208</v>
+        <v>404</v>
       </c>
       <c r="E58" s="27" t="s">
         <v>22</v>
       </c>
       <c r="H58" s="23"/>
       <c r="I58" s="23"/>
-      <c r="J58" s="38"/>
+      <c r="J58" s="39"/>
       <c r="K58" s="23"/>
       <c r="L58" s="23"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="41" t="s">
-        <v>348</v>
-      </c>
-      <c r="B59" s="44" t="s">
-        <v>349</v>
+      <c r="A59" s="42" t="s">
+        <v>405</v>
+      </c>
+      <c r="B59" s="45" t="s">
+        <v>406</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>350</v>
+        <v>407</v>
       </c>
       <c r="E59" s="27" t="s">
-        <v>351</v>
+        <v>408</v>
       </c>
       <c r="H59" s="23"/>
       <c r="I59" s="23"/>
-      <c r="J59" s="38"/>
+      <c r="J59" s="39"/>
       <c r="K59" s="23"/>
       <c r="L59" s="23"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="41" t="s">
-        <v>352</v>
-      </c>
-      <c r="B60" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="D60" s="51" t="s">
-        <v>338</v>
+      <c r="A60" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="B60" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" s="52" t="s">
+        <v>394</v>
       </c>
       <c r="E60" s="53" t="s">
         <v>25</v>
       </c>
       <c r="H60" s="23"/>
       <c r="I60" s="23"/>
-      <c r="J60" s="38"/>
+      <c r="J60" s="39"/>
       <c r="K60" s="23"/>
       <c r="L60" s="23"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="41" t="s">
-        <v>353</v>
-      </c>
-      <c r="B61" s="44" t="s">
-        <v>168</v>
+      <c r="A61" s="42" t="s">
+        <v>410</v>
+      </c>
+      <c r="B61" s="45" t="s">
+        <v>161</v>
       </c>
       <c r="H61" s="23"/>
       <c r="I61" s="23"/>
-      <c r="J61" s="38"/>
+      <c r="J61" s="39"/>
       <c r="K61" s="23"/>
       <c r="L61" s="23"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="41" t="s">
-        <v>354</v>
-      </c>
-      <c r="B62" s="44" t="s">
-        <v>330</v>
+      <c r="A62" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="B62" s="45" t="s">
+        <v>386</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>355</v>
+        <v>412</v>
       </c>
       <c r="E62" s="29"/>
       <c r="H62" s="23"/>
@@ -5548,16 +6465,16 @@
       <c r="L62" s="23"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="41" t="s">
-        <v>356</v>
-      </c>
-      <c r="B63" s="44" t="s">
-        <v>330</v>
-      </c>
-      <c r="D63" s="41" t="s">
-        <v>357</v>
-      </c>
-      <c r="E63" s="44" t="s">
+      <c r="A63" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="B63" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="D63" s="42" t="s">
+        <v>414</v>
+      </c>
+      <c r="E63" s="45" t="s">
         <v>47</v>
       </c>
       <c r="H63" s="23"/>
@@ -5567,16 +6484,16 @@
       <c r="L63" s="23"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="41" t="s">
+      <c r="A64" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="44" t="s">
-        <v>330</v>
-      </c>
-      <c r="D64" s="41" t="s">
-        <v>358</v>
-      </c>
-      <c r="E64" s="44" t="s">
+      <c r="B64" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="D64" s="42" t="s">
+        <v>415</v>
+      </c>
+      <c r="E64" s="45" t="s">
         <v>25</v>
       </c>
       <c r="H64" s="23"/>
@@ -5586,16 +6503,16 @@
       <c r="L64" s="23"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="41" t="s">
-        <v>359</v>
-      </c>
-      <c r="B65" s="44" t="s">
-        <v>328</v>
-      </c>
-      <c r="D65" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="E65" s="42" t="s">
+      <c r="A65" s="42" t="s">
+        <v>416</v>
+      </c>
+      <c r="B65" s="45" t="s">
+        <v>384</v>
+      </c>
+      <c r="D65" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="E65" s="43" t="s">
         <v>22</v>
       </c>
       <c r="H65" s="23"/>
@@ -5605,17 +6522,17 @@
       <c r="L65" s="23"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="41" t="s">
-        <v>361</v>
-      </c>
-      <c r="B66" s="44" t="s">
+      <c r="A66" s="42" t="s">
+        <v>418</v>
+      </c>
+      <c r="B66" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="41" t="s">
-        <v>362</v>
-      </c>
-      <c r="E66" s="44" t="s">
-        <v>363</v>
+      <c r="D66" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="E66" s="45" t="s">
+        <v>419</v>
       </c>
       <c r="H66" s="23"/>
       <c r="I66" s="23"/>
@@ -5624,16 +6541,16 @@
       <c r="L66" s="23"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="41" t="s">
-        <v>306</v>
-      </c>
-      <c r="B67" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="D67" s="47" t="s">
-        <v>364</v>
-      </c>
-      <c r="E67" s="50" t="s">
+      <c r="A67" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="B67" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="D67" s="54" t="s">
+        <v>420</v>
+      </c>
+      <c r="E67" s="55" t="s">
         <v>47</v>
       </c>
       <c r="H67" s="23"/>
@@ -5643,10 +6560,10 @@
       <c r="L67" s="23"/>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="41" t="s">
-        <v>365</v>
-      </c>
-      <c r="B68" s="44" t="s">
+      <c r="A68" s="42" t="s">
+        <v>421</v>
+      </c>
+      <c r="B68" s="45" t="s">
         <v>25</v>
       </c>
       <c r="H68" s="23"/>
@@ -5656,180 +6573,180 @@
       <c r="L68" s="23"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="41" t="s">
-        <v>366</v>
-      </c>
-      <c r="B69" s="44" t="s">
-        <v>367</v>
+      <c r="A69" s="42" t="s">
+        <v>422</v>
+      </c>
+      <c r="B69" s="45" t="s">
+        <v>423</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="E69" s="60"/>
+        <v>424</v>
+      </c>
+      <c r="E69" s="50"/>
       <c r="H69" s="23"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="37"/>
+      <c r="I69" s="38"/>
+      <c r="J69" s="38"/>
       <c r="K69" s="23"/>
       <c r="L69" s="23"/>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="41" t="s">
-        <v>369</v>
-      </c>
-      <c r="B70" s="44" t="s">
+      <c r="A70" s="42" t="s">
+        <v>425</v>
+      </c>
+      <c r="B70" s="45" t="s">
         <v>22</v>
       </c>
       <c r="H70" s="23"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="37"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="38"/>
       <c r="K70" s="23"/>
       <c r="L70" s="23"/>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="41" t="s">
-        <v>370</v>
-      </c>
-      <c r="B71" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="D71" s="61" t="s">
-        <v>371</v>
-      </c>
-      <c r="E71" s="62" t="s">
-        <v>372</v>
+      <c r="A71" s="42" t="s">
+        <v>426</v>
+      </c>
+      <c r="B71" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="D71" s="56" t="s">
+        <v>427</v>
+      </c>
+      <c r="E71" s="57" t="s">
+        <v>428</v>
       </c>
       <c r="H71" s="23"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="37"/>
+      <c r="I71" s="38"/>
+      <c r="J71" s="38"/>
       <c r="K71" s="23"/>
       <c r="L71" s="23"/>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="41" t="s">
-        <v>373</v>
-      </c>
-      <c r="B72" s="44" t="s">
-        <v>328</v>
+      <c r="A72" s="42" t="s">
+        <v>429</v>
+      </c>
+      <c r="B72" s="45" t="s">
+        <v>384</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="E72" s="43" t="s">
-        <v>375</v>
+        <v>430</v>
+      </c>
+      <c r="E72" s="44" t="s">
+        <v>431</v>
       </c>
       <c r="H72" s="23"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="37"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="38"/>
       <c r="K72" s="23"/>
       <c r="L72" s="23"/>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="41" t="s">
-        <v>376</v>
-      </c>
-      <c r="B73" s="44" t="s">
-        <v>168</v>
+      <c r="A73" s="42" t="s">
+        <v>432</v>
+      </c>
+      <c r="B73" s="45" t="s">
+        <v>161</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="E73" s="43" t="s">
-        <v>378</v>
+        <v>433</v>
+      </c>
+      <c r="E73" s="44" t="s">
+        <v>102</v>
       </c>
       <c r="H73" s="23"/>
-      <c r="I73" s="37"/>
-      <c r="J73" s="37"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="38"/>
       <c r="K73" s="23"/>
       <c r="L73" s="23"/>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="41" t="s">
-        <v>379</v>
-      </c>
-      <c r="B74" s="44" t="s">
-        <v>168</v>
+      <c r="A74" s="42" t="s">
+        <v>434</v>
+      </c>
+      <c r="B74" s="45" t="s">
+        <v>161</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>380</v>
+        <v>435</v>
       </c>
       <c r="E74" s="27" t="s">
-        <v>381</v>
+        <v>436</v>
       </c>
       <c r="H74" s="23"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="37"/>
+      <c r="I74" s="38"/>
+      <c r="J74" s="38"/>
       <c r="K74" s="23"/>
       <c r="L74" s="23"/>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="41" t="s">
-        <v>338</v>
-      </c>
-      <c r="B75" s="44" t="s">
-        <v>382</v>
+      <c r="A75" s="42" t="s">
+        <v>394</v>
+      </c>
+      <c r="B75" s="45" t="s">
+        <v>437</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="E75" s="43" t="s">
-        <v>383</v>
+        <v>433</v>
+      </c>
+      <c r="E75" s="44" t="s">
+        <v>114</v>
       </c>
       <c r="H75" s="23"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="37"/>
+      <c r="I75" s="38"/>
+      <c r="J75" s="38"/>
       <c r="K75" s="23"/>
       <c r="L75" s="23"/>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="B76" s="44" t="s">
+      <c r="A76" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="B76" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D76" s="51" t="s">
-        <v>384</v>
+      <c r="D76" s="52" t="s">
+        <v>438</v>
       </c>
       <c r="E76" s="53" t="s">
-        <v>381</v>
+        <v>436</v>
       </c>
       <c r="H76" s="23"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
+      <c r="I76" s="38"/>
+      <c r="J76" s="38"/>
       <c r="K76" s="23"/>
       <c r="L76" s="23"/>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="41" t="s">
-        <v>385</v>
-      </c>
-      <c r="B77" s="44" t="s">
-        <v>328</v>
+      <c r="A77" s="42" t="s">
+        <v>439</v>
+      </c>
+      <c r="B77" s="45" t="s">
+        <v>384</v>
       </c>
       <c r="H77" s="23"/>
-      <c r="I77" s="37"/>
-      <c r="J77" s="37"/>
+      <c r="I77" s="38"/>
+      <c r="J77" s="38"/>
       <c r="K77" s="23"/>
       <c r="L77" s="23"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="41" t="s">
-        <v>386</v>
-      </c>
-      <c r="B78" s="44" t="s">
-        <v>387</v>
+      <c r="A78" s="42" t="s">
+        <v>440</v>
+      </c>
+      <c r="B78" s="45" t="s">
+        <v>441</v>
       </c>
       <c r="H78" s="23"/>
-      <c r="I78" s="37"/>
-      <c r="J78" s="37"/>
+      <c r="I78" s="38"/>
+      <c r="J78" s="38"/>
       <c r="K78" s="23"/>
       <c r="L78" s="23"/>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="47" t="s">
-        <v>388</v>
-      </c>
-      <c r="B79" s="50" t="s">
+      <c r="A79" s="54" t="s">
+        <v>442</v>
+      </c>
+      <c r="B79" s="55" t="s">
         <v>25</v>
       </c>
       <c r="H79" s="23"/>
@@ -5847,7 +6764,7 @@
     </row>
     <row r="81" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>268</v>
+        <v>329</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -5860,10 +6777,10 @@
       <c r="L81" s="23"/>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="37"/>
-      <c r="B82" s="37"/>
+      <c r="A82" s="38"/>
+      <c r="B82" s="38"/>
       <c r="D82" s="23"/>
-      <c r="E82" s="38"/>
+      <c r="E82" s="39"/>
       <c r="H82" s="23"/>
       <c r="I82" s="23"/>
       <c r="J82" s="23"/>
@@ -5872,14 +6789,14 @@
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="B83" s="60"/>
+        <v>443</v>
+      </c>
+      <c r="B83" s="50"/>
       <c r="D83" s="30" t="s">
-        <v>390</v>
+        <v>444</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>152</v>
+        <v>271</v>
       </c>
       <c r="H83" s="23"/>
       <c r="I83" s="23"/>
@@ -5889,16 +6806,16 @@
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="B84" s="43" t="s">
-        <v>392</v>
-      </c>
-      <c r="D84" s="41" t="s">
-        <v>393</v>
-      </c>
-      <c r="E84" s="44" t="s">
-        <v>96</v>
+        <v>445</v>
+      </c>
+      <c r="B84" s="44" t="s">
+        <v>446</v>
+      </c>
+      <c r="D84" s="42" t="s">
+        <v>447</v>
+      </c>
+      <c r="E84" s="45" t="s">
+        <v>105</v>
       </c>
       <c r="H84" s="23"/>
       <c r="I84" s="23"/>
@@ -5908,15 +6825,15 @@
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="B85" s="43" t="s">
-        <v>395</v>
-      </c>
-      <c r="D85" s="41" t="s">
-        <v>331</v>
-      </c>
-      <c r="E85" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="B85" s="44" t="s">
+        <v>449</v>
+      </c>
+      <c r="D85" s="42" t="s">
+        <v>387</v>
+      </c>
+      <c r="E85" s="45" t="s">
         <v>25</v>
       </c>
       <c r="H85" s="23"/>
@@ -5927,16 +6844,16 @@
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B86" s="43" t="s">
-        <v>397</v>
-      </c>
-      <c r="D86" s="41" t="s">
-        <v>256</v>
-      </c>
-      <c r="E86" s="44" t="s">
-        <v>257</v>
+        <v>450</v>
+      </c>
+      <c r="B86" s="44" t="s">
+        <v>451</v>
+      </c>
+      <c r="D86" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="E86" s="45" t="s">
+        <v>228</v>
       </c>
       <c r="H86" s="23"/>
       <c r="I86" s="23"/>
@@ -5945,17 +6862,17 @@
       <c r="L86" s="23"/>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="51" t="s">
-        <v>398</v>
-      </c>
-      <c r="B87" s="52" t="s">
-        <v>399</v>
-      </c>
-      <c r="D87" s="41" t="s">
-        <v>400</v>
-      </c>
-      <c r="E87" s="44" t="s">
-        <v>401</v>
+      <c r="A87" s="52" t="s">
+        <v>452</v>
+      </c>
+      <c r="B87" s="58" t="s">
+        <v>453</v>
+      </c>
+      <c r="D87" s="42" t="s">
+        <v>454</v>
+      </c>
+      <c r="E87" s="45" t="s">
+        <v>455</v>
       </c>
       <c r="H87" s="23"/>
       <c r="I87" s="23"/>
@@ -5964,11 +6881,11 @@
       <c r="L87" s="23"/>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D88" s="41" t="s">
-        <v>339</v>
-      </c>
-      <c r="E88" s="44" t="s">
-        <v>168</v>
+      <c r="D88" s="42" t="s">
+        <v>395</v>
+      </c>
+      <c r="E88" s="45" t="s">
+        <v>161</v>
       </c>
       <c r="H88" s="23"/>
       <c r="I88" s="23"/>
@@ -5976,15 +6893,15 @@
       <c r="K88" s="23"/>
       <c r="L88" s="23"/>
     </row>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="49" t="s">
-        <v>402</v>
-      </c>
-      <c r="B89" s="49"/>
-      <c r="D89" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="E89" s="44" t="s">
+    <row r="89" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="59" t="s">
+        <v>456</v>
+      </c>
+      <c r="B89" s="59"/>
+      <c r="D89" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="E89" s="45" t="s">
         <v>25</v>
       </c>
       <c r="H89" s="23"/>
@@ -5995,15 +6912,15 @@
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="10" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="B90" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="47" t="s">
-        <v>262</v>
-      </c>
-      <c r="E90" s="50" t="s">
+      <c r="D90" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="E90" s="55" t="s">
         <v>76</v>
       </c>
       <c r="H90" s="23"/>
@@ -6012,12 +6929,18 @@
       <c r="K90" s="23"/>
       <c r="L90" s="23"/>
     </row>
-    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="10" t="s">
-        <v>403</v>
+        <v>457</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>112</v>
+        <v>135</v>
+      </c>
+      <c r="E91" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="F91" s="27" t="s">
+        <v>204</v>
       </c>
       <c r="H91" s="23"/>
       <c r="I91" s="23"/>
@@ -6025,297 +6948,321 @@
       <c r="K91" s="23"/>
       <c r="L91" s="23"/>
     </row>
-    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="10" t="s">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="D92" s="49" t="s">
-        <v>405</v>
-      </c>
-      <c r="E92" s="49"/>
+        <v>458</v>
+      </c>
+      <c r="D92" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="E92" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="F92" s="27"/>
       <c r="H92" s="23"/>
       <c r="I92" s="23"/>
       <c r="J92" s="23"/>
       <c r="K92" s="23"/>
       <c r="L92" s="23"/>
     </row>
-    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="10" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B93" s="27" t="s">
         <v>47</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="E93" s="27" t="s">
-        <v>25</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F93" s="27"/>
       <c r="H93" s="23"/>
       <c r="I93" s="23"/>
       <c r="J93" s="23"/>
       <c r="K93" s="23"/>
       <c r="L93" s="23"/>
     </row>
-    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="51" t="s">
-        <v>407</v>
+    <row r="94" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="52" t="s">
+        <v>141</v>
       </c>
       <c r="B94" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="D94" s="56" t="s">
-        <v>408</v>
-      </c>
-      <c r="E94" s="27" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D95" s="56" t="s">
-        <v>410</v>
-      </c>
-      <c r="E95" s="27" t="s">
-        <v>411</v>
+      <c r="D94" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="E94" s="3"/>
+      <c r="F94" s="53"/>
+    </row>
+    <row r="95" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D95" s="51" t="s">
+        <v>460</v>
+      </c>
+      <c r="E95" s="3"/>
+      <c r="F95" s="43" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="30" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
       <c r="B96" s="29"/>
-      <c r="D96" s="56" t="s">
-        <v>413</v>
-      </c>
-      <c r="E96" s="27" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="41" t="s">
-        <v>415</v>
-      </c>
-      <c r="B97" s="42" t="s">
+      <c r="D96" s="51" t="s">
+        <v>462</v>
+      </c>
+      <c r="E96" s="3"/>
+      <c r="F96" s="53"/>
+    </row>
+    <row r="97" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="42" t="s">
+        <v>463</v>
+      </c>
+      <c r="B97" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D97" s="56" t="s">
-        <v>159</v>
-      </c>
-      <c r="E97" s="27" t="s">
+      <c r="D97" s="51" t="s">
+        <v>267</v>
+      </c>
+      <c r="E97" s="3"/>
+      <c r="F97" s="43"/>
+    </row>
+    <row r="98" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="B98" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98" s="51" t="s">
+        <v>464</v>
+      </c>
+      <c r="E98" s="3"/>
+      <c r="F98" s="53" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="B99" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D99" s="60" t="s">
+        <v>265</v>
+      </c>
+      <c r="E99" s="3"/>
+      <c r="F99" s="43"/>
+    </row>
+    <row r="100" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="42" t="s">
+        <v>387</v>
+      </c>
+      <c r="B100" s="45" t="s">
+        <v>465</v>
+      </c>
+      <c r="E100" s="3"/>
+      <c r="F100" s="53"/>
+    </row>
+    <row r="101" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B101" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D101" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="E101" s="3"/>
+      <c r="F101" s="43"/>
+    </row>
+    <row r="102" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B102" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D102" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="E102" s="3"/>
+      <c r="F102" s="53"/>
+    </row>
+    <row r="103" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="B103" s="61" t="s">
+        <v>166</v>
+      </c>
+      <c r="D103" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="E103" s="3"/>
+      <c r="F103" s="43"/>
+    </row>
+    <row r="104" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D104" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="E104" s="3"/>
+      <c r="F104" s="53"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="B105" s="29"/>
+      <c r="D105" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F105" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="42" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="B98" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D98" s="56" t="s">
-        <v>416</v>
-      </c>
-      <c r="E98" s="27" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="B99" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="D99" s="63" t="s">
-        <v>418</v>
-      </c>
-      <c r="E99" s="53" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="41" t="s">
-        <v>331</v>
-      </c>
-      <c r="B100" s="44" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="B101" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="D101" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="E101" s="29" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="B102" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="D102" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="E102" s="44" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="B103" s="64" t="s">
-        <v>164</v>
-      </c>
-      <c r="D103" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="E103" s="42" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D104" s="41" t="s">
+      <c r="B106" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="E104" s="44" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="30" t="s">
+      <c r="E106" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="F106" s="29"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="B107" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="D107" s="59" t="s">
+        <v>467</v>
+      </c>
+      <c r="E107" s="59"/>
+      <c r="F107" s="0"/>
+      <c r="G107" s="0"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="B108" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E108" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="F108" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="B109" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F109" s="27"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="B105" s="29"/>
-      <c r="D105" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="E105" s="50" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="B106" s="44" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="41" t="s">
-        <v>420</v>
-      </c>
-      <c r="B107" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="D107" s="49" t="s">
+      <c r="B110" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="E107" s="49"/>
-    </row>
-    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="B108" s="42" t="s">
+      <c r="D110" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F110" s="27"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="54" t="s">
+        <v>469</v>
+      </c>
+      <c r="B111" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F111" s="27"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D112" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D108" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="E108" s="27" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="B109" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="D109" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E109" s="27" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="B110" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="D110" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="E110" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="47" t="s">
-        <v>421</v>
-      </c>
-      <c r="B111" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="D111" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E111" s="27" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D112" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="E112" s="27" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="B113" s="49"/>
+      <c r="E112" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F112" s="27"/>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="59" t="s">
+        <v>470</v>
+      </c>
+      <c r="B113" s="59"/>
       <c r="D113" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E113" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>128</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F113" s="27"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="10" t="s">
-        <v>190</v>
+        <v>281</v>
       </c>
       <c r="B114" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="E114" s="27" t="s">
-        <v>47</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="E114" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F114" s="27"/>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="10" t="s">
@@ -6325,24 +7272,22 @@
         <v>22</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="E115" s="27" t="s">
-        <v>22</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F115" s="27"/>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="10" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B116" s="27" t="s">
         <v>47</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="E116" s="27" t="s">
-        <v>47</v>
+        <v>200</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6353,7 +7298,7 @@
         <v>22</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E117" s="27" t="s">
         <v>47</v>
@@ -6361,145 +7306,159 @@
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="10" t="s">
-        <v>194</v>
+        <v>472</v>
       </c>
       <c r="B118" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D118" s="51" t="s">
+      <c r="D118" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="E118" s="53" t="s">
-        <v>199</v>
+      <c r="E118" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="F118" s="45" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="51" t="s">
-        <v>196</v>
+      <c r="A119" s="52" t="s">
+        <v>473</v>
       </c>
       <c r="B119" s="53" t="s">
-        <v>197</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F119" s="53"/>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D120" s="54" t="s">
+      <c r="D120" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="E120" s="3"/>
+      <c r="F120" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="59" t="s">
+        <v>475</v>
+      </c>
+      <c r="B121" s="59"/>
+      <c r="D121" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="E120" s="55"/>
-    </row>
-    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="49" t="s">
-        <v>200</v>
-      </c>
-      <c r="B121" s="49"/>
-      <c r="D121" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="E121" s="27" t="s">
-        <v>47</v>
-      </c>
+      <c r="E121" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F121" s="53"/>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="56" t="s">
-        <v>202</v>
+      <c r="A122" s="51" t="s">
+        <v>211</v>
       </c>
       <c r="B122" s="27" t="s">
         <v>25</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="E122" s="57" t="s">
-        <v>98</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="E122" s="3"/>
+      <c r="F122" s="43"/>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="10" t="s">
-        <v>203</v>
+        <v>476</v>
       </c>
       <c r="B123" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="E123" s="27" t="s">
-        <v>47</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="E123" s="3"/>
+      <c r="F123" s="53"/>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="10" t="s">
-        <v>207</v>
+        <v>477</v>
       </c>
       <c r="B124" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="E124" s="27" t="s">
-        <v>47</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="E124" s="3"/>
+      <c r="F124" s="43"/>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="10" t="s">
-        <v>209</v>
+        <v>478</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D125" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E125" s="27" t="s">
-        <v>47</v>
-      </c>
+      <c r="E125" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F125" s="53"/>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="56" t="s">
-        <v>423</v>
+      <c r="A126" s="51" t="s">
+        <v>206</v>
       </c>
       <c r="B126" s="27" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="E126" s="27" t="s">
-        <v>47</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F126" s="43"/>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="10" t="s">
-        <v>174</v>
+        <v>274</v>
       </c>
       <c r="B127" s="27" t="s">
         <v>25</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="E127" s="27" t="s">
-        <v>47</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="E127" s="3"/>
+      <c r="F127" s="53"/>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="10" t="s">
-        <v>213</v>
+        <v>480</v>
       </c>
       <c r="B128" s="27" t="s">
-        <v>214</v>
+        <v>481</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="E128" s="27" t="s">
+        <v>482</v>
+      </c>
+      <c r="E128" s="3"/>
+      <c r="F128" s="43"/>
+      <c r="G128" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="10" t="s">
-        <v>216</v>
+        <v>483</v>
       </c>
       <c r="B129" s="27" t="s">
         <v>47</v>
@@ -6507,358 +7466,472 @@
       <c r="D129" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E129" s="27" t="s">
-        <v>51</v>
+      <c r="E129" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="F129" s="44" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="10" t="s">
-        <v>190</v>
+        <v>281</v>
       </c>
       <c r="B130" s="27" t="s">
         <v>47</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E130" s="27" t="s">
         <v>22</v>
       </c>
+      <c r="F130" s="0"/>
+      <c r="G130" s="0"/>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="10" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B131" s="27" t="s">
         <v>47</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="E131" s="27" t="s">
-        <v>47</v>
+        <v>217</v>
+      </c>
+      <c r="E131" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="F131" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="10" t="s">
-        <v>219</v>
+        <v>484</v>
       </c>
       <c r="B132" s="27" t="s">
-        <v>220</v>
+        <v>485</v>
       </c>
       <c r="D132" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E132" s="27" t="s">
-        <v>125</v>
-      </c>
+      <c r="E132" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F132" s="27"/>
+      <c r="G132" s="63"/>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="51" t="s">
-        <v>222</v>
+      <c r="A133" s="52" t="s">
+        <v>486</v>
       </c>
       <c r="B133" s="53" t="s">
-        <v>220</v>
+        <v>485</v>
       </c>
       <c r="D133" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E133" s="27" t="s">
-        <v>125</v>
-      </c>
+      <c r="E133" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F133" s="27"/>
+      <c r="G133" s="63"/>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D134" s="51" t="s">
-        <v>224</v>
-      </c>
-      <c r="E134" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="F134" s="23"/>
+      <c r="D134" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="E134" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F134" s="27"/>
+      <c r="G134" s="63"/>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="30" t="s">
-        <v>425</v>
+        <v>215</v>
       </c>
       <c r="B135" s="29"/>
-      <c r="F135" s="23"/>
+      <c r="E135" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F135" s="27"/>
+      <c r="G135" s="63"/>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="B136" s="42" t="s">
+      <c r="A136" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D136" s="58" t="s">
-        <v>226</v>
-      </c>
-      <c r="E136" s="59"/>
+      <c r="D136" s="64" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="B137" s="42" t="s">
+      <c r="A137" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B137" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D137" s="41" t="s">
+      <c r="D137" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E137" s="44" t="s">
+      <c r="E137" s="45" t="s">
         <v>47</v>
       </c>
+      <c r="F137" s="0"/>
+      <c r="G137" s="0"/>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="B138" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="D138" s="41" t="s">
-        <v>361</v>
-      </c>
-      <c r="E138" s="44" t="s">
-        <v>96</v>
-      </c>
+      <c r="A138" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="B138" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="C138" s="63"/>
+      <c r="D138" s="42" t="s">
+        <v>418</v>
+      </c>
+      <c r="E138" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="F138" s="0"/>
+      <c r="G138" s="0"/>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="B139" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="D139" s="41" t="s">
-        <v>426</v>
-      </c>
-      <c r="E139" s="44" t="s">
-        <v>427</v>
-      </c>
+      <c r="A139" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="B139" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="C139" s="63"/>
+      <c r="D139" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="E139" s="45" t="s">
+        <v>489</v>
+      </c>
+      <c r="F139" s="0"/>
+      <c r="G139" s="0"/>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="B140" s="50" t="s">
-        <v>428</v>
-      </c>
-      <c r="D140" s="41" t="s">
-        <v>429</v>
-      </c>
-      <c r="E140" s="44" t="s">
+      <c r="A140" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="B140" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="C140" s="63"/>
+      <c r="D140" s="42" t="s">
+        <v>491</v>
+      </c>
+      <c r="E140" s="45" t="s">
         <v>47</v>
       </c>
+      <c r="F140" s="0"/>
+      <c r="G140" s="0"/>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D141" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="E141" s="44" t="s">
+      <c r="A141" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="B141" s="27"/>
+      <c r="C141" s="63"/>
+      <c r="D141" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E141" s="45" t="s">
         <v>47</v>
       </c>
+      <c r="F141" s="0"/>
+      <c r="G141" s="0"/>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="B142" s="60"/>
-      <c r="D142" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="E142" s="44" t="s">
+      <c r="A142" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="B142" s="27"/>
+      <c r="C142" s="63"/>
+      <c r="D142" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="E142" s="45" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B143" s="27"/>
-      <c r="D143" s="41" t="s">
-        <v>393</v>
-      </c>
-      <c r="E143" s="44" t="s">
+      <c r="D143" s="42" t="s">
+        <v>447</v>
+      </c>
+      <c r="E143" s="45" t="s">
         <v>47</v>
       </c>
+      <c r="F143" s="0"/>
+      <c r="G143" s="0"/>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="10" t="s">
-        <v>233</v>
+        <v>492</v>
       </c>
       <c r="B144" s="27"/>
-      <c r="D144" s="41" t="s">
+      <c r="D144" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="E144" s="44" t="s">
+      <c r="E144" s="45" t="s">
         <v>47</v>
       </c>
+      <c r="F144" s="0"/>
+      <c r="G144" s="0"/>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="B145" s="27"/>
-      <c r="D145" s="41" t="s">
+      <c r="A145" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="B145" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="D145" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="E145" s="44" t="s">
+      <c r="E145" s="45" t="s">
         <v>47</v>
       </c>
+      <c r="F145" s="0"/>
+      <c r="G145" s="0"/>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="10" t="s">
-        <v>236</v>
+        <v>163</v>
       </c>
       <c r="B146" s="27"/>
-      <c r="D146" s="41" t="s">
-        <v>430</v>
-      </c>
-      <c r="E146" s="44" t="s">
-        <v>431</v>
-      </c>
+      <c r="C146" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="D146" s="42" t="s">
+        <v>493</v>
+      </c>
+      <c r="E146" s="45" t="s">
+        <v>494</v>
+      </c>
+      <c r="F146" s="0"/>
+      <c r="G146" s="0"/>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B147" s="27"/>
-      <c r="D147" s="41" t="s">
-        <v>432</v>
-      </c>
-      <c r="E147" s="44" t="s">
-        <v>96</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B147" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="C147" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="D147" s="42" t="s">
+        <v>495</v>
+      </c>
+      <c r="E147" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="F147" s="0"/>
+      <c r="G147" s="0"/>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="B148" s="27"/>
-      <c r="D148" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="E148" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="B148" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C148" s="63" t="s">
         <v>47</v>
       </c>
+      <c r="D148" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="E148" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F148" s="0"/>
+      <c r="G148" s="0"/>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="B149" s="27"/>
-      <c r="D149" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="E149" s="44" t="s">
+      <c r="A149" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B149" s="29"/>
+      <c r="D149" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="E149" s="45" t="s">
         <v>47</v>
       </c>
+      <c r="F149" s="0"/>
+      <c r="G149" s="0"/>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="10" t="s">
-        <v>244</v>
+        <v>496</v>
       </c>
       <c r="B150" s="27"/>
-      <c r="D150" s="41" t="s">
-        <v>169</v>
-      </c>
-      <c r="E150" s="44" t="s">
+      <c r="D150" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="E150" s="45" t="s">
         <v>47</v>
       </c>
+      <c r="F150" s="0"/>
+      <c r="G150" s="0"/>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="B151" s="27"/>
-      <c r="D151" s="41" t="s">
-        <v>433</v>
-      </c>
-      <c r="E151" s="44" t="s">
-        <v>104</v>
-      </c>
+      <c r="A151" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="B151" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="D151" s="42" t="s">
+        <v>497</v>
+      </c>
+      <c r="E151" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="F151" s="0"/>
+      <c r="G151" s="0"/>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="10" t="s">
-        <v>248</v>
+        <v>163</v>
       </c>
       <c r="B152" s="27"/>
-      <c r="D152" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="E152" s="44" t="s">
-        <v>228</v>
+      <c r="D152" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="E152" s="45" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="10" t="s">
-        <v>250</v>
+        <v>477</v>
       </c>
       <c r="B153" s="27"/>
-      <c r="D153" s="41" t="s">
+      <c r="D153" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="E153" s="44" t="s">
+      <c r="E153" s="45" t="s">
         <v>25</v>
       </c>
+      <c r="F153" s="0"/>
+      <c r="G153" s="0"/>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="51" t="s">
-        <v>252</v>
-      </c>
-      <c r="B154" s="53"/>
-      <c r="D154" s="41" t="s">
-        <v>434</v>
-      </c>
-      <c r="E154" s="44" t="s">
+      <c r="A154" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B154" s="27"/>
+      <c r="D154" s="42" t="s">
+        <v>498</v>
+      </c>
+      <c r="E154" s="45" t="s">
         <v>62</v>
       </c>
+      <c r="F154" s="0"/>
+      <c r="G154" s="0"/>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D155" s="41" t="s">
+      <c r="A155" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B155" s="27"/>
+      <c r="D155" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="E155" s="44" t="s">
+      <c r="E155" s="45" t="s">
         <v>47</v>
       </c>
+      <c r="F155" s="0"/>
+      <c r="G155" s="0"/>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D156" s="47" t="s">
+      <c r="A156" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B156" s="27"/>
+      <c r="D156" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="E156" s="50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="E156" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="F156" s="0"/>
+      <c r="G156" s="0"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A157" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B157" s="27"/>
+      <c r="F157" s="0"/>
+      <c r="G157" s="0"/>
+    </row>
+    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A158" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B158" s="27"/>
+    </row>
+    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A159" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B159" s="27"/>
+    </row>
+    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A160" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B160" s="27"/>
+    </row>
+    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A161" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B161" s="27"/>
+    </row>
     <row r="162" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
+      <c r="A162" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B162" s="27"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
     </row>
-    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A163" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B163" s="27"/>
+    </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="B164" s="60"/>
+      <c r="A164" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B164" s="27"/>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="B165" s="27" t="s">
-        <v>47</v>
-      </c>
+      <c r="A165" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B165" s="29"/>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="10" t="s">
@@ -6909,8 +7982,8 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="51" t="s">
-        <v>253</v>
+      <c r="A172" s="52" t="s">
+        <v>252</v>
       </c>
       <c r="B172" s="53" t="s">
         <v>47</v>
@@ -6919,65 +7992,175 @@
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="B174" s="60" t="s">
-        <v>152</v>
+        <v>499</v>
+      </c>
+      <c r="B174" s="50" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="41" t="s">
-        <v>436</v>
-      </c>
-      <c r="B175" s="44" t="s">
+      <c r="A175" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="B175" s="45" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="41" t="s">
+      <c r="A176" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="B176" s="44" t="s">
+      <c r="B176" s="45" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="41" t="s">
-        <v>364</v>
-      </c>
-      <c r="B177" s="44" t="s">
-        <v>47</v>
-      </c>
+    <row r="177" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A177" s="42" t="s">
+        <v>420</v>
+      </c>
+      <c r="B177" s="59"/>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="41" t="s">
-        <v>437</v>
-      </c>
-      <c r="B178" s="44" t="s">
-        <v>437</v>
+      <c r="A178" s="42" t="s">
+        <v>501</v>
+      </c>
+      <c r="B178" s="45" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="47" t="s">
-        <v>438</v>
-      </c>
-      <c r="B179" s="50" t="s">
-        <v>47</v>
-      </c>
+      <c r="A179" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="B179" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="C179" s="65"/>
+      <c r="D179" s="65"/>
+      <c r="E179" s="65"/>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="201" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="65"/>
+      <c r="B185" s="65"/>
+      <c r="C185" s="65"/>
+      <c r="D185" s="65"/>
+      <c r="E185" s="65"/>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="B187" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="C187" s="65"/>
+      <c r="D187" s="65"/>
+      <c r="E187" s="65"/>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="65"/>
+      <c r="B199" s="65"/>
+      <c r="C199" s="65"/>
+      <c r="D199" s="65"/>
+      <c r="E199" s="65"/>
+    </row>
+    <row r="201" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A201" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="B201" s="66" t="s">
+        <v>177</v>
+      </c>
+      <c r="C201" s="65"/>
+      <c r="D201" s="65"/>
+      <c r="E201" s="65"/>
+    </row>
     <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="232" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="233" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B209" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="65"/>
+      <c r="B210" s="65"/>
+      <c r="C210" s="65"/>
+      <c r="D210" s="65"/>
+      <c r="E210" s="65"/>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="65" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212" s="66" t="s">
+        <v>307</v>
+      </c>
+      <c r="C212" s="65"/>
+      <c r="D212" s="65"/>
+      <c r="E212" s="65"/>
+    </row>
+    <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B214" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B216" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B219" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B221" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B223" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B225" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B228" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B230" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B232" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A234" s="65"/>
+      <c r="B234" s="65"/>
+      <c r="C234" s="65"/>
+      <c r="D234" s="65"/>
+      <c r="E234" s="65"/>
+    </row>
     <row r="269" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="338" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="365" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="I54:I55"/>
@@ -6988,7 +8171,6 @@
     <mergeCell ref="D107:E107"/>
     <mergeCell ref="A113:B113"/>
     <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A162:E162"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/documentation/KPCrew Flows.xlsx
+++ b/documentation/KPCrew Flows.xlsx
@@ -8,10 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Zibo PMDG" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Zibo 738NG" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="FJS B732" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="old Zibo B738" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="old FlyJSim B732" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="old FlyJSim B732" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4172" uniqueCount="1085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3438" uniqueCount="1060">
   <si>
     <t xml:space="preserve">KPCREW FOR ZIBO BOEING 737-800 FREEWARE (V2.3)</t>
   </si>
@@ -2662,103 +2661,199 @@
     <t xml:space="preserve"> TAKEOFF BRIEFING.......................REVIEWED   (PM)</t>
   </si>
   <si>
-    <t xml:space="preserve">COLD &amp; DARK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TURN AROUD STATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREL PREFLIGHT PROCEDURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POWER UP AND SETUP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SET DEPENDING ON DAYLIGHT</t>
+    <t xml:space="preserve">KPCREW FOR FLYJSIM B732 PAYWARE (V2.1x)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COLD &amp; DARK - OPTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROCEDURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TURN AROUND STATE – OPTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POWER UP PROCEDURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPARTURE BRIEFING – OPTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">READY FOR THE TAKEOFF BRIEF?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUEL CONTROLS</t>
   </si>
   <si>
     <t xml:space="preserve">BATTERY</t>
   </si>
   <si>
-    <t xml:space="preserve">AC POWER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GPU OR APU ON</t>
+    <t xml:space="preserve">We have no MEL issues today</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONNECT GPU IN MENU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This will be a standard takeoff, noise abatement departure procedure &lt;XXX&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">     IF USING APU</t>
   </si>
   <si>
-    <t xml:space="preserve">TEST FIRE PANEL FIRST</t>
+    <t xml:space="preserve">APU START</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The departure will be via &lt;TYPE&gt; &lt;NAME&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">FIRE PANEL AND EXTINGUISHER </t>
   </si>
   <si>
+    <t xml:space="preserve">Our take off thrust is &lt;THRUST SETTING&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFF (EXCEPT FOR APU)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We will use Flaps &lt;FLAP SETTING&gt; for takeoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELECTRIC HYDRAULIC PUMPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runway condition is &lt;CONDITION&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEADY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti Ice is &lt;ANTI ICE SETTING&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">WING LIGHTS</t>
   </si>
   <si>
     <t xml:space="preserve">ON (IF DARK)</t>
   </si>
   <si>
-    <t xml:space="preserve">OFF (EXCEPT 1 PUMP FOR APU)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELECTRIC HYDRAULIC PUMPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STEADY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INITIALIZE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUEL CONTROLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MACH OVERSPEED</t>
+    <t xml:space="preserve">Bleeds will be &lt;BLEED SETTINGS&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In case of forced return we are &lt;UNDER/OVERWEIGHT&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the takeoff safety brief</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COCKPIT LIGHTING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From 0 to 100 knots for any malfunction I will call reject and we will confirm </t>
   </si>
   <si>
     <t xml:space="preserve">STALL WARNING</t>
   </si>
   <si>
-    <t xml:space="preserve">SET COCKPIT LIGHTING</t>
+    <t xml:space="preserve">  the autobrakes are operating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If not operating I will apply maximum manual breaking and maximum symmetric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  reverse thrust and come to a full stop on the runway</t>
   </si>
   <si>
     <t xml:space="preserve">MASTER LIGHTS TEST</t>
   </si>
   <si>
-    <t xml:space="preserve">DISPLAY UNITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECTED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMERGENCY EXIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIGHTS ARMED</t>
+    <t xml:space="preserve">From 100 knots to V 1 I will reject only for one of the following reasons,   engine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP (COURSES, V2, RWY HDG, ALT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  fire, engine failure or takeoff configuration warning horn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDBY INSTRUMENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At and above V 1 we will continue into the air and the only actions for you below </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET UP RADIO TUNING PANEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Above 400 feet I will call for failure action drills as required and you'll perform </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YAW DAMPER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  memory items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">at 800 feet above field elevation I will call for altitude hold and we will retract </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMERGENCY EXIT LIGHTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  the flaps on schedule</t>
   </si>
   <si>
     <t xml:space="preserve">CABIN SIGNS</t>
   </si>
   <si>
-    <t xml:space="preserve">TRIM AIR &amp; RECIRC FANS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLIGHT ALTITUDE &amp; LAND ALTITUDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENGINE START IGNITION SWITCH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WING &amp; LOGO LIGHTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OXYGEN TEST AND SET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST &amp; SET</t>
+    <t xml:space="preserve">ON / AUTOMATIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If we are above maximum landing weight we will make decision on whether to </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  perform an overweight landing if the situation requires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIM AIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If we have a wheel well, engine or wing fire, I will turn the aircraft in such a way </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GASPER FANS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the flames will be downwind and we will evacuate through the upwind side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACKS, ISO VALVE, BLEEDS, APU BLEED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTO,  OPEN,  ON,  OFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If we have a cargo fire you need to ensure emergency services do not open the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLIGHT ALTITUDE AND LAND ALT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  cargo doors until evac is completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHEEL &amp; LOGO LIGHTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON WHEN DARK</t>
   </si>
   <si>
     <t xml:space="preserve">WEATHER RADAR AND TERRAIN</t>
@@ -2767,214 +2862,43 @@
     <t xml:space="preserve">TRANSPONDER CONTROL PANEL</t>
   </si>
   <si>
-    <t xml:space="preserve">NAVIGATION AND DISPLAYS PANEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUTO BRAKE</t>
+    <t xml:space="preserve">___ KGS PUMPS ON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAVIGATION PANEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUEL QTY TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIR COND &amp; PRESS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACK(S) SET, BLEEDS ON, SET</t>
   </si>
   <si>
     <t xml:space="preserve">FUEL FLOW</t>
   </si>
   <si>
+    <t xml:space="preserve">INSTRUMENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X-CHECKED</t>
+  </si>
+  <si>
     <t xml:space="preserve">AIR CONDITIONING PANEL</t>
   </si>
   <si>
     <t xml:space="preserve">CABIN PRESSURIZATION PANEL</t>
   </si>
   <si>
-    <t xml:space="preserve">YAW DAMPER</t>
+    <t xml:space="preserve">RADIOS, RADAR, TRANSPONDER</t>
   </si>
   <si>
     <t xml:space="preserve">LIGHTING PANEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPCREW FOR ZIBO BOEING 737-800 FREEWARE (V2.2.x)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPCREW FOR FLYJSIM B732 PAYWARE (V2.1x)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLD &amp; DARK - OPTIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PROCEDURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TURN AROUND STATE – OPTIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POWER UP PROCEDURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEPARTURE BRIEFING – OPTIONAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">READY FOR THE TAKEOFF BRIEF?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We have no MEL issues today</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONNECT GPU IN MENU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This will be a standard takeoff, noise abatement departure procedure &lt;XXX&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APU START</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The departure will be via &lt;TYPE&gt; &lt;NAME&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Our take off thrust is &lt;THRUST SETTING&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFF (EXCEPT FOR APU)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We will use Flaps &lt;FLAP SETTING&gt; for takeoff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Runway condition is &lt;CONDITION&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anti Ice is &lt;ANTI ICE SETTING&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bleeds will be &lt;BLEED SETTINGS&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In case of forced return we are &lt;UNDER/OVERWEIGHT&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For the takeoff safety brief</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COCKPIT LIGHTING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From 0 to 100 knots for any malfunction I will call reject and we will confirm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  the autobrakes are operating</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If not operating I will apply maximum manual breaking and maximum symmetric </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  reverse thrust and come to a full stop on the runway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From 100 knots to V 1 I will reject only for one of the following reasons,   engine </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCP (COURSES, V2, RWY HDG, ALT)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SET      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  fire, engine failure or takeoff configuration warning horn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STANDBY INSTRUMENTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At and above V 1 we will continue into the air and the only actions for you below </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SET UP RADIO TUNING PANEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Above 400 feet I will call for failure action drills as required and you'll perform </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  memory items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">at 800 feet above field elevation I will call for altitude hold and we will retract </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMERGENCY EXIT LIGHTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  the flaps on schedule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ON / AUTOMATIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If we are above maximum landing weight we will make decision on whether to </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  perform an overweight landing if the situation requires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRIM AIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If we have a wheel well, engine or wing fire, I will turn the aircraft in such a way </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GASPER FANS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the flames will be downwind and we will evacuate through the upwind side</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PACKS, ISO VALVE, BLEEDS, APU BLEED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUTO,  OPEN,  ON,  OFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If we have a cargo fire you need to ensure emergency services do not open the </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLIGHT ALTITUDE AND LAND ALT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SET  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  cargo doors until evac is completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHEEL &amp; LOGO LIGHTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ON WHEN DARK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">___ KGS PUMPS ON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAVIGATION PANEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUEL QTY TEST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESTED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIR COND &amp; PRESS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PACK(S) SET, BLEEDS ON, SET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INSTRUMENTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X-CHECKED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RADIOS, RADAR, TRANSPONDER</t>
   </si>
   <si>
     <t xml:space="preserve">FIRE TESTS</t>
@@ -3308,7 +3232,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3411,13 +3335,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
@@ -3472,14 +3389,6 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFEF413D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -3729,7 +3638,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="83">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3910,10 +3819,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3922,7 +3827,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3930,27 +3843,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3962,7 +3867,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3974,7 +3879,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3986,31 +3895,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4022,11 +3911,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="12" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4093,7 +3990,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FFED1C24"/>
+      <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -4130,7 +4027,7 @@
       <rgbColor rgb="FF72BF44"/>
       <rgbColor rgb="FFFFD428"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFEF413D"/>
+      <rgbColor rgb="FFED1C24"/>
       <rgbColor rgb="FF5983B0"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -4154,7 +4051,7 @@
   <dimension ref="A1:AF412"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A215" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H214" activeCellId="0" sqref="H214:J260"/>
+      <selection pane="topLeft" activeCell="H214" activeCellId="0" sqref="H214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8904,7 +8801,7 @@
       <c r="F186" s="22" t="s">
         <v>419</v>
       </c>
-      <c r="G186" s="45" t="s">
+      <c r="G186" s="23" t="s">
         <v>420</v>
       </c>
       <c r="H186" s="31" t="s">
@@ -9036,10 +8933,10 @@
       <c r="A191" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B191" s="46" t="s">
+      <c r="B191" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="C191" s="47" t="s">
+      <c r="C191" s="46" t="s">
         <v>450</v>
       </c>
       <c r="D191" s="0"/>
@@ -9098,10 +8995,10 @@
       <c r="A193" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="B193" s="46" t="s">
+      <c r="B193" s="45" t="s">
         <v>456</v>
       </c>
-      <c r="C193" s="47" t="s">
+      <c r="C193" s="46" t="s">
         <v>75</v>
       </c>
       <c r="D193" s="0"/>
@@ -9143,10 +9040,10 @@
       <c r="A195" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B195" s="46" t="s">
+      <c r="B195" s="45" t="s">
         <v>460</v>
       </c>
-      <c r="C195" s="47" t="s">
+      <c r="C195" s="46" t="s">
         <v>461</v>
       </c>
       <c r="D195" s="0"/>
@@ -9209,10 +9106,10 @@
       <c r="A197" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="B197" s="46" t="s">
+      <c r="B197" s="45" t="s">
         <v>399</v>
       </c>
-      <c r="C197" s="47" t="s">
+      <c r="C197" s="46" t="s">
         <v>400</v>
       </c>
       <c r="D197" s="0"/>
@@ -9836,10 +9733,10 @@
       <c r="E218" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F218" s="46" t="s">
+      <c r="F218" s="45" t="s">
         <v>536</v>
       </c>
-      <c r="G218" s="47" t="s">
+      <c r="G218" s="46" t="s">
         <v>75</v>
       </c>
       <c r="H218" s="21" t="s">
@@ -9900,10 +9797,10 @@
       <c r="E220" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F220" s="46" t="s">
+      <c r="F220" s="45" t="s">
         <v>546</v>
       </c>
-      <c r="G220" s="47" t="s">
+      <c r="G220" s="46" t="s">
         <v>336</v>
       </c>
       <c r="H220" s="21" t="s">
@@ -9964,10 +9861,10 @@
       <c r="E222" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F222" s="46" t="s">
+      <c r="F222" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="G222" s="47" t="s">
+      <c r="G222" s="46" t="s">
         <v>262</v>
       </c>
       <c r="H222" s="21" t="s">
@@ -10033,10 +9930,10 @@
       <c r="E224" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F224" s="46" t="s">
+      <c r="F224" s="45" t="s">
         <v>560</v>
       </c>
-      <c r="G224" s="47" t="s">
+      <c r="G224" s="46" t="s">
         <v>266</v>
       </c>
       <c r="H224" s="5"/>
@@ -10086,10 +9983,10 @@
       <c r="E226" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F226" s="46" t="s">
+      <c r="F226" s="45" t="s">
         <v>564</v>
       </c>
-      <c r="G226" s="47" t="s">
+      <c r="G226" s="46" t="s">
         <v>557</v>
       </c>
       <c r="H226" s="39"/>
@@ -10127,17 +10024,17 @@
       <c r="H227" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="I227" s="46" t="s">
+      <c r="I227" s="45" t="s">
         <v>570</v>
       </c>
-      <c r="J227" s="47" t="s">
+      <c r="J227" s="46" t="s">
         <v>75</v>
       </c>
       <c r="L227" s="1"/>
-      <c r="M227" s="48" t="s">
+      <c r="M227" s="47" t="s">
         <v>571</v>
       </c>
-      <c r="N227" s="49"/>
+      <c r="N227" s="48"/>
     </row>
     <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="31" t="s">
@@ -10163,10 +10060,10 @@
         <v>124</v>
       </c>
       <c r="L228" s="1"/>
-      <c r="M228" s="48" t="s">
+      <c r="M228" s="47" t="s">
         <v>573</v>
       </c>
-      <c r="N228" s="49"/>
+      <c r="N228" s="48"/>
     </row>
     <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="17"/>
@@ -10179,17 +10076,17 @@
       <c r="H229" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="I229" s="46" t="s">
+      <c r="I229" s="45" t="s">
         <v>312</v>
       </c>
-      <c r="J229" s="47" t="s">
+      <c r="J229" s="46" t="s">
         <v>574</v>
       </c>
       <c r="L229" s="1"/>
-      <c r="M229" s="48" t="s">
+      <c r="M229" s="47" t="s">
         <v>575</v>
       </c>
-      <c r="N229" s="49"/>
+      <c r="N229" s="48"/>
     </row>
     <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="21" t="s">
@@ -10219,10 +10116,10 @@
         <v>578</v>
       </c>
       <c r="L230" s="1"/>
-      <c r="M230" s="48" t="s">
+      <c r="M230" s="47" t="s">
         <v>579</v>
       </c>
-      <c r="N230" s="49"/>
+      <c r="N230" s="48"/>
     </row>
     <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="21" t="s">
@@ -10247,17 +10144,17 @@
       <c r="H231" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="I231" s="46" t="s">
+      <c r="I231" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="J231" s="47" t="s">
+      <c r="J231" s="46" t="s">
         <v>42</v>
       </c>
       <c r="L231" s="1"/>
-      <c r="M231" s="48" t="s">
+      <c r="M231" s="47" t="s">
         <v>581</v>
       </c>
-      <c r="N231" s="49"/>
+      <c r="N231" s="48"/>
     </row>
     <row r="232" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="5"/>
@@ -10267,20 +10164,20 @@
       <c r="E232" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F232" s="46" t="s">
+      <c r="F232" s="45" t="s">
         <v>582</v>
       </c>
-      <c r="G232" s="47" t="s">
+      <c r="G232" s="46" t="s">
         <v>583</v>
       </c>
       <c r="H232" s="8"/>
       <c r="I232" s="8"/>
       <c r="J232" s="8"/>
       <c r="L232" s="1"/>
-      <c r="M232" s="48" t="s">
+      <c r="M232" s="47" t="s">
         <v>584</v>
       </c>
-      <c r="N232" s="49"/>
+      <c r="N232" s="48"/>
     </row>
     <row r="233" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="0"/>
@@ -10294,10 +10191,10 @@
       <c r="I233" s="0"/>
       <c r="J233" s="0"/>
       <c r="L233" s="1"/>
-      <c r="M233" s="48" t="s">
+      <c r="M233" s="47" t="s">
         <v>585</v>
       </c>
-      <c r="N233" s="49"/>
+      <c r="N233" s="48"/>
     </row>
     <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="39"/>
@@ -10319,19 +10216,19 @@
       <c r="L234" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="M234" s="48" t="s">
+      <c r="M234" s="47" t="s">
         <v>588</v>
       </c>
-      <c r="N234" s="49"/>
+      <c r="N234" s="48"/>
     </row>
     <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B235" s="46" t="s">
+      <c r="B235" s="45" t="s">
         <v>477</v>
       </c>
-      <c r="C235" s="47" t="s">
+      <c r="C235" s="46" t="s">
         <v>478</v>
       </c>
       <c r="E235" s="5"/>
@@ -10349,7 +10246,7 @@
       </c>
       <c r="J235" s="27"/>
       <c r="L235" s="1"/>
-      <c r="M235" s="50"/>
+      <c r="M235" s="49"/>
     </row>
     <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="21" t="s">
@@ -10378,7 +10275,7 @@
       </c>
       <c r="J236" s="27"/>
       <c r="L236" s="1"/>
-      <c r="M236" s="48" t="s">
+      <c r="M236" s="47" t="s">
         <v>595</v>
       </c>
     </row>
@@ -10386,10 +10283,10 @@
       <c r="A237" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B237" s="46" t="s">
+      <c r="B237" s="45" t="s">
         <v>596</v>
       </c>
-      <c r="C237" s="47" t="s">
+      <c r="C237" s="46" t="s">
         <v>42</v>
       </c>
       <c r="E237" s="21" t="s">
@@ -10409,7 +10306,7 @@
       </c>
       <c r="J237" s="27"/>
       <c r="L237" s="1"/>
-      <c r="M237" s="48" t="s">
+      <c r="M237" s="47" t="s">
         <v>598</v>
       </c>
     </row>
@@ -10440,7 +10337,7 @@
       </c>
       <c r="J238" s="23"/>
       <c r="L238" s="1"/>
-      <c r="M238" s="48" t="s">
+      <c r="M238" s="47" t="s">
         <v>603</v>
       </c>
     </row>
@@ -10448,10 +10345,10 @@
       <c r="A239" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="B239" s="46" t="s">
+      <c r="B239" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="C239" s="47" t="s">
+      <c r="C239" s="46" t="s">
         <v>604</v>
       </c>
       <c r="E239" s="31" t="s">
@@ -10471,7 +10368,7 @@
       </c>
       <c r="J239" s="23"/>
       <c r="L239" s="1"/>
-      <c r="M239" s="48" t="s">
+      <c r="M239" s="47" t="s">
         <v>606</v>
       </c>
     </row>
@@ -10504,7 +10401,7 @@
         <v>609</v>
       </c>
       <c r="L240" s="1"/>
-      <c r="M240" s="48" t="s">
+      <c r="M240" s="47" t="s">
         <v>610</v>
       </c>
     </row>
@@ -10512,10 +10409,10 @@
       <c r="A241" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="B241" s="46" t="s">
+      <c r="B241" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C241" s="47" t="s">
+      <c r="C241" s="46" t="s">
         <v>611</v>
       </c>
       <c r="E241" s="5"/>
@@ -10529,7 +10426,7 @@
       </c>
       <c r="J241" s="23"/>
       <c r="L241" s="1"/>
-      <c r="M241" s="48" t="s">
+      <c r="M241" s="47" t="s">
         <v>613</v>
       </c>
     </row>
@@ -10554,7 +10451,7 @@
       </c>
       <c r="J242" s="27"/>
       <c r="L242" s="1"/>
-      <c r="M242" s="48" t="s">
+      <c r="M242" s="47" t="s">
         <v>617</v>
       </c>
     </row>
@@ -10562,10 +10459,10 @@
       <c r="A243" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B243" s="46" t="s">
+      <c r="B243" s="45" t="s">
         <v>618</v>
       </c>
-      <c r="C243" s="47" t="s">
+      <c r="C243" s="46" t="s">
         <v>611</v>
       </c>
       <c r="E243" s="0"/>
@@ -10579,7 +10476,7 @@
       </c>
       <c r="J243" s="23"/>
       <c r="L243" s="1"/>
-      <c r="M243" s="48" t="s">
+      <c r="M243" s="47" t="s">
         <v>620</v>
       </c>
     </row>
@@ -10604,7 +10501,7 @@
       </c>
       <c r="J244" s="23"/>
       <c r="L244" s="1"/>
-      <c r="M244" s="48" t="s">
+      <c r="M244" s="47" t="s">
         <v>622</v>
       </c>
     </row>
@@ -10623,7 +10520,7 @@
       </c>
       <c r="J245" s="27"/>
       <c r="L245" s="1"/>
-      <c r="M245" s="48" t="s">
+      <c r="M245" s="47" t="s">
         <v>624</v>
       </c>
     </row>
@@ -10642,7 +10539,7 @@
       </c>
       <c r="J246" s="27"/>
       <c r="L246" s="1"/>
-      <c r="M246" s="48" t="s">
+      <c r="M246" s="47" t="s">
         <v>626</v>
       </c>
     </row>
@@ -10657,7 +10554,7 @@
       <c r="I247" s="6"/>
       <c r="J247" s="7"/>
       <c r="L247" s="1"/>
-      <c r="M247" s="48"/>
+      <c r="M247" s="47"/>
     </row>
     <row r="248" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="3" t="s">
@@ -10697,7 +10594,7 @@
       <c r="J249" s="7"/>
       <c r="K249" s="22"/>
       <c r="L249" s="1"/>
-      <c r="M249" s="48" t="s">
+      <c r="M249" s="47" t="s">
         <v>628</v>
       </c>
     </row>
@@ -10717,7 +10614,7 @@
       </c>
       <c r="J250" s="27"/>
       <c r="L250" s="1"/>
-      <c r="M250" s="48" t="s">
+      <c r="M250" s="47" t="s">
         <v>629</v>
       </c>
     </row>
@@ -10737,7 +10634,7 @@
       </c>
       <c r="J251" s="27"/>
       <c r="L251" s="1"/>
-      <c r="M251" s="48" t="s">
+      <c r="M251" s="47" t="s">
         <v>631</v>
       </c>
     </row>
@@ -10757,7 +10654,7 @@
       </c>
       <c r="J252" s="23"/>
       <c r="L252" s="1"/>
-      <c r="M252" s="48" t="s">
+      <c r="M252" s="47" t="s">
         <v>633</v>
       </c>
     </row>
@@ -10777,7 +10674,7 @@
       </c>
       <c r="J253" s="27"/>
       <c r="L253" s="1"/>
-      <c r="M253" s="48" t="s">
+      <c r="M253" s="47" t="s">
         <v>635</v>
       </c>
     </row>
@@ -10797,7 +10694,7 @@
       </c>
       <c r="J254" s="23"/>
       <c r="L254" s="1"/>
-      <c r="M254" s="48" t="s">
+      <c r="M254" s="47" t="s">
         <v>637</v>
       </c>
     </row>
@@ -10817,7 +10714,7 @@
       </c>
       <c r="J255" s="27"/>
       <c r="L255" s="1"/>
-      <c r="M255" s="48" t="s">
+      <c r="M255" s="47" t="s">
         <v>639</v>
       </c>
     </row>
@@ -10836,7 +10733,7 @@
       </c>
       <c r="J256" s="23"/>
       <c r="L256" s="1"/>
-      <c r="M256" s="48" t="s">
+      <c r="M256" s="47" t="s">
         <v>641</v>
       </c>
     </row>
@@ -10856,7 +10753,7 @@
       </c>
       <c r="J257" s="27"/>
       <c r="L257" s="1"/>
-      <c r="M257" s="48" t="s">
+      <c r="M257" s="47" t="s">
         <v>643</v>
       </c>
     </row>
@@ -10876,7 +10773,7 @@
       </c>
       <c r="J258" s="23"/>
       <c r="L258" s="1"/>
-      <c r="M258" s="48" t="s">
+      <c r="M258" s="47" t="s">
         <v>645</v>
       </c>
     </row>
@@ -10896,7 +10793,7 @@
       </c>
       <c r="J259" s="27"/>
       <c r="L259" s="1"/>
-      <c r="M259" s="48"/>
+      <c r="M259" s="47"/>
     </row>
     <row r="260" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="0"/>
@@ -10910,7 +10807,7 @@
       <c r="I260" s="6"/>
       <c r="J260" s="7"/>
       <c r="L260" s="0"/>
-      <c r="M260" s="48" t="s">
+      <c r="M260" s="47" t="s">
         <v>647</v>
       </c>
       <c r="N260" s="0"/>
@@ -10930,7 +10827,7 @@
       <c r="I261" s="0"/>
       <c r="J261" s="0"/>
       <c r="L261" s="0"/>
-      <c r="M261" s="48" t="s">
+      <c r="M261" s="47" t="s">
         <v>648</v>
       </c>
       <c r="N261" s="0"/>
@@ -10950,7 +10847,7 @@
       <c r="I262" s="0"/>
       <c r="J262" s="0"/>
       <c r="L262" s="0"/>
-      <c r="M262" s="48" t="s">
+      <c r="M262" s="47" t="s">
         <v>649</v>
       </c>
       <c r="N262" s="0"/>
@@ -10970,7 +10867,7 @@
       <c r="I263" s="0"/>
       <c r="J263" s="0"/>
       <c r="L263" s="0"/>
-      <c r="M263" s="48" t="s">
+      <c r="M263" s="47" t="s">
         <v>650</v>
       </c>
       <c r="N263" s="0"/>
@@ -10990,7 +10887,7 @@
       <c r="I264" s="0"/>
       <c r="J264" s="0"/>
       <c r="L264" s="0"/>
-      <c r="M264" s="48" t="s">
+      <c r="M264" s="47" t="s">
         <v>651</v>
       </c>
       <c r="N264" s="0"/>
@@ -11010,7 +10907,7 @@
       <c r="I265" s="0"/>
       <c r="J265" s="0"/>
       <c r="L265" s="0"/>
-      <c r="M265" s="51"/>
+      <c r="M265" s="50"/>
       <c r="N265" s="0"/>
       <c r="O265" s="0"/>
       <c r="P265" s="0"/>
@@ -11028,7 +10925,7 @@
       <c r="I266" s="0"/>
       <c r="J266" s="0"/>
       <c r="L266" s="0"/>
-      <c r="M266" s="48" t="s">
+      <c r="M266" s="47" t="s">
         <v>652</v>
       </c>
       <c r="N266" s="0"/>
@@ -11048,7 +10945,7 @@
       <c r="I267" s="0"/>
       <c r="J267" s="0"/>
       <c r="L267" s="0"/>
-      <c r="M267" s="48" t="s">
+      <c r="M267" s="47" t="s">
         <v>653</v>
       </c>
       <c r="N267" s="3"/>
@@ -11068,7 +10965,7 @@
       <c r="I268" s="0"/>
       <c r="J268" s="0"/>
       <c r="L268" s="0"/>
-      <c r="M268" s="48" t="s">
+      <c r="M268" s="47" t="s">
         <v>654</v>
       </c>
     </row>
@@ -11084,7 +10981,7 @@
       <c r="I269" s="0"/>
       <c r="J269" s="0"/>
       <c r="L269" s="1"/>
-      <c r="M269" s="48" t="s">
+      <c r="M269" s="47" t="s">
         <v>655</v>
       </c>
     </row>
@@ -11100,7 +10997,7 @@
       <c r="I270" s="0"/>
       <c r="J270" s="0"/>
       <c r="L270" s="1"/>
-      <c r="M270" s="48" t="s">
+      <c r="M270" s="47" t="s">
         <v>656</v>
       </c>
     </row>
@@ -11116,7 +11013,7 @@
       <c r="I271" s="0"/>
       <c r="J271" s="0"/>
       <c r="L271" s="1"/>
-      <c r="M271" s="48" t="s">
+      <c r="M271" s="47" t="s">
         <v>657</v>
       </c>
     </row>
@@ -11207,7 +11104,7 @@
       <c r="I277" s="0"/>
       <c r="J277" s="0"/>
       <c r="L277" s="0"/>
-      <c r="M277" s="48" t="s">
+      <c r="M277" s="47" t="s">
         <v>658</v>
       </c>
       <c r="N277" s="0"/>
@@ -11227,7 +11124,7 @@
       <c r="I278" s="0"/>
       <c r="J278" s="0"/>
       <c r="L278" s="0"/>
-      <c r="M278" s="48" t="s">
+      <c r="M278" s="47" t="s">
         <v>659</v>
       </c>
       <c r="N278" s="0"/>
@@ -11247,7 +11144,7 @@
       <c r="I279" s="0"/>
       <c r="J279" s="0"/>
       <c r="L279" s="0"/>
-      <c r="M279" s="48" t="s">
+      <c r="M279" s="47" t="s">
         <v>660</v>
       </c>
       <c r="N279" s="0"/>
@@ -11267,7 +11164,7 @@
       <c r="I280" s="0"/>
       <c r="J280" s="0"/>
       <c r="L280" s="0"/>
-      <c r="M280" s="48" t="s">
+      <c r="M280" s="47" t="s">
         <v>661</v>
       </c>
       <c r="N280" s="0"/>
@@ -11287,7 +11184,7 @@
       <c r="I281" s="0"/>
       <c r="J281" s="0"/>
       <c r="L281" s="0"/>
-      <c r="M281" s="48" t="s">
+      <c r="M281" s="47" t="s">
         <v>662</v>
       </c>
       <c r="N281" s="0"/>
@@ -11307,7 +11204,7 @@
       <c r="I282" s="0"/>
       <c r="J282" s="0"/>
       <c r="L282" s="0"/>
-      <c r="M282" s="48" t="s">
+      <c r="M282" s="47" t="s">
         <v>663</v>
       </c>
       <c r="N282" s="0"/>
@@ -11327,7 +11224,7 @@
       <c r="I283" s="0"/>
       <c r="J283" s="0"/>
       <c r="L283" s="0"/>
-      <c r="M283" s="48"/>
+      <c r="M283" s="47"/>
       <c r="N283" s="0"/>
       <c r="O283" s="0"/>
       <c r="P283" s="0"/>
@@ -11345,7 +11242,7 @@
       <c r="I284" s="0"/>
       <c r="J284" s="0"/>
       <c r="L284" s="0"/>
-      <c r="M284" s="48" t="s">
+      <c r="M284" s="47" t="s">
         <v>664</v>
       </c>
       <c r="N284" s="0"/>
@@ -11365,7 +11262,7 @@
       <c r="I285" s="0"/>
       <c r="J285" s="0"/>
       <c r="L285" s="0"/>
-      <c r="M285" s="48" t="s">
+      <c r="M285" s="47" t="s">
         <v>665</v>
       </c>
       <c r="N285" s="0"/>
@@ -11385,7 +11282,7 @@
       <c r="I286" s="0"/>
       <c r="J286" s="0"/>
       <c r="L286" s="0"/>
-      <c r="M286" s="48" t="s">
+      <c r="M286" s="47" t="s">
         <v>666</v>
       </c>
       <c r="N286" s="0"/>
@@ -11420,7 +11317,7 @@
       <c r="F288" s="0"/>
       <c r="G288" s="0"/>
       <c r="L288" s="1"/>
-      <c r="M288" s="48" t="s">
+      <c r="M288" s="47" t="s">
         <v>667</v>
       </c>
       <c r="N288" s="0"/>
@@ -11445,7 +11342,7 @@
       </c>
       <c r="K289" s="22"/>
       <c r="L289" s="1"/>
-      <c r="M289" s="48" t="s">
+      <c r="M289" s="47" t="s">
         <v>668</v>
       </c>
       <c r="N289" s="0"/>
@@ -11464,15 +11361,15 @@
       <c r="H290" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="I290" s="46" t="s">
+      <c r="I290" s="45" t="s">
         <v>669</v>
       </c>
-      <c r="J290" s="47" t="s">
+      <c r="J290" s="46" t="s">
         <v>670</v>
       </c>
       <c r="K290" s="22"/>
       <c r="L290" s="1"/>
-      <c r="M290" s="48" t="s">
+      <c r="M290" s="47" t="s">
         <v>671</v>
       </c>
       <c r="N290" s="0"/>
@@ -11498,7 +11395,7 @@
         <v>557</v>
       </c>
       <c r="L291" s="1"/>
-      <c r="M291" s="48" t="s">
+      <c r="M291" s="47" t="s">
         <v>672</v>
       </c>
       <c r="N291" s="0"/>
@@ -11517,14 +11414,14 @@
       <c r="H292" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="I292" s="46" t="s">
+      <c r="I292" s="45" t="s">
         <v>560</v>
       </c>
-      <c r="J292" s="47" t="s">
+      <c r="J292" s="46" t="s">
         <v>673</v>
       </c>
       <c r="L292" s="1"/>
-      <c r="M292" s="48" t="s">
+      <c r="M292" s="47" t="s">
         <v>674</v>
       </c>
     </row>
@@ -11546,7 +11443,7 @@
         <v>676</v>
       </c>
       <c r="L293" s="1"/>
-      <c r="M293" s="48" t="s">
+      <c r="M293" s="47" t="s">
         <v>677</v>
       </c>
       <c r="N293" s="0"/>
@@ -11565,14 +11462,14 @@
       <c r="H294" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="I294" s="46" t="s">
+      <c r="I294" s="45" t="s">
         <v>678</v>
       </c>
-      <c r="J294" s="47" t="s">
+      <c r="J294" s="46" t="s">
         <v>611</v>
       </c>
       <c r="L294" s="1"/>
-      <c r="M294" s="52"/>
+      <c r="M294" s="51"/>
       <c r="N294" s="0"/>
       <c r="O294" s="0"/>
       <c r="P294" s="0"/>
@@ -11590,7 +11487,7 @@
       <c r="I295" s="8"/>
       <c r="J295" s="8"/>
       <c r="L295" s="1"/>
-      <c r="M295" s="48" t="s">
+      <c r="M295" s="47" t="s">
         <v>679</v>
       </c>
       <c r="N295" s="0"/>
@@ -11608,7 +11505,7 @@
       <c r="H296" s="0"/>
       <c r="I296" s="0"/>
       <c r="L296" s="1"/>
-      <c r="M296" s="48" t="s">
+      <c r="M296" s="47" t="s">
         <v>680</v>
       </c>
       <c r="N296" s="0"/>
@@ -11630,7 +11527,7 @@
         <v>235</v>
       </c>
       <c r="L297" s="1"/>
-      <c r="M297" s="48" t="s">
+      <c r="M297" s="47" t="s">
         <v>681</v>
       </c>
       <c r="N297" s="0"/>
@@ -11648,14 +11545,14 @@
       <c r="H298" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="I298" s="46" t="s">
+      <c r="I298" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="J298" s="47" t="s">
+      <c r="J298" s="46" t="s">
         <v>241</v>
       </c>
       <c r="L298" s="1"/>
-      <c r="M298" s="48" t="s">
+      <c r="M298" s="47" t="s">
         <v>682</v>
       </c>
       <c r="N298" s="0"/>
@@ -11681,7 +11578,7 @@
         <v>245</v>
       </c>
       <c r="L299" s="1"/>
-      <c r="M299" s="48" t="s">
+      <c r="M299" s="47" t="s">
         <v>683</v>
       </c>
       <c r="N299" s="0"/>
@@ -11701,7 +11598,7 @@
       <c r="I300" s="8"/>
       <c r="J300" s="8"/>
       <c r="L300" s="33"/>
-      <c r="M300" s="48" t="s">
+      <c r="M300" s="47" t="s">
         <v>684</v>
       </c>
       <c r="P300" s="22"/>
@@ -11718,7 +11615,7 @@
       <c r="H301" s="0"/>
       <c r="I301" s="0"/>
       <c r="L301" s="0"/>
-      <c r="M301" s="48" t="s">
+      <c r="M301" s="47" t="s">
         <v>685</v>
       </c>
     </row>
@@ -11734,7 +11631,7 @@
       <c r="I302" s="0"/>
       <c r="J302" s="0"/>
       <c r="L302" s="0"/>
-      <c r="M302" s="48" t="s">
+      <c r="M302" s="47" t="s">
         <v>686</v>
       </c>
     </row>
@@ -11764,7 +11661,7 @@
       <c r="I304" s="0"/>
       <c r="J304" s="0"/>
       <c r="L304" s="0"/>
-      <c r="M304" s="48" t="s">
+      <c r="M304" s="47" t="s">
         <v>687</v>
       </c>
     </row>
@@ -11780,7 +11677,7 @@
       <c r="I305" s="0"/>
       <c r="J305" s="0"/>
       <c r="L305" s="0"/>
-      <c r="M305" s="48" t="s">
+      <c r="M305" s="47" t="s">
         <v>688</v>
       </c>
     </row>
@@ -11796,7 +11693,7 @@
       <c r="I306" s="0"/>
       <c r="J306" s="0"/>
       <c r="L306" s="0"/>
-      <c r="M306" s="48" t="s">
+      <c r="M306" s="47" t="s">
         <v>689</v>
       </c>
       <c r="N306" s="0"/>
@@ -11816,7 +11713,7 @@
       <c r="I307" s="0"/>
       <c r="J307" s="0"/>
       <c r="L307" s="0"/>
-      <c r="M307" s="48" t="s">
+      <c r="M307" s="47" t="s">
         <v>690</v>
       </c>
     </row>
@@ -11832,7 +11729,7 @@
       <c r="I308" s="0"/>
       <c r="J308" s="0"/>
       <c r="L308" s="0"/>
-      <c r="M308" s="48" t="s">
+      <c r="M308" s="47" t="s">
         <v>691</v>
       </c>
     </row>
@@ -11848,7 +11745,7 @@
       <c r="I309" s="0"/>
       <c r="J309" s="0"/>
       <c r="L309" s="0"/>
-      <c r="M309" s="48" t="s">
+      <c r="M309" s="47" t="s">
         <v>692</v>
       </c>
     </row>
@@ -11864,7 +11761,7 @@
       <c r="I310" s="0"/>
       <c r="J310" s="0"/>
       <c r="L310" s="0"/>
-      <c r="M310" s="48" t="s">
+      <c r="M310" s="47" t="s">
         <v>693</v>
       </c>
     </row>
@@ -11880,7 +11777,7 @@
       <c r="I311" s="0"/>
       <c r="J311" s="0"/>
       <c r="L311" s="0"/>
-      <c r="M311" s="48" t="s">
+      <c r="M311" s="47" t="s">
         <v>694</v>
       </c>
     </row>
@@ -11896,7 +11793,7 @@
       <c r="I312" s="0"/>
       <c r="J312" s="0"/>
       <c r="L312" s="0"/>
-      <c r="M312" s="48" t="s">
+      <c r="M312" s="47" t="s">
         <v>695</v>
       </c>
     </row>
@@ -11912,7 +11809,7 @@
       <c r="I313" s="0"/>
       <c r="J313" s="0"/>
       <c r="L313" s="0"/>
-      <c r="M313" s="48" t="s">
+      <c r="M313" s="47" t="s">
         <v>696</v>
       </c>
     </row>
@@ -11928,7 +11825,7 @@
       <c r="I314" s="0"/>
       <c r="J314" s="0"/>
       <c r="L314" s="1"/>
-      <c r="M314" s="48" t="s">
+      <c r="M314" s="47" t="s">
         <v>697</v>
       </c>
     </row>
@@ -11944,7 +11841,7 @@
       <c r="I315" s="0"/>
       <c r="J315" s="0"/>
       <c r="L315" s="1"/>
-      <c r="M315" s="48" t="s">
+      <c r="M315" s="47" t="s">
         <v>698</v>
       </c>
     </row>
@@ -11985,7 +11882,7 @@
   <dimension ref="A1:AA412"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="H214:J260 A6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12162,7 +12059,7 @@
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="52" t="s">
         <v>702</v>
       </c>
       <c r="G10" s="27"/>
@@ -12608,7 +12505,7 @@
       <c r="I30" s="26" t="s">
         <v>718</v>
       </c>
-      <c r="J30" s="54" t="s">
+      <c r="J30" s="53" t="s">
         <v>719</v>
       </c>
     </row>
@@ -12633,7 +12530,7 @@
       <c r="I31" s="22" t="s">
         <v>721</v>
       </c>
-      <c r="J31" s="55" t="s">
+      <c r="J31" s="54" t="s">
         <v>722</v>
       </c>
     </row>
@@ -12660,7 +12557,7 @@
       <c r="I32" s="26" t="s">
         <v>724</v>
       </c>
-      <c r="J32" s="54" t="s">
+      <c r="J32" s="53" t="s">
         <v>725</v>
       </c>
     </row>
@@ -12685,7 +12582,7 @@
       <c r="I33" s="22" t="s">
         <v>727</v>
       </c>
-      <c r="J33" s="55" t="s">
+      <c r="J33" s="54" t="s">
         <v>728</v>
       </c>
     </row>
@@ -12714,7 +12611,7 @@
       <c r="I34" s="26" t="s">
         <v>730</v>
       </c>
-      <c r="J34" s="54" t="s">
+      <c r="J34" s="53" t="s">
         <v>731</v>
       </c>
     </row>
@@ -13744,7 +13641,7 @@
       <c r="L78" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="M78" s="56" t="s">
+      <c r="M78" s="55" t="s">
         <v>778</v>
       </c>
       <c r="N78" s="41" t="s">
@@ -13771,7 +13668,7 @@
       <c r="L79" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="M79" s="57" t="s">
+      <c r="M79" s="56" t="s">
         <v>778</v>
       </c>
       <c r="N79" s="42" t="s">
@@ -14025,7 +13922,7 @@
     </row>
     <row r="88" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0"/>
-      <c r="B88" s="58" t="s">
+      <c r="B88" s="57" t="s">
         <v>794</v>
       </c>
       <c r="C88" s="0"/>
@@ -14056,7 +13953,7 @@
     </row>
     <row r="89" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="0"/>
-      <c r="B89" s="58" t="s">
+      <c r="B89" s="57" t="s">
         <v>797</v>
       </c>
       <c r="C89" s="0"/>
@@ -14085,7 +13982,7 @@
     </row>
     <row r="90" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0"/>
-      <c r="B90" s="58" t="s">
+      <c r="B90" s="57" t="s">
         <v>798</v>
       </c>
       <c r="C90" s="0"/>
@@ -14388,10 +14285,10 @@
       <c r="E99" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F99" s="46" t="s">
+      <c r="F99" s="45" t="s">
         <v>477</v>
       </c>
-      <c r="G99" s="47" t="s">
+      <c r="G99" s="46" t="s">
         <v>478</v>
       </c>
       <c r="H99" s="39"/>
@@ -14452,10 +14349,10 @@
       <c r="E101" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F101" s="46" t="s">
+      <c r="F101" s="45" t="s">
         <v>596</v>
       </c>
-      <c r="G101" s="47" t="s">
+      <c r="G101" s="46" t="s">
         <v>75</v>
       </c>
       <c r="H101" s="21" t="s">
@@ -14515,10 +14412,10 @@
       <c r="E103" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F103" s="46" t="s">
+      <c r="F103" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="G103" s="47" t="s">
+      <c r="G103" s="46" t="s">
         <v>826</v>
       </c>
       <c r="H103" s="21" t="s">
@@ -14579,10 +14476,10 @@
       <c r="E105" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F105" s="46" t="s">
+      <c r="F105" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="G105" s="47" t="s">
+      <c r="G105" s="46" t="s">
         <v>611</v>
       </c>
       <c r="H105" s="8"/>
@@ -14631,10 +14528,10 @@
       <c r="E107" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F107" s="46" t="s">
+      <c r="F107" s="45" t="s">
         <v>618</v>
       </c>
-      <c r="G107" s="47" t="s">
+      <c r="G107" s="46" t="s">
         <v>611</v>
       </c>
       <c r="H107" s="28" t="s">
@@ -14756,10 +14653,10 @@
       <c r="A112" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B112" s="59" t="s">
+      <c r="B112" s="58" t="s">
         <v>839</v>
       </c>
-      <c r="C112" s="60" t="s">
+      <c r="C112" s="59" t="s">
         <v>126</v>
       </c>
       <c r="E112" s="28"/>
@@ -15416,10 +15313,10 @@
       <c r="A136" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B136" s="46" t="s">
+      <c r="B136" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="C136" s="47" t="s">
+      <c r="C136" s="46" t="s">
         <v>450</v>
       </c>
       <c r="E136" s="31" t="s">
@@ -15462,10 +15359,10 @@
       <c r="A138" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="B138" s="46" t="s">
+      <c r="B138" s="45" t="s">
         <v>456</v>
       </c>
-      <c r="C138" s="47" t="s">
+      <c r="C138" s="46" t="s">
         <v>75</v>
       </c>
       <c r="E138" s="31" t="s">
@@ -15520,10 +15417,10 @@
       <c r="A140" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="B140" s="46" t="s">
+      <c r="B140" s="45" t="s">
         <v>460</v>
       </c>
-      <c r="C140" s="47" t="s">
+      <c r="C140" s="46" t="s">
         <v>461</v>
       </c>
       <c r="E140" s="31" t="s">
@@ -15574,10 +15471,10 @@
       <c r="A142" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="B142" s="46" t="s">
+      <c r="B142" s="45" t="s">
         <v>851</v>
       </c>
-      <c r="C142" s="47" t="s">
+      <c r="C142" s="46" t="s">
         <v>852</v>
       </c>
       <c r="E142" s="21" t="s">
@@ -17284,7 +17181,7 @@
     </row>
     <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H239" s="10"/>
-      <c r="I239" s="53" t="s">
+      <c r="I239" s="52" t="s">
         <v>876</v>
       </c>
       <c r="J239" s="27"/>
@@ -17418,19 +17315,19 @@
       <c r="N249" s="22"/>
     </row>
     <row r="250" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B250" s="48" t="s">
+      <c r="B250" s="47" t="s">
         <v>571</v>
       </c>
-      <c r="C250" s="49"/>
+      <c r="C250" s="48"/>
       <c r="H250" s="10"/>
       <c r="I250" s="0"/>
       <c r="J250" s="23"/>
     </row>
     <row r="251" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B251" s="48" t="s">
+      <c r="B251" s="47" t="s">
         <v>573</v>
       </c>
-      <c r="C251" s="49"/>
+      <c r="C251" s="48"/>
       <c r="H251" s="21" t="s">
         <v>14</v>
       </c>
@@ -17442,10 +17339,10 @@
       </c>
     </row>
     <row r="252" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B252" s="48" t="s">
+      <c r="B252" s="47" t="s">
         <v>575</v>
       </c>
-      <c r="C252" s="49"/>
+      <c r="C252" s="48"/>
       <c r="H252" s="21" t="s">
         <v>14</v>
       </c>
@@ -17457,10 +17354,10 @@
       </c>
     </row>
     <row r="253" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B253" s="48" t="s">
+      <c r="B253" s="47" t="s">
         <v>579</v>
       </c>
-      <c r="C253" s="49"/>
+      <c r="C253" s="48"/>
       <c r="H253" s="21" t="s">
         <v>14</v>
       </c>
@@ -17472,10 +17369,10 @@
       </c>
     </row>
     <row r="254" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B254" s="48" t="s">
+      <c r="B254" s="47" t="s">
         <v>581</v>
       </c>
-      <c r="C254" s="49"/>
+      <c r="C254" s="48"/>
       <c r="H254" s="21" t="s">
         <v>14</v>
       </c>
@@ -17487,19 +17384,19 @@
       </c>
     </row>
     <row r="255" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B255" s="48" t="s">
+      <c r="B255" s="47" t="s">
         <v>584</v>
       </c>
-      <c r="C255" s="49"/>
+      <c r="C255" s="48"/>
       <c r="H255" s="5"/>
       <c r="I255" s="6"/>
       <c r="J255" s="7"/>
     </row>
     <row r="256" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B256" s="48" t="s">
+      <c r="B256" s="47" t="s">
         <v>585</v>
       </c>
-      <c r="C256" s="49"/>
+      <c r="C256" s="48"/>
       <c r="H256" s="0"/>
       <c r="I256" s="0"/>
       <c r="J256" s="0"/>
@@ -17508,19 +17405,19 @@
       <c r="A257" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B257" s="48" t="s">
+      <c r="B257" s="47" t="s">
         <v>588</v>
       </c>
-      <c r="C257" s="49"/>
+      <c r="C257" s="48"/>
       <c r="H257" s="0"/>
       <c r="I257" s="0"/>
       <c r="J257" s="0"/>
     </row>
     <row r="258" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B258" s="50"/>
+      <c r="B258" s="49"/>
     </row>
     <row r="259" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B259" s="48" t="s">
+      <c r="B259" s="47" t="s">
         <v>595</v>
       </c>
       <c r="H259" s="0"/>
@@ -17528,7 +17425,7 @@
       <c r="J259" s="0"/>
     </row>
     <row r="260" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B260" s="48" t="s">
+      <c r="B260" s="47" t="s">
         <v>598</v>
       </c>
       <c r="H260" s="0"/>
@@ -17536,7 +17433,7 @@
       <c r="J260" s="0"/>
     </row>
     <row r="261" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B261" s="48" t="s">
+      <c r="B261" s="47" t="s">
         <v>603</v>
       </c>
       <c r="H261" s="0"/>
@@ -17544,7 +17441,7 @@
       <c r="J261" s="0"/>
     </row>
     <row r="262" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B262" s="48" t="s">
+      <c r="B262" s="47" t="s">
         <v>606</v>
       </c>
       <c r="H262" s="0"/>
@@ -17552,7 +17449,7 @@
       <c r="J262" s="0"/>
     </row>
     <row r="263" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B263" s="48" t="s">
+      <c r="B263" s="47" t="s">
         <v>610</v>
       </c>
       <c r="H263" s="0"/>
@@ -17560,7 +17457,7 @@
       <c r="J263" s="0"/>
     </row>
     <row r="264" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B264" s="48" t="s">
+      <c r="B264" s="47" t="s">
         <v>613</v>
       </c>
       <c r="H264" s="0"/>
@@ -17568,7 +17465,7 @@
       <c r="J264" s="0"/>
     </row>
     <row r="265" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B265" s="48" t="s">
+      <c r="B265" s="47" t="s">
         <v>617</v>
       </c>
       <c r="H265" s="0"/>
@@ -17576,7 +17473,7 @@
       <c r="J265" s="0"/>
     </row>
     <row r="266" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B266" s="48" t="s">
+      <c r="B266" s="47" t="s">
         <v>620</v>
       </c>
       <c r="H266" s="0"/>
@@ -17584,7 +17481,7 @@
       <c r="J266" s="0"/>
     </row>
     <row r="267" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B267" s="48" t="s">
+      <c r="B267" s="47" t="s">
         <v>622</v>
       </c>
       <c r="H267" s="0"/>
@@ -17592,7 +17489,7 @@
       <c r="J267" s="0"/>
     </row>
     <row r="268" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B268" s="48" t="s">
+      <c r="B268" s="47" t="s">
         <v>624</v>
       </c>
       <c r="H268" s="0"/>
@@ -17600,7 +17497,7 @@
       <c r="J268" s="0"/>
     </row>
     <row r="269" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B269" s="48" t="s">
+      <c r="B269" s="47" t="s">
         <v>626</v>
       </c>
       <c r="H269" s="0"/>
@@ -17608,72 +17505,72 @@
       <c r="J269" s="0"/>
     </row>
     <row r="270" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B270" s="48"/>
+      <c r="B270" s="47"/>
       <c r="H270" s="0"/>
       <c r="I270" s="0"/>
       <c r="J270" s="0"/>
     </row>
     <row r="271" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B271" s="48" t="s">
+      <c r="B271" s="47" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B272" s="48" t="s">
+      <c r="B272" s="47" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B273" s="48" t="s">
+      <c r="B273" s="47" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B274" s="48" t="s">
+      <c r="B274" s="47" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B275" s="48" t="s">
+      <c r="B275" s="47" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B276" s="48" t="s">
+      <c r="B276" s="47" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B277" s="48" t="s">
+      <c r="B277" s="47" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B278" s="48" t="s">
+      <c r="B278" s="47" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B279" s="48" t="s">
+      <c r="B279" s="47" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B280" s="48" t="s">
+      <c r="B280" s="47" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B281" s="48" t="s">
+      <c r="B281" s="47" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B282" s="48"/>
+      <c r="B282" s="47"/>
     </row>
     <row r="283" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0"/>
-      <c r="B283" s="48" t="s">
+      <c r="B283" s="47" t="s">
         <v>647</v>
       </c>
       <c r="C283" s="0"/>
@@ -17684,7 +17581,7 @@
     </row>
     <row r="284" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0"/>
-      <c r="B284" s="48" t="s">
+      <c r="B284" s="47" t="s">
         <v>628</v>
       </c>
       <c r="C284" s="0"/>
@@ -17695,7 +17592,7 @@
     </row>
     <row r="285" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0"/>
-      <c r="B285" s="48" t="s">
+      <c r="B285" s="47" t="s">
         <v>648</v>
       </c>
       <c r="C285" s="0"/>
@@ -17706,7 +17603,7 @@
     </row>
     <row r="286" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0"/>
-      <c r="B286" s="48" t="s">
+      <c r="B286" s="47" t="s">
         <v>649</v>
       </c>
       <c r="C286" s="0"/>
@@ -17717,7 +17614,7 @@
     </row>
     <row r="287" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0"/>
-      <c r="B287" s="48" t="s">
+      <c r="B287" s="47" t="s">
         <v>650</v>
       </c>
       <c r="C287" s="0"/>
@@ -17728,7 +17625,7 @@
     </row>
     <row r="288" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0"/>
-      <c r="B288" s="48" t="s">
+      <c r="B288" s="47" t="s">
         <v>651</v>
       </c>
       <c r="C288" s="0"/>
@@ -17739,7 +17636,7 @@
     </row>
     <row r="289" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="0"/>
-      <c r="B289" s="51"/>
+      <c r="B289" s="50"/>
       <c r="C289" s="0"/>
       <c r="D289" s="0"/>
       <c r="E289" s="0"/>
@@ -17753,7 +17650,7 @@
     </row>
     <row r="290" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0"/>
-      <c r="B290" s="48" t="s">
+      <c r="B290" s="47" t="s">
         <v>652</v>
       </c>
       <c r="C290" s="0"/>
@@ -17769,7 +17666,7 @@
     </row>
     <row r="291" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0"/>
-      <c r="B291" s="48" t="s">
+      <c r="B291" s="47" t="s">
         <v>878</v>
       </c>
       <c r="C291" s="0"/>
@@ -17779,10 +17676,10 @@
       <c r="G291" s="0"/>
       <c r="H291" s="1"/>
       <c r="I291" s="0"/>
-      <c r="J291" s="49"/>
+      <c r="J291" s="48"/>
     </row>
     <row r="292" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B292" s="48" t="s">
+      <c r="B292" s="47" t="s">
         <v>653</v>
       </c>
       <c r="C292" s="3"/>
@@ -17792,39 +17689,39 @@
       <c r="G292" s="3"/>
       <c r="H292" s="1"/>
       <c r="I292" s="0"/>
-      <c r="J292" s="49"/>
+      <c r="J292" s="48"/>
     </row>
     <row r="293" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B293" s="48" t="s">
+      <c r="B293" s="47" t="s">
         <v>654</v>
       </c>
       <c r="H293" s="1"/>
       <c r="I293" s="0"/>
-      <c r="J293" s="49"/>
+      <c r="J293" s="48"/>
     </row>
     <row r="294" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B294" s="48" t="s">
+      <c r="B294" s="47" t="s">
         <v>655</v>
       </c>
       <c r="H294" s="1"/>
       <c r="I294" s="0"/>
-      <c r="J294" s="49"/>
+      <c r="J294" s="48"/>
     </row>
     <row r="295" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B295" s="48" t="s">
+      <c r="B295" s="47" t="s">
         <v>656</v>
       </c>
       <c r="H295" s="1"/>
       <c r="I295" s="0"/>
-      <c r="J295" s="49"/>
+      <c r="J295" s="48"/>
     </row>
     <row r="296" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B296" s="48" t="s">
+      <c r="B296" s="47" t="s">
         <v>657</v>
       </c>
       <c r="H296" s="1"/>
       <c r="I296" s="0"/>
-      <c r="J296" s="49"/>
+      <c r="J296" s="48"/>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0"/>
@@ -17838,7 +17735,7 @@
         <v>103</v>
       </c>
       <c r="I297" s="0"/>
-      <c r="J297" s="49"/>
+      <c r="J297" s="48"/>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0"/>
@@ -18017,7 +17914,7 @@
     </row>
     <row r="314" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0"/>
-      <c r="B314" s="48" t="s">
+      <c r="B314" s="47" t="s">
         <v>658</v>
       </c>
       <c r="C314" s="0"/>
@@ -18030,7 +17927,7 @@
     </row>
     <row r="315" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0"/>
-      <c r="B315" s="48" t="s">
+      <c r="B315" s="47" t="s">
         <v>659</v>
       </c>
       <c r="C315" s="0"/>
@@ -18043,7 +17940,7 @@
     </row>
     <row r="316" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0"/>
-      <c r="B316" s="48" t="s">
+      <c r="B316" s="47" t="s">
         <v>660</v>
       </c>
       <c r="C316" s="0"/>
@@ -18056,7 +17953,7 @@
     </row>
     <row r="317" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="0"/>
-      <c r="B317" s="48" t="s">
+      <c r="B317" s="47" t="s">
         <v>661</v>
       </c>
       <c r="C317" s="0"/>
@@ -18065,11 +17962,11 @@
       <c r="F317" s="0"/>
       <c r="G317" s="0"/>
       <c r="H317" s="1"/>
-      <c r="I317" s="61"/>
+      <c r="I317" s="60"/>
     </row>
     <row r="318" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0"/>
-      <c r="B318" s="48" t="s">
+      <c r="B318" s="47" t="s">
         <v>662</v>
       </c>
       <c r="C318" s="0"/>
@@ -18082,7 +17979,7 @@
     </row>
     <row r="319" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0"/>
-      <c r="B319" s="48" t="s">
+      <c r="B319" s="47" t="s">
         <v>663</v>
       </c>
       <c r="C319" s="0"/>
@@ -18095,7 +17992,7 @@
     </row>
     <row r="320" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0"/>
-      <c r="B320" s="48"/>
+      <c r="B320" s="47"/>
       <c r="C320" s="0"/>
       <c r="D320" s="0"/>
       <c r="E320" s="0"/>
@@ -18106,7 +18003,7 @@
     </row>
     <row r="321" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0"/>
-      <c r="B321" s="48" t="s">
+      <c r="B321" s="47" t="s">
         <v>664</v>
       </c>
       <c r="C321" s="0"/>
@@ -18119,7 +18016,7 @@
     </row>
     <row r="322" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0"/>
-      <c r="B322" s="48" t="s">
+      <c r="B322" s="47" t="s">
         <v>665</v>
       </c>
       <c r="C322" s="0"/>
@@ -18131,7 +18028,7 @@
       <c r="I322" s="0"/>
     </row>
     <row r="323" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B323" s="48" t="s">
+      <c r="B323" s="47" t="s">
         <v>666</v>
       </c>
       <c r="C323" s="0"/>
@@ -18153,7 +18050,7 @@
       <c r="I324" s="0"/>
     </row>
     <row r="325" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B325" s="48" t="s">
+      <c r="B325" s="47" t="s">
         <v>667</v>
       </c>
       <c r="C325" s="0"/>
@@ -18165,7 +18062,7 @@
       <c r="I325" s="0"/>
     </row>
     <row r="326" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B326" s="48" t="s">
+      <c r="B326" s="47" t="s">
         <v>668</v>
       </c>
       <c r="C326" s="0"/>
@@ -18175,7 +18072,7 @@
       <c r="G326" s="0"/>
     </row>
     <row r="327" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B327" s="48" t="s">
+      <c r="B327" s="47" t="s">
         <v>671</v>
       </c>
       <c r="C327" s="0"/>
@@ -18185,7 +18082,7 @@
       <c r="G327" s="0"/>
     </row>
     <row r="328" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B328" s="48" t="s">
+      <c r="B328" s="47" t="s">
         <v>672</v>
       </c>
       <c r="C328" s="0"/>
@@ -18195,7 +18092,7 @@
       <c r="G328" s="0"/>
     </row>
     <row r="329" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B329" s="48" t="s">
+      <c r="B329" s="47" t="s">
         <v>674</v>
       </c>
       <c r="J329" s="22"/>
@@ -18205,7 +18102,7 @@
       <c r="N329" s="22"/>
     </row>
     <row r="330" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B330" s="48" t="s">
+      <c r="B330" s="47" t="s">
         <v>677</v>
       </c>
       <c r="C330" s="0"/>
@@ -18220,7 +18117,7 @@
       <c r="N330" s="22"/>
     </row>
     <row r="331" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B331" s="52"/>
+      <c r="B331" s="51"/>
       <c r="C331" s="0"/>
       <c r="D331" s="0"/>
       <c r="E331" s="0"/>
@@ -18228,7 +18125,7 @@
       <c r="G331" s="0"/>
     </row>
     <row r="332" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B332" s="48" t="s">
+      <c r="B332" s="47" t="s">
         <v>679</v>
       </c>
       <c r="C332" s="0"/>
@@ -18238,7 +18135,7 @@
       <c r="G332" s="0"/>
     </row>
     <row r="333" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B333" s="48" t="s">
+      <c r="B333" s="47" t="s">
         <v>680</v>
       </c>
       <c r="C333" s="0"/>
@@ -18248,7 +18145,7 @@
       <c r="G333" s="0"/>
     </row>
     <row r="334" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B334" s="48" t="s">
+      <c r="B334" s="47" t="s">
         <v>681</v>
       </c>
       <c r="C334" s="0"/>
@@ -18259,7 +18156,7 @@
     </row>
     <row r="335" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="33"/>
-      <c r="B335" s="48" t="s">
+      <c r="B335" s="47" t="s">
         <v>682</v>
       </c>
       <c r="C335" s="0"/>
@@ -18270,7 +18167,7 @@
     </row>
     <row r="336" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0"/>
-      <c r="B336" s="48" t="s">
+      <c r="B336" s="47" t="s">
         <v>683</v>
       </c>
       <c r="C336" s="0"/>
@@ -18281,7 +18178,7 @@
     </row>
     <row r="337" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0"/>
-      <c r="B337" s="48" t="s">
+      <c r="B337" s="47" t="s">
         <v>684</v>
       </c>
       <c r="E337" s="22"/>
@@ -18290,14 +18187,14 @@
     </row>
     <row r="338" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0"/>
-      <c r="B338" s="48" t="s">
+      <c r="B338" s="47" t="s">
         <v>685</v>
       </c>
       <c r="G338" s="0"/>
     </row>
     <row r="339" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0"/>
-      <c r="B339" s="48" t="s">
+      <c r="B339" s="47" t="s">
         <v>686</v>
       </c>
       <c r="G339" s="0"/>
@@ -18309,21 +18206,21 @@
     </row>
     <row r="341" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0"/>
-      <c r="B341" s="48" t="s">
+      <c r="B341" s="47" t="s">
         <v>687</v>
       </c>
       <c r="G341" s="0"/>
     </row>
     <row r="342" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0"/>
-      <c r="B342" s="48" t="s">
+      <c r="B342" s="47" t="s">
         <v>688</v>
       </c>
       <c r="G342" s="0"/>
     </row>
     <row r="343" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0"/>
-      <c r="B343" s="48" t="s">
+      <c r="B343" s="47" t="s">
         <v>689</v>
       </c>
       <c r="C343" s="0"/>
@@ -18334,52 +18231,52 @@
     </row>
     <row r="344" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0"/>
-      <c r="B344" s="48" t="s">
+      <c r="B344" s="47" t="s">
         <v>690</v>
       </c>
       <c r="G344" s="0"/>
     </row>
     <row r="345" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0"/>
-      <c r="B345" s="48" t="s">
+      <c r="B345" s="47" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0"/>
-      <c r="B346" s="48" t="s">
+      <c r="B346" s="47" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0"/>
-      <c r="B347" s="48" t="s">
+      <c r="B347" s="47" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0"/>
-      <c r="B348" s="48" t="s">
+      <c r="B348" s="47" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B349" s="48" t="s">
+      <c r="B349" s="47" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B350" s="48" t="s">
+      <c r="B350" s="47" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B351" s="48" t="s">
+      <c r="B351" s="47" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B352" s="48" t="s">
+      <c r="B352" s="47" t="s">
         <v>698</v>
       </c>
     </row>
@@ -18413,3360 +18310,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA422"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H214:J260 A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="30.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="28.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="7.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="4.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="30.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="28.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="30.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="31.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="2" width="9.13"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28" t="s">
-        <v>425</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>879</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>716</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="s">
-        <v>425</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>880</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>716</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="63"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
-        <v>881</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>882</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>365</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>883</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>884</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>753</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>885</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>886</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>754</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>887</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>888</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>755</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>525</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>889</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>758</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>890</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>891</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>760</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>892</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>382</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>438</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>893</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>398</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>894</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
-      <c r="I19" s="0"/>
-      <c r="J19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="0"/>
-      <c r="G20" s="0"/>
-      <c r="I20" s="0"/>
-      <c r="J20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>895</v>
-      </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40" t="s">
-        <v>586</v>
-      </c>
-      <c r="G21" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="0"/>
-      <c r="J21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>477</v>
-      </c>
-      <c r="G22" s="41" t="s">
-        <v>478</v>
-      </c>
-      <c r="I22" s="0"/>
-      <c r="J22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>896</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>445</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>591</v>
-      </c>
-      <c r="G23" s="42" t="s">
-        <v>822</v>
-      </c>
-      <c r="I23" s="0"/>
-      <c r="J23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>596</v>
-      </c>
-      <c r="G24" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" s="0"/>
-      <c r="J24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>897</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>599</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>600</v>
-      </c>
-      <c r="I25" s="0"/>
-      <c r="J25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>898</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="G26" s="41" t="s">
-        <v>826</v>
-      </c>
-      <c r="I26" s="0"/>
-      <c r="J26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="E27" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>607</v>
-      </c>
-      <c r="G27" s="42" t="s">
-        <v>828</v>
-      </c>
-      <c r="I27" s="0"/>
-      <c r="J27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0"/>
-      <c r="C28" s="0"/>
-      <c r="E28" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="41" t="s">
-        <v>611</v>
-      </c>
-      <c r="I28" s="0"/>
-      <c r="J28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="28"/>
-      <c r="B29" s="29" t="s">
-        <v>715</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>716</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>831</v>
-      </c>
-      <c r="G29" s="42" t="s">
-        <v>832</v>
-      </c>
-      <c r="I29" s="0"/>
-      <c r="J29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>718</v>
-      </c>
-      <c r="C30" s="54" t="s">
-        <v>719</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>618</v>
-      </c>
-      <c r="G30" s="41" t="s">
-        <v>611</v>
-      </c>
-      <c r="I30" s="0"/>
-      <c r="J30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>721</v>
-      </c>
-      <c r="C31" s="55" t="s">
-        <v>722</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>382</v>
-      </c>
-      <c r="G31" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="I31" s="0"/>
-      <c r="J31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>724</v>
-      </c>
-      <c r="C32" s="54" t="s">
-        <v>725</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="I32" s="0"/>
-      <c r="J32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>727</v>
-      </c>
-      <c r="C33" s="55" t="s">
-        <v>728</v>
-      </c>
-      <c r="E33" s="0"/>
-      <c r="F33" s="0"/>
-      <c r="G33" s="0"/>
-      <c r="I33" s="0"/>
-      <c r="J33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>730</v>
-      </c>
-      <c r="C34" s="54" t="s">
-        <v>731</v>
-      </c>
-      <c r="E34" s="5"/>
-      <c r="F34" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="G34" s="7"/>
-      <c r="I34" s="0"/>
-      <c r="J34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>734</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>735</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="56" t="s">
-        <v>778</v>
-      </c>
-      <c r="G35" s="41" t="s">
-        <v>779</v>
-      </c>
-      <c r="I35" s="0"/>
-      <c r="J35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="28"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="E36" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="57" t="s">
-        <v>778</v>
-      </c>
-      <c r="G36" s="42" t="s">
-        <v>376</v>
-      </c>
-      <c r="I36" s="0"/>
-      <c r="J36" s="0"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0"/>
-      <c r="C37" s="0"/>
-      <c r="E37" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>780</v>
-      </c>
-      <c r="G37" s="27" t="s">
-        <v>781</v>
-      </c>
-      <c r="I37" s="0"/>
-      <c r="J37" s="0"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="E38" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="G38" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I38" s="0"/>
-      <c r="J38" s="0"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E39" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F39" s="26" t="s">
-        <v>782</v>
-      </c>
-      <c r="G39" s="41" t="s">
-        <v>783</v>
-      </c>
-      <c r="I39" s="0"/>
-      <c r="J39" s="0"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>899</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="22" t="s">
-        <v>784</v>
-      </c>
-      <c r="G40" s="23" t="s">
-        <v>785</v>
-      </c>
-      <c r="I40" s="0"/>
-      <c r="J40" s="0"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>900</v>
-      </c>
-      <c r="C41" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="26" t="s">
-        <v>786</v>
-      </c>
-      <c r="G41" s="27" t="s">
-        <v>787</v>
-      </c>
-      <c r="I41" s="0"/>
-      <c r="J41" s="0"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F42" s="22" t="s">
-        <v>788</v>
-      </c>
-      <c r="G42" s="42" t="s">
-        <v>789</v>
-      </c>
-      <c r="I42" s="0"/>
-      <c r="J42" s="0"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>901</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>902</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" s="26" t="s">
-        <v>784</v>
-      </c>
-      <c r="G43" s="27" t="s">
-        <v>791</v>
-      </c>
-      <c r="I43" s="0"/>
-      <c r="J43" s="0"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>854</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="22" t="s">
-        <v>786</v>
-      </c>
-      <c r="G44" s="23" t="s">
-        <v>787</v>
-      </c>
-      <c r="I44" s="0"/>
-      <c r="J44" s="0"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>354</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E45" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F45" s="26" t="s">
-        <v>796</v>
-      </c>
-      <c r="G45" s="41" t="s">
-        <v>323</v>
-      </c>
-      <c r="I45" s="0"/>
-      <c r="J45" s="0"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>903</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>904</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="22" t="s">
-        <v>536</v>
-      </c>
-      <c r="G46" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I46" s="0"/>
-      <c r="J46" s="0"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>905</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="26" t="s">
-        <v>359</v>
-      </c>
-      <c r="G47" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="I47" s="0"/>
-      <c r="J47" s="0"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>456</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="22" t="s">
-        <v>546</v>
-      </c>
-      <c r="G48" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="I48" s="0"/>
-      <c r="J48" s="0"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>438</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="26" t="s">
-        <v>801</v>
-      </c>
-      <c r="G49" s="27" t="s">
-        <v>336</v>
-      </c>
-      <c r="I49" s="0"/>
-      <c r="J49" s="0"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>906</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>805</v>
-      </c>
-      <c r="G50" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I50" s="0"/>
-      <c r="J50" s="0"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>479</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="26" t="s">
-        <v>354</v>
-      </c>
-      <c r="G51" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="I51" s="0"/>
-      <c r="J51" s="0"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="G52" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="I52" s="0"/>
-      <c r="J52" s="0"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="22"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>570</v>
-      </c>
-      <c r="C53" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="26" t="s">
-        <v>490</v>
-      </c>
-      <c r="G53" s="27" t="s">
-        <v>813</v>
-      </c>
-      <c r="I53" s="0"/>
-      <c r="J53" s="0"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>907</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E54" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F54" s="22" t="s">
-        <v>816</v>
-      </c>
-      <c r="G54" s="23" t="s">
-        <v>817</v>
-      </c>
-      <c r="I54" s="0"/>
-      <c r="J54" s="0"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="65"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>908</v>
-      </c>
-      <c r="C55" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E55" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F55" s="26" t="s">
-        <v>819</v>
-      </c>
-      <c r="G55" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="I55" s="0"/>
-      <c r="J55" s="0"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="22"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>909</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="E56" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F56" s="22" t="s">
-        <v>819</v>
-      </c>
-      <c r="G56" s="42" t="s">
-        <v>821</v>
-      </c>
-      <c r="K56" s="22"/>
-      <c r="L56" s="34"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>910</v>
-      </c>
-      <c r="C57" s="27" t="s">
-        <v>911</v>
-      </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="7"/>
-      <c r="I57" s="0"/>
-      <c r="J57" s="0"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="34"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="22"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>912</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="F58" s="0"/>
-      <c r="G58" s="0"/>
-      <c r="I58" s="0"/>
-      <c r="J58" s="0"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="34"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>913</v>
-      </c>
-      <c r="C59" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E59" s="39"/>
-      <c r="F59" s="40" t="s">
-        <v>531</v>
-      </c>
-      <c r="G59" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="I59" s="0"/>
-      <c r="J59" s="0"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="34"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="22"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B60" s="22" t="s">
-        <v>914</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E60" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F60" s="26" t="s">
-        <v>536</v>
-      </c>
-      <c r="G60" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="I60" s="0"/>
-      <c r="J60" s="0"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="34"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="22"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E61" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F61" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="G61" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="I61" s="0"/>
-      <c r="J61" s="0"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="34"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="22"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B62" s="22" t="s">
-        <v>915</v>
-      </c>
-      <c r="C62" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="E62" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F62" s="26" t="s">
-        <v>546</v>
-      </c>
-      <c r="G62" s="41" t="s">
-        <v>336</v>
-      </c>
-      <c r="I62" s="0"/>
-      <c r="J62" s="0"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="22"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>916</v>
-      </c>
-      <c r="C63" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="E63" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F63" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="G63" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="I63" s="0"/>
-      <c r="J63" s="0"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="22"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B64" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="C64" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E64" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F64" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="G64" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="I64" s="0"/>
-      <c r="J64" s="0"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="22"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>917</v>
-      </c>
-      <c r="C65" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E65" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F65" s="22" t="s">
-        <v>517</v>
-      </c>
-      <c r="G65" s="42" t="s">
-        <v>557</v>
-      </c>
-      <c r="I65" s="0"/>
-      <c r="J65" s="0"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="22"/>
-      <c r="N65" s="22"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B66" s="22" t="s">
-        <v>918</v>
-      </c>
-      <c r="C66" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E66" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F66" s="26" t="s">
-        <v>560</v>
-      </c>
-      <c r="G66" s="41" t="s">
-        <v>266</v>
-      </c>
-      <c r="I66" s="0"/>
-      <c r="J66" s="0"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="22"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>919</v>
-      </c>
-      <c r="C67" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E67" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F67" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="G67" s="42" t="s">
-        <v>495</v>
-      </c>
-      <c r="I67" s="0"/>
-      <c r="J67" s="0"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="22"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="22"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>920</v>
-      </c>
-      <c r="C68" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E68" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F68" s="26" t="s">
-        <v>564</v>
-      </c>
-      <c r="G68" s="41" t="s">
-        <v>557</v>
-      </c>
-      <c r="I68" s="0"/>
-      <c r="J68" s="0"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="22"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="22"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="7"/>
-      <c r="E69" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F69" s="22" t="s">
-        <v>568</v>
-      </c>
-      <c r="G69" s="42" t="s">
-        <v>569</v>
-      </c>
-      <c r="I69" s="0"/>
-      <c r="J69" s="0"/>
-      <c r="K69" s="33"/>
-      <c r="L69" s="33"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="22"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="0"/>
-      <c r="C70" s="0"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="I70" s="0"/>
-      <c r="J70" s="0"/>
-      <c r="K70" s="33"/>
-      <c r="L70" s="33"/>
-      <c r="M70" s="22"/>
-      <c r="N70" s="22"/>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="39"/>
-      <c r="B71" s="40" t="s">
-        <v>446</v>
-      </c>
-      <c r="C71" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="F71" s="0"/>
-      <c r="G71" s="0"/>
-      <c r="I71" s="0"/>
-      <c r="J71" s="0"/>
-      <c r="K71" s="33"/>
-      <c r="L71" s="33"/>
-      <c r="M71" s="22"/>
-      <c r="N71" s="22"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="B72" s="46" t="s">
-        <v>247</v>
-      </c>
-      <c r="C72" s="47" t="s">
-        <v>450</v>
-      </c>
-      <c r="E72" s="39"/>
-      <c r="F72" s="40" t="s">
-        <v>577</v>
-      </c>
-      <c r="G72" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="I72" s="0"/>
-      <c r="J72" s="0"/>
-      <c r="K72" s="33"/>
-      <c r="L72" s="33"/>
-      <c r="M72" s="22"/>
-      <c r="N72" s="22"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="B73" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="C73" s="66" t="s">
-        <v>453</v>
-      </c>
-      <c r="E73" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F73" s="26" t="s">
-        <v>449</v>
-      </c>
-      <c r="G73" s="41" t="s">
-        <v>867</v>
-      </c>
-      <c r="I73" s="0"/>
-      <c r="J73" s="0"/>
-      <c r="K73" s="33"/>
-      <c r="L73" s="33"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="22"/>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="B74" s="46" t="s">
-        <v>456</v>
-      </c>
-      <c r="C74" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="E74" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F74" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="G74" s="42" t="s">
-        <v>868</v>
-      </c>
-      <c r="I74" s="0"/>
-      <c r="J74" s="0"/>
-      <c r="K74" s="33"/>
-      <c r="L74" s="33"/>
-      <c r="M74" s="22"/>
-      <c r="N74" s="22"/>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="B75" s="22" t="s">
-        <v>355</v>
-      </c>
-      <c r="C75" s="66" t="s">
-        <v>124</v>
-      </c>
-      <c r="E75" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F75" s="26" t="s">
-        <v>582</v>
-      </c>
-      <c r="G75" s="41" t="s">
-        <v>869</v>
-      </c>
-      <c r="I75" s="0"/>
-      <c r="J75" s="0"/>
-      <c r="K75" s="33"/>
-      <c r="L75" s="33"/>
-      <c r="M75" s="22"/>
-      <c r="N75" s="22"/>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="B76" s="46" t="s">
-        <v>460</v>
-      </c>
-      <c r="C76" s="67" t="s">
-        <v>461</v>
-      </c>
-      <c r="E76" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F76" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="G76" s="42" t="s">
-        <v>303</v>
-      </c>
-      <c r="I76" s="0"/>
-      <c r="J76" s="0"/>
-      <c r="K76" s="33"/>
-      <c r="L76" s="33"/>
-      <c r="M76" s="22"/>
-      <c r="N76" s="22"/>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="B77" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="C77" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="I77" s="0"/>
-      <c r="J77" s="0"/>
-      <c r="K77" s="33"/>
-      <c r="L77" s="33"/>
-      <c r="M77" s="22"/>
-      <c r="N77" s="22"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="B78" s="46" t="s">
-        <v>851</v>
-      </c>
-      <c r="C78" s="68" t="s">
-        <v>852</v>
-      </c>
-      <c r="F78" s="0"/>
-      <c r="G78" s="0"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="33"/>
-      <c r="L78" s="33"/>
-      <c r="M78" s="22"/>
-      <c r="N78" s="22"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="6" t="s">
-        <v>842</v>
-      </c>
-      <c r="G79" s="7"/>
-      <c r="J79" s="22"/>
-      <c r="K79" s="22"/>
-      <c r="L79" s="22"/>
-      <c r="M79" s="22"/>
-      <c r="N79" s="22"/>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0"/>
-      <c r="B80" s="0"/>
-      <c r="C80" s="0"/>
-      <c r="E80" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="26" t="s">
-        <v>593</v>
-      </c>
-      <c r="G80" s="27"/>
-      <c r="J80" s="22"/>
-      <c r="K80" s="22"/>
-      <c r="L80" s="22"/>
-      <c r="M80" s="22"/>
-      <c r="N80" s="22"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="28"/>
-      <c r="B81" s="29" t="s">
-        <v>771</v>
-      </c>
-      <c r="C81" s="29" t="s">
-        <v>716</v>
-      </c>
-      <c r="D81" s="0"/>
-      <c r="E81" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="22" t="s">
-        <v>365</v>
-      </c>
-      <c r="G81" s="23"/>
-      <c r="J81" s="22"/>
-      <c r="K81" s="22"/>
-      <c r="L81" s="22"/>
-      <c r="M81" s="22"/>
-      <c r="N81" s="22"/>
-    </row>
-    <row r="82" customFormat="false" ht="7.45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="B82" s="26" t="s">
-        <v>772</v>
-      </c>
-      <c r="C82" s="27" t="s">
-        <v>773</v>
-      </c>
-      <c r="D82" s="0"/>
-      <c r="E82" s="0"/>
-      <c r="F82" s="0"/>
-      <c r="G82" s="0"/>
-      <c r="J82" s="22"/>
-      <c r="K82" s="22"/>
-      <c r="L82" s="22"/>
-      <c r="M82" s="22"/>
-      <c r="N82" s="22"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="B83" s="22" t="s">
-        <v>404</v>
-      </c>
-      <c r="C83" s="23" t="s">
-        <v>774</v>
-      </c>
-      <c r="D83" s="0"/>
-      <c r="E83" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F83" s="26" t="s">
-        <v>601</v>
-      </c>
-      <c r="G83" s="27"/>
-      <c r="J83" s="22"/>
-      <c r="K83" s="22"/>
-      <c r="L83" s="22"/>
-      <c r="M83" s="22"/>
-      <c r="N83" s="22"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="B84" s="26" t="s">
-        <v>370</v>
-      </c>
-      <c r="C84" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="D84" s="0"/>
-      <c r="E84" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F84" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="G84" s="23"/>
-      <c r="J84" s="22"/>
-      <c r="K84" s="22"/>
-      <c r="L84" s="22"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="22"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="B85" s="22" t="s">
-        <v>449</v>
-      </c>
-      <c r="C85" s="23" t="s">
-        <v>773</v>
-      </c>
-      <c r="D85" s="0"/>
-      <c r="E85" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F85" s="26" t="s">
-        <v>361</v>
-      </c>
-      <c r="G85" s="27"/>
-      <c r="J85" s="22"/>
-      <c r="K85" s="22"/>
-      <c r="L85" s="22"/>
-      <c r="M85" s="22"/>
-      <c r="N85" s="22"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="28"/>
-      <c r="B86" s="29"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="0"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="7"/>
-      <c r="J86" s="22"/>
-      <c r="K86" s="22"/>
-      <c r="L86" s="22"/>
-      <c r="M86" s="22"/>
-      <c r="N86" s="22"/>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0"/>
-      <c r="B87" s="0"/>
-      <c r="C87" s="0"/>
-      <c r="D87" s="0"/>
-      <c r="E87" s="0"/>
-      <c r="F87" s="0"/>
-      <c r="G87" s="0"/>
-      <c r="J87" s="22"/>
-      <c r="K87" s="22"/>
-      <c r="L87" s="22"/>
-      <c r="M87" s="22"/>
-      <c r="N87" s="22"/>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0"/>
-      <c r="B88" s="0"/>
-      <c r="C88" s="0"/>
-      <c r="D88" s="0"/>
-      <c r="E88" s="0"/>
-      <c r="F88" s="0"/>
-      <c r="G88" s="0"/>
-      <c r="J88" s="22"/>
-      <c r="K88" s="22"/>
-      <c r="L88" s="22"/>
-      <c r="M88" s="22"/>
-      <c r="N88" s="22"/>
-    </row>
-    <row r="89" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B89" s="3" t="s">
-        <v>921</v>
-      </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="J89" s="22"/>
-      <c r="K89" s="22"/>
-      <c r="L89" s="22"/>
-      <c r="M89" s="22"/>
-      <c r="N89" s="22"/>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="33"/>
-      <c r="C90" s="33"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="34"/>
-      <c r="J90" s="22"/>
-      <c r="K90" s="22"/>
-      <c r="L90" s="22"/>
-      <c r="M90" s="22"/>
-      <c r="N90" s="22"/>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="5"/>
-      <c r="B91" s="6" t="s">
-        <v>799</v>
-      </c>
-      <c r="C91" s="7"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="G91" s="7"/>
-      <c r="J91" s="22"/>
-      <c r="K91" s="22"/>
-      <c r="L91" s="22"/>
-      <c r="M91" s="22"/>
-      <c r="N91" s="22"/>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B92" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="C92" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="E92" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F92" s="26" t="s">
-        <v>361</v>
-      </c>
-      <c r="G92" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="J92" s="22"/>
-      <c r="K92" s="22"/>
-      <c r="L92" s="22"/>
-      <c r="M92" s="22"/>
-      <c r="N92" s="22"/>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B93" s="22" t="s">
-        <v>803</v>
-      </c>
-      <c r="C93" s="42" t="s">
-        <v>804</v>
-      </c>
-      <c r="E93" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F93" s="22" t="s">
-        <v>372</v>
-      </c>
-      <c r="G93" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="J93" s="22"/>
-      <c r="K93" s="22"/>
-      <c r="L93" s="22"/>
-      <c r="M93" s="22"/>
-      <c r="N93" s="22"/>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B94" s="26" t="s">
-        <v>807</v>
-      </c>
-      <c r="C94" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="E94" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94" s="26" t="s">
-        <v>377</v>
-      </c>
-      <c r="G94" s="27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B95" s="22" t="s">
-        <v>809</v>
-      </c>
-      <c r="C95" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="E95" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="22" t="s">
-        <v>382</v>
-      </c>
-      <c r="G95" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B96" s="26" t="s">
-        <v>812</v>
-      </c>
-      <c r="C96" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="E96" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="G96" s="27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="5"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="7"/>
-      <c r="E97" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F97" s="22" t="s">
-        <v>391</v>
-      </c>
-      <c r="G97" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="0"/>
-      <c r="C98" s="0"/>
-      <c r="E98" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F98" s="26" t="s">
-        <v>396</v>
-      </c>
-      <c r="G98" s="27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="39"/>
-      <c r="B99" s="40" t="s">
-        <v>565</v>
-      </c>
-      <c r="C99" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="E99" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F99" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="G99" s="23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="B100" s="26" t="s">
-        <v>570</v>
-      </c>
-      <c r="C100" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E100" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" s="26" t="s">
-        <v>403</v>
-      </c>
-      <c r="G100" s="27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="B101" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="C101" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="E101" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F101" s="22" t="s">
-        <v>409</v>
-      </c>
-      <c r="G101" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="B102" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="C102" s="27" t="s">
-        <v>574</v>
-      </c>
-      <c r="E102" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="G102" s="27" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="B103" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="C103" s="23" t="s">
-        <v>578</v>
-      </c>
-      <c r="E103" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F103" s="22" t="s">
-        <v>365</v>
-      </c>
-      <c r="G103" s="23" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="B104" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="C104" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E104" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F104" s="26" t="s">
-        <v>421</v>
-      </c>
-      <c r="G104" s="27" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="8"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-      <c r="E105" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="F105" s="22" t="s">
-        <v>426</v>
-      </c>
-      <c r="G105" s="23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="0"/>
-      <c r="C106" s="0"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="7"/>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B107" s="29" t="s">
-        <v>834</v>
-      </c>
-      <c r="C107" s="29" t="s">
-        <v>716</v>
-      </c>
-      <c r="F107" s="0"/>
-      <c r="G107" s="0"/>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="0"/>
-      <c r="C108" s="0"/>
-      <c r="E108" s="39"/>
-      <c r="F108" s="40" t="s">
-        <v>434</v>
-      </c>
-      <c r="G108" s="39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="39"/>
-      <c r="B109" s="40" t="s">
-        <v>234</v>
-      </c>
-      <c r="C109" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="E109" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F109" s="26" t="s">
-        <v>438</v>
-      </c>
-      <c r="G109" s="41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="B110" s="26" t="s">
-        <v>669</v>
-      </c>
-      <c r="C110" s="27" t="s">
-        <v>670</v>
-      </c>
-      <c r="E110" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F110" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="G110" s="42" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="B111" s="22" t="s">
-        <v>517</v>
-      </c>
-      <c r="C111" s="23" t="s">
-        <v>557</v>
-      </c>
-      <c r="E111" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F111" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="G111" s="41" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="B112" s="26" t="s">
-        <v>560</v>
-      </c>
-      <c r="C112" s="27" t="s">
-        <v>673</v>
-      </c>
-      <c r="E112" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F112" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="G112" s="42" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="B113" s="22" t="s">
-        <v>675</v>
-      </c>
-      <c r="C113" s="23" t="s">
-        <v>676</v>
-      </c>
-      <c r="E113" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F113" s="26" t="s">
-        <v>399</v>
-      </c>
-      <c r="G113" s="41" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="B114" s="26" t="s">
-        <v>678</v>
-      </c>
-      <c r="C114" s="27" t="s">
-        <v>611</v>
-      </c>
-      <c r="E114" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F114" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="G114" s="42" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="8"/>
-      <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
-      <c r="E115" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F115" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="G115" s="41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B116" s="0"/>
-      <c r="C116" s="0"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
-    </row>
-    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="39"/>
-      <c r="B117" s="40" t="s">
-        <v>234</v>
-      </c>
-      <c r="C117" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="F117" s="22"/>
-      <c r="G117" s="22"/>
-    </row>
-    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="B118" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="C118" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="E118" s="28"/>
-      <c r="F118" s="29" t="s">
-        <v>458</v>
-      </c>
-      <c r="G118" s="29"/>
-    </row>
-    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="B119" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="C119" s="42" t="s">
-        <v>245</v>
-      </c>
-      <c r="E119" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F119" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="G119" s="27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="8"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="E120" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F120" s="22" t="s">
-        <v>467</v>
-      </c>
-      <c r="G120" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B121" s="0"/>
-      <c r="C121" s="0"/>
-      <c r="E121" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F121" s="26" t="s">
-        <v>470</v>
-      </c>
-      <c r="G121" s="27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="5"/>
-      <c r="B122" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C122" s="7"/>
-      <c r="E122" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F122" s="22" t="s">
-        <v>472</v>
-      </c>
-      <c r="G122" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B123" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="C123" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E123" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F123" s="26" t="s">
-        <v>474</v>
-      </c>
-      <c r="G123" s="27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B124" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="C124" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E124" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F124" s="22" t="s">
-        <v>476</v>
-      </c>
-      <c r="G124" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B125" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="C125" s="27" t="s">
-        <v>262</v>
-      </c>
-      <c r="E125" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F125" s="26" t="s">
-        <v>480</v>
-      </c>
-      <c r="G125" s="27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B126" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="C126" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E126" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F126" s="22" t="s">
-        <v>483</v>
-      </c>
-      <c r="G126" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B127" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="C127" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="E127" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F127" s="26" t="s">
-        <v>487</v>
-      </c>
-      <c r="G127" s="27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B128" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="C128" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E128" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F128" s="22" t="s">
-        <v>490</v>
-      </c>
-      <c r="G128" s="23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B129" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="C129" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="E129" s="28"/>
-      <c r="F129" s="29"/>
-      <c r="G129" s="29"/>
-    </row>
-    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B130" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="C130" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="F130" s="0"/>
-      <c r="G130" s="0"/>
-    </row>
-    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B131" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="C131" s="27" t="s">
-        <v>281</v>
-      </c>
-      <c r="E131" s="39"/>
-      <c r="F131" s="40" t="s">
-        <v>434</v>
-      </c>
-      <c r="G131" s="39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B132" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="C132" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="E132" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F132" s="26" t="s">
-        <v>504</v>
-      </c>
-      <c r="G132" s="41" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B133" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="C133" s="27" t="s">
-        <v>287</v>
-      </c>
-      <c r="E133" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F133" s="22" t="s">
-        <v>472</v>
-      </c>
-      <c r="G133" s="42" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B134" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="C134" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E134" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F134" s="26" t="s">
-        <v>474</v>
-      </c>
-      <c r="G134" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="H134" s="22"/>
-    </row>
-    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="5"/>
-      <c r="B135" s="6"/>
-      <c r="C135" s="7"/>
-      <c r="E135" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F135" s="22" t="s">
-        <v>476</v>
-      </c>
-      <c r="G135" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="H135" s="22"/>
-    </row>
-    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B136" s="0"/>
-      <c r="C136" s="0"/>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
-    </row>
-    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="39"/>
-      <c r="B137" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="C137" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="F137" s="0"/>
-      <c r="G137" s="0"/>
-    </row>
-    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="B138" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="C138" s="41" t="s">
-        <v>303</v>
-      </c>
-      <c r="F138" s="0"/>
-      <c r="G138" s="0"/>
-    </row>
-    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="B139" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="C139" s="42" t="s">
-        <v>262</v>
-      </c>
-      <c r="F139" s="0"/>
-      <c r="G139" s="0"/>
-    </row>
-    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="B140" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="C140" s="41" t="s">
-        <v>310</v>
-      </c>
-      <c r="F140" s="0"/>
-      <c r="G140" s="0"/>
-    </row>
-    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="B141" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="C141" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="F141" s="0"/>
-      <c r="G141" s="0"/>
-    </row>
-    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="B142" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="C142" s="41" t="s">
-        <v>314</v>
-      </c>
-      <c r="AA142" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="8"/>
-      <c r="B143" s="8"/>
-      <c r="C143" s="8"/>
-      <c r="F143" s="0"/>
-      <c r="G143" s="0"/>
-    </row>
-    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B144" s="0"/>
-      <c r="C144" s="0"/>
-      <c r="F144" s="0"/>
-      <c r="G144" s="0"/>
-    </row>
-    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="5"/>
-      <c r="B145" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="C145" s="7"/>
-      <c r="F145" s="0"/>
-      <c r="G145" s="0"/>
-    </row>
-    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B146" s="26" t="s">
-        <v>322</v>
-      </c>
-      <c r="C146" s="41" t="s">
-        <v>323</v>
-      </c>
-      <c r="F146" s="0"/>
-      <c r="G146" s="0"/>
-    </row>
-    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B147" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="C147" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F147" s="0"/>
-      <c r="G147" s="0"/>
-    </row>
-    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B148" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="C148" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="F148" s="0"/>
-      <c r="G148" s="0"/>
-    </row>
-    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="5"/>
-      <c r="B149" s="6"/>
-      <c r="C149" s="7"/>
-      <c r="F149" s="0"/>
-      <c r="G149" s="0"/>
-    </row>
-    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B150" s="0"/>
-      <c r="C150" s="0"/>
-      <c r="F150" s="0"/>
-      <c r="G150" s="0"/>
-    </row>
-    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="5"/>
-      <c r="B151" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="C151" s="7"/>
-      <c r="F151" s="0"/>
-      <c r="G151" s="0"/>
-    </row>
-    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B152" s="26" t="s">
-        <v>340</v>
-      </c>
-      <c r="C152" s="27" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B153" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="C153" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="F153" s="0"/>
-      <c r="G153" s="0"/>
-    </row>
-    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B154" s="26" t="s">
-        <v>349</v>
-      </c>
-      <c r="C154" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F154" s="0"/>
-      <c r="G154" s="0"/>
-    </row>
-    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B155" s="22" t="s">
-        <v>354</v>
-      </c>
-      <c r="C155" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="F155" s="0"/>
-      <c r="G155" s="0"/>
-    </row>
-    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B156" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="C156" s="27" t="s">
-        <v>341</v>
-      </c>
-      <c r="F156" s="0"/>
-      <c r="G156" s="0"/>
-    </row>
-    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B157" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="C157" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F157" s="0"/>
-      <c r="G157" s="0"/>
-    </row>
-    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B158" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="C158" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F158" s="0"/>
-      <c r="G158" s="0"/>
-    </row>
-    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B159" s="22" t="s">
-        <v>361</v>
-      </c>
-      <c r="C159" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="F159" s="0"/>
-      <c r="G159" s="0"/>
-    </row>
-    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B160" s="26" t="s">
-        <v>363</v>
-      </c>
-      <c r="C160" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F160" s="0"/>
-      <c r="G160" s="0"/>
-    </row>
-    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B161" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="C161" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="F161" s="0"/>
-      <c r="G161" s="0"/>
-    </row>
-    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B162" s="26" t="s">
-        <v>364</v>
-      </c>
-      <c r="C162" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F162" s="0"/>
-      <c r="G162" s="0"/>
-    </row>
-    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B163" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="C163" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F163" s="0"/>
-      <c r="G163" s="0"/>
-    </row>
-    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B164" s="26" t="s">
-        <v>365</v>
-      </c>
-      <c r="C164" s="27" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="5"/>
-      <c r="B165" s="6"/>
-      <c r="C165" s="7"/>
-    </row>
-    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="177" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B177" s="3" t="s">
-        <v>921</v>
-      </c>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
-      <c r="F177" s="3"/>
-      <c r="G177" s="3"/>
-    </row>
-    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="43"/>
-      <c r="B179" s="44" t="s">
-        <v>370</v>
-      </c>
-      <c r="C179" s="43"/>
-      <c r="D179" s="43"/>
-      <c r="E179" s="43"/>
-    </row>
-    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B180" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B181" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B182" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B183" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B184" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="43"/>
-      <c r="B185" s="43"/>
-      <c r="C185" s="43"/>
-      <c r="D185" s="43"/>
-      <c r="E185" s="43"/>
-    </row>
-    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="43"/>
-      <c r="B187" s="44" t="s">
-        <v>404</v>
-      </c>
-      <c r="C187" s="43"/>
-      <c r="D187" s="43"/>
-      <c r="E187" s="43"/>
-    </row>
-    <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B188" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B189" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B190" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B191" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B192" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B193" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B194" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B195" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B196" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B197" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B198" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="43"/>
-      <c r="B199" s="43"/>
-      <c r="C199" s="43"/>
-      <c r="D199" s="43"/>
-      <c r="E199" s="43"/>
-    </row>
-    <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="201" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="43"/>
-      <c r="B201" s="44" t="s">
-        <v>449</v>
-      </c>
-      <c r="C201" s="43"/>
-      <c r="D201" s="43"/>
-      <c r="E201" s="43"/>
-    </row>
-    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B202" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B203" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B204" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B205" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B206" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B207" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B208" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B209" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A210" s="43"/>
-      <c r="B210" s="43"/>
-      <c r="C210" s="43"/>
-      <c r="D210" s="43"/>
-      <c r="E210" s="43"/>
-    </row>
-    <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="43"/>
-      <c r="B212" s="44" t="s">
-        <v>481</v>
-      </c>
-      <c r="C212" s="43"/>
-      <c r="D212" s="43"/>
-      <c r="E212" s="43"/>
-    </row>
-    <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B213" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B214" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B215" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B216" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B217" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B218" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B219" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B220" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B221" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B222" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B223" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B224" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B225" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B226" s="2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B227" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B228" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B229" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B230" s="2" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B231" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B232" s="2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B233" s="2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A234" s="43"/>
-      <c r="B234" s="43"/>
-      <c r="C234" s="43"/>
-      <c r="D234" s="43"/>
-      <c r="E234" s="43"/>
-    </row>
-    <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="269" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="318" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="338" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="348" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="365" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="422" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="B177:G177"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="66" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:L422"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H214:J260 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21784,7 +18331,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>922</v>
+        <v>879</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -21802,9 +18349,9 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
-        <v>923</v>
-      </c>
-      <c r="B3" s="69"/>
+        <v>880</v>
+      </c>
+      <c r="B3" s="61"/>
       <c r="C3" s="4"/>
       <c r="D3" s="8" t="s">
         <v>3</v>
@@ -21815,7 +18362,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D4" s="6" t="s">
-        <v>924</v>
+        <v>881</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>7</v>
@@ -21823,9 +18370,9 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>925</v>
-      </c>
-      <c r="B5" s="69"/>
+        <v>882</v>
+      </c>
+      <c r="B5" s="61"/>
       <c r="C5" s="14"/>
       <c r="D5" s="15" t="s">
         <v>9</v>
@@ -21835,11 +18382,11 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>926</v>
+        <v>883</v>
       </c>
       <c r="B7" s="7"/>
       <c r="D7" s="15" t="s">
-        <v>927</v>
+        <v>884</v>
       </c>
       <c r="E7" s="15"/>
     </row>
@@ -21851,16 +18398,16 @@
         <v>42</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="70" t="s">
-        <v>928</v>
-      </c>
-      <c r="E8" s="66" t="s">
-        <v>929</v>
+      <c r="D8" s="64" t="s">
+        <v>885</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>445</v>
@@ -21873,52 +18420,52 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>75</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="13" t="s">
-        <v>930</v>
+        <v>889</v>
       </c>
       <c r="E10" s="23"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="70" t="s">
-        <v>931</v>
-      </c>
-      <c r="B11" s="66" t="s">
+      <c r="A11" s="64" t="s">
+        <v>890</v>
+      </c>
+      <c r="B11" s="65" t="s">
         <v>126</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="13" t="s">
-        <v>932</v>
+        <v>891</v>
       </c>
       <c r="E11" s="23"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>933</v>
+        <v>893</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="13" t="s">
-        <v>934</v>
+        <v>894</v>
       </c>
       <c r="E12" s="23"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>64</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>935</v>
+        <v>896</v>
       </c>
       <c r="E13" s="23"/>
     </row>
@@ -21927,22 +18474,22 @@
         <v>147</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>936</v>
+        <v>897</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>937</v>
+        <v>898</v>
       </c>
       <c r="E14" s="23"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>75</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>938</v>
+        <v>900</v>
       </c>
       <c r="E15" s="23"/>
     </row>
@@ -21951,28 +18498,28 @@
         <v>151</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>894</v>
+        <v>901</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>939</v>
+        <v>902</v>
       </c>
       <c r="E16" s="23"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="71" t="s">
-        <v>890</v>
-      </c>
-      <c r="B17" s="72" t="s">
-        <v>891</v>
+      <c r="A17" s="66" t="s">
+        <v>903</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>904</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>940</v>
+        <v>905</v>
       </c>
       <c r="E17" s="23"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="13" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="E18" s="23"/>
     </row>
@@ -21982,31 +18529,31 @@
       </c>
       <c r="B19" s="7"/>
       <c r="D19" s="13" t="s">
-        <v>942</v>
+        <v>907</v>
       </c>
       <c r="E19" s="23"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="s">
-        <v>943</v>
+        <v>908</v>
       </c>
       <c r="B20" s="23" t="s">
         <v>336</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>944</v>
+        <v>909</v>
       </c>
       <c r="E20" s="23"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
-        <v>898</v>
+        <v>910</v>
       </c>
       <c r="B21" s="23" t="s">
         <v>64</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>945</v>
+        <v>911</v>
       </c>
       <c r="E21" s="23"/>
     </row>
@@ -22018,27 +18565,27 @@
         <v>42</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>946</v>
+        <v>912</v>
       </c>
       <c r="E22" s="23"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="65" t="s">
         <v>126</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>947</v>
+        <v>913</v>
       </c>
       <c r="E23" s="23"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="70" t="s">
-        <v>900</v>
-      </c>
-      <c r="B24" s="66" t="s">
+      <c r="A24" s="64" t="s">
+        <v>914</v>
+      </c>
+      <c r="B24" s="65" t="s">
         <v>126</v>
       </c>
       <c r="D24" s="13" t="s">
@@ -22054,31 +18601,31 @@
         <v>75</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>948</v>
+        <v>915</v>
       </c>
       <c r="E25" s="23"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="s">
-        <v>949</v>
+        <v>916</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>950</v>
+        <v>917</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>951</v>
+        <v>918</v>
       </c>
       <c r="E26" s="23"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13" t="s">
-        <v>952</v>
+        <v>919</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>42</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>953</v>
+        <v>920</v>
       </c>
       <c r="E27" s="23"/>
     </row>
@@ -22086,7 +18633,7 @@
       <c r="A28" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="65" t="s">
         <v>854</v>
       </c>
       <c r="D28" s="13" t="s">
@@ -22095,26 +18642,26 @@
       <c r="E28" s="23"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="70" t="s">
-        <v>954</v>
-      </c>
-      <c r="B29" s="66" t="s">
+      <c r="A29" s="64" t="s">
+        <v>921</v>
+      </c>
+      <c r="B29" s="65" t="s">
         <v>126</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>955</v>
+        <v>922</v>
       </c>
       <c r="E29" s="23"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="B30" s="23" t="s">
         <v>75</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>956</v>
+        <v>924</v>
       </c>
       <c r="E30" s="23"/>
     </row>
@@ -22126,28 +18673,28 @@
         <v>75</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>957</v>
+        <v>925</v>
       </c>
       <c r="E31" s="23"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="13" t="s">
-        <v>958</v>
+        <v>926</v>
       </c>
       <c r="B32" s="23" t="s">
         <v>310</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>959</v>
+        <v>927</v>
       </c>
       <c r="E32" s="23"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="s">
-        <v>905</v>
+        <v>928</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>960</v>
+        <v>929</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>526</v>
@@ -22162,7 +18709,7 @@
         <v>75</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>961</v>
+        <v>930</v>
       </c>
       <c r="E34" s="23"/>
     </row>
@@ -22174,31 +18721,31 @@
         <v>42</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>962</v>
+        <v>931</v>
       </c>
       <c r="E35" s="23"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="13" t="s">
-        <v>963</v>
+        <v>932</v>
       </c>
       <c r="B36" s="23" t="s">
         <v>75</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>964</v>
+        <v>933</v>
       </c>
       <c r="E36" s="23"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="13" t="s">
-        <v>965</v>
+        <v>934</v>
       </c>
       <c r="B37" s="23" t="s">
         <v>75</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>966</v>
+        <v>935</v>
       </c>
       <c r="E37" s="23"/>
       <c r="G37" s="22"/>
@@ -22206,43 +18753,43 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="13" t="s">
-        <v>967</v>
+        <v>936</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>968</v>
+        <v>937</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>969</v>
+        <v>938</v>
       </c>
       <c r="E38" s="23"/>
       <c r="H38" s="22"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="13" t="s">
-        <v>970</v>
+        <v>939</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>971</v>
-      </c>
-      <c r="D39" s="71" t="s">
-        <v>972</v>
-      </c>
-      <c r="E39" s="72"/>
+        <v>940</v>
+      </c>
+      <c r="D39" s="66" t="s">
+        <v>941</v>
+      </c>
+      <c r="E39" s="67"/>
       <c r="H39" s="22"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="13" t="s">
-        <v>973</v>
+        <v>942</v>
       </c>
       <c r="B40" s="23" t="s">
-        <v>974</v>
+        <v>943</v>
       </c>
       <c r="G40" s="22"/>
       <c r="H40" s="22"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="13" t="s">
-        <v>912</v>
+        <v>944</v>
       </c>
       <c r="B41" s="23" t="s">
         <v>42</v>
@@ -22256,31 +18803,31 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="13" t="s">
-        <v>913</v>
+        <v>945</v>
       </c>
       <c r="B42" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="46" t="s">
+      <c r="D42" s="45" t="s">
         <v>591</v>
       </c>
-      <c r="E42" s="67" t="s">
-        <v>975</v>
+      <c r="E42" s="68" t="s">
+        <v>946</v>
       </c>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="s">
-        <v>976</v>
+        <v>947</v>
       </c>
       <c r="B43" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="46" t="s">
+      <c r="D43" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="E43" s="67" t="s">
+      <c r="E43" s="68" t="s">
         <v>75</v>
       </c>
       <c r="G43" s="22"/>
@@ -22293,10 +18840,10 @@
       <c r="B44" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="46" t="s">
+      <c r="D44" s="45" t="s">
         <v>490</v>
       </c>
-      <c r="E44" s="67" t="s">
+      <c r="E44" s="68" t="s">
         <v>80</v>
       </c>
       <c r="G44" s="22"/>
@@ -22308,16 +18855,16 @@
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="13" t="s">
-        <v>977</v>
+        <v>948</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>978</v>
-      </c>
-      <c r="D45" s="46" t="s">
-        <v>979</v>
-      </c>
-      <c r="E45" s="67" t="s">
-        <v>980</v>
+        <v>949</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>950</v>
+      </c>
+      <c r="E45" s="68" t="s">
+        <v>951</v>
       </c>
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
@@ -22328,16 +18875,16 @@
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="13" t="s">
-        <v>916</v>
+        <v>952</v>
       </c>
       <c r="B46" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="D46" s="46" t="s">
-        <v>981</v>
-      </c>
-      <c r="E46" s="67" t="s">
-        <v>982</v>
+      <c r="D46" s="45" t="s">
+        <v>953</v>
+      </c>
+      <c r="E46" s="68" t="s">
+        <v>954</v>
       </c>
       <c r="H46" s="22"/>
       <c r="I46" s="22"/>
@@ -22352,10 +18899,10 @@
       <c r="B47" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="46" t="s">
+      <c r="D47" s="45" t="s">
         <v>560</v>
       </c>
-      <c r="E47" s="67" t="s">
+      <c r="E47" s="68" t="s">
         <v>42</v>
       </c>
       <c r="H47" s="22"/>
@@ -22366,15 +18913,15 @@
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="13" t="s">
-        <v>917</v>
+        <v>955</v>
       </c>
       <c r="B48" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D48" s="46" t="s">
+      <c r="D48" s="45" t="s">
         <v>309</v>
       </c>
-      <c r="E48" s="67" t="s">
+      <c r="E48" s="68" t="s">
         <v>854</v>
       </c>
       <c r="H48" s="22"/>
@@ -22385,15 +18932,15 @@
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="13" t="s">
-        <v>918</v>
+        <v>956</v>
       </c>
       <c r="B49" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="46" t="s">
-        <v>983</v>
-      </c>
-      <c r="E49" s="67" t="s">
+      <c r="D49" s="45" t="s">
+        <v>957</v>
+      </c>
+      <c r="E49" s="68" t="s">
         <v>42</v>
       </c>
       <c r="H49" s="22"/>
@@ -22404,15 +18951,15 @@
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="13" t="s">
-        <v>920</v>
+        <v>958</v>
       </c>
       <c r="B50" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="46" t="s">
+      <c r="D50" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="E50" s="67" t="s">
+      <c r="E50" s="68" t="s">
         <v>42</v>
       </c>
       <c r="H50" s="22"/>
@@ -22423,15 +18970,15 @@
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="13" t="s">
-        <v>984</v>
+        <v>959</v>
       </c>
       <c r="B51" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D51" s="46" t="s">
-        <v>985</v>
-      </c>
-      <c r="E51" s="67" t="s">
+      <c r="D51" s="45" t="s">
+        <v>960</v>
+      </c>
+      <c r="E51" s="68" t="s">
         <v>557</v>
       </c>
       <c r="H51" s="22"/>
@@ -22441,16 +18988,16 @@
       <c r="L51" s="22"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="71" t="s">
+      <c r="A52" s="66" t="s">
         <v>614</v>
       </c>
-      <c r="B52" s="72" t="s">
+      <c r="B52" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D52" s="46" t="s">
+      <c r="D52" s="45" t="s">
         <v>456</v>
       </c>
-      <c r="E52" s="67" t="s">
+      <c r="E52" s="68" t="s">
         <v>75</v>
       </c>
       <c r="H52" s="22"/>
@@ -22460,10 +19007,10 @@
       <c r="L52" s="22"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D53" s="73" t="s">
-        <v>986</v>
-      </c>
-      <c r="E53" s="74" t="s">
+      <c r="D53" s="69" t="s">
+        <v>961</v>
+      </c>
+      <c r="E53" s="70" t="s">
         <v>42</v>
       </c>
       <c r="H53" s="22"/>
@@ -22474,24 +19021,24 @@
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="40" t="s">
-        <v>987</v>
+        <v>962</v>
       </c>
       <c r="B54" s="39"/>
       <c r="H54" s="22"/>
       <c r="I54" s="35"/>
-      <c r="J54" s="65"/>
+      <c r="J54" s="71"/>
       <c r="K54" s="22"/>
       <c r="L54" s="22"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="46" t="s">
-        <v>988</v>
-      </c>
-      <c r="B55" s="67" t="s">
+      <c r="A55" s="45" t="s">
+        <v>963</v>
+      </c>
+      <c r="B55" s="68" t="s">
         <v>557</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>989</v>
+        <v>964</v>
       </c>
       <c r="E55" s="7"/>
       <c r="H55" s="22"/>
@@ -22501,14 +19048,14 @@
       <c r="L55" s="22"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="46" t="s">
-        <v>990</v>
-      </c>
-      <c r="B56" s="67" t="s">
+      <c r="A56" s="45" t="s">
+        <v>965</v>
+      </c>
+      <c r="B56" s="68" t="s">
         <v>557</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>991</v>
+        <v>966</v>
       </c>
       <c r="E56" s="23" t="s">
         <v>29</v>
@@ -22520,14 +19067,14 @@
       <c r="L56" s="22"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="46" t="s">
-        <v>992</v>
-      </c>
-      <c r="B57" s="67" t="s">
+      <c r="A57" s="45" t="s">
+        <v>967</v>
+      </c>
+      <c r="B57" s="68" t="s">
         <v>557</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>993</v>
+        <v>968</v>
       </c>
       <c r="E57" s="23" t="s">
         <v>42</v>
@@ -22539,14 +19086,14 @@
       <c r="L57" s="22"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="46" t="s">
-        <v>994</v>
-      </c>
-      <c r="B58" s="67" t="s">
+      <c r="A58" s="45" t="s">
+        <v>969</v>
+      </c>
+      <c r="B58" s="68" t="s">
         <v>557</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>995</v>
+        <v>970</v>
       </c>
       <c r="E58" s="23" t="s">
         <v>75</v>
@@ -22558,17 +19105,17 @@
       <c r="L58" s="22"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="46" t="s">
-        <v>996</v>
-      </c>
-      <c r="B59" s="67" t="s">
-        <v>997</v>
+      <c r="A59" s="45" t="s">
+        <v>971</v>
+      </c>
+      <c r="B59" s="68" t="s">
+        <v>972</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>998</v>
+        <v>973</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>999</v>
+        <v>974</v>
       </c>
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
@@ -22577,16 +19124,16 @@
       <c r="L59" s="22"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="46" t="s">
+      <c r="A60" s="45" t="s">
         <v>808</v>
       </c>
-      <c r="B60" s="67" t="s">
+      <c r="B60" s="68" t="s">
         <v>557</v>
       </c>
-      <c r="D60" s="71" t="s">
+      <c r="D60" s="66" t="s">
         <v>614</v>
       </c>
-      <c r="E60" s="72" t="s">
+      <c r="E60" s="67" t="s">
         <v>42</v>
       </c>
       <c r="H60" s="22"/>
@@ -22596,10 +19143,10 @@
       <c r="L60" s="22"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="46" t="s">
+      <c r="A61" s="45" t="s">
         <v>703</v>
       </c>
-      <c r="B61" s="67" t="s">
+      <c r="B61" s="68" t="s">
         <v>557</v>
       </c>
       <c r="H61" s="22"/>
@@ -22609,14 +19156,14 @@
       <c r="L61" s="22"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="46" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B62" s="67" t="s">
-        <v>978</v>
+      <c r="A62" s="45" t="s">
+        <v>975</v>
+      </c>
+      <c r="B62" s="68" t="s">
+        <v>949</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>1001</v>
+        <v>976</v>
       </c>
       <c r="E62" s="39"/>
       <c r="H62" s="22"/>
@@ -22626,16 +19173,16 @@
       <c r="L62" s="22"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="46" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B63" s="67" t="s">
+      <c r="A63" s="45" t="s">
+        <v>977</v>
+      </c>
+      <c r="B63" s="68" t="s">
+        <v>949</v>
+      </c>
+      <c r="D63" s="45" t="s">
         <v>978</v>
       </c>
-      <c r="D63" s="46" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E63" s="67" t="s">
+      <c r="E63" s="68" t="s">
         <v>38</v>
       </c>
       <c r="H63" s="22"/>
@@ -22645,16 +19192,16 @@
       <c r="L63" s="22"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="46" t="s">
-        <v>898</v>
-      </c>
-      <c r="B64" s="67" t="s">
-        <v>978</v>
-      </c>
-      <c r="D64" s="46" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E64" s="67" t="s">
+      <c r="A64" s="45" t="s">
+        <v>910</v>
+      </c>
+      <c r="B64" s="68" t="s">
+        <v>949</v>
+      </c>
+      <c r="D64" s="45" t="s">
+        <v>979</v>
+      </c>
+      <c r="E64" s="68" t="s">
         <v>42</v>
       </c>
       <c r="H64" s="22"/>
@@ -22664,16 +19211,16 @@
       <c r="L64" s="22"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="46" t="s">
+      <c r="A65" s="45" t="s">
         <v>829</v>
       </c>
-      <c r="B65" s="67" t="s">
+      <c r="B65" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="D65" s="46" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E65" s="47" t="s">
+      <c r="D65" s="45" t="s">
+        <v>980</v>
+      </c>
+      <c r="E65" s="46" t="s">
         <v>75</v>
       </c>
       <c r="H65" s="22"/>
@@ -22683,16 +19230,16 @@
       <c r="L65" s="22"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="46" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B66" s="67" t="s">
+      <c r="A66" s="45" t="s">
+        <v>981</v>
+      </c>
+      <c r="B66" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="D66" s="46" t="s">
+      <c r="D66" s="45" t="s">
         <v>426</v>
       </c>
-      <c r="E66" s="67" t="s">
+      <c r="E66" s="68" t="s">
         <v>132</v>
       </c>
       <c r="H66" s="22"/>
@@ -22702,16 +19249,16 @@
       <c r="L66" s="22"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="46" t="s">
-        <v>958</v>
-      </c>
-      <c r="B67" s="67" t="s">
+      <c r="A67" s="45" t="s">
+        <v>926</v>
+      </c>
+      <c r="B67" s="68" t="s">
         <v>310</v>
       </c>
-      <c r="D67" s="73" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E67" s="74" t="s">
+      <c r="D67" s="69" t="s">
+        <v>982</v>
+      </c>
+      <c r="E67" s="70" t="s">
         <v>38</v>
       </c>
       <c r="H67" s="22"/>
@@ -22721,10 +19268,10 @@
       <c r="L67" s="22"/>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="46" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B68" s="67" t="s">
+      <c r="A68" s="45" t="s">
+        <v>983</v>
+      </c>
+      <c r="B68" s="68" t="s">
         <v>42</v>
       </c>
       <c r="H68" s="22"/>
@@ -22734,16 +19281,16 @@
       <c r="L68" s="22"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="46" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B69" s="67" t="s">
-        <v>1010</v>
+      <c r="A69" s="45" t="s">
+        <v>984</v>
+      </c>
+      <c r="B69" s="68" t="s">
+        <v>985</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E69" s="69"/>
+        <v>986</v>
+      </c>
+      <c r="E69" s="61"/>
       <c r="H69" s="22"/>
       <c r="I69" s="33"/>
       <c r="J69" s="33"/>
@@ -22751,10 +19298,10 @@
       <c r="L69" s="22"/>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="46" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B70" s="67" t="s">
+      <c r="A70" s="45" t="s">
+        <v>987</v>
+      </c>
+      <c r="B70" s="68" t="s">
         <v>75</v>
       </c>
       <c r="H70" s="22"/>
@@ -22764,17 +19311,17 @@
       <c r="L70" s="22"/>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="46" t="s">
+      <c r="A71" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B71" s="67" t="s">
+      <c r="B71" s="68" t="s">
         <v>557</v>
       </c>
-      <c r="D71" s="75" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E71" s="76" t="s">
-        <v>1014</v>
+      <c r="D71" s="72" t="s">
+        <v>988</v>
+      </c>
+      <c r="E71" s="73" t="s">
+        <v>989</v>
       </c>
       <c r="H71" s="22"/>
       <c r="I71" s="33"/>
@@ -22783,17 +19330,17 @@
       <c r="L71" s="22"/>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="46" t="s">
+      <c r="A72" s="45" t="s">
         <v>405</v>
       </c>
-      <c r="B72" s="67" t="s">
+      <c r="B72" s="68" t="s">
         <v>80</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E72" s="66" t="s">
-        <v>1016</v>
+        <v>990</v>
+      </c>
+      <c r="E72" s="65" t="s">
+        <v>991</v>
       </c>
       <c r="H72" s="22"/>
       <c r="I72" s="33"/>
@@ -22802,16 +19349,16 @@
       <c r="L72" s="22"/>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="46" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B73" s="67" t="s">
+      <c r="A73" s="45" t="s">
+        <v>992</v>
+      </c>
+      <c r="B73" s="68" t="s">
         <v>557</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E73" s="66" t="s">
+        <v>993</v>
+      </c>
+      <c r="E73" s="65" t="s">
         <v>782</v>
       </c>
       <c r="H73" s="22"/>
@@ -22821,17 +19368,17 @@
       <c r="L73" s="22"/>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="46" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B74" s="67" t="s">
+      <c r="A74" s="45" t="s">
+        <v>994</v>
+      </c>
+      <c r="B74" s="68" t="s">
         <v>557</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>1020</v>
+        <v>995</v>
       </c>
       <c r="E74" s="23" t="s">
-        <v>1021</v>
+        <v>996</v>
       </c>
       <c r="H74" s="22"/>
       <c r="I74" s="33"/>
@@ -22840,16 +19387,16 @@
       <c r="L74" s="22"/>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="46" t="s">
+      <c r="A75" s="45" t="s">
         <v>614</v>
       </c>
-      <c r="B75" s="67" t="s">
-        <v>1022</v>
+      <c r="B75" s="68" t="s">
+        <v>997</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E75" s="66" t="s">
+        <v>993</v>
+      </c>
+      <c r="E75" s="65" t="s">
         <v>788</v>
       </c>
       <c r="H75" s="22"/>
@@ -22859,17 +19406,17 @@
       <c r="L75" s="22"/>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="46" t="s">
-        <v>919</v>
-      </c>
-      <c r="B76" s="67" t="s">
+      <c r="A76" s="45" t="s">
+        <v>923</v>
+      </c>
+      <c r="B76" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="D76" s="71" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E76" s="72" t="s">
-        <v>1021</v>
+      <c r="D76" s="66" t="s">
+        <v>998</v>
+      </c>
+      <c r="E76" s="67" t="s">
+        <v>996</v>
       </c>
       <c r="H76" s="22"/>
       <c r="I76" s="33"/>
@@ -22878,10 +19425,10 @@
       <c r="L76" s="22"/>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="46" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B77" s="67" t="s">
+      <c r="A77" s="45" t="s">
+        <v>999</v>
+      </c>
+      <c r="B77" s="68" t="s">
         <v>80</v>
       </c>
       <c r="H77" s="22"/>
@@ -22891,11 +19438,11 @@
       <c r="L77" s="22"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="46" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B78" s="67" t="s">
-        <v>1026</v>
+      <c r="A78" s="45" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B78" s="68" t="s">
+        <v>1001</v>
       </c>
       <c r="H78" s="22"/>
       <c r="I78" s="33"/>
@@ -22904,10 +19451,10 @@
       <c r="L78" s="22"/>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="73" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B79" s="74" t="s">
+      <c r="A79" s="69" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B79" s="70" t="s">
         <v>42</v>
       </c>
       <c r="H79" s="22"/>
@@ -22925,7 +19472,7 @@
     </row>
     <row r="81" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="3" t="s">
-        <v>922</v>
+        <v>879</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -22950,11 +19497,11 @@
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="15" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B83" s="69"/>
+        <v>1003</v>
+      </c>
+      <c r="B83" s="61"/>
       <c r="D83" s="40" t="s">
-        <v>1029</v>
+        <v>1004</v>
       </c>
       <c r="E83" s="39" t="s">
         <v>103</v>
@@ -22967,15 +19514,15 @@
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="13" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B84" s="66" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D84" s="46" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E84" s="67" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B84" s="65" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D84" s="45" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E84" s="68" t="s">
         <v>336</v>
       </c>
       <c r="H84" s="22"/>
@@ -22986,15 +19533,15 @@
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="13" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B85" s="66" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D85" s="46" t="s">
-        <v>979</v>
-      </c>
-      <c r="E85" s="67" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B85" s="65" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D85" s="45" t="s">
+        <v>950</v>
+      </c>
+      <c r="E85" s="68" t="s">
         <v>42</v>
       </c>
       <c r="H85" s="22"/>
@@ -23005,15 +19552,15 @@
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="13" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B86" s="66" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D86" s="46" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B86" s="65" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D86" s="45" t="s">
         <v>669</v>
       </c>
-      <c r="E86" s="67" t="s">
+      <c r="E86" s="68" t="s">
         <v>670</v>
       </c>
       <c r="H86" s="22"/>
@@ -23023,17 +19570,17 @@
       <c r="L86" s="22"/>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="71" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B87" s="77" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D87" s="46" t="s">
-        <v>1039</v>
-      </c>
-      <c r="E87" s="67" t="s">
-        <v>1040</v>
+      <c r="A87" s="66" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B87" s="74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D87" s="45" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E87" s="68" t="s">
+        <v>1015</v>
       </c>
       <c r="H87" s="22"/>
       <c r="I87" s="22"/>
@@ -23042,10 +19589,10 @@
       <c r="L87" s="22"/>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D88" s="46" t="s">
-        <v>986</v>
-      </c>
-      <c r="E88" s="67" t="s">
+      <c r="D88" s="45" t="s">
+        <v>961</v>
+      </c>
+      <c r="E88" s="68" t="s">
         <v>557</v>
       </c>
       <c r="H88" s="22"/>
@@ -23055,14 +19602,14 @@
       <c r="L88" s="22"/>
     </row>
     <row r="89" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="78" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B89" s="78"/>
-      <c r="D89" s="46" t="s">
+      <c r="A89" s="75" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B89" s="75"/>
+      <c r="D89" s="45" t="s">
         <v>560</v>
       </c>
-      <c r="E89" s="67" t="s">
+      <c r="E89" s="68" t="s">
         <v>42</v>
       </c>
       <c r="H89" s="22"/>
@@ -23078,10 +19625,10 @@
       <c r="B90" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D90" s="73" t="s">
+      <c r="D90" s="69" t="s">
         <v>678</v>
       </c>
-      <c r="E90" s="74" t="s">
+      <c r="E90" s="70" t="s">
         <v>611</v>
       </c>
       <c r="H90" s="22"/>
@@ -23092,12 +19639,12 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="13" t="s">
-        <v>1042</v>
+        <v>1017</v>
       </c>
       <c r="B91" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="E91" s="70" t="s">
+      <c r="E91" s="64" t="s">
         <v>809</v>
       </c>
       <c r="F91" s="23" t="s">
@@ -23116,10 +19663,10 @@
       <c r="B92" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="D92" s="78" t="s">
+      <c r="D92" s="75" t="s">
         <v>252</v>
       </c>
-      <c r="E92" s="78" t="s">
+      <c r="E92" s="75" t="s">
         <v>354</v>
       </c>
       <c r="F92" s="23"/>
@@ -23150,147 +19697,147 @@
       <c r="L93" s="22"/>
     </row>
     <row r="94" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="71" t="s">
+      <c r="A94" s="66" t="s">
         <v>816</v>
       </c>
-      <c r="B94" s="72" t="s">
+      <c r="B94" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="D94" s="70" t="s">
-        <v>1043</v>
+      <c r="D94" s="64" t="s">
+        <v>1018</v>
       </c>
       <c r="E94" s="3"/>
-      <c r="F94" s="72"/>
+      <c r="F94" s="67"/>
     </row>
     <row r="95" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D95" s="70" t="s">
-        <v>1044</v>
+      <c r="D95" s="64" t="s">
+        <v>1019</v>
       </c>
       <c r="E95" s="3"/>
-      <c r="F95" s="47" t="s">
+      <c r="F95" s="46" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="40" t="s">
-        <v>1045</v>
+        <v>1020</v>
       </c>
       <c r="B96" s="39"/>
-      <c r="D96" s="70" t="s">
-        <v>1046</v>
+      <c r="D96" s="64" t="s">
+        <v>1021</v>
       </c>
       <c r="E96" s="3"/>
-      <c r="F96" s="72"/>
+      <c r="F96" s="67"/>
     </row>
     <row r="97" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="46" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B97" s="47" t="s">
+      <c r="A97" s="45" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B97" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="D97" s="70" t="s">
+      <c r="D97" s="64" t="s">
         <v>309</v>
       </c>
       <c r="E97" s="3"/>
-      <c r="F97" s="47"/>
+      <c r="F97" s="46"/>
     </row>
     <row r="98" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="46" t="s">
+      <c r="A98" s="45" t="s">
         <v>359</v>
       </c>
-      <c r="B98" s="47" t="s">
+      <c r="B98" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="D98" s="70" t="s">
-        <v>1048</v>
+      <c r="D98" s="64" t="s">
+        <v>1023</v>
       </c>
       <c r="E98" s="3"/>
-      <c r="F98" s="72" t="s">
+      <c r="F98" s="67" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="46" t="s">
+      <c r="A99" s="45" t="s">
         <v>546</v>
       </c>
-      <c r="B99" s="67" t="s">
+      <c r="B99" s="68" t="s">
         <v>336</v>
       </c>
-      <c r="D99" s="79" t="s">
+      <c r="D99" s="76" t="s">
         <v>291</v>
       </c>
       <c r="E99" s="3"/>
-      <c r="F99" s="47"/>
+      <c r="F99" s="46"/>
     </row>
     <row r="100" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="46" t="s">
-        <v>979</v>
-      </c>
-      <c r="B100" s="67" t="s">
-        <v>1049</v>
+      <c r="A100" s="45" t="s">
+        <v>950</v>
+      </c>
+      <c r="B100" s="68" t="s">
+        <v>1024</v>
       </c>
       <c r="E100" s="3"/>
-      <c r="F100" s="72"/>
+      <c r="F100" s="67"/>
     </row>
     <row r="101" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="46" t="s">
+      <c r="A101" s="45" t="s">
         <v>398</v>
       </c>
-      <c r="B101" s="47" t="s">
+      <c r="B101" s="46" t="s">
         <v>124</v>
       </c>
       <c r="D101" s="40" t="s">
         <v>298</v>
       </c>
       <c r="E101" s="3"/>
-      <c r="F101" s="47"/>
+      <c r="F101" s="46"/>
     </row>
     <row r="102" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="46" t="s">
+      <c r="A102" s="45" t="s">
         <v>354</v>
       </c>
-      <c r="B102" s="67" t="s">
+      <c r="B102" s="68" t="s">
         <v>336</v>
       </c>
-      <c r="D102" s="46" t="s">
+      <c r="D102" s="45" t="s">
         <v>302</v>
       </c>
       <c r="E102" s="3"/>
-      <c r="F102" s="72"/>
+      <c r="F102" s="67"/>
     </row>
     <row r="103" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="73" t="s">
+      <c r="A103" s="69" t="s">
         <v>189</v>
       </c>
-      <c r="B103" s="80" t="s">
+      <c r="B103" s="77" t="s">
         <v>495</v>
       </c>
-      <c r="D103" s="46" t="s">
+      <c r="D103" s="45" t="s">
         <v>309</v>
       </c>
       <c r="E103" s="3"/>
-      <c r="F103" s="47"/>
+      <c r="F103" s="46"/>
     </row>
     <row r="104" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D104" s="46" t="s">
+      <c r="D104" s="45" t="s">
         <v>312</v>
       </c>
       <c r="E104" s="3"/>
-      <c r="F104" s="72"/>
+      <c r="F104" s="67"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="40" t="s">
         <v>577</v>
       </c>
       <c r="B105" s="39"/>
-      <c r="D105" s="73" t="s">
+      <c r="D105" s="69" t="s">
         <v>313</v>
       </c>
       <c r="E105" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="F105" s="47" t="s">
+      <c r="F105" s="46" t="s">
         <v>426</v>
       </c>
       <c r="G105" s="2" t="s">
@@ -23298,10 +19845,10 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="46" t="s">
+      <c r="A106" s="45" t="s">
         <v>517</v>
       </c>
-      <c r="B106" s="67" t="s">
+      <c r="B106" s="68" t="s">
         <v>557</v>
       </c>
       <c r="E106" s="40" t="s">
@@ -23310,33 +19857,33 @@
       <c r="F106" s="39"/>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="46" t="s">
+      <c r="A107" s="45" t="s">
         <v>513</v>
       </c>
-      <c r="B107" s="67" t="s">
+      <c r="B107" s="68" t="s">
         <v>557</v>
       </c>
-      <c r="D107" s="78" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E107" s="78"/>
+      <c r="D107" s="75" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E107" s="75"/>
       <c r="F107" s="0"/>
       <c r="G107" s="0"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="46" t="s">
+      <c r="A108" s="45" t="s">
         <v>313</v>
       </c>
-      <c r="B108" s="47" t="s">
+      <c r="B108" s="46" t="s">
         <v>868</v>
       </c>
       <c r="D108" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="E108" s="46" t="s">
+      <c r="E108" s="45" t="s">
         <v>582</v>
       </c>
-      <c r="F108" s="47" t="s">
+      <c r="F108" s="46" t="s">
         <v>869</v>
       </c>
       <c r="G108" s="2" t="s">
@@ -23344,14 +19891,14 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="46" t="s">
+      <c r="A109" s="45" t="s">
         <v>582</v>
       </c>
-      <c r="B109" s="47" t="s">
+      <c r="B109" s="46" t="s">
         <v>869</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>1051</v>
+        <v>1026</v>
       </c>
       <c r="E109" s="13" t="s">
         <v>354</v>
@@ -23359,10 +19906,10 @@
       <c r="F109" s="23"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="46" t="s">
+      <c r="A110" s="45" t="s">
         <v>449</v>
       </c>
-      <c r="B110" s="67" t="s">
+      <c r="B110" s="68" t="s">
         <v>867</v>
       </c>
       <c r="D110" s="13" t="s">
@@ -23374,10 +19921,10 @@
       <c r="F110" s="23"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="73" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B111" s="74" t="s">
+      <c r="A111" s="69" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B111" s="70" t="s">
         <v>600</v>
       </c>
       <c r="D111" s="13" t="s">
@@ -23398,10 +19945,10 @@
       <c r="F112" s="23"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="78" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B113" s="78"/>
+      <c r="A113" s="75" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B113" s="75"/>
       <c r="D113" s="13" t="s">
         <v>359</v>
       </c>
@@ -23418,7 +19965,7 @@
         <v>75</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>1054</v>
+        <v>1029</v>
       </c>
       <c r="E114" s="13" t="s">
         <v>354</v>
@@ -23467,39 +20014,39 @@
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="13" t="s">
-        <v>1055</v>
+        <v>1030</v>
       </c>
       <c r="B118" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D118" s="71" t="s">
+      <c r="D118" s="66" t="s">
         <v>365</v>
       </c>
-      <c r="E118" s="46" t="s">
+      <c r="E118" s="45" t="s">
         <v>809</v>
       </c>
-      <c r="F118" s="67" t="s">
+      <c r="F118" s="68" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="71" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B119" s="72" t="s">
-        <v>1057</v>
+      <c r="A119" s="66" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B119" s="67" t="s">
+        <v>1032</v>
       </c>
       <c r="E119" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="F119" s="72"/>
+      <c r="F119" s="67"/>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D120" s="81" t="s">
+      <c r="D120" s="78" t="s">
         <v>367</v>
       </c>
       <c r="E120" s="3"/>
-      <c r="F120" s="47" t="s">
+      <c r="F120" s="46" t="s">
         <v>467</v>
       </c>
       <c r="G120" s="2" t="s">
@@ -23507,20 +20054,20 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="78" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B121" s="78"/>
+      <c r="A121" s="75" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B121" s="75"/>
       <c r="D121" s="13" t="s">
         <v>361</v>
       </c>
       <c r="E121" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="F121" s="72"/>
+      <c r="F121" s="67"/>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="70" t="s">
+      <c r="A122" s="64" t="s">
         <v>809</v>
       </c>
       <c r="B122" s="23" t="s">
@@ -23530,11 +20077,11 @@
         <v>372</v>
       </c>
       <c r="E122" s="3"/>
-      <c r="F122" s="47"/>
+      <c r="F122" s="46"/>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="13" t="s">
-        <v>1059</v>
+        <v>1034</v>
       </c>
       <c r="B123" s="23" t="s">
         <v>75</v>
@@ -23543,24 +20090,24 @@
         <v>377</v>
       </c>
       <c r="E123" s="3"/>
-      <c r="F123" s="72"/>
+      <c r="F123" s="67"/>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="13" t="s">
-        <v>1060</v>
+        <v>1035</v>
       </c>
       <c r="B124" s="23" t="s">
         <v>75</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>995</v>
+        <v>970</v>
       </c>
       <c r="E124" s="3"/>
-      <c r="F124" s="47"/>
+      <c r="F124" s="46"/>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="13" t="s">
-        <v>1061</v>
+        <v>1036</v>
       </c>
       <c r="B125" s="23" t="s">
         <v>574</v>
@@ -23571,14 +20118,14 @@
       <c r="E125" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="F125" s="72"/>
+      <c r="F125" s="67"/>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="70" t="s">
+      <c r="A126" s="64" t="s">
         <v>803</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>1062</v>
+        <v>1037</v>
       </c>
       <c r="D126" s="13" t="s">
         <v>456</v>
@@ -23586,7 +20133,7 @@
       <c r="E126" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="F126" s="47"/>
+      <c r="F126" s="46"/>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="13" t="s">
@@ -23599,27 +20146,27 @@
         <v>391</v>
       </c>
       <c r="E127" s="3"/>
-      <c r="F127" s="72"/>
+      <c r="F127" s="67"/>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="13" t="s">
-        <v>1063</v>
+        <v>1038</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>1064</v>
+        <v>1039</v>
       </c>
       <c r="D128" s="13" t="s">
-        <v>1065</v>
+        <v>1040</v>
       </c>
       <c r="E128" s="3"/>
-      <c r="F128" s="47"/>
+      <c r="F128" s="46"/>
       <c r="G128" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="13" t="s">
-        <v>1066</v>
+        <v>1041</v>
       </c>
       <c r="B129" s="23" t="s">
         <v>38</v>
@@ -23628,10 +20175,10 @@
         <v>398</v>
       </c>
       <c r="E129" s="13" t="s">
-        <v>1035</v>
-      </c>
-      <c r="F129" s="66" t="s">
-        <v>1036</v>
+        <v>1010</v>
+      </c>
+      <c r="F129" s="65" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23660,10 +20207,10 @@
       <c r="D131" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="E131" s="46" t="s">
+      <c r="E131" s="45" t="s">
         <v>582</v>
       </c>
-      <c r="F131" s="47" t="s">
+      <c r="F131" s="46" t="s">
         <v>869</v>
       </c>
       <c r="G131" s="2" t="s">
@@ -23672,10 +20219,10 @@
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="13" t="s">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>1068</v>
+        <v>1043</v>
       </c>
       <c r="D132" s="13" t="s">
         <v>152</v>
@@ -23684,14 +20231,14 @@
         <v>354</v>
       </c>
       <c r="F132" s="23"/>
-      <c r="G132" s="82"/>
+      <c r="G132" s="79"/>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="71" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B133" s="72" t="s">
-        <v>1068</v>
+      <c r="A133" s="66" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B133" s="67" t="s">
+        <v>1043</v>
       </c>
       <c r="D133" s="13" t="s">
         <v>365</v>
@@ -23700,17 +20247,17 @@
         <v>354</v>
       </c>
       <c r="F133" s="23"/>
-      <c r="G133" s="82"/>
+      <c r="G133" s="79"/>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D134" s="71" t="s">
+      <c r="D134" s="66" t="s">
         <v>421</v>
       </c>
       <c r="E134" s="13" t="s">
         <v>354</v>
       </c>
       <c r="F134" s="23"/>
-      <c r="G134" s="82"/>
+      <c r="G134" s="79"/>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="40" t="s">
@@ -23721,30 +20268,30 @@
         <v>354</v>
       </c>
       <c r="F135" s="23"/>
-      <c r="G135" s="82"/>
+      <c r="G135" s="79"/>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="46" t="s">
+      <c r="A136" s="45" t="s">
         <v>570</v>
       </c>
-      <c r="B136" s="47" t="s">
+      <c r="B136" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="D136" s="83" t="s">
-        <v>1070</v>
+      <c r="D136" s="80" t="s">
+        <v>1045</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="46" t="s">
+      <c r="A137" s="45" t="s">
         <v>394</v>
       </c>
-      <c r="B137" s="47" t="s">
+      <c r="B137" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="D137" s="46" t="s">
+      <c r="D137" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="E137" s="67" t="s">
+      <c r="E137" s="68" t="s">
         <v>38</v>
       </c>
       <c r="F137" s="0"/>
@@ -23752,16 +20299,16 @@
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="13" t="s">
-        <v>1030</v>
+        <v>1005</v>
       </c>
       <c r="B138" s="23" t="s">
         <v>574</v>
       </c>
-      <c r="C138" s="82"/>
-      <c r="D138" s="46" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E138" s="67" t="s">
+      <c r="C138" s="79"/>
+      <c r="D138" s="45" t="s">
+        <v>981</v>
+      </c>
+      <c r="E138" s="68" t="s">
         <v>336</v>
       </c>
       <c r="F138" s="0"/>
@@ -23769,33 +20316,33 @@
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="13" t="s">
-        <v>1030</v>
+        <v>1005</v>
       </c>
       <c r="B139" s="23" t="s">
         <v>578</v>
       </c>
-      <c r="C139" s="82"/>
-      <c r="D139" s="46" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E139" s="67" t="s">
-        <v>1072</v>
+      <c r="C139" s="79"/>
+      <c r="D139" s="45" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E139" s="68" t="s">
+        <v>1047</v>
       </c>
       <c r="F139" s="0"/>
       <c r="G139" s="0"/>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="13" t="s">
-        <v>1030</v>
+        <v>1005</v>
       </c>
       <c r="B140" s="23" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C140" s="82"/>
-      <c r="D140" s="46" t="s">
-        <v>1074</v>
-      </c>
-      <c r="E140" s="67" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C140" s="79"/>
+      <c r="D140" s="45" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E140" s="68" t="s">
         <v>38</v>
       </c>
       <c r="F140" s="0"/>
@@ -23803,14 +20350,14 @@
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="13" t="s">
-        <v>1030</v>
+        <v>1005</v>
       </c>
       <c r="B141" s="23"/>
-      <c r="C141" s="82"/>
-      <c r="D141" s="46" t="s">
+      <c r="C141" s="79"/>
+      <c r="D141" s="45" t="s">
         <v>456</v>
       </c>
-      <c r="E141" s="67" t="s">
+      <c r="E141" s="68" t="s">
         <v>38</v>
       </c>
       <c r="F141" s="0"/>
@@ -23818,22 +20365,22 @@
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="13" t="s">
-        <v>1030</v>
+        <v>1005</v>
       </c>
       <c r="B142" s="23"/>
-      <c r="C142" s="82"/>
-      <c r="D142" s="46" t="s">
+      <c r="C142" s="79"/>
+      <c r="D142" s="45" t="s">
         <v>359</v>
       </c>
-      <c r="E142" s="67" t="s">
+      <c r="E142" s="68" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D143" s="46" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E143" s="67" t="s">
+      <c r="D143" s="45" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E143" s="68" t="s">
         <v>38</v>
       </c>
       <c r="F143" s="0"/>
@@ -23841,29 +20388,29 @@
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="13" t="s">
-        <v>1075</v>
+        <v>1050</v>
       </c>
       <c r="B144" s="23"/>
-      <c r="D144" s="46" t="s">
-        <v>893</v>
-      </c>
-      <c r="E144" s="67" t="s">
+      <c r="D144" s="45" t="s">
+        <v>899</v>
+      </c>
+      <c r="E144" s="68" t="s">
         <v>38</v>
       </c>
       <c r="F144" s="0"/>
       <c r="G144" s="0"/>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="70" t="s">
+      <c r="A145" s="64" t="s">
         <v>809</v>
       </c>
       <c r="B145" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="D145" s="46" t="s">
-        <v>893</v>
-      </c>
-      <c r="E145" s="67" t="s">
+      <c r="D145" s="45" t="s">
+        <v>899</v>
+      </c>
+      <c r="E145" s="68" t="s">
         <v>38</v>
       </c>
       <c r="F145" s="0"/>
@@ -23874,14 +20421,14 @@
         <v>560</v>
       </c>
       <c r="B146" s="23"/>
-      <c r="C146" s="82" t="s">
+      <c r="C146" s="79" t="s">
         <v>323</v>
       </c>
-      <c r="D146" s="46" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E146" s="67" t="s">
-        <v>1077</v>
+      <c r="D146" s="45" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E146" s="68" t="s">
+        <v>1052</v>
       </c>
       <c r="F146" s="0"/>
       <c r="G146" s="0"/>
@@ -23893,13 +20440,13 @@
       <c r="B147" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="C147" s="82" t="s">
+      <c r="C147" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="D147" s="46" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E147" s="67" t="s">
+      <c r="D147" s="45" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E147" s="68" t="s">
         <v>336</v>
       </c>
       <c r="F147" s="0"/>
@@ -23912,13 +20459,13 @@
       <c r="B148" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="C148" s="82" t="s">
+      <c r="C148" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="D148" s="46" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E148" s="67" t="s">
+      <c r="D148" s="45" t="s">
+        <v>980</v>
+      </c>
+      <c r="E148" s="68" t="s">
         <v>38</v>
       </c>
       <c r="F148" s="0"/>
@@ -23929,10 +20476,10 @@
         <v>565</v>
       </c>
       <c r="B149" s="39"/>
-      <c r="D149" s="46" t="s">
+      <c r="D149" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="E149" s="67" t="s">
+      <c r="E149" s="68" t="s">
         <v>38</v>
       </c>
       <c r="F149" s="0"/>
@@ -23940,29 +20487,29 @@
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="13" t="s">
-        <v>1079</v>
+        <v>1054</v>
       </c>
       <c r="B150" s="23"/>
-      <c r="D150" s="46" t="s">
+      <c r="D150" s="45" t="s">
         <v>560</v>
       </c>
-      <c r="E150" s="67" t="s">
+      <c r="E150" s="68" t="s">
         <v>38</v>
       </c>
       <c r="F150" s="0"/>
       <c r="G150" s="0"/>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="70" t="s">
+      <c r="A151" s="64" t="s">
         <v>809</v>
       </c>
       <c r="B151" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="D151" s="46" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E151" s="67" t="s">
+      <c r="D151" s="45" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E151" s="68" t="s">
         <v>854</v>
       </c>
       <c r="F151" s="0"/>
@@ -23973,22 +20520,22 @@
         <v>560</v>
       </c>
       <c r="B152" s="23"/>
-      <c r="D152" s="46" t="s">
+      <c r="D152" s="45" t="s">
         <v>313</v>
       </c>
-      <c r="E152" s="67" t="s">
+      <c r="E152" s="68" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="13" t="s">
-        <v>1060</v>
+        <v>1035</v>
       </c>
       <c r="B153" s="23"/>
-      <c r="D153" s="46" t="s">
+      <c r="D153" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="E153" s="67" t="s">
+      <c r="E153" s="68" t="s">
         <v>42</v>
       </c>
       <c r="F153" s="0"/>
@@ -23996,13 +20543,13 @@
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="13" t="s">
-        <v>1060</v>
+        <v>1035</v>
       </c>
       <c r="B154" s="23"/>
-      <c r="D154" s="46" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E154" s="67" t="s">
+      <c r="D154" s="45" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E154" s="68" t="s">
         <v>445</v>
       </c>
       <c r="F154" s="0"/>
@@ -24010,13 +20557,13 @@
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="13" t="s">
-        <v>1060</v>
+        <v>1035</v>
       </c>
       <c r="B155" s="23"/>
-      <c r="D155" s="46" t="s">
+      <c r="D155" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="E155" s="67" t="s">
+      <c r="E155" s="68" t="s">
         <v>38</v>
       </c>
       <c r="F155" s="0"/>
@@ -24024,13 +20571,13 @@
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="13" t="s">
-        <v>1060</v>
+        <v>1035</v>
       </c>
       <c r="B156" s="23"/>
-      <c r="D156" s="73" t="s">
+      <c r="D156" s="69" t="s">
         <v>365</v>
       </c>
-      <c r="E156" s="74" t="s">
+      <c r="E156" s="70" t="s">
         <v>366</v>
       </c>
       <c r="F156" s="0"/>
@@ -24038,7 +20585,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="13" t="s">
-        <v>1060</v>
+        <v>1035</v>
       </c>
       <c r="B157" s="23"/>
       <c r="F157" s="0"/>
@@ -24046,31 +20593,31 @@
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="13" t="s">
-        <v>1060</v>
+        <v>1035</v>
       </c>
       <c r="B158" s="23"/>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="13" t="s">
-        <v>1060</v>
+        <v>1035</v>
       </c>
       <c r="B159" s="23"/>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="13" t="s">
-        <v>1060</v>
+        <v>1035</v>
       </c>
       <c r="B160" s="23"/>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="13" t="s">
-        <v>1060</v>
+        <v>1035</v>
       </c>
       <c r="B161" s="23"/>
     </row>
     <row r="162" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="13" t="s">
-        <v>1060</v>
+        <v>1035</v>
       </c>
       <c r="B162" s="23"/>
       <c r="D162" s="3"/>
@@ -24078,13 +20625,13 @@
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="13" t="s">
-        <v>1060</v>
+        <v>1035</v>
       </c>
       <c r="B163" s="23"/>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="13" t="s">
-        <v>1060</v>
+        <v>1035</v>
       </c>
       <c r="B164" s="23"/>
     </row>
@@ -24143,99 +20690,99 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="71" t="s">
+      <c r="A172" s="66" t="s">
         <v>487</v>
       </c>
-      <c r="B172" s="72" t="s">
+      <c r="B172" s="67" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="15" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B174" s="69" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B174" s="61" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="46" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B175" s="67" t="s">
+      <c r="A175" s="45" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B175" s="68" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="46" t="s">
+      <c r="A176" s="45" t="s">
         <v>472</v>
       </c>
-      <c r="B176" s="67" t="s">
+      <c r="B176" s="68" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="46" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B177" s="78"/>
+      <c r="A177" s="45" t="s">
+        <v>982</v>
+      </c>
+      <c r="B177" s="75"/>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="46" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B178" s="67" t="s">
-        <v>1084</v>
+      <c r="A178" s="45" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B178" s="68" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="84" t="s">
+      <c r="A179" s="81" t="s">
         <v>809</v>
       </c>
-      <c r="B179" s="85" t="s">
+      <c r="B179" s="82" t="s">
         <v>370</v>
       </c>
-      <c r="C179" s="84"/>
-      <c r="D179" s="84"/>
-      <c r="E179" s="84"/>
+      <c r="C179" s="81"/>
+      <c r="D179" s="81"/>
+      <c r="E179" s="81"/>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="84"/>
-      <c r="B185" s="84"/>
-      <c r="C185" s="84"/>
-      <c r="D185" s="84"/>
-      <c r="E185" s="84"/>
+      <c r="A185" s="81"/>
+      <c r="B185" s="81"/>
+      <c r="C185" s="81"/>
+      <c r="D185" s="81"/>
+      <c r="E185" s="81"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="84" t="s">
+      <c r="A187" s="81" t="s">
         <v>809</v>
       </c>
-      <c r="B187" s="85" t="s">
+      <c r="B187" s="82" t="s">
         <v>404</v>
       </c>
-      <c r="C187" s="84"/>
-      <c r="D187" s="84"/>
-      <c r="E187" s="84"/>
+      <c r="C187" s="81"/>
+      <c r="D187" s="81"/>
+      <c r="E187" s="81"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="84"/>
-      <c r="B199" s="84"/>
-      <c r="C199" s="84"/>
-      <c r="D199" s="84"/>
-      <c r="E199" s="84"/>
+      <c r="A199" s="81"/>
+      <c r="B199" s="81"/>
+      <c r="C199" s="81"/>
+      <c r="D199" s="81"/>
+      <c r="E199" s="81"/>
     </row>
     <row r="201" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="84" t="s">
+      <c r="A201" s="81" t="s">
         <v>809</v>
       </c>
-      <c r="B201" s="85" t="s">
+      <c r="B201" s="82" t="s">
         <v>449</v>
       </c>
-      <c r="C201" s="84"/>
-      <c r="D201" s="84"/>
-      <c r="E201" s="84"/>
+      <c r="C201" s="81"/>
+      <c r="D201" s="81"/>
+      <c r="E201" s="81"/>
     </row>
     <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24244,23 +20791,23 @@
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="84"/>
-      <c r="B210" s="84"/>
-      <c r="C210" s="84"/>
-      <c r="D210" s="84"/>
-      <c r="E210" s="84"/>
+      <c r="A210" s="81"/>
+      <c r="B210" s="81"/>
+      <c r="C210" s="81"/>
+      <c r="D210" s="81"/>
+      <c r="E210" s="81"/>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="84" t="s">
+      <c r="A212" s="81" t="s">
         <v>809</v>
       </c>
-      <c r="B212" s="85" t="s">
+      <c r="B212" s="82" t="s">
         <v>481</v>
       </c>
-      <c r="C212" s="84"/>
-      <c r="D212" s="84"/>
-      <c r="E212" s="84"/>
+      <c r="C212" s="81"/>
+      <c r="D212" s="81"/>
+      <c r="E212" s="81"/>
     </row>
     <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="2" t="s">
@@ -24309,11 +20856,11 @@
     </row>
     <row r="233" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A234" s="84"/>
-      <c r="B234" s="84"/>
-      <c r="C234" s="84"/>
-      <c r="D234" s="84"/>
-      <c r="E234" s="84"/>
+      <c r="A234" s="81"/>
+      <c r="B234" s="81"/>
+      <c r="C234" s="81"/>
+      <c r="D234" s="81"/>
+      <c r="E234" s="81"/>
     </row>
     <row r="269" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="338" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/documentation/KPCrew Flows.xlsx
+++ b/documentation/KPCrew Flows.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2671" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="732">
   <si>
     <t xml:space="preserve">KPCREW FOR ZIBO BOEING 737-800 FREEWARE (V2.3)</t>
   </si>
@@ -1736,7 +1736,7 @@
     <t xml:space="preserve">IRSs</t>
   </si>
   <si>
-    <t xml:space="preserve">KPCREW FOR LAMINAR CITATION X CL750 FREEWARE (V2.3)</t>
+    <t xml:space="preserve">KPCREW FOR LAMINAR XP12 CITATION X CL750 FREEWARE (V2.3)</t>
   </si>
   <si>
     <t xml:space="preserve">Preflight Inspection completed</t>
@@ -1928,6 +1928,9 @@
     <t xml:space="preserve">RH AHRS SLEW</t>
   </si>
   <si>
+    <t xml:space="preserve">AFTER START</t>
+  </si>
+  <si>
     <t xml:space="preserve">OXY PRESSURE</t>
   </si>
   <si>
@@ -1937,39 +1940,66 @@
     <t xml:space="preserve">FUEL XFER SELECTOR</t>
   </si>
   <si>
+    <t xml:space="preserve">GEN LH &amp; RH</t>
+  </si>
+  <si>
     <t xml:space="preserve">GRVTY XFLOW</t>
   </si>
   <si>
     <t xml:space="preserve">CTR WING XFER LH &amp; RH</t>
   </si>
   <si>
+    <t xml:space="preserve">BOTH NORM</t>
+  </si>
+  <si>
     <t xml:space="preserve">LOAD SHED</t>
   </si>
   <si>
     <t xml:space="preserve"> ==== CENTER/GLARE</t>
   </si>
   <si>
+    <t xml:space="preserve">APU GEN BLEED AIR</t>
+  </si>
+  <si>
     <t xml:space="preserve">FUEL QUANTITY</t>
   </si>
   <si>
     <t xml:space="preserve">CHECK BAL IN EICAS</t>
   </si>
   <si>
+    <t xml:space="preserve">APU STARTERP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRESS DOWN TO STOP</t>
+  </si>
+  <si>
     <t xml:space="preserve">AP</t>
   </si>
   <si>
     <t xml:space="preserve">PRESS STBY</t>
   </si>
   <si>
+    <t xml:space="preserve">STOPPED</t>
+  </si>
+  <si>
     <t xml:space="preserve">LH &amp; RH STOW EMER REVERSERS</t>
   </si>
   <si>
     <t xml:space="preserve"> ==== RIGHT</t>
   </si>
   <si>
+    <t xml:space="preserve">PRESSURIZATION SOURCES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL NORM</t>
+  </si>
+  <si>
     <t xml:space="preserve">WING XOVER</t>
   </si>
   <si>
+    <t xml:space="preserve">SPEED BRAKES &amp; GROUND SPOILERS</t>
+  </si>
+  <si>
     <t xml:space="preserve">CABIN DUMP</t>
   </si>
   <si>
@@ -1979,24 +2009,39 @@
     <t xml:space="preserve">ISO VLV CLOSE</t>
   </si>
   <si>
-    <t xml:space="preserve">PRESSURIZATION SOURCES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALL NORM</t>
+    <t xml:space="preserve">EICASCHECK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHECK WARNING / ERRORS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PITOT STATIC</t>
   </si>
   <si>
     <t xml:space="preserve">PRESSURIZATION ALT</t>
   </si>
   <si>
+    <t xml:space="preserve">ENGINE ANTI-ICE</t>
+  </si>
+  <si>
     <t xml:space="preserve"> ==== PEDESTAL</t>
   </si>
   <si>
+    <t xml:space="preserve">STABILIZER ANTI-ICE</t>
+  </si>
+  <si>
     <t xml:space="preserve">GND IDLE</t>
   </si>
   <si>
+    <t xml:space="preserve">FUEL QTY BALANCE</t>
+  </si>
+  <si>
     <t xml:space="preserve">ENG SYNC</t>
   </si>
   <si>
+    <t xml:space="preserve">HYD PUMP A &amp; B</t>
+  </si>
+  <si>
     <t xml:space="preserve">AILERON LATCH</t>
   </si>
   <si>
@@ -2015,12 +2060,24 @@
     <t xml:space="preserve">LH AHRS DG</t>
   </si>
   <si>
+    <t xml:space="preserve">PRE TAXI</t>
+  </si>
+  <si>
     <t xml:space="preserve">LH AHRS SLEW</t>
   </si>
   <si>
     <t xml:space="preserve">ROTARY TEST</t>
   </si>
   <si>
+    <t xml:space="preserve">SET GREEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERNAL LIGHTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAXI LIGHT</t>
+  </si>
+  <si>
     <t xml:space="preserve">CDU PREFLIGHT BY CAPTAIN</t>
   </si>
   <si>
@@ -2031,6 +2088,135 @@
   </si>
   <si>
     <t xml:space="preserve">SET UP FMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEFORE TAKEOFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHECK T/O FLAPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V SPEEDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP ALTITUDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET CHECKED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP HEADING BUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP HDG MODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP VNAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP MAC TRIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WINDSHIELD HEAT LH &amp; RH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTI SKID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUNWAY ENTRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STROBE LIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATC ALT ON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACS &amp; BLEEDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LANDING LIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> == TAKEOFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAKEOFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> == GEAR UP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMMAND GEAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> == RETRACT FLAPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A/P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET CLIMB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAC &amp; BLEED SWITCHES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> === Whatever comes first</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =====</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000 FT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESCENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPCREW APPROACH BRIEFING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHECK IN FMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAVIGATION RADIOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET FOR THE APPROACH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSITION LEVEL DESCENT FORECAST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET FOR APPROACH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPROACH BRIEFING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERFORMED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET LAND ALT __ FT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOTH OFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LH &amp; RH WNDSHLD ANTI-ICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOTH ON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  === Whatever comes first</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QNH AT DEST</t>
   </si>
 </sst>
 </file>
@@ -2571,8 +2757,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ411"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13400,8 +13586,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ411"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F48" activeCellId="0" sqref="F48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B137" activeCellId="0" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14361,9 +14547,13 @@
       <c r="C42" s="27" t="s">
         <v>633</v>
       </c>
-      <c r="E42" s="0"/>
-      <c r="F42" s="0"/>
-      <c r="G42" s="0"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>596</v>
+      </c>
       <c r="H42" s="0"/>
       <c r="I42" s="0"/>
       <c r="J42" s="0"/>
@@ -14372,18 +14562,24 @@
       <c r="M42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="21" t="s">
-        <v>14</v>
+      <c r="A43" s="31" t="s">
+        <v>27</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>636</v>
-      </c>
-      <c r="E43" s="0"/>
-      <c r="F43" s="0"/>
-      <c r="G43" s="0"/>
+        <v>637</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>42</v>
+      </c>
       <c r="H43" s="0"/>
       <c r="I43" s="0"/>
       <c r="J43" s="0"/>
@@ -14396,14 +14592,20 @@
         <v>14</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C44" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E44" s="0"/>
-      <c r="F44" s="0"/>
-      <c r="G44" s="0"/>
+      <c r="E44" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>639</v>
+      </c>
+      <c r="G44" s="27" t="s">
+        <v>123</v>
+      </c>
       <c r="H44" s="0"/>
       <c r="I44" s="0"/>
       <c r="J44" s="0"/>
@@ -14416,14 +14618,20 @@
         <v>14</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C45" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E45" s="0"/>
-      <c r="F45" s="0"/>
-      <c r="G45" s="0"/>
+      <c r="E45" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>641</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>642</v>
+      </c>
       <c r="H45" s="0"/>
       <c r="I45" s="0"/>
       <c r="J45" s="0"/>
@@ -14436,14 +14644,20 @@
         <v>14</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C46" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="E46" s="0"/>
-      <c r="F46" s="0"/>
-      <c r="G46" s="0"/>
+      <c r="E46" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>123</v>
+      </c>
       <c r="H46" s="0"/>
       <c r="I46" s="0"/>
       <c r="J46" s="0"/>
@@ -14456,14 +14670,20 @@
         <v>14</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C47" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="E47" s="0"/>
-      <c r="F47" s="0"/>
-      <c r="G47" s="0"/>
+      <c r="E47" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>610</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>38</v>
+      </c>
       <c r="H47" s="0"/>
       <c r="I47" s="0"/>
       <c r="J47" s="0"/>
@@ -14474,12 +14694,18 @@
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="17"/>
       <c r="B48" s="18" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="C48" s="19"/>
-      <c r="E48" s="0"/>
-      <c r="F48" s="0"/>
-      <c r="G48" s="0"/>
+      <c r="E48" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>645</v>
+      </c>
+      <c r="G48" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="H48" s="0"/>
       <c r="I48" s="0"/>
       <c r="J48" s="0"/>
@@ -14492,14 +14718,20 @@
         <v>14</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>643</v>
-      </c>
-      <c r="E49" s="0"/>
-      <c r="F49" s="0"/>
-      <c r="G49" s="0"/>
+        <v>647</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>648</v>
+      </c>
+      <c r="G49" s="23" t="s">
+        <v>649</v>
+      </c>
       <c r="H49" s="0"/>
       <c r="I49" s="0"/>
       <c r="J49" s="0"/>
@@ -14512,14 +14744,20 @@
         <v>14</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>645</v>
-      </c>
-      <c r="E50" s="0"/>
-      <c r="F50" s="0"/>
-      <c r="G50" s="0"/>
+        <v>651</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="G50" s="27" t="s">
+        <v>652</v>
+      </c>
       <c r="H50" s="0"/>
       <c r="I50" s="0"/>
       <c r="J50" s="0"/>
@@ -14533,14 +14771,20 @@
         <v>14</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="C51" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="E51" s="0"/>
-      <c r="F51" s="0"/>
-      <c r="G51" s="0"/>
+      <c r="E51" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>600</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>38</v>
+      </c>
       <c r="H51" s="0"/>
       <c r="I51" s="0"/>
       <c r="J51" s="0"/>
@@ -14552,12 +14796,18 @@
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="17"/>
       <c r="B52" s="18" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="C52" s="19"/>
-      <c r="E52" s="0"/>
-      <c r="F52" s="0"/>
-      <c r="G52" s="0"/>
+      <c r="E52" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>655</v>
+      </c>
+      <c r="G52" s="27" t="s">
+        <v>656</v>
+      </c>
       <c r="H52" s="0"/>
       <c r="I52" s="0"/>
       <c r="J52" s="0"/>
@@ -14571,14 +14821,20 @@
         <v>14</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="C53" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="E53" s="0"/>
-      <c r="F53" s="0"/>
-      <c r="G53" s="0"/>
+      <c r="E53" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>658</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>54</v>
+      </c>
       <c r="H53" s="0"/>
       <c r="I53" s="0"/>
       <c r="J53" s="0"/>
@@ -14592,14 +14848,16 @@
         <v>14</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>650</v>
-      </c>
-      <c r="E54" s="0"/>
-      <c r="F54" s="0"/>
-      <c r="G54" s="0"/>
+        <v>660</v>
+      </c>
+      <c r="E54" s="17"/>
+      <c r="F54" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="G54" s="19"/>
       <c r="H54" s="0"/>
       <c r="I54" s="0"/>
       <c r="J54" s="0"/>
@@ -14613,14 +14871,20 @@
         <v>14</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>650</v>
-      </c>
-      <c r="E55" s="0"/>
-      <c r="F55" s="0"/>
-      <c r="G55" s="0"/>
+        <v>660</v>
+      </c>
+      <c r="E55" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="G55" s="27" t="s">
+        <v>663</v>
+      </c>
       <c r="H55" s="0"/>
       <c r="I55" s="0"/>
       <c r="J55" s="0"/>
@@ -14634,14 +14898,20 @@
         <v>14</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>653</v>
-      </c>
-      <c r="E56" s="0"/>
-      <c r="F56" s="0"/>
-      <c r="G56" s="0"/>
+        <v>656</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>664</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>123</v>
+      </c>
       <c r="H56" s="0"/>
       <c r="I56" s="0"/>
       <c r="J56" s="0"/>
@@ -14671,14 +14941,20 @@
         <v>14</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="C57" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E57" s="0"/>
-      <c r="F57" s="0"/>
-      <c r="G57" s="0"/>
+      <c r="E57" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>666</v>
+      </c>
+      <c r="G57" s="27" t="s">
+        <v>275</v>
+      </c>
       <c r="H57" s="0"/>
       <c r="I57" s="0"/>
       <c r="J57" s="0"/>
@@ -14704,12 +14980,18 @@
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="17"/>
       <c r="B58" s="18" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="C58" s="19"/>
-      <c r="E58" s="0"/>
-      <c r="F58" s="0"/>
-      <c r="G58" s="0"/>
+      <c r="E58" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>668</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>275</v>
+      </c>
       <c r="H58" s="0"/>
       <c r="I58" s="0"/>
       <c r="J58" s="0"/>
@@ -14737,14 +15019,20 @@
         <v>14</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>656</v>
+        <v>669</v>
       </c>
       <c r="C59" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="E59" s="0"/>
-      <c r="F59" s="0"/>
-      <c r="G59" s="0"/>
+      <c r="E59" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>670</v>
+      </c>
+      <c r="G59" s="27" t="s">
+        <v>158</v>
+      </c>
       <c r="H59" s="0"/>
       <c r="I59" s="0"/>
       <c r="J59" s="0"/>
@@ -14772,14 +15060,20 @@
         <v>14</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="C60" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="E60" s="0"/>
-      <c r="F60" s="0"/>
-      <c r="G60" s="0"/>
+      <c r="E60" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>672</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>225</v>
+      </c>
       <c r="H60" s="0"/>
       <c r="I60" s="0"/>
       <c r="J60" s="0"/>
@@ -14807,14 +15101,20 @@
         <v>14</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>658</v>
+        <v>673</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>659</v>
-      </c>
-      <c r="E61" s="0"/>
-      <c r="F61" s="0"/>
-      <c r="G61" s="0"/>
+        <v>674</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F61" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="G61" s="27" t="s">
+        <v>158</v>
+      </c>
       <c r="H61" s="0"/>
       <c r="I61" s="0"/>
       <c r="J61" s="0"/>
@@ -14842,14 +15142,14 @@
         <v>14</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>661</v>
-      </c>
-      <c r="E62" s="0"/>
-      <c r="F62" s="0"/>
-      <c r="G62" s="0"/>
+        <v>676</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="7"/>
       <c r="H62" s="0"/>
       <c r="I62" s="0"/>
       <c r="J62" s="0"/>
@@ -14875,7 +15175,7 @@
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="17"/>
       <c r="B63" s="18" t="s">
-        <v>662</v>
+        <v>677</v>
       </c>
       <c r="C63" s="19"/>
       <c r="E63" s="0"/>
@@ -14908,14 +15208,18 @@
         <v>27</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
       <c r="C64" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E64" s="0"/>
-      <c r="F64" s="0"/>
-      <c r="G64" s="0"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>596</v>
+      </c>
       <c r="H64" s="0"/>
       <c r="I64" s="0"/>
       <c r="J64" s="0"/>
@@ -14943,14 +15247,20 @@
         <v>27</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
       <c r="C65" s="23" t="s">
         <v>633</v>
       </c>
-      <c r="E65" s="0"/>
-      <c r="F65" s="0"/>
-      <c r="G65" s="0"/>
+      <c r="E65" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="G65" s="23" t="s">
+        <v>320</v>
+      </c>
       <c r="H65" s="0"/>
       <c r="I65" s="0"/>
       <c r="J65" s="0"/>
@@ -14978,14 +15288,20 @@
         <v>27</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>664</v>
+        <v>680</v>
       </c>
       <c r="C66" s="27" t="s">
         <v>633</v>
       </c>
-      <c r="E66" s="0"/>
-      <c r="F66" s="0"/>
-      <c r="G66" s="0"/>
+      <c r="E66" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="G66" s="27" t="s">
+        <v>275</v>
+      </c>
       <c r="H66" s="0"/>
       <c r="I66" s="0"/>
       <c r="J66" s="0"/>
@@ -15013,14 +15329,20 @@
         <v>27</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>665</v>
+        <v>681</v>
       </c>
       <c r="C67" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="E67" s="0"/>
-      <c r="F67" s="0"/>
-      <c r="G67" s="0"/>
+      <c r="E67" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F67" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="G67" s="23" t="s">
+        <v>682</v>
+      </c>
       <c r="H67" s="0"/>
       <c r="I67" s="0"/>
       <c r="J67" s="0"/>
@@ -15047,9 +15369,15 @@
       <c r="A68" s="5"/>
       <c r="B68" s="6"/>
       <c r="C68" s="7"/>
-      <c r="E68" s="0"/>
-      <c r="F68" s="0"/>
-      <c r="G68" s="0"/>
+      <c r="E68" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="26" t="s">
+        <v>683</v>
+      </c>
+      <c r="G68" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="H68" s="0"/>
       <c r="I68" s="0"/>
       <c r="J68" s="0"/>
@@ -15076,9 +15404,15 @@
       <c r="A69" s="0"/>
       <c r="B69" s="0"/>
       <c r="C69" s="0"/>
-      <c r="E69" s="0"/>
-      <c r="F69" s="0"/>
-      <c r="G69" s="0"/>
+      <c r="E69" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F69" s="22" t="s">
+        <v>684</v>
+      </c>
+      <c r="G69" s="23" t="s">
+        <v>123</v>
+      </c>
       <c r="H69" s="0"/>
       <c r="I69" s="0"/>
       <c r="J69" s="0"/>
@@ -15104,14 +15438,20 @@
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5"/>
       <c r="B70" s="6" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="E70" s="0"/>
-      <c r="F70" s="0"/>
-      <c r="G70" s="0"/>
+        <v>686</v>
+      </c>
+      <c r="E70" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F70" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="G70" s="27" t="s">
+        <v>421</v>
+      </c>
       <c r="H70" s="0"/>
       <c r="I70" s="0"/>
       <c r="J70" s="0"/>
@@ -15137,12 +15477,12 @@
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="17"/>
       <c r="B71" s="18" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="C71" s="19"/>
-      <c r="E71" s="0"/>
-      <c r="F71" s="0"/>
-      <c r="G71" s="0"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="7"/>
       <c r="H71" s="0"/>
       <c r="I71" s="0"/>
       <c r="J71" s="0"/>
@@ -15168,7 +15508,7 @@
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="17"/>
       <c r="B72" s="18" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="C72" s="19"/>
       <c r="E72" s="0"/>
@@ -15488,7 +15828,7 @@
     </row>
     <row r="83" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="3" t="s">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -15519,18 +15859,14 @@
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5"/>
       <c r="B85" s="6" t="s">
-        <v>198</v>
+        <v>689</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E85" s="5"/>
-      <c r="F85" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>2</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="E85" s="0"/>
+      <c r="F85" s="0"/>
+      <c r="G85" s="0"/>
       <c r="H85" s="0"/>
       <c r="I85" s="0"/>
       <c r="J85" s="0"/>
@@ -15540,20 +15876,18 @@
       <c r="N85" s="0"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="17"/>
-      <c r="B86" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="C86" s="19"/>
-      <c r="E86" s="31" t="s">
+      <c r="A86" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F86" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="G86" s="27" t="s">
-        <v>31</v>
-      </c>
+      <c r="B86" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="C86" s="27" t="s">
+        <v>690</v>
+      </c>
+      <c r="E86" s="0"/>
+      <c r="F86" s="0"/>
+      <c r="G86" s="0"/>
       <c r="H86" s="0"/>
       <c r="I86" s="0"/>
       <c r="J86" s="0"/>
@@ -15563,16 +15897,18 @@
       <c r="N86" s="0"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="10"/>
-      <c r="B87" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="C87" s="12"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="G87" s="12"/>
+      <c r="A87" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>691</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="E87" s="0"/>
+      <c r="F87" s="0"/>
+      <c r="G87" s="0"/>
       <c r="H87" s="0"/>
       <c r="I87" s="0"/>
       <c r="J87" s="0"/>
@@ -15582,20 +15918,18 @@
       <c r="N87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B88" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C88" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="E88" s="17"/>
-      <c r="F88" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="G88" s="19"/>
+      <c r="A88" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B88" s="26" t="s">
+        <v>692</v>
+      </c>
+      <c r="C88" s="27" t="s">
+        <v>693</v>
+      </c>
+      <c r="E88" s="0"/>
+      <c r="F88" s="0"/>
+      <c r="G88" s="0"/>
       <c r="H88" s="0"/>
       <c r="I88" s="0"/>
       <c r="J88" s="0"/>
@@ -15605,24 +15939,18 @@
       <c r="N88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B89" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C89" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="E89" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F89" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="G89" s="27" t="s">
-        <v>31</v>
-      </c>
+      <c r="A89" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>694</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E89" s="0"/>
+      <c r="F89" s="0"/>
+      <c r="G89" s="0"/>
       <c r="I89" s="0"/>
       <c r="J89" s="0"/>
       <c r="K89" s="0"/>
@@ -15631,24 +15959,18 @@
       <c r="N89" s="0"/>
     </row>
     <row r="90" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B90" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="C90" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="E90" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="G90" s="23" t="s">
-        <v>31</v>
-      </c>
+      <c r="A90" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B90" s="26" t="s">
+        <v>695</v>
+      </c>
+      <c r="C90" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E90" s="0"/>
+      <c r="F90" s="0"/>
+      <c r="G90" s="0"/>
       <c r="H90" s="0"/>
       <c r="I90" s="0"/>
       <c r="J90" s="0"/>
@@ -15658,24 +15980,18 @@
       <c r="N90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B91" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="C91" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="E91" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="G91" s="27" t="s">
-        <v>31</v>
-      </c>
+      <c r="A91" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>696</v>
+      </c>
+      <c r="C91" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E91" s="0"/>
+      <c r="F91" s="0"/>
+      <c r="G91" s="0"/>
       <c r="H91" s="0"/>
       <c r="I91" s="0"/>
       <c r="J91" s="0"/>
@@ -15685,24 +16001,18 @@
       <c r="N91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B92" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C92" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E92" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="G92" s="23" t="s">
-        <v>196</v>
-      </c>
+      <c r="A92" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B92" s="26" t="s">
+        <v>697</v>
+      </c>
+      <c r="C92" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E92" s="0"/>
+      <c r="F92" s="0"/>
+      <c r="G92" s="0"/>
       <c r="H92" s="0"/>
       <c r="I92" s="0"/>
       <c r="J92" s="0"/>
@@ -15712,16 +16022,18 @@
       <c r="N92" s="0"/>
     </row>
     <row r="93" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="10"/>
-      <c r="B93" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C93" s="12"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="G93" s="19"/>
+      <c r="A93" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="C93" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="E93" s="0"/>
+      <c r="F93" s="0"/>
+      <c r="G93" s="0"/>
       <c r="H93" s="0"/>
       <c r="I93" s="0"/>
       <c r="J93" s="0"/>
@@ -15735,20 +16047,14 @@
         <v>14</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>212</v>
+        <v>668</v>
       </c>
       <c r="C94" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="E94" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="G94" s="27" t="s">
-        <v>54</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="E94" s="0"/>
+      <c r="F94" s="0"/>
+      <c r="G94" s="0"/>
       <c r="H94" s="0"/>
       <c r="I94" s="0"/>
       <c r="J94" s="0"/>
@@ -15758,20 +16064,18 @@
       <c r="N94" s="0"/>
     </row>
     <row r="95" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="10"/>
-      <c r="B95" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C95" s="12"/>
-      <c r="E95" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F95" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="G95" s="23" t="s">
-        <v>215</v>
-      </c>
+      <c r="A95" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" s="22" t="s">
+        <v>698</v>
+      </c>
+      <c r="C95" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E95" s="0"/>
+      <c r="F95" s="0"/>
+      <c r="G95" s="0"/>
       <c r="H95" s="0"/>
       <c r="I95" s="0"/>
       <c r="J95" s="0"/>
@@ -15784,21 +16088,15 @@
       <c r="A96" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B96" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="C96" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E96" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F96" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="G96" s="27" t="s">
-        <v>217</v>
-      </c>
+      <c r="B96" s="26" t="s">
+        <v>699</v>
+      </c>
+      <c r="C96" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="E96" s="0"/>
+      <c r="F96" s="0"/>
+      <c r="G96" s="0"/>
       <c r="H96" s="0"/>
       <c r="I96" s="0"/>
       <c r="J96" s="0"/>
@@ -15808,24 +16106,12 @@
       <c r="N96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B97" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="C97" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E97" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F97" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="G97" s="23" t="s">
-        <v>219</v>
-      </c>
+      <c r="A97" s="5"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="7"/>
+      <c r="E97" s="0"/>
+      <c r="F97" s="0"/>
+      <c r="G97" s="0"/>
       <c r="H97" s="1"/>
       <c r="I97" s="0"/>
       <c r="J97" s="0"/>
@@ -15835,24 +16121,12 @@
       <c r="N97" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B98" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="C98" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E98" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F98" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="G98" s="27" t="s">
-        <v>221</v>
-      </c>
+      <c r="A98" s="0"/>
+      <c r="B98" s="0"/>
+      <c r="C98" s="0"/>
+      <c r="E98" s="0"/>
+      <c r="F98" s="0"/>
+      <c r="G98" s="0"/>
       <c r="H98" s="0"/>
       <c r="I98" s="0"/>
       <c r="J98" s="0"/>
@@ -15862,16 +16136,16 @@
       <c r="N98" s="0"/>
     </row>
     <row r="99" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="17"/>
-      <c r="B99" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="C99" s="19"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="G99" s="19"/>
+      <c r="A99" s="5"/>
+      <c r="B99" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="E99" s="0"/>
+      <c r="F99" s="0"/>
+      <c r="G99" s="0"/>
       <c r="H99" s="0"/>
       <c r="I99" s="0"/>
       <c r="J99" s="0"/>
@@ -15885,20 +16159,14 @@
         <v>14</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>224</v>
+        <v>701</v>
       </c>
       <c r="C100" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="E100" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F100" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="G100" s="27" t="s">
-        <v>227</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E100" s="0"/>
+      <c r="F100" s="0"/>
+      <c r="G100" s="0"/>
       <c r="H100" s="0"/>
       <c r="I100" s="0"/>
       <c r="J100" s="0"/>
@@ -15911,20 +16179,14 @@
         <v>14</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>228</v>
+        <v>684</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E101" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F101" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="G101" s="23" t="s">
-        <v>230</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E101" s="0"/>
+      <c r="F101" s="0"/>
+      <c r="G101" s="0"/>
       <c r="H101" s="0"/>
       <c r="I101" s="0"/>
       <c r="J101" s="0"/>
@@ -15938,20 +16200,14 @@
         <v>14</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>231</v>
+        <v>401</v>
       </c>
       <c r="C102" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="E102" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F102" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="G102" s="27" t="s">
-        <v>234</v>
-      </c>
+        <v>702</v>
+      </c>
+      <c r="E102" s="0"/>
+      <c r="F102" s="0"/>
+      <c r="G102" s="0"/>
       <c r="H102" s="0"/>
       <c r="I102" s="0"/>
       <c r="J102" s="0"/>
@@ -15965,20 +16221,14 @@
         <v>14</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>235</v>
+        <v>703</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="E103" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F103" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G103" s="23" t="s">
-        <v>236</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="E103" s="0"/>
+      <c r="F103" s="0"/>
+      <c r="G103" s="0"/>
       <c r="H103" s="0"/>
       <c r="I103" s="0"/>
       <c r="J103" s="0"/>
@@ -15988,20 +16238,18 @@
       <c r="N103" s="0"/>
     </row>
     <row r="104" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="21" t="s">
-        <v>14</v>
+      <c r="A104" s="31" t="s">
+        <v>27</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>50</v>
+        <v>704</v>
       </c>
       <c r="C104" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E104" s="10"/>
-      <c r="F104" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="G104" s="12"/>
+        <v>123</v>
+      </c>
+      <c r="E104" s="0"/>
+      <c r="F104" s="0"/>
+      <c r="G104" s="0"/>
       <c r="H104" s="0"/>
       <c r="I104" s="0"/>
       <c r="J104" s="0"/>
@@ -16011,20 +16259,12 @@
       <c r="N104" s="0"/>
     </row>
     <row r="105" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="17"/>
-      <c r="B105" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="C105" s="19"/>
-      <c r="E105" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F105" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="G105" s="27" t="s">
-        <v>236</v>
-      </c>
+      <c r="A105" s="5"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="7"/>
+      <c r="E105" s="0"/>
+      <c r="F105" s="0"/>
+      <c r="G105" s="0"/>
       <c r="H105" s="1"/>
       <c r="I105" s="0"/>
       <c r="J105" s="0"/>
@@ -16034,24 +16274,12 @@
       <c r="N105" s="0"/>
     </row>
     <row r="106" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B106" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="C106" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="E106" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F106" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="G106" s="23" t="s">
-        <v>241</v>
-      </c>
+      <c r="A106" s="0"/>
+      <c r="B106" s="0"/>
+      <c r="C106" s="0"/>
+      <c r="E106" s="0"/>
+      <c r="F106" s="0"/>
+      <c r="G106" s="0"/>
       <c r="H106" s="0"/>
       <c r="I106" s="0"/>
       <c r="J106" s="0"/>
@@ -16061,24 +16289,16 @@
       <c r="N106" s="0"/>
     </row>
     <row r="107" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B107" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="C107" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E107" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F107" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="G107" s="27" t="s">
-        <v>244</v>
-      </c>
+      <c r="A107" s="5"/>
+      <c r="B107" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="E107" s="0"/>
+      <c r="F107" s="0"/>
+      <c r="G107" s="0"/>
       <c r="H107" s="0"/>
       <c r="I107" s="0"/>
       <c r="J107" s="0"/>
@@ -16088,24 +16308,14 @@
       <c r="N107" s="0"/>
     </row>
     <row r="108" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B108" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="C108" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E108" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F108" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="G108" s="23" t="s">
-        <v>196</v>
-      </c>
+      <c r="A108" s="17"/>
+      <c r="B108" s="18" t="s">
+        <v>705</v>
+      </c>
+      <c r="C108" s="19"/>
+      <c r="E108" s="0"/>
+      <c r="F108" s="0"/>
+      <c r="G108" s="0"/>
       <c r="H108" s="0"/>
       <c r="I108" s="0"/>
       <c r="J108" s="0"/>
@@ -16115,24 +16325,18 @@
       <c r="N108" s="0"/>
     </row>
     <row r="109" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="21" t="s">
-        <v>14</v>
+      <c r="A109" s="31" t="s">
+        <v>297</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>247</v>
+        <v>706</v>
       </c>
       <c r="C109" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E109" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F109" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="G109" s="27" t="s">
-        <v>42</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="E109" s="0"/>
+      <c r="F109" s="0"/>
+      <c r="G109" s="0"/>
       <c r="H109" s="0"/>
       <c r="I109" s="0"/>
       <c r="J109" s="0"/>
@@ -16142,20 +16346,18 @@
       <c r="N109" s="0"/>
     </row>
     <row r="110" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="17"/>
-      <c r="B110" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="C110" s="19"/>
-      <c r="E110" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F110" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="G110" s="23" t="s">
-        <v>42</v>
-      </c>
+      <c r="A110" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="B110" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>706</v>
+      </c>
+      <c r="E110" s="0"/>
+      <c r="F110" s="0"/>
+      <c r="G110" s="0"/>
       <c r="H110" s="0"/>
       <c r="I110" s="0"/>
       <c r="J110" s="0"/>
@@ -16166,19 +16368,17 @@
     </row>
     <row r="111" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="21" t="s">
-        <v>14</v>
+        <v>286</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>251</v>
+        <v>426</v>
       </c>
       <c r="C111" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E111" s="17"/>
-      <c r="F111" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="G111" s="19"/>
+        <v>427</v>
+      </c>
+      <c r="E111" s="0"/>
+      <c r="F111" s="0"/>
+      <c r="G111" s="0"/>
       <c r="H111" s="0"/>
       <c r="I111" s="0"/>
       <c r="J111" s="0"/>
@@ -16188,24 +16388,14 @@
       <c r="N111" s="0"/>
     </row>
     <row r="112" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B112" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C112" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E112" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F112" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="G112" s="27" t="s">
-        <v>42</v>
-      </c>
+      <c r="A112" s="17"/>
+      <c r="B112" s="18" t="s">
+        <v>707</v>
+      </c>
+      <c r="C112" s="19"/>
+      <c r="E112" s="0"/>
+      <c r="F112" s="0"/>
+      <c r="G112" s="0"/>
       <c r="H112" s="0"/>
       <c r="I112" s="0"/>
       <c r="J112" s="0"/>
@@ -16215,20 +16405,18 @@
       <c r="N112" s="0"/>
     </row>
     <row r="113" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="17"/>
-      <c r="B113" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="C113" s="19"/>
-      <c r="E113" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F113" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="G113" s="23" t="s">
-        <v>256</v>
-      </c>
+      <c r="A113" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="B113" s="22" t="s">
+        <v>708</v>
+      </c>
+      <c r="C113" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E113" s="0"/>
+      <c r="F113" s="0"/>
+      <c r="G113" s="0"/>
       <c r="H113" s="0"/>
       <c r="I113" s="0"/>
       <c r="J113" s="0"/>
@@ -16237,24 +16425,14 @@
       <c r="N113" s="0"/>
     </row>
     <row r="114" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B114" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="C114" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="E114" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F114" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="G114" s="27" t="s">
-        <v>42</v>
-      </c>
+      <c r="A114" s="17"/>
+      <c r="B114" s="18" t="s">
+        <v>709</v>
+      </c>
+      <c r="C114" s="19"/>
+      <c r="E114" s="0"/>
+      <c r="F114" s="0"/>
+      <c r="G114" s="0"/>
       <c r="H114" s="0"/>
       <c r="I114" s="0"/>
       <c r="J114" s="0"/>
@@ -16264,24 +16442,18 @@
       <c r="N114" s="0"/>
     </row>
     <row r="115" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B115" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="C115" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="E115" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F115" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="G115" s="23" t="s">
-        <v>42</v>
-      </c>
+      <c r="A115" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="B115" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="C115" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="E115" s="0"/>
+      <c r="F115" s="0"/>
+      <c r="G115" s="0"/>
       <c r="H115" s="1"/>
       <c r="I115" s="0"/>
       <c r="J115" s="0"/>
@@ -16291,20 +16463,18 @@
       <c r="N115" s="0"/>
     </row>
     <row r="116" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B116" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="C116" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E116" s="17"/>
-      <c r="F116" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="G116" s="19"/>
+      <c r="A116" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="B116" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="C116" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="E116" s="0"/>
+      <c r="F116" s="0"/>
+      <c r="G116" s="0"/>
       <c r="H116" s="0"/>
       <c r="I116" s="0"/>
       <c r="J116" s="0"/>
@@ -16313,24 +16483,18 @@
       <c r="N116" s="0"/>
     </row>
     <row r="117" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B117" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="C117" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="E117" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F117" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="G117" s="27" t="s">
-        <v>196</v>
-      </c>
+      <c r="A117" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="B117" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="C117" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="E117" s="0"/>
+      <c r="F117" s="0"/>
+      <c r="G117" s="0"/>
       <c r="H117" s="0"/>
       <c r="I117" s="0"/>
       <c r="J117" s="0"/>
@@ -16339,20 +16503,18 @@
       <c r="N117" s="0"/>
     </row>
     <row r="118" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B118" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="C118" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="E118" s="17"/>
-      <c r="F118" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G118" s="19"/>
+      <c r="A118" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="B118" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="C118" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E118" s="0"/>
+      <c r="F118" s="0"/>
+      <c r="G118" s="0"/>
       <c r="H118" s="0"/>
       <c r="I118" s="0"/>
       <c r="J118" s="0"/>
@@ -16361,24 +16523,18 @@
       <c r="N118" s="0"/>
     </row>
     <row r="119" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B119" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="C119" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="E119" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F119" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="G119" s="23" t="s">
-        <v>196</v>
-      </c>
+      <c r="A119" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="B119" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="C119" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E119" s="0"/>
+      <c r="F119" s="0"/>
+      <c r="G119" s="0"/>
       <c r="H119" s="0"/>
       <c r="I119" s="0"/>
       <c r="J119" s="0"/>
@@ -16387,20 +16543,18 @@
       <c r="N119" s="0"/>
     </row>
     <row r="120" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B120" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="C120" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E120" s="10"/>
-      <c r="F120" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="G120" s="12"/>
+      <c r="A120" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="B120" s="22" t="s">
+        <v>589</v>
+      </c>
+      <c r="C120" s="23" t="s">
+        <v>711</v>
+      </c>
+      <c r="E120" s="0"/>
+      <c r="F120" s="0"/>
+      <c r="G120" s="0"/>
       <c r="H120" s="0"/>
       <c r="I120" s="0"/>
       <c r="J120" s="0"/>
@@ -16409,17 +16563,17 @@
     </row>
     <row r="121" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B121" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="C121" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="E121" s="5"/>
-      <c r="F121" s="6"/>
-      <c r="G121" s="7"/>
+        <v>286</v>
+      </c>
+      <c r="B121" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="C121" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E121" s="0"/>
+      <c r="F121" s="0"/>
+      <c r="G121" s="0"/>
       <c r="H121" s="0"/>
       <c r="I121" s="0"/>
       <c r="J121" s="0"/>
@@ -16428,11 +16582,11 @@
       <c r="N121" s="0"/>
     </row>
     <row r="122" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="10"/>
-      <c r="B122" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="C122" s="12"/>
+      <c r="A122" s="17"/>
+      <c r="B122" s="18" t="s">
+        <v>713</v>
+      </c>
+      <c r="C122" s="19"/>
       <c r="E122" s="0"/>
       <c r="F122" s="0"/>
       <c r="G122" s="0"/>
@@ -16444,16 +16598,18 @@
       <c r="N122" s="0"/>
     </row>
     <row r="123" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="17"/>
-      <c r="B123" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="C123" s="19"/>
-      <c r="E123" s="36"/>
-      <c r="F123" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="G123" s="36"/>
+      <c r="A123" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="B123" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="C123" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="E123" s="0"/>
+      <c r="F123" s="0"/>
+      <c r="G123" s="0"/>
       <c r="H123" s="0"/>
       <c r="I123" s="0"/>
       <c r="J123" s="0"/>
@@ -16462,24 +16618,18 @@
       <c r="N123" s="0"/>
     </row>
     <row r="124" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="21" t="s">
-        <v>14</v>
+      <c r="A124" s="10" t="s">
+        <v>281</v>
       </c>
       <c r="B124" s="26" t="s">
-        <v>279</v>
+        <v>460</v>
       </c>
       <c r="C124" s="27" t="s">
-        <v>280</v>
-      </c>
-      <c r="E124" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="F124" s="38" t="s">
-        <v>282</v>
-      </c>
-      <c r="G124" s="39" t="s">
-        <v>283</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="E124" s="0"/>
+      <c r="F124" s="0"/>
+      <c r="G124" s="0"/>
       <c r="H124" s="0"/>
       <c r="I124" s="0"/>
       <c r="J124" s="0"/>
@@ -16488,24 +16638,14 @@
       <c r="N124" s="0"/>
     </row>
     <row r="125" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B125" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="C125" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="E125" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="F125" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="G125" s="23" t="s">
-        <v>288</v>
-      </c>
+      <c r="A125" s="17"/>
+      <c r="B125" s="18" t="s">
+        <v>714</v>
+      </c>
+      <c r="C125" s="19"/>
+      <c r="E125" s="0"/>
+      <c r="F125" s="0"/>
+      <c r="G125" s="0"/>
       <c r="H125" s="0"/>
       <c r="I125" s="0"/>
       <c r="J125" s="0"/>
@@ -16515,23 +16655,17 @@
     </row>
     <row r="126" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B126" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="C126" s="27" t="s">
-        <v>154</v>
-      </c>
-      <c r="E126" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="F126" s="38" t="s">
-        <v>290</v>
-      </c>
-      <c r="G126" s="39" t="s">
-        <v>123</v>
-      </c>
+      <c r="B126" s="22" t="s">
+        <v>715</v>
+      </c>
+      <c r="C126" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="E126" s="0"/>
+      <c r="F126" s="0"/>
+      <c r="G126" s="0"/>
       <c r="H126" s="0"/>
       <c r="I126" s="0"/>
       <c r="J126" s="0"/>
@@ -16540,20 +16674,18 @@
       <c r="N126" s="0"/>
     </row>
     <row r="127" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="17"/>
-      <c r="B127" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="C127" s="19"/>
-      <c r="E127" s="21" t="s">
+      <c r="A127" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="F127" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="G127" s="23" t="s">
-        <v>154</v>
-      </c>
+      <c r="B127" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="C127" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E127" s="0"/>
+      <c r="F127" s="0"/>
+      <c r="G127" s="0"/>
       <c r="H127" s="0"/>
       <c r="I127" s="0"/>
       <c r="J127" s="0"/>
@@ -16563,23 +16695,17 @@
     </row>
     <row r="128" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="21" t="s">
-        <v>14</v>
+        <v>286</v>
       </c>
       <c r="B128" s="22" t="s">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="F128" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="G128" s="39" t="s">
-        <v>295</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="E128" s="0"/>
+      <c r="F128" s="0"/>
+      <c r="G128" s="0"/>
       <c r="H128" s="0"/>
       <c r="I128" s="0"/>
       <c r="J128" s="0"/>
@@ -16588,77 +16714,51 @@
       <c r="N128" s="0"/>
     </row>
     <row r="129" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B129" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="C129" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E129" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="F129" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="G129" s="23" t="s">
-        <v>42</v>
-      </c>
+      <c r="A129" s="5"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="7"/>
+      <c r="E129" s="0"/>
+      <c r="F129" s="0"/>
+      <c r="G129" s="0"/>
       <c r="H129" s="0"/>
       <c r="I129" s="0"/>
       <c r="J129" s="0"/>
     </row>
     <row r="130" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B130" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="C130" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E130" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="F130" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="G130" s="39" t="s">
-        <v>241</v>
-      </c>
+      <c r="A130" s="0"/>
+      <c r="B130" s="0"/>
+      <c r="C130" s="0"/>
+      <c r="E130" s="0"/>
+      <c r="F130" s="0"/>
+      <c r="G130" s="0"/>
       <c r="H130" s="0"/>
       <c r="I130" s="0"/>
       <c r="J130" s="0"/>
     </row>
     <row r="131" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B131" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="C131" s="27" t="s">
-        <v>300</v>
-      </c>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="8"/>
+      <c r="A131" s="5"/>
+      <c r="B131" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="E131" s="0"/>
+      <c r="F131" s="0"/>
+      <c r="G131" s="0"/>
       <c r="H131" s="0"/>
       <c r="I131" s="0"/>
       <c r="J131" s="0"/>
     </row>
     <row r="132" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B132" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="C132" s="23" t="s">
-        <v>300</v>
+      <c r="A132" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="B132" s="26" t="s">
+        <v>717</v>
+      </c>
+      <c r="C132" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="E132" s="0"/>
       <c r="F132" s="0"/>
@@ -16668,127 +16768,103 @@
       <c r="J132" s="0"/>
     </row>
     <row r="133" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B133" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="C133" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E133" s="5"/>
-      <c r="F133" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="G133" s="7"/>
+      <c r="A133" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="B133" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="C133" s="23" t="s">
+        <v>718</v>
+      </c>
+      <c r="E133" s="0"/>
+      <c r="F133" s="0"/>
+      <c r="G133" s="0"/>
       <c r="H133" s="0"/>
       <c r="I133" s="0"/>
       <c r="J133" s="0"/>
     </row>
     <row r="134" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B134" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="C134" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="E134" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F134" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="G134" s="27" t="s">
-        <v>306</v>
-      </c>
+      <c r="A134" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="B134" s="26" t="s">
+        <v>511</v>
+      </c>
+      <c r="C134" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="E134" s="0"/>
+      <c r="F134" s="0"/>
+      <c r="G134" s="0"/>
       <c r="H134" s="0"/>
       <c r="I134" s="0"/>
       <c r="J134" s="0"/>
     </row>
     <row r="135" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B135" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="C135" s="27" t="s">
-        <v>300</v>
-      </c>
-      <c r="E135" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="F135" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="G135" s="23" t="s">
-        <v>42</v>
-      </c>
+      <c r="A135" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="B135" s="22" t="s">
+        <v>719</v>
+      </c>
+      <c r="C135" s="23" t="s">
+        <v>720</v>
+      </c>
+      <c r="E135" s="0"/>
+      <c r="F135" s="0"/>
+      <c r="G135" s="0"/>
       <c r="H135" s="1"/>
       <c r="I135" s="0"/>
       <c r="J135" s="0"/>
     </row>
     <row r="136" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="17"/>
-      <c r="B136" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="C136" s="19"/>
-      <c r="E136" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="F136" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="G136" s="27" t="s">
-        <v>158</v>
-      </c>
+      <c r="A136" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="B136" s="26" t="s">
+        <v>721</v>
+      </c>
+      <c r="C136" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E136" s="0"/>
+      <c r="F136" s="0"/>
+      <c r="G136" s="0"/>
       <c r="H136" s="0"/>
       <c r="I136" s="0"/>
       <c r="J136" s="0"/>
     </row>
     <row r="137" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="21" t="s">
-        <v>14</v>
+      <c r="A137" s="31" t="s">
+        <v>297</v>
       </c>
       <c r="B137" s="22" t="s">
-        <v>311</v>
+        <v>722</v>
       </c>
       <c r="C137" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="E137" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="F137" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="G137" s="23" t="s">
-        <v>42</v>
-      </c>
+        <v>723</v>
+      </c>
+      <c r="E137" s="0"/>
+      <c r="F137" s="0"/>
+      <c r="G137" s="0"/>
       <c r="H137" s="0"/>
       <c r="I137" s="0"/>
       <c r="J137" s="0"/>
     </row>
     <row r="138" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="21" t="s">
-        <v>14</v>
+      <c r="A138" s="31" t="s">
+        <v>297</v>
       </c>
       <c r="B138" s="26" t="s">
-        <v>314</v>
+        <v>724</v>
       </c>
       <c r="C138" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E138" s="17"/>
-      <c r="F138" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="G138" s="19"/>
+        <v>725</v>
+      </c>
+      <c r="E138" s="0"/>
+      <c r="F138" s="0"/>
+      <c r="G138" s="0"/>
       <c r="H138" s="0"/>
       <c r="I138" s="0"/>
       <c r="J138" s="0"/>
@@ -16796,64 +16872,46 @@
     <row r="139" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="17"/>
       <c r="B139" s="18" t="s">
-        <v>316</v>
+        <v>714</v>
       </c>
       <c r="C139" s="19"/>
-      <c r="E139" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F139" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="G139" s="27" t="s">
-        <v>318</v>
-      </c>
+      <c r="E139" s="0"/>
+      <c r="F139" s="0"/>
+      <c r="G139" s="0"/>
       <c r="H139" s="0"/>
       <c r="I139" s="0"/>
       <c r="J139" s="0"/>
     </row>
     <row r="140" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="21" t="s">
-        <v>14</v>
+        <v>286</v>
       </c>
       <c r="B140" s="22" t="s">
-        <v>319</v>
+        <v>504</v>
       </c>
       <c r="C140" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="E140" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F140" s="22" t="s">
-        <v>321</v>
-      </c>
-      <c r="G140" s="23" t="s">
-        <v>322</v>
-      </c>
+        <v>726</v>
+      </c>
+      <c r="E140" s="0"/>
+      <c r="F140" s="0"/>
+      <c r="G140" s="0"/>
       <c r="H140" s="0"/>
       <c r="I140" s="0"/>
       <c r="J140" s="0"/>
     </row>
     <row r="141" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="10" t="s">
-        <v>281</v>
+      <c r="A141" s="21" t="s">
+        <v>286</v>
       </c>
       <c r="B141" s="26" t="s">
-        <v>323</v>
+        <v>666</v>
       </c>
       <c r="C141" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="E141" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F141" s="26" t="s">
-        <v>325</v>
-      </c>
-      <c r="G141" s="27" t="s">
-        <v>326</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="E141" s="0"/>
+      <c r="F141" s="0"/>
+      <c r="G141" s="0"/>
       <c r="H141" s="0"/>
       <c r="I141" s="0"/>
       <c r="J141" s="0"/>
@@ -16862,108 +16920,82 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="31" t="s">
-        <v>27</v>
+      <c r="A142" s="21" t="s">
+        <v>286</v>
       </c>
       <c r="B142" s="22" t="s">
-        <v>328</v>
+        <v>668</v>
       </c>
       <c r="C142" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="E142" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F142" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="G142" s="23" t="s">
-        <v>326</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="E142" s="0"/>
+      <c r="F142" s="0"/>
+      <c r="G142" s="0"/>
       <c r="H142" s="0"/>
       <c r="I142" s="0"/>
       <c r="J142" s="0"/>
     </row>
     <row r="143" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="17"/>
-      <c r="B143" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="C143" s="19"/>
-      <c r="E143" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F143" s="26" t="s">
-        <v>331</v>
-      </c>
-      <c r="G143" s="27" t="s">
-        <v>42</v>
-      </c>
+      <c r="A143" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="B143" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="C143" s="27" t="s">
+        <v>727</v>
+      </c>
+      <c r="E143" s="0"/>
+      <c r="F143" s="0"/>
+      <c r="G143" s="0"/>
       <c r="H143" s="1"/>
       <c r="I143" s="0"/>
       <c r="J143" s="0"/>
     </row>
     <row r="144" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B144" s="26" t="s">
-        <v>332</v>
-      </c>
-      <c r="C144" s="27" t="s">
-        <v>333</v>
-      </c>
-      <c r="E144" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F144" s="22" t="s">
-        <v>334</v>
-      </c>
-      <c r="G144" s="23" t="s">
-        <v>42</v>
-      </c>
+      <c r="A144" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="B144" s="22" t="s">
+        <v>728</v>
+      </c>
+      <c r="C144" s="23" t="s">
+        <v>729</v>
+      </c>
+      <c r="E144" s="0"/>
+      <c r="F144" s="0"/>
+      <c r="G144" s="0"/>
       <c r="H144" s="0"/>
       <c r="I144" s="0"/>
       <c r="J144" s="0"/>
     </row>
     <row r="145" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B145" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="C145" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="E145" s="17"/>
-      <c r="F145" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="G145" s="19"/>
+      <c r="A145" s="17"/>
+      <c r="B145" s="18" t="s">
+        <v>730</v>
+      </c>
+      <c r="C145" s="19"/>
+      <c r="E145" s="0"/>
+      <c r="F145" s="0"/>
+      <c r="G145" s="0"/>
       <c r="H145" s="0"/>
       <c r="I145" s="0"/>
       <c r="J145" s="0"/>
     </row>
     <row r="146" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="10" t="s">
-        <v>281</v>
+      <c r="A146" s="21" t="s">
+        <v>286</v>
       </c>
       <c r="B146" s="26" t="s">
-        <v>338</v>
+        <v>528</v>
       </c>
       <c r="C146" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E146" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="F146" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="G146" s="27" t="s">
-        <v>194</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="E146" s="0"/>
+      <c r="F146" s="0"/>
+      <c r="G146" s="0"/>
       <c r="H146" s="0"/>
       <c r="I146" s="0"/>
       <c r="J146" s="0"/>
@@ -16973,355 +17005,215 @@
         <v>281</v>
       </c>
       <c r="B147" s="22" t="s">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="C147" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E147" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F147" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="G147" s="23" t="s">
-        <v>342</v>
-      </c>
+        <v>731</v>
+      </c>
+      <c r="E147" s="0"/>
+      <c r="F147" s="0"/>
+      <c r="G147" s="0"/>
       <c r="H147" s="0"/>
       <c r="I147" s="0"/>
       <c r="J147" s="0"/>
     </row>
     <row r="148" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B148" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="C148" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="E148" s="10"/>
-      <c r="F148" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="G148" s="12"/>
+      <c r="A148" s="17"/>
+      <c r="B148" s="18" t="s">
+        <v>714</v>
+      </c>
+      <c r="C148" s="19"/>
+      <c r="E148" s="0"/>
+      <c r="F148" s="0"/>
+      <c r="G148" s="0"/>
       <c r="H148" s="0"/>
       <c r="I148" s="0"/>
       <c r="J148" s="0"/>
     </row>
     <row r="149" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B149" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="C149" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="E149" s="17"/>
-      <c r="F149" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="G149" s="19"/>
+      <c r="A149" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="B149" s="26" t="s">
+        <v>715</v>
+      </c>
+      <c r="C149" s="27" t="s">
+        <v>458</v>
+      </c>
+      <c r="E149" s="0"/>
+      <c r="F149" s="0"/>
+      <c r="G149" s="0"/>
       <c r="H149" s="1"/>
       <c r="I149" s="0"/>
       <c r="J149" s="0"/>
     </row>
     <row r="150" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B150" s="26" t="s">
-        <v>349</v>
-      </c>
-      <c r="C150" s="27" t="s">
-        <v>350</v>
-      </c>
-      <c r="E150" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F150" s="26" t="s">
-        <v>351</v>
-      </c>
-      <c r="G150" s="27" t="s">
-        <v>275</v>
-      </c>
+      <c r="A150" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="B150" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="C150" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E150" s="0"/>
+      <c r="F150" s="0"/>
+      <c r="G150" s="0"/>
       <c r="H150" s="0"/>
       <c r="I150" s="0"/>
       <c r="J150" s="0"/>
     </row>
     <row r="151" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B151" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="C151" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="E151" s="10"/>
-      <c r="F151" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="G151" s="12"/>
+      <c r="A151" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="B151" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C151" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E151" s="0"/>
+      <c r="F151" s="0"/>
+      <c r="G151" s="0"/>
       <c r="H151" s="0"/>
       <c r="I151" s="0"/>
       <c r="J151" s="0"/>
     </row>
     <row r="152" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B152" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="C152" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E152" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F152" s="22" t="s">
-        <v>356</v>
-      </c>
-      <c r="G152" s="23" t="s">
-        <v>123</v>
-      </c>
+      <c r="A152" s="5"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="7"/>
+      <c r="E152" s="0"/>
+      <c r="F152" s="0"/>
+      <c r="G152" s="0"/>
       <c r="H152" s="0"/>
       <c r="I152" s="0"/>
       <c r="J152" s="0"/>
     </row>
     <row r="153" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B153" s="22" t="s">
-        <v>357</v>
-      </c>
-      <c r="C153" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="E153" s="17"/>
-      <c r="F153" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="G153" s="19"/>
+      <c r="A153" s="0"/>
+      <c r="B153" s="0"/>
+      <c r="C153" s="0"/>
+      <c r="E153" s="0"/>
+      <c r="F153" s="0"/>
+      <c r="G153" s="0"/>
       <c r="H153" s="0"/>
       <c r="I153" s="0"/>
       <c r="J153" s="0"/>
     </row>
     <row r="154" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B154" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="C154" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E154" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F154" s="26" t="s">
-        <v>361</v>
-      </c>
-      <c r="G154" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="A154" s="0"/>
+      <c r="B154" s="0"/>
+      <c r="C154" s="0"/>
+      <c r="E154" s="0"/>
+      <c r="F154" s="0"/>
+      <c r="G154" s="0"/>
       <c r="H154" s="0"/>
       <c r="I154" s="0"/>
       <c r="J154" s="0"/>
     </row>
     <row r="155" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B155" s="22" t="s">
-        <v>362</v>
-      </c>
-      <c r="C155" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E155" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F155" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="G155" s="23" t="s">
-        <v>123</v>
-      </c>
+      <c r="A155" s="0"/>
+      <c r="B155" s="0"/>
+      <c r="C155" s="0"/>
+      <c r="E155" s="0"/>
+      <c r="F155" s="0"/>
+      <c r="G155" s="0"/>
       <c r="H155" s="0"/>
       <c r="I155" s="0"/>
       <c r="J155" s="0"/>
     </row>
     <row r="156" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B156" s="26" t="s">
-        <v>364</v>
-      </c>
-      <c r="C156" s="27" t="s">
-        <v>300</v>
-      </c>
-      <c r="E156" s="17"/>
-      <c r="F156" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="G156" s="19"/>
+      <c r="A156" s="0"/>
+      <c r="B156" s="0"/>
+      <c r="C156" s="0"/>
+      <c r="E156" s="0"/>
+      <c r="F156" s="0"/>
+      <c r="G156" s="0"/>
       <c r="H156" s="0"/>
       <c r="I156" s="0"/>
       <c r="J156" s="0"/>
     </row>
     <row r="157" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="17"/>
-      <c r="B157" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="C157" s="19"/>
-      <c r="E157" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F157" s="26" t="s">
-        <v>367</v>
-      </c>
-      <c r="G157" s="27" t="s">
-        <v>368</v>
-      </c>
+      <c r="A157" s="0"/>
+      <c r="B157" s="0"/>
+      <c r="C157" s="0"/>
+      <c r="E157" s="0"/>
+      <c r="F157" s="0"/>
+      <c r="G157" s="0"/>
       <c r="H157" s="0"/>
       <c r="I157" s="0"/>
       <c r="J157" s="0"/>
     </row>
     <row r="158" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B158" s="22" t="s">
-        <v>369</v>
-      </c>
-      <c r="C158" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="E158" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F158" s="22" t="s">
-        <v>370</v>
-      </c>
-      <c r="G158" s="23" t="s">
-        <v>371</v>
-      </c>
+      <c r="A158" s="0"/>
+      <c r="B158" s="0"/>
+      <c r="C158" s="0"/>
+      <c r="E158" s="0"/>
+      <c r="F158" s="0"/>
+      <c r="G158" s="0"/>
       <c r="H158" s="0"/>
       <c r="I158" s="0"/>
       <c r="J158" s="0"/>
     </row>
     <row r="159" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B159" s="26" t="s">
-        <v>372</v>
-      </c>
-      <c r="C159" s="27" t="s">
-        <v>373</v>
-      </c>
+      <c r="A159" s="0"/>
+      <c r="B159" s="0"/>
+      <c r="C159" s="0"/>
       <c r="D159" s="0"/>
-      <c r="E159" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F159" s="26" t="s">
-        <v>374</v>
-      </c>
-      <c r="G159" s="27" t="s">
-        <v>371</v>
-      </c>
+      <c r="E159" s="0"/>
+      <c r="F159" s="0"/>
+      <c r="G159" s="0"/>
       <c r="H159" s="0"/>
       <c r="I159" s="0"/>
       <c r="J159" s="0"/>
     </row>
     <row r="160" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B160" s="22" t="s">
-        <v>375</v>
-      </c>
-      <c r="C160" s="23" t="s">
-        <v>225</v>
-      </c>
+      <c r="A160" s="0"/>
+      <c r="B160" s="0"/>
+      <c r="C160" s="0"/>
       <c r="D160" s="0"/>
-      <c r="E160" s="17"/>
-      <c r="F160" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="G160" s="19"/>
+      <c r="E160" s="0"/>
+      <c r="F160" s="0"/>
+      <c r="G160" s="0"/>
       <c r="H160" s="0"/>
       <c r="I160" s="0"/>
       <c r="J160" s="0"/>
     </row>
     <row r="161" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B161" s="26" t="s">
-        <v>377</v>
-      </c>
-      <c r="C161" s="27" t="s">
-        <v>225</v>
-      </c>
+      <c r="A161" s="0"/>
+      <c r="B161" s="0"/>
+      <c r="C161" s="0"/>
       <c r="D161" s="0"/>
-      <c r="E161" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F161" s="22" t="s">
-        <v>378</v>
-      </c>
-      <c r="G161" s="23" t="s">
-        <v>123</v>
-      </c>
+      <c r="E161" s="0"/>
+      <c r="F161" s="0"/>
+      <c r="G161" s="0"/>
       <c r="H161" s="0"/>
       <c r="I161" s="0"/>
       <c r="J161" s="0"/>
     </row>
     <row r="162" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B162" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="C162" s="23" t="s">
-        <v>379</v>
-      </c>
+      <c r="A162" s="0"/>
+      <c r="B162" s="0"/>
+      <c r="C162" s="0"/>
       <c r="D162" s="0"/>
-      <c r="E162" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F162" s="26" t="s">
-        <v>380</v>
-      </c>
-      <c r="G162" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="E162" s="0"/>
+      <c r="F162" s="0"/>
+      <c r="G162" s="0"/>
       <c r="H162" s="0"/>
       <c r="I162" s="0"/>
       <c r="J162" s="0"/>
     </row>
     <row r="163" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="7"/>
-      <c r="B163" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="C163" s="7"/>
+      <c r="A163" s="0"/>
+      <c r="B163" s="0"/>
+      <c r="C163" s="0"/>
       <c r="D163" s="0"/>
-      <c r="E163" s="5"/>
-      <c r="F163" s="6"/>
-      <c r="G163" s="7"/>
+      <c r="E163" s="0"/>
+      <c r="F163" s="0"/>
+      <c r="G163" s="0"/>
       <c r="H163" s="0"/>
       <c r="I163" s="0"/>
       <c r="J163" s="0"/>
@@ -17377,19 +17269,13 @@
       <c r="R166" s="0"/>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="36"/>
-      <c r="B167" s="37" t="s">
-        <v>382</v>
-      </c>
-      <c r="C167" s="36"/>
+      <c r="A167" s="0"/>
+      <c r="B167" s="0"/>
+      <c r="C167" s="0"/>
       <c r="D167" s="0"/>
-      <c r="E167" s="36"/>
-      <c r="F167" s="37" t="s">
-        <v>383</v>
-      </c>
-      <c r="G167" s="36" t="s">
-        <v>2</v>
-      </c>
+      <c r="E167" s="0"/>
+      <c r="F167" s="0"/>
+      <c r="G167" s="0"/>
       <c r="H167" s="0"/>
       <c r="I167" s="0"/>
       <c r="J167" s="0"/>
@@ -17402,25 +17288,13 @@
       <c r="R167" s="0"/>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B168" s="38" t="s">
-        <v>305</v>
-      </c>
-      <c r="C168" s="39" t="s">
-        <v>306</v>
-      </c>
+      <c r="A168" s="0"/>
+      <c r="B168" s="0"/>
+      <c r="C168" s="0"/>
       <c r="D168" s="0"/>
-      <c r="E168" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F168" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="G168" s="23" t="s">
-        <v>385</v>
-      </c>
+      <c r="E168" s="0"/>
+      <c r="F168" s="0"/>
+      <c r="G168" s="0"/>
       <c r="H168" s="0"/>
       <c r="I168" s="0"/>
       <c r="J168" s="0"/>
@@ -17433,25 +17307,13 @@
       <c r="R168" s="0"/>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B169" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="C169" s="23" t="s">
-        <v>387</v>
-      </c>
+      <c r="A169" s="0"/>
+      <c r="B169" s="0"/>
+      <c r="C169" s="0"/>
       <c r="D169" s="0"/>
-      <c r="E169" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F169" s="38" t="s">
-        <v>388</v>
-      </c>
-      <c r="G169" s="39" t="s">
-        <v>389</v>
-      </c>
+      <c r="E169" s="0"/>
+      <c r="F169" s="0"/>
+      <c r="G169" s="0"/>
       <c r="H169" s="0"/>
       <c r="I169" s="0"/>
       <c r="J169" s="0"/>
@@ -17464,19 +17326,13 @@
       <c r="R169" s="0"/>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B170" s="38" t="s">
-        <v>390</v>
-      </c>
-      <c r="C170" s="39" t="s">
-        <v>42</v>
-      </c>
+      <c r="A170" s="0"/>
+      <c r="B170" s="0"/>
+      <c r="C170" s="0"/>
       <c r="D170" s="0"/>
-      <c r="E170" s="8"/>
-      <c r="F170" s="8"/>
-      <c r="G170" s="8"/>
+      <c r="E170" s="0"/>
+      <c r="F170" s="0"/>
+      <c r="G170" s="0"/>
       <c r="H170" s="0"/>
       <c r="I170" s="0"/>
       <c r="J170" s="0"/>
@@ -17489,15 +17345,9 @@
       <c r="R170" s="0"/>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B171" s="22" t="s">
-        <v>391</v>
-      </c>
-      <c r="C171" s="23" t="s">
-        <v>392</v>
-      </c>
+      <c r="A171" s="0"/>
+      <c r="B171" s="0"/>
+      <c r="C171" s="0"/>
       <c r="D171" s="0"/>
       <c r="E171" s="0"/>
       <c r="F171" s="0"/>
@@ -17514,23 +17364,13 @@
       <c r="R171" s="0"/>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B172" s="38" t="s">
-        <v>393</v>
-      </c>
-      <c r="C172" s="39" t="s">
-        <v>394</v>
-      </c>
+      <c r="A172" s="0"/>
+      <c r="B172" s="0"/>
+      <c r="C172" s="0"/>
       <c r="D172" s="0"/>
-      <c r="E172" s="5"/>
-      <c r="F172" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="G172" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="E172" s="0"/>
+      <c r="F172" s="0"/>
+      <c r="G172" s="0"/>
       <c r="H172" s="0"/>
       <c r="I172" s="0"/>
       <c r="J172" s="0"/>
@@ -17543,25 +17383,13 @@
       <c r="R172" s="0"/>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="B173" s="22" t="s">
-        <v>396</v>
-      </c>
-      <c r="C173" s="23" t="s">
-        <v>397</v>
-      </c>
+      <c r="A173" s="0"/>
+      <c r="B173" s="0"/>
+      <c r="C173" s="0"/>
       <c r="D173" s="0"/>
-      <c r="E173" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F173" s="26" t="s">
-        <v>398</v>
-      </c>
-      <c r="G173" s="27" t="s">
-        <v>123</v>
-      </c>
+      <c r="E173" s="0"/>
+      <c r="F173" s="0"/>
+      <c r="G173" s="0"/>
       <c r="H173" s="0"/>
       <c r="I173" s="0"/>
       <c r="J173" s="0"/>
@@ -17574,25 +17402,13 @@
       <c r="R173" s="0"/>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="B174" s="38" t="s">
-        <v>399</v>
-      </c>
-      <c r="C174" s="39" t="s">
-        <v>400</v>
-      </c>
+      <c r="A174" s="0"/>
+      <c r="B174" s="0"/>
+      <c r="C174" s="0"/>
       <c r="D174" s="0"/>
-      <c r="E174" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F174" s="22" t="s">
-        <v>401</v>
-      </c>
-      <c r="G174" s="23" t="s">
-        <v>123</v>
-      </c>
+      <c r="E174" s="0"/>
+      <c r="F174" s="0"/>
+      <c r="G174" s="0"/>
       <c r="H174" s="0"/>
       <c r="I174" s="0"/>
       <c r="J174" s="0"/>
@@ -17605,25 +17421,13 @@
       <c r="R174" s="0"/>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B175" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="C175" s="23" t="s">
-        <v>403</v>
-      </c>
+      <c r="A175" s="0"/>
+      <c r="B175" s="0"/>
+      <c r="C175" s="0"/>
       <c r="D175" s="0"/>
-      <c r="E175" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F175" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="G175" s="27" t="s">
-        <v>42</v>
-      </c>
+      <c r="E175" s="0"/>
+      <c r="F175" s="0"/>
+      <c r="G175" s="0"/>
       <c r="H175" s="0"/>
       <c r="I175" s="0"/>
       <c r="J175" s="0"/>
@@ -17636,25 +17440,13 @@
       <c r="R175" s="0"/>
     </row>
     <row r="176" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="B176" s="38" t="s">
-        <v>405</v>
-      </c>
-      <c r="C176" s="39" t="s">
-        <v>400</v>
-      </c>
+      <c r="A176" s="0"/>
+      <c r="B176" s="0"/>
+      <c r="C176" s="0"/>
       <c r="D176" s="0"/>
-      <c r="E176" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F176" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="G176" s="23" t="s">
-        <v>123</v>
-      </c>
+      <c r="E176" s="0"/>
+      <c r="F176" s="0"/>
+      <c r="G176" s="0"/>
       <c r="H176" s="0"/>
       <c r="I176" s="0"/>
       <c r="J176" s="0"/>
@@ -17667,25 +17459,13 @@
       <c r="R176" s="0"/>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B177" s="22" t="s">
-        <v>407</v>
-      </c>
-      <c r="C177" s="23" t="s">
-        <v>123</v>
-      </c>
+      <c r="A177" s="0"/>
+      <c r="B177" s="0"/>
+      <c r="C177" s="0"/>
       <c r="D177" s="0"/>
-      <c r="E177" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F177" s="26" t="s">
-        <v>408</v>
-      </c>
-      <c r="G177" s="27" t="s">
-        <v>123</v>
-      </c>
+      <c r="E177" s="0"/>
+      <c r="F177" s="0"/>
+      <c r="G177" s="0"/>
       <c r="H177" s="0"/>
       <c r="I177" s="0"/>
       <c r="J177" s="0"/>
@@ -17698,19 +17478,13 @@
       <c r="R177" s="0"/>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="8"/>
-      <c r="B178" s="8"/>
-      <c r="C178" s="8"/>
+      <c r="A178" s="0"/>
+      <c r="B178" s="0"/>
+      <c r="C178" s="0"/>
       <c r="D178" s="0"/>
-      <c r="E178" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F178" s="22" t="s">
-        <v>409</v>
-      </c>
-      <c r="G178" s="23" t="s">
-        <v>38</v>
-      </c>
+      <c r="E178" s="0"/>
+      <c r="F178" s="0"/>
+      <c r="G178" s="0"/>
       <c r="H178" s="0"/>
       <c r="I178" s="0"/>
       <c r="J178" s="0"/>
@@ -17727,9 +17501,9 @@
       <c r="B179" s="0"/>
       <c r="C179" s="0"/>
       <c r="D179" s="0"/>
-      <c r="E179" s="5"/>
-      <c r="F179" s="6"/>
-      <c r="G179" s="7"/>
+      <c r="E179" s="0"/>
+      <c r="F179" s="0"/>
+      <c r="G179" s="0"/>
       <c r="H179" s="0"/>
       <c r="I179" s="0"/>
       <c r="J179" s="0"/>
@@ -17742,11 +17516,9 @@
       <c r="R179" s="0"/>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="5"/>
-      <c r="B180" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="C180" s="7"/>
+      <c r="A180" s="0"/>
+      <c r="B180" s="0"/>
+      <c r="C180" s="0"/>
       <c r="D180" s="0"/>
       <c r="E180" s="0"/>
       <c r="F180" s="0"/>
@@ -17763,21 +17535,13 @@
       <c r="R180" s="0"/>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B181" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="C181" s="27" t="s">
-        <v>42</v>
-      </c>
+      <c r="A181" s="0"/>
+      <c r="B181" s="0"/>
+      <c r="C181" s="0"/>
       <c r="D181" s="0"/>
-      <c r="E181" s="5"/>
-      <c r="F181" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="G181" s="7"/>
+      <c r="E181" s="0"/>
+      <c r="F181" s="0"/>
+      <c r="G181" s="0"/>
       <c r="H181" s="0"/>
       <c r="I181" s="0"/>
       <c r="J181" s="0"/>
@@ -17790,25 +17554,13 @@
       <c r="R181" s="0"/>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B182" s="22" t="s">
-        <v>412</v>
-      </c>
-      <c r="C182" s="32" t="s">
-        <v>413</v>
-      </c>
+      <c r="A182" s="0"/>
+      <c r="B182" s="0"/>
+      <c r="C182" s="0"/>
       <c r="D182" s="0"/>
-      <c r="E182" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="F182" s="26" t="s">
-        <v>414</v>
-      </c>
-      <c r="G182" s="27" t="s">
-        <v>318</v>
-      </c>
+      <c r="E182" s="0"/>
+      <c r="F182" s="0"/>
+      <c r="G182" s="0"/>
       <c r="I182" s="0"/>
       <c r="J182" s="0"/>
       <c r="L182" s="0"/>
@@ -17820,21 +17572,13 @@
       <c r="R182" s="0"/>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="10"/>
-      <c r="B183" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="C183" s="12"/>
+      <c r="A183" s="0"/>
+      <c r="B183" s="0"/>
+      <c r="C183" s="0"/>
       <c r="D183" s="0"/>
-      <c r="E183" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="F183" s="22" t="s">
-        <v>416</v>
-      </c>
-      <c r="G183" s="23" t="s">
-        <v>275</v>
-      </c>
+      <c r="E183" s="0"/>
+      <c r="F183" s="0"/>
+      <c r="G183" s="0"/>
       <c r="H183" s="0"/>
       <c r="I183" s="0"/>
       <c r="J183" s="0"/>
@@ -17847,23 +17591,13 @@
       <c r="R183" s="0"/>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B184" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="C184" s="30" t="s">
-        <v>418</v>
-      </c>
+      <c r="A184" s="0"/>
+      <c r="B184" s="0"/>
+      <c r="C184" s="0"/>
       <c r="D184" s="0"/>
-      <c r="E184" s="10"/>
-      <c r="F184" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="G184" s="12" t="s">
-        <v>420</v>
-      </c>
+      <c r="E184" s="0"/>
+      <c r="F184" s="0"/>
+      <c r="G184" s="0"/>
       <c r="H184" s="0"/>
       <c r="I184" s="0"/>
       <c r="J184" s="0"/>
@@ -17876,25 +17610,13 @@
       <c r="R184" s="0"/>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B185" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C185" s="23" t="s">
-        <v>421</v>
-      </c>
+      <c r="A185" s="0"/>
+      <c r="B185" s="0"/>
+      <c r="C185" s="0"/>
       <c r="D185" s="0"/>
-      <c r="E185" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="F185" s="22" t="s">
-        <v>422</v>
-      </c>
-      <c r="G185" s="23" t="s">
-        <v>423</v>
-      </c>
+      <c r="E185" s="0"/>
+      <c r="F185" s="0"/>
+      <c r="G185" s="0"/>
       <c r="H185" s="0"/>
       <c r="I185" s="0"/>
       <c r="J185" s="0"/>
@@ -17907,25 +17629,13 @@
       <c r="R185" s="0"/>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B186" s="26" t="s">
-        <v>424</v>
-      </c>
-      <c r="C186" s="27" t="s">
-        <v>425</v>
-      </c>
+      <c r="A186" s="0"/>
+      <c r="B186" s="0"/>
+      <c r="C186" s="0"/>
       <c r="D186" s="0"/>
-      <c r="E186" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="F186" s="26" t="s">
-        <v>426</v>
-      </c>
-      <c r="G186" s="27" t="s">
-        <v>427</v>
-      </c>
+      <c r="E186" s="0"/>
+      <c r="F186" s="0"/>
+      <c r="G186" s="0"/>
       <c r="H186" s="0"/>
       <c r="I186" s="0"/>
       <c r="J186" s="0"/>
@@ -17938,25 +17648,13 @@
       <c r="R186" s="0"/>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B187" s="22" t="s">
-        <v>428</v>
-      </c>
-      <c r="C187" s="23" t="s">
-        <v>123</v>
-      </c>
+      <c r="A187" s="0"/>
+      <c r="B187" s="0"/>
+      <c r="C187" s="0"/>
       <c r="D187" s="0"/>
-      <c r="E187" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="F187" s="22" t="s">
-        <v>429</v>
-      </c>
-      <c r="G187" s="23" t="s">
-        <v>44</v>
-      </c>
+      <c r="E187" s="0"/>
+      <c r="F187" s="0"/>
+      <c r="G187" s="0"/>
       <c r="H187" s="0"/>
       <c r="I187" s="0"/>
       <c r="J187" s="0"/>
@@ -17969,23 +17667,13 @@
       <c r="R187" s="0"/>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B188" s="26" t="s">
-        <v>430</v>
-      </c>
-      <c r="C188" s="30" t="s">
-        <v>431</v>
-      </c>
+      <c r="A188" s="0"/>
+      <c r="B188" s="0"/>
+      <c r="C188" s="0"/>
       <c r="D188" s="0"/>
-      <c r="E188" s="10"/>
-      <c r="F188" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="G188" s="12" t="s">
-        <v>433</v>
-      </c>
+      <c r="E188" s="0"/>
+      <c r="F188" s="0"/>
+      <c r="G188" s="0"/>
       <c r="H188" s="0"/>
       <c r="I188" s="0"/>
       <c r="J188" s="0"/>
@@ -17998,23 +17686,13 @@
       <c r="R188" s="0"/>
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B189" s="22" t="s">
-        <v>434</v>
-      </c>
-      <c r="C189" s="32" t="s">
-        <v>435</v>
-      </c>
+      <c r="A189" s="0"/>
+      <c r="B189" s="0"/>
+      <c r="C189" s="0"/>
       <c r="D189" s="0"/>
-      <c r="E189" s="10"/>
-      <c r="F189" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="G189" s="12" t="s">
-        <v>437</v>
-      </c>
+      <c r="E189" s="0"/>
+      <c r="F189" s="0"/>
+      <c r="G189" s="0"/>
       <c r="H189" s="0"/>
       <c r="I189" s="0"/>
       <c r="J189" s="0"/>
@@ -18027,21 +17705,13 @@
       <c r="R189" s="0"/>
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="10"/>
-      <c r="B190" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="C190" s="12"/>
+      <c r="A190" s="0"/>
+      <c r="B190" s="0"/>
+      <c r="C190" s="0"/>
       <c r="D190" s="0"/>
-      <c r="E190" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="F190" s="26" t="s">
-        <v>439</v>
-      </c>
-      <c r="G190" s="27" t="s">
-        <v>440</v>
-      </c>
+      <c r="E190" s="0"/>
+      <c r="F190" s="0"/>
+      <c r="G190" s="0"/>
       <c r="H190" s="0"/>
       <c r="I190" s="0"/>
       <c r="J190" s="0"/>
@@ -18054,19 +17724,13 @@
       <c r="R190" s="0"/>
     </row>
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="10"/>
-      <c r="B191" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="C191" s="12"/>
+      <c r="A191" s="0"/>
+      <c r="B191" s="0"/>
+      <c r="C191" s="0"/>
       <c r="D191" s="0"/>
-      <c r="E191" s="10"/>
-      <c r="F191" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="G191" s="12" t="s">
-        <v>437</v>
-      </c>
+      <c r="E191" s="0"/>
+      <c r="F191" s="0"/>
+      <c r="G191" s="0"/>
       <c r="H191" s="0"/>
       <c r="I191" s="0"/>
       <c r="J191" s="0"/>
@@ -18079,25 +17743,13 @@
       <c r="R191" s="0"/>
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A192" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B192" s="26" t="s">
-        <v>443</v>
-      </c>
-      <c r="C192" s="30" t="s">
-        <v>444</v>
-      </c>
+      <c r="A192" s="0"/>
+      <c r="B192" s="0"/>
+      <c r="C192" s="0"/>
       <c r="D192" s="0"/>
-      <c r="E192" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="F192" s="22" t="s">
-        <v>445</v>
-      </c>
-      <c r="G192" s="23" t="s">
-        <v>440</v>
-      </c>
+      <c r="E192" s="0"/>
+      <c r="F192" s="0"/>
+      <c r="G192" s="0"/>
       <c r="I192" s="22"/>
       <c r="J192" s="22"/>
       <c r="L192" s="0"/>
@@ -18109,19 +17761,13 @@
       <c r="R192" s="0"/>
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A193" s="10"/>
-      <c r="B193" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="C193" s="12"/>
+      <c r="A193" s="0"/>
+      <c r="B193" s="0"/>
+      <c r="C193" s="0"/>
       <c r="D193" s="0"/>
-      <c r="E193" s="10"/>
-      <c r="F193" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="G193" s="12" t="s">
-        <v>448</v>
-      </c>
+      <c r="E193" s="0"/>
+      <c r="F193" s="0"/>
+      <c r="G193" s="0"/>
       <c r="H193" s="0"/>
       <c r="I193" s="0"/>
       <c r="J193" s="0"/>
@@ -18134,25 +17780,13 @@
       <c r="R193" s="0"/>
     </row>
     <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B194" s="22" t="s">
-        <v>449</v>
-      </c>
-      <c r="C194" s="32" t="s">
-        <v>431</v>
-      </c>
+      <c r="A194" s="0"/>
+      <c r="B194" s="0"/>
+      <c r="C194" s="0"/>
       <c r="D194" s="0"/>
-      <c r="E194" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="F194" s="26" t="s">
-        <v>450</v>
-      </c>
-      <c r="G194" s="27" t="s">
-        <v>42</v>
-      </c>
+      <c r="E194" s="0"/>
+      <c r="F194" s="0"/>
+      <c r="G194" s="0"/>
       <c r="H194" s="0"/>
       <c r="I194" s="0"/>
       <c r="J194" s="0"/>
@@ -18165,23 +17799,13 @@
       <c r="R194" s="0"/>
     </row>
     <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B195" s="26" t="s">
-        <v>434</v>
-      </c>
-      <c r="C195" s="30" t="s">
-        <v>435</v>
-      </c>
+      <c r="A195" s="0"/>
+      <c r="B195" s="0"/>
+      <c r="C195" s="0"/>
       <c r="D195" s="0"/>
-      <c r="E195" s="10"/>
-      <c r="F195" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="G195" s="12" t="s">
-        <v>448</v>
-      </c>
+      <c r="E195" s="0"/>
+      <c r="F195" s="0"/>
+      <c r="G195" s="0"/>
       <c r="H195" s="0"/>
       <c r="I195" s="0"/>
       <c r="J195" s="0"/>
@@ -18194,21 +17818,13 @@
       <c r="R195" s="0"/>
     </row>
     <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="10"/>
-      <c r="B196" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="C196" s="12"/>
+      <c r="A196" s="0"/>
+      <c r="B196" s="0"/>
+      <c r="C196" s="0"/>
       <c r="D196" s="0"/>
-      <c r="E196" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="F196" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="G196" s="23" t="s">
-        <v>42</v>
-      </c>
+      <c r="E196" s="0"/>
+      <c r="F196" s="0"/>
+      <c r="G196" s="0"/>
       <c r="H196" s="0"/>
       <c r="I196" s="0"/>
       <c r="J196" s="0"/>
@@ -18221,21 +17837,13 @@
       <c r="R196" s="0"/>
     </row>
     <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="10"/>
-      <c r="B197" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="C197" s="12"/>
+      <c r="A197" s="0"/>
+      <c r="B197" s="0"/>
+      <c r="C197" s="0"/>
       <c r="D197" s="0"/>
-      <c r="E197" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="F197" s="26" t="s">
-        <v>454</v>
-      </c>
-      <c r="G197" s="27" t="s">
-        <v>123</v>
-      </c>
+      <c r="E197" s="0"/>
+      <c r="F197" s="0"/>
+      <c r="G197" s="0"/>
       <c r="H197" s="0"/>
       <c r="I197" s="0"/>
       <c r="J197" s="0"/>
@@ -18248,25 +17856,13 @@
       <c r="R197" s="0"/>
     </row>
     <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B198" s="22" t="s">
-        <v>443</v>
-      </c>
-      <c r="C198" s="32" t="s">
-        <v>444</v>
-      </c>
+      <c r="A198" s="0"/>
+      <c r="B198" s="0"/>
+      <c r="C198" s="0"/>
       <c r="D198" s="0"/>
-      <c r="E198" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="F198" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="G198" s="23" t="s">
-        <v>38</v>
-      </c>
+      <c r="E198" s="0"/>
+      <c r="F198" s="0"/>
+      <c r="G198" s="0"/>
       <c r="H198" s="0"/>
       <c r="I198" s="0"/>
       <c r="J198" s="0"/>
@@ -18279,21 +17875,13 @@
       <c r="R198" s="0"/>
     </row>
     <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="10"/>
-      <c r="B199" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="C199" s="12"/>
+      <c r="A199" s="0"/>
+      <c r="B199" s="0"/>
+      <c r="C199" s="0"/>
       <c r="D199" s="0"/>
-      <c r="E199" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="F199" s="26" t="s">
-        <v>429</v>
-      </c>
-      <c r="G199" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="E199" s="0"/>
+      <c r="F199" s="0"/>
+      <c r="G199" s="0"/>
       <c r="H199" s="0"/>
       <c r="I199" s="0"/>
       <c r="J199" s="0"/>
@@ -18306,21 +17894,13 @@
       <c r="R199" s="0"/>
     </row>
     <row r="200" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B200" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="C200" s="30" t="s">
-        <v>42</v>
-      </c>
+      <c r="A200" s="0"/>
+      <c r="B200" s="0"/>
+      <c r="C200" s="0"/>
       <c r="D200" s="0"/>
-      <c r="E200" s="17"/>
-      <c r="F200" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="G200" s="19"/>
+      <c r="E200" s="0"/>
+      <c r="F200" s="0"/>
+      <c r="G200" s="0"/>
       <c r="H200" s="0"/>
       <c r="I200" s="0"/>
       <c r="J200" s="0"/>
@@ -18333,21 +17913,13 @@
       <c r="R200" s="0"/>
     </row>
     <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="10"/>
-      <c r="B201" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="C201" s="12"/>
+      <c r="A201" s="0"/>
+      <c r="B201" s="0"/>
+      <c r="C201" s="0"/>
       <c r="D201" s="0"/>
-      <c r="E201" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="F201" s="26" t="s">
-        <v>457</v>
-      </c>
-      <c r="G201" s="27" t="s">
-        <v>458</v>
-      </c>
+      <c r="E201" s="0"/>
+      <c r="F201" s="0"/>
+      <c r="G201" s="0"/>
       <c r="H201" s="0"/>
       <c r="I201" s="0"/>
       <c r="J201" s="0"/>
@@ -18360,21 +17932,13 @@
       <c r="R201" s="0"/>
     </row>
     <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="10"/>
-      <c r="B202" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="C202" s="12"/>
+      <c r="A202" s="0"/>
+      <c r="B202" s="0"/>
+      <c r="C202" s="0"/>
       <c r="D202" s="0"/>
-      <c r="E202" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="F202" s="22" t="s">
-        <v>460</v>
-      </c>
-      <c r="G202" s="23" t="s">
-        <v>461</v>
-      </c>
+      <c r="E202" s="0"/>
+      <c r="F202" s="0"/>
+      <c r="G202" s="0"/>
       <c r="H202" s="0"/>
       <c r="I202" s="0"/>
       <c r="J202" s="0"/>
@@ -18387,21 +17951,13 @@
       <c r="R202" s="0"/>
     </row>
     <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A203" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B203" s="22" t="s">
-        <v>462</v>
-      </c>
-      <c r="C203" s="23" t="s">
-        <v>118</v>
-      </c>
+      <c r="A203" s="0"/>
+      <c r="B203" s="0"/>
+      <c r="C203" s="0"/>
       <c r="D203" s="0"/>
-      <c r="E203" s="17"/>
-      <c r="F203" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="G203" s="19"/>
+      <c r="E203" s="0"/>
+      <c r="F203" s="0"/>
+      <c r="G203" s="0"/>
       <c r="H203" s="0"/>
       <c r="I203" s="0"/>
       <c r="J203" s="0"/>
@@ -18414,25 +17970,13 @@
       <c r="R203" s="0"/>
     </row>
     <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B204" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="C204" s="27" t="s">
-        <v>118</v>
-      </c>
+      <c r="A204" s="0"/>
+      <c r="B204" s="0"/>
+      <c r="C204" s="0"/>
       <c r="D204" s="0"/>
-      <c r="E204" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="F204" s="26" t="s">
-        <v>464</v>
-      </c>
-      <c r="G204" s="27" t="s">
-        <v>458</v>
-      </c>
+      <c r="E204" s="0"/>
+      <c r="F204" s="0"/>
+      <c r="G204" s="0"/>
       <c r="H204" s="0"/>
       <c r="I204" s="0"/>
       <c r="J204" s="0"/>
@@ -18445,19 +17989,13 @@
       <c r="R204" s="0"/>
     </row>
     <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="5"/>
-      <c r="B205" s="6"/>
-      <c r="C205" s="7"/>
+      <c r="A205" s="0"/>
+      <c r="B205" s="0"/>
+      <c r="C205" s="0"/>
       <c r="D205" s="0"/>
-      <c r="E205" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="F205" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="G205" s="23" t="s">
-        <v>38</v>
-      </c>
+      <c r="E205" s="0"/>
+      <c r="F205" s="0"/>
+      <c r="G205" s="0"/>
       <c r="H205" s="0"/>
       <c r="I205" s="0"/>
       <c r="J205" s="0"/>
@@ -18474,15 +18012,9 @@
       <c r="B206" s="0"/>
       <c r="C206" s="0"/>
       <c r="D206" s="0"/>
-      <c r="E206" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="F206" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="G206" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="E206" s="0"/>
+      <c r="F206" s="0"/>
+      <c r="G206" s="0"/>
       <c r="H206" s="0"/>
       <c r="I206" s="0"/>
       <c r="J206" s="0"/>
@@ -18495,23 +18027,13 @@
       <c r="R206" s="0"/>
     </row>
     <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A207" s="5"/>
-      <c r="B207" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="C207" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="A207" s="0"/>
+      <c r="B207" s="0"/>
+      <c r="C207" s="0"/>
       <c r="D207" s="0"/>
-      <c r="E207" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="F207" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="G207" s="23" t="s">
-        <v>38</v>
-      </c>
+      <c r="E207" s="0"/>
+      <c r="F207" s="0"/>
+      <c r="G207" s="0"/>
       <c r="H207" s="0"/>
       <c r="I207" s="0"/>
       <c r="J207" s="0"/>
@@ -18524,21 +18046,13 @@
       <c r="R207" s="0"/>
     </row>
     <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A208" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B208" s="26" t="s">
-        <v>467</v>
-      </c>
-      <c r="C208" s="27" t="s">
-        <v>468</v>
-      </c>
+      <c r="A208" s="0"/>
+      <c r="B208" s="0"/>
+      <c r="C208" s="0"/>
       <c r="D208" s="0"/>
-      <c r="E208" s="17"/>
-      <c r="F208" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="G208" s="19"/>
+      <c r="E208" s="0"/>
+      <c r="F208" s="0"/>
+      <c r="G208" s="0"/>
       <c r="H208" s="0"/>
       <c r="I208" s="0"/>
       <c r="J208" s="0"/>
@@ -18551,25 +18065,13 @@
       <c r="R208" s="0"/>
     </row>
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A209" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B209" s="22" t="s">
-        <v>469</v>
-      </c>
-      <c r="C209" s="23" t="s">
-        <v>123</v>
-      </c>
+      <c r="A209" s="0"/>
+      <c r="B209" s="0"/>
+      <c r="C209" s="0"/>
       <c r="D209" s="0"/>
-      <c r="E209" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="F209" s="22" t="s">
-        <v>314</v>
-      </c>
-      <c r="G209" s="23" t="s">
-        <v>38</v>
-      </c>
+      <c r="E209" s="0"/>
+      <c r="F209" s="0"/>
+      <c r="G209" s="0"/>
       <c r="H209" s="0"/>
       <c r="I209" s="0"/>
       <c r="J209" s="0"/>
@@ -18582,19 +18084,13 @@
       <c r="R209" s="0"/>
     </row>
     <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A210" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B210" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="C210" s="27" t="s">
-        <v>123</v>
-      </c>
+      <c r="A210" s="0"/>
+      <c r="B210" s="0"/>
+      <c r="C210" s="0"/>
       <c r="D210" s="0"/>
-      <c r="E210" s="5"/>
-      <c r="F210" s="6"/>
-      <c r="G210" s="7"/>
+      <c r="E210" s="0"/>
+      <c r="F210" s="0"/>
+      <c r="G210" s="0"/>
       <c r="H210" s="0"/>
       <c r="I210" s="0"/>
       <c r="J210" s="0"/>
@@ -18607,15 +18103,9 @@
       <c r="R210" s="0"/>
     </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B211" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="C211" s="23" t="s">
-        <v>300</v>
-      </c>
+      <c r="A211" s="0"/>
+      <c r="B211" s="0"/>
+      <c r="C211" s="0"/>
       <c r="D211" s="0"/>
       <c r="E211" s="0"/>
       <c r="F211" s="0"/>
@@ -18632,23 +18122,13 @@
       <c r="R211" s="0"/>
     </row>
     <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B212" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="C212" s="27" t="s">
-        <v>300</v>
-      </c>
+      <c r="A212" s="0"/>
+      <c r="B212" s="0"/>
+      <c r="C212" s="0"/>
       <c r="D212" s="0"/>
-      <c r="E212" s="36"/>
-      <c r="F212" s="37" t="s">
-        <v>470</v>
-      </c>
-      <c r="G212" s="36" t="s">
-        <v>286</v>
-      </c>
+      <c r="E212" s="0"/>
+      <c r="F212" s="0"/>
+      <c r="G212" s="0"/>
       <c r="I212" s="0"/>
       <c r="J212" s="0"/>
       <c r="L212" s="0"/>
@@ -18660,25 +18140,13 @@
       <c r="R212" s="0"/>
     </row>
     <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B213" s="22" t="s">
-        <v>471</v>
-      </c>
-      <c r="C213" s="23" t="s">
-        <v>154</v>
-      </c>
+      <c r="A213" s="0"/>
+      <c r="B213" s="0"/>
+      <c r="C213" s="0"/>
       <c r="D213" s="0"/>
-      <c r="E213" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="F213" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="G213" s="39" t="s">
-        <v>123</v>
-      </c>
+      <c r="E213" s="0"/>
+      <c r="F213" s="0"/>
+      <c r="G213" s="0"/>
       <c r="H213" s="0"/>
       <c r="I213" s="0"/>
       <c r="J213" s="0"/>
@@ -18691,25 +18159,13 @@
       <c r="R213" s="0"/>
     </row>
     <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B214" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="C214" s="27" t="s">
-        <v>154</v>
-      </c>
+      <c r="A214" s="0"/>
+      <c r="B214" s="0"/>
+      <c r="C214" s="0"/>
       <c r="D214" s="0"/>
-      <c r="E214" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="F214" s="22" t="s">
-        <v>424</v>
-      </c>
-      <c r="G214" s="23" t="s">
-        <v>154</v>
-      </c>
+      <c r="E214" s="0"/>
+      <c r="F214" s="0"/>
+      <c r="G214" s="0"/>
       <c r="H214" s="0"/>
       <c r="I214" s="0"/>
       <c r="J214" s="0"/>
@@ -18722,25 +18178,13 @@
       <c r="R214" s="0"/>
     </row>
     <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A215" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B215" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="C215" s="23" t="s">
-        <v>38</v>
-      </c>
+      <c r="A215" s="0"/>
+      <c r="B215" s="0"/>
+      <c r="C215" s="0"/>
       <c r="D215" s="0"/>
-      <c r="E215" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="F215" s="38" t="s">
-        <v>473</v>
-      </c>
-      <c r="G215" s="39" t="s">
-        <v>474</v>
-      </c>
+      <c r="E215" s="0"/>
+      <c r="F215" s="0"/>
+      <c r="G215" s="0"/>
       <c r="H215" s="0"/>
       <c r="I215" s="0"/>
       <c r="J215" s="0"/>
@@ -18753,25 +18197,13 @@
       <c r="R215" s="0"/>
     </row>
     <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B216" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="C216" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="A216" s="0"/>
+      <c r="B216" s="0"/>
+      <c r="C216" s="0"/>
       <c r="D216" s="0"/>
-      <c r="E216" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="F216" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="G216" s="23" t="s">
-        <v>475</v>
-      </c>
+      <c r="E216" s="0"/>
+      <c r="F216" s="0"/>
+      <c r="G216" s="0"/>
       <c r="H216" s="0"/>
       <c r="I216" s="0"/>
       <c r="J216" s="0"/>
@@ -18784,19 +18216,13 @@
       <c r="R216" s="0"/>
     </row>
     <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A217" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B217" s="22" t="s">
-        <v>314</v>
-      </c>
-      <c r="C217" s="23" t="s">
-        <v>476</v>
-      </c>
+      <c r="A217" s="0"/>
+      <c r="B217" s="0"/>
+      <c r="C217" s="0"/>
       <c r="D217" s="0"/>
-      <c r="E217" s="8"/>
-      <c r="F217" s="8"/>
-      <c r="G217" s="8"/>
+      <c r="E217" s="0"/>
+      <c r="F217" s="0"/>
+      <c r="G217" s="0"/>
       <c r="H217" s="0"/>
       <c r="I217" s="0"/>
       <c r="J217" s="0"/>
@@ -18809,15 +18235,9 @@
       <c r="R217" s="0"/>
     </row>
     <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A218" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B218" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="C218" s="27" t="s">
-        <v>477</v>
-      </c>
+      <c r="A218" s="0"/>
+      <c r="B218" s="0"/>
+      <c r="C218" s="0"/>
       <c r="D218" s="0"/>
       <c r="E218" s="0"/>
       <c r="F218" s="0"/>
@@ -18834,11 +18254,9 @@
       <c r="R218" s="0"/>
     </row>
     <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A219" s="10"/>
-      <c r="B219" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="C219" s="12"/>
+      <c r="A219" s="0"/>
+      <c r="B219" s="0"/>
+      <c r="C219" s="0"/>
       <c r="D219" s="0"/>
       <c r="E219" s="0"/>
       <c r="F219" s="0"/>
@@ -18855,11 +18273,9 @@
       <c r="R219" s="0"/>
     </row>
     <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A220" s="10"/>
-      <c r="B220" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="C220" s="12"/>
+      <c r="A220" s="0"/>
+      <c r="B220" s="0"/>
+      <c r="C220" s="0"/>
       <c r="D220" s="0"/>
       <c r="E220" s="0"/>
       <c r="F220" s="0"/>
@@ -18875,15 +18291,9 @@
       <c r="R220" s="0"/>
     </row>
     <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B221" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C221" s="23" t="s">
-        <v>480</v>
-      </c>
+      <c r="A221" s="0"/>
+      <c r="B221" s="0"/>
+      <c r="C221" s="0"/>
       <c r="D221" s="0"/>
       <c r="E221" s="0"/>
       <c r="F221" s="0"/>
@@ -18900,15 +18310,9 @@
       <c r="R221" s="0"/>
     </row>
     <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B222" s="26" t="s">
-        <v>481</v>
-      </c>
-      <c r="C222" s="27" t="s">
-        <v>75</v>
-      </c>
+      <c r="A222" s="0"/>
+      <c r="B222" s="0"/>
+      <c r="C222" s="0"/>
       <c r="D222" s="0"/>
       <c r="E222" s="0"/>
       <c r="F222" s="0"/>
@@ -18925,15 +18329,9 @@
       <c r="R222" s="0"/>
     </row>
     <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A223" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B223" s="22" t="s">
-        <v>482</v>
-      </c>
-      <c r="C223" s="23" t="s">
-        <v>158</v>
-      </c>
+      <c r="A223" s="0"/>
+      <c r="B223" s="0"/>
+      <c r="C223" s="0"/>
       <c r="D223" s="0"/>
       <c r="E223" s="0"/>
       <c r="F223" s="0"/>
@@ -18950,15 +18348,9 @@
       <c r="R223" s="0"/>
     </row>
     <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A224" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B224" s="26" t="s">
-        <v>483</v>
-      </c>
-      <c r="C224" s="27" t="s">
-        <v>158</v>
-      </c>
+      <c r="A224" s="0"/>
+      <c r="B224" s="0"/>
+      <c r="C224" s="0"/>
       <c r="D224" s="0"/>
       <c r="E224" s="0"/>
       <c r="F224" s="0"/>
@@ -18975,11 +18367,9 @@
       <c r="R224" s="0"/>
     </row>
     <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A225" s="10"/>
-      <c r="B225" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="C225" s="12"/>
+      <c r="A225" s="0"/>
+      <c r="B225" s="0"/>
+      <c r="C225" s="0"/>
       <c r="D225" s="0"/>
       <c r="E225" s="0"/>
       <c r="F225" s="0"/>
@@ -18996,15 +18386,9 @@
       <c r="R225" s="0"/>
     </row>
     <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A226" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B226" s="22" t="s">
-        <v>401</v>
-      </c>
-      <c r="C226" s="23" t="s">
-        <v>300</v>
-      </c>
+      <c r="A226" s="0"/>
+      <c r="B226" s="0"/>
+      <c r="C226" s="0"/>
       <c r="D226" s="0"/>
       <c r="E226" s="0"/>
       <c r="F226" s="0"/>
@@ -19021,15 +18405,9 @@
       <c r="R226" s="0"/>
     </row>
     <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A227" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B227" s="26" t="s">
-        <v>485</v>
-      </c>
-      <c r="C227" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="A227" s="0"/>
+      <c r="B227" s="0"/>
+      <c r="C227" s="0"/>
       <c r="D227" s="0"/>
       <c r="E227" s="0"/>
       <c r="F227" s="0"/>
@@ -19046,9 +18424,9 @@
       <c r="R227" s="0"/>
     </row>
     <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A228" s="5"/>
-      <c r="B228" s="6"/>
-      <c r="C228" s="7"/>
+      <c r="A228" s="0"/>
+      <c r="B228" s="0"/>
+      <c r="C228" s="0"/>
       <c r="D228" s="0"/>
       <c r="E228" s="0"/>
       <c r="F228" s="0"/>
@@ -19084,13 +18462,9 @@
       <c r="R229" s="0"/>
     </row>
     <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A230" s="36"/>
-      <c r="B230" s="37" t="s">
-        <v>486</v>
-      </c>
-      <c r="C230" s="36" t="s">
-        <v>2</v>
-      </c>
+      <c r="A230" s="0"/>
+      <c r="B230" s="0"/>
+      <c r="C230" s="0"/>
       <c r="D230" s="0"/>
       <c r="E230" s="0"/>
       <c r="F230" s="0"/>
@@ -19107,15 +18481,9 @@
       <c r="R230" s="0"/>
     </row>
     <row r="231" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A231" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B231" s="38" t="s">
-        <v>487</v>
-      </c>
-      <c r="C231" s="39" t="s">
-        <v>123</v>
-      </c>
+      <c r="A231" s="0"/>
+      <c r="B231" s="0"/>
+      <c r="C231" s="0"/>
       <c r="D231" s="0"/>
       <c r="E231" s="0"/>
       <c r="F231" s="0"/>
@@ -19132,15 +18500,9 @@
       <c r="R231" s="0"/>
     </row>
     <row r="232" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A232" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B232" s="22" t="s">
-        <v>488</v>
-      </c>
-      <c r="C232" s="23" t="s">
-        <v>123</v>
-      </c>
+      <c r="A232" s="0"/>
+      <c r="B232" s="0"/>
+      <c r="C232" s="0"/>
       <c r="D232" s="0"/>
       <c r="E232" s="0"/>
       <c r="F232" s="0"/>
@@ -19157,15 +18519,9 @@
       <c r="R232" s="0"/>
     </row>
     <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A233" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B233" s="38" t="s">
-        <v>489</v>
-      </c>
-      <c r="C233" s="39" t="s">
-        <v>275</v>
-      </c>
+      <c r="A233" s="0"/>
+      <c r="B233" s="0"/>
+      <c r="C233" s="0"/>
       <c r="D233" s="0"/>
       <c r="E233" s="0"/>
       <c r="F233" s="0"/>
@@ -19182,15 +18538,10 @@
       <c r="R233" s="0"/>
     </row>
     <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A234" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B234" s="22" t="s">
-        <v>490</v>
-      </c>
-      <c r="C234" s="23" t="s">
-        <v>154</v>
-      </c>
+      <c r="A234" s="0"/>
+      <c r="B234" s="0"/>
+      <c r="C234" s="0"/>
+      <c r="D234" s="0"/>
       <c r="E234" s="0"/>
       <c r="F234" s="0"/>
       <c r="G234" s="0"/>
@@ -19206,15 +18557,10 @@
       <c r="R234" s="0"/>
     </row>
     <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A235" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B235" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="C235" s="39" t="s">
-        <v>476</v>
-      </c>
+      <c r="A235" s="0"/>
+      <c r="B235" s="0"/>
+      <c r="C235" s="0"/>
+      <c r="D235" s="0"/>
       <c r="E235" s="0"/>
       <c r="F235" s="0"/>
       <c r="G235" s="0"/>
@@ -19230,15 +18576,10 @@
       <c r="R235" s="0"/>
     </row>
     <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A236" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B236" s="22" t="s">
-        <v>483</v>
-      </c>
-      <c r="C236" s="23" t="s">
-        <v>491</v>
-      </c>
+      <c r="A236" s="0"/>
+      <c r="B236" s="0"/>
+      <c r="C236" s="0"/>
+      <c r="D236" s="0"/>
       <c r="E236" s="0"/>
       <c r="F236" s="0"/>
       <c r="G236" s="0"/>
@@ -19254,15 +18595,10 @@
       <c r="R236" s="0"/>
     </row>
     <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A237" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B237" s="38" t="s">
-        <v>492</v>
-      </c>
-      <c r="C237" s="39" t="s">
-        <v>215</v>
-      </c>
+      <c r="A237" s="0"/>
+      <c r="B237" s="0"/>
+      <c r="C237" s="0"/>
+      <c r="D237" s="0"/>
       <c r="E237" s="0"/>
       <c r="F237" s="0"/>
       <c r="G237" s="0"/>
@@ -19278,15 +18614,10 @@
       <c r="R237" s="0"/>
     </row>
     <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A238" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B238" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="C238" s="23" t="s">
-        <v>477</v>
-      </c>
+      <c r="A238" s="0"/>
+      <c r="B238" s="0"/>
+      <c r="C238" s="0"/>
+      <c r="D238" s="0"/>
       <c r="E238" s="0"/>
       <c r="F238" s="0"/>
       <c r="G238" s="0"/>
@@ -19302,15 +18633,10 @@
       <c r="R238" s="0"/>
     </row>
     <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A239" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B239" s="38" t="s">
-        <v>493</v>
-      </c>
-      <c r="C239" s="39" t="s">
-        <v>491</v>
-      </c>
+      <c r="A239" s="0"/>
+      <c r="B239" s="0"/>
+      <c r="C239" s="0"/>
+      <c r="D239" s="0"/>
       <c r="E239" s="0"/>
       <c r="F239" s="0"/>
       <c r="G239" s="0"/>
@@ -19326,15 +18652,10 @@
       <c r="R239" s="0"/>
     </row>
     <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A240" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B240" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="C240" s="23" t="s">
-        <v>495</v>
-      </c>
+      <c r="A240" s="0"/>
+      <c r="B240" s="0"/>
+      <c r="C240" s="0"/>
+      <c r="D240" s="0"/>
       <c r="E240" s="0"/>
       <c r="F240" s="0"/>
       <c r="G240" s="0"/>
@@ -19350,9 +18671,10 @@
       <c r="R240" s="0"/>
     </row>
     <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A241" s="8"/>
-      <c r="B241" s="8"/>
-      <c r="C241" s="8"/>
+      <c r="A241" s="0"/>
+      <c r="B241" s="0"/>
+      <c r="C241" s="0"/>
+      <c r="D241" s="0"/>
       <c r="E241" s="0"/>
       <c r="F241" s="0"/>
       <c r="G241" s="0"/>
@@ -19499,19 +18821,13 @@
       <c r="R248" s="0"/>
     </row>
     <row r="249" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A249" s="5"/>
-      <c r="B249" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="C249" s="7" t="s">
-        <v>497</v>
-      </c>
+      <c r="A249" s="0"/>
+      <c r="B249" s="0"/>
+      <c r="C249" s="0"/>
       <c r="D249" s="0"/>
-      <c r="E249" s="5"/>
-      <c r="F249" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="G249" s="7"/>
+      <c r="E249" s="0"/>
+      <c r="F249" s="0"/>
+      <c r="G249" s="0"/>
       <c r="H249" s="0"/>
       <c r="I249" s="0"/>
       <c r="J249" s="0"/>
@@ -19524,25 +18840,13 @@
       <c r="R249" s="0"/>
     </row>
     <row r="250" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A250" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B250" s="26" t="s">
-        <v>499</v>
-      </c>
-      <c r="C250" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="A250" s="0"/>
+      <c r="B250" s="0"/>
+      <c r="C250" s="0"/>
       <c r="D250" s="0"/>
-      <c r="E250" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F250" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="G250" s="27" t="s">
-        <v>54</v>
-      </c>
+      <c r="E250" s="0"/>
+      <c r="F250" s="0"/>
+      <c r="G250" s="0"/>
       <c r="H250" s="0"/>
       <c r="I250" s="0"/>
       <c r="J250" s="0"/>
@@ -19555,21 +18859,13 @@
       <c r="R250" s="0"/>
     </row>
     <row r="251" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A251" s="10"/>
-      <c r="B251" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="C251" s="12"/>
+      <c r="A251" s="0"/>
+      <c r="B251" s="0"/>
+      <c r="C251" s="0"/>
       <c r="D251" s="0"/>
-      <c r="E251" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F251" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="G251" s="23" t="s">
-        <v>503</v>
-      </c>
+      <c r="E251" s="0"/>
+      <c r="F251" s="0"/>
+      <c r="G251" s="0"/>
       <c r="H251" s="0"/>
       <c r="I251" s="0"/>
       <c r="J251" s="0"/>
@@ -19582,25 +18878,13 @@
       <c r="R251" s="0"/>
     </row>
     <row r="252" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A252" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B252" s="26" t="s">
-        <v>504</v>
-      </c>
-      <c r="C252" s="27" t="s">
-        <v>505</v>
-      </c>
+      <c r="A252" s="0"/>
+      <c r="B252" s="0"/>
+      <c r="C252" s="0"/>
       <c r="D252" s="0"/>
-      <c r="E252" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F252" s="26" t="s">
-        <v>506</v>
-      </c>
-      <c r="G252" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="E252" s="0"/>
+      <c r="F252" s="0"/>
+      <c r="G252" s="0"/>
       <c r="H252" s="0"/>
       <c r="I252" s="0"/>
       <c r="J252" s="0"/>
@@ -19613,25 +18897,13 @@
       <c r="R252" s="0"/>
     </row>
     <row r="253" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A253" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B253" s="22" t="s">
-        <v>483</v>
-      </c>
-      <c r="C253" s="23" t="s">
-        <v>507</v>
-      </c>
+      <c r="A253" s="0"/>
+      <c r="B253" s="0"/>
+      <c r="C253" s="0"/>
       <c r="D253" s="0"/>
-      <c r="E253" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F253" s="22" t="s">
-        <v>488</v>
-      </c>
-      <c r="G253" s="23" t="s">
-        <v>38</v>
-      </c>
+      <c r="E253" s="0"/>
+      <c r="F253" s="0"/>
+      <c r="G253" s="0"/>
       <c r="H253" s="0"/>
       <c r="I253" s="0"/>
       <c r="J253" s="0"/>
@@ -19644,25 +18916,13 @@
       <c r="R253" s="0"/>
     </row>
     <row r="254" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A254" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="B254" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="C254" s="27" t="s">
-        <v>509</v>
-      </c>
+      <c r="A254" s="0"/>
+      <c r="B254" s="0"/>
+      <c r="C254" s="0"/>
       <c r="D254" s="0"/>
-      <c r="E254" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F254" s="26" t="s">
-        <v>510</v>
-      </c>
-      <c r="G254" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="E254" s="0"/>
+      <c r="F254" s="0"/>
+      <c r="G254" s="0"/>
       <c r="H254" s="0"/>
       <c r="I254" s="0"/>
       <c r="J254" s="0"/>
@@ -19675,25 +18935,13 @@
       <c r="R254" s="0"/>
     </row>
     <row r="255" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A255" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B255" s="22" t="s">
-        <v>511</v>
-      </c>
-      <c r="C255" s="23" t="s">
-        <v>512</v>
-      </c>
+      <c r="A255" s="0"/>
+      <c r="B255" s="0"/>
+      <c r="C255" s="0"/>
       <c r="D255" s="0"/>
-      <c r="E255" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F255" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="G255" s="23" t="s">
-        <v>38</v>
-      </c>
+      <c r="E255" s="0"/>
+      <c r="F255" s="0"/>
+      <c r="G255" s="0"/>
       <c r="H255" s="0"/>
       <c r="I255" s="0"/>
       <c r="J255" s="0"/>
@@ -19706,21 +18954,13 @@
       <c r="R255" s="0"/>
     </row>
     <row r="256" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A256" s="10"/>
-      <c r="B256" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="C256" s="12"/>
+      <c r="A256" s="0"/>
+      <c r="B256" s="0"/>
+      <c r="C256" s="0"/>
       <c r="D256" s="0"/>
-      <c r="E256" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F256" s="26" t="s">
-        <v>408</v>
-      </c>
-      <c r="G256" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="E256" s="0"/>
+      <c r="F256" s="0"/>
+      <c r="G256" s="0"/>
       <c r="H256" s="0"/>
       <c r="I256" s="0"/>
       <c r="J256" s="0"/>
@@ -19733,25 +18973,13 @@
       <c r="R256" s="0"/>
     </row>
     <row r="257" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A257" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B257" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="C257" s="23" t="s">
-        <v>300</v>
-      </c>
+      <c r="A257" s="0"/>
+      <c r="B257" s="0"/>
+      <c r="C257" s="0"/>
       <c r="D257" s="0"/>
-      <c r="E257" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F257" s="22" t="s">
-        <v>409</v>
-      </c>
-      <c r="G257" s="23" t="s">
-        <v>123</v>
-      </c>
+      <c r="E257" s="0"/>
+      <c r="F257" s="0"/>
+      <c r="G257" s="0"/>
       <c r="H257" s="0"/>
       <c r="I257" s="0"/>
       <c r="J257" s="0"/>
@@ -19764,19 +18992,13 @@
       <c r="R257" s="0"/>
     </row>
     <row r="258" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A258" s="5"/>
-      <c r="B258" s="6"/>
-      <c r="C258" s="7"/>
+      <c r="A258" s="0"/>
+      <c r="B258" s="0"/>
+      <c r="C258" s="0"/>
       <c r="D258" s="0"/>
-      <c r="E258" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F258" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="G258" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="E258" s="0"/>
+      <c r="F258" s="0"/>
+      <c r="G258" s="0"/>
       <c r="H258" s="0"/>
       <c r="I258" s="0"/>
       <c r="J258" s="0"/>
@@ -19793,15 +19015,9 @@
       <c r="B259" s="0"/>
       <c r="C259" s="0"/>
       <c r="D259" s="0"/>
-      <c r="E259" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F259" s="22" t="s">
-        <v>514</v>
-      </c>
-      <c r="G259" s="23" t="s">
-        <v>38</v>
-      </c>
+      <c r="E259" s="0"/>
+      <c r="F259" s="0"/>
+      <c r="G259" s="0"/>
       <c r="H259" s="0"/>
       <c r="I259" s="0"/>
       <c r="J259" s="0"/>
@@ -19814,23 +19030,13 @@
       <c r="R259" s="0"/>
     </row>
     <row r="260" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A260" s="36"/>
-      <c r="B260" s="37" t="s">
-        <v>515</v>
-      </c>
-      <c r="C260" s="36" t="s">
-        <v>286</v>
-      </c>
+      <c r="A260" s="0"/>
+      <c r="B260" s="0"/>
+      <c r="C260" s="0"/>
       <c r="D260" s="0"/>
-      <c r="E260" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F260" s="26" t="s">
-        <v>492</v>
-      </c>
-      <c r="G260" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="E260" s="0"/>
+      <c r="F260" s="0"/>
+      <c r="G260" s="0"/>
       <c r="H260" s="0"/>
       <c r="I260" s="0"/>
       <c r="J260" s="0"/>
@@ -19843,25 +19049,13 @@
       <c r="R260" s="0"/>
     </row>
     <row r="261" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A261" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B261" s="38" t="s">
-        <v>504</v>
-      </c>
-      <c r="C261" s="39" t="s">
-        <v>516</v>
-      </c>
+      <c r="A261" s="0"/>
+      <c r="B261" s="0"/>
+      <c r="C261" s="0"/>
       <c r="D261" s="0"/>
-      <c r="E261" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F261" s="22" t="s">
-        <v>401</v>
-      </c>
-      <c r="G261" s="23" t="s">
-        <v>517</v>
-      </c>
+      <c r="E261" s="0"/>
+      <c r="F261" s="0"/>
+      <c r="G261" s="0"/>
       <c r="H261" s="0"/>
       <c r="I261" s="0"/>
       <c r="J261" s="0"/>
@@ -19874,25 +19068,13 @@
       <c r="R261" s="0"/>
     </row>
     <row r="262" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A262" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B262" s="22" t="s">
-        <v>483</v>
-      </c>
-      <c r="C262" s="23" t="s">
-        <v>491</v>
-      </c>
+      <c r="A262" s="0"/>
+      <c r="B262" s="0"/>
+      <c r="C262" s="0"/>
       <c r="D262" s="0"/>
-      <c r="E262" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F262" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="G262" s="27" t="s">
-        <v>44</v>
-      </c>
+      <c r="E262" s="0"/>
+      <c r="F262" s="0"/>
+      <c r="G262" s="0"/>
       <c r="H262" s="0"/>
       <c r="I262" s="0"/>
       <c r="J262" s="0"/>
@@ -19905,25 +19087,13 @@
       <c r="R262" s="0"/>
     </row>
     <row r="263" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A263" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B263" s="38" t="s">
-        <v>492</v>
-      </c>
-      <c r="C263" s="39" t="s">
-        <v>518</v>
-      </c>
+      <c r="A263" s="0"/>
+      <c r="B263" s="0"/>
+      <c r="C263" s="0"/>
       <c r="D263" s="0"/>
-      <c r="E263" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F263" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="G263" s="23" t="s">
-        <v>519</v>
-      </c>
+      <c r="E263" s="0"/>
+      <c r="F263" s="0"/>
+      <c r="G263" s="0"/>
       <c r="H263" s="0"/>
       <c r="I263" s="0"/>
       <c r="J263" s="0"/>
@@ -19936,21 +19106,13 @@
       <c r="R263" s="0"/>
     </row>
     <row r="264" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A264" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B264" s="22" t="s">
-        <v>511</v>
-      </c>
-      <c r="C264" s="23" t="s">
-        <v>520</v>
-      </c>
+      <c r="A264" s="0"/>
+      <c r="B264" s="0"/>
+      <c r="C264" s="0"/>
       <c r="D264" s="0"/>
-      <c r="E264" s="10"/>
-      <c r="F264" s="11" t="s">
-        <v>521</v>
-      </c>
-      <c r="G264" s="12"/>
+      <c r="E264" s="0"/>
+      <c r="F264" s="0"/>
+      <c r="G264" s="0"/>
       <c r="H264" s="0"/>
       <c r="I264" s="0"/>
       <c r="J264" s="0"/>
@@ -19963,25 +19125,13 @@
       <c r="R264" s="0"/>
     </row>
     <row r="265" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A265" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="B265" s="38" t="s">
-        <v>522</v>
-      </c>
-      <c r="C265" s="39" t="s">
-        <v>400</v>
-      </c>
+      <c r="A265" s="0"/>
+      <c r="B265" s="0"/>
+      <c r="C265" s="0"/>
       <c r="D265" s="0"/>
-      <c r="E265" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F265" s="26" t="s">
-        <v>523</v>
-      </c>
-      <c r="G265" s="27" t="s">
-        <v>57</v>
-      </c>
+      <c r="E265" s="0"/>
+      <c r="F265" s="0"/>
+      <c r="G265" s="0"/>
       <c r="H265" s="0"/>
       <c r="I265" s="0"/>
       <c r="J265" s="0"/>
@@ -19994,13 +19144,13 @@
       <c r="R265" s="0"/>
     </row>
     <row r="266" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A266" s="8"/>
-      <c r="B266" s="8"/>
-      <c r="C266" s="8"/>
+      <c r="A266" s="0"/>
+      <c r="B266" s="0"/>
+      <c r="C266" s="0"/>
       <c r="D266" s="0"/>
-      <c r="E266" s="5"/>
-      <c r="F266" s="6"/>
-      <c r="G266" s="7"/>
+      <c r="E266" s="0"/>
+      <c r="F266" s="0"/>
+      <c r="G266" s="0"/>
       <c r="H266" s="0"/>
       <c r="I266" s="0"/>
       <c r="J266" s="0"/>
@@ -20017,7 +19167,9 @@
       <c r="B267" s="0"/>
       <c r="C267" s="0"/>
       <c r="D267" s="0"/>
-      <c r="E267" s="1"/>
+      <c r="E267" s="0"/>
+      <c r="F267" s="0"/>
+      <c r="G267" s="0"/>
       <c r="H267" s="0"/>
       <c r="I267" s="0"/>
       <c r="J267" s="0"/>
@@ -20030,19 +19182,13 @@
       <c r="R267" s="0"/>
     </row>
     <row r="268" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A268" s="5"/>
-      <c r="B268" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="C268" s="7" t="s">
-        <v>525</v>
-      </c>
+      <c r="A268" s="0"/>
+      <c r="B268" s="0"/>
+      <c r="C268" s="0"/>
       <c r="D268" s="0"/>
-      <c r="E268" s="5"/>
-      <c r="F268" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="G268" s="7"/>
+      <c r="E268" s="0"/>
+      <c r="F268" s="0"/>
+      <c r="G268" s="0"/>
       <c r="H268" s="0"/>
       <c r="I268" s="0"/>
       <c r="J268" s="0"/>
@@ -20055,21 +19201,13 @@
       <c r="R268" s="0"/>
     </row>
     <row r="269" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A269" s="17"/>
-      <c r="B269" s="18" t="s">
-        <v>527</v>
-      </c>
-      <c r="C269" s="19"/>
+      <c r="A269" s="0"/>
+      <c r="B269" s="0"/>
+      <c r="C269" s="0"/>
       <c r="D269" s="0"/>
-      <c r="E269" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F269" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="G269" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="E269" s="0"/>
+      <c r="F269" s="0"/>
+      <c r="G269" s="0"/>
       <c r="H269" s="0"/>
       <c r="I269" s="0"/>
       <c r="J269" s="0"/>
@@ -20082,25 +19220,13 @@
       <c r="R269" s="0"/>
     </row>
     <row r="270" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A270" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B270" s="26" t="s">
-        <v>528</v>
-      </c>
-      <c r="C270" s="27" t="s">
-        <v>458</v>
-      </c>
+      <c r="A270" s="0"/>
+      <c r="B270" s="0"/>
+      <c r="C270" s="0"/>
       <c r="D270" s="0"/>
-      <c r="E270" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F270" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="G270" s="23" t="s">
-        <v>42</v>
-      </c>
+      <c r="E270" s="0"/>
+      <c r="F270" s="0"/>
+      <c r="G270" s="0"/>
       <c r="H270" s="0"/>
       <c r="I270" s="0"/>
       <c r="J270" s="0"/>
@@ -20113,21 +19239,13 @@
       <c r="R270" s="0"/>
     </row>
     <row r="271" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A271" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B271" s="22" t="s">
-        <v>460</v>
-      </c>
-      <c r="C271" s="23" t="s">
-        <v>529</v>
-      </c>
+      <c r="A271" s="0"/>
+      <c r="B271" s="0"/>
+      <c r="C271" s="0"/>
       <c r="D271" s="0"/>
-      <c r="E271" s="17"/>
-      <c r="F271" s="18" t="s">
-        <v>530</v>
-      </c>
-      <c r="G271" s="19"/>
+      <c r="E271" s="0"/>
+      <c r="F271" s="0"/>
+      <c r="G271" s="0"/>
       <c r="H271" s="0"/>
       <c r="I271" s="0"/>
       <c r="J271" s="0"/>
@@ -20140,21 +19258,13 @@
       <c r="R271" s="0"/>
     </row>
     <row r="272" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A272" s="17"/>
-      <c r="B272" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="C272" s="19"/>
+      <c r="A272" s="0"/>
+      <c r="B272" s="0"/>
+      <c r="C272" s="0"/>
       <c r="D272" s="0"/>
-      <c r="E272" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F272" s="26" t="s">
-        <v>531</v>
-      </c>
-      <c r="G272" s="27" t="s">
-        <v>123</v>
-      </c>
+      <c r="E272" s="0"/>
+      <c r="F272" s="0"/>
+      <c r="G272" s="0"/>
       <c r="H272" s="0"/>
       <c r="I272" s="0"/>
       <c r="J272" s="0"/>
@@ -20167,25 +19277,13 @@
       <c r="R272" s="0"/>
     </row>
     <row r="273" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A273" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B273" s="26" t="s">
-        <v>464</v>
-      </c>
-      <c r="C273" s="27" t="s">
-        <v>458</v>
-      </c>
+      <c r="A273" s="0"/>
+      <c r="B273" s="0"/>
+      <c r="C273" s="0"/>
       <c r="D273" s="0"/>
-      <c r="E273" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F273" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="G273" s="23" t="s">
-        <v>532</v>
-      </c>
+      <c r="E273" s="0"/>
+      <c r="F273" s="0"/>
+      <c r="G273" s="0"/>
       <c r="H273" s="0"/>
       <c r="I273" s="0"/>
       <c r="J273" s="0"/>
@@ -20198,25 +19296,13 @@
       <c r="R273" s="0"/>
     </row>
     <row r="274" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A274" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B274" s="22" t="s">
-        <v>465</v>
-      </c>
-      <c r="C274" s="23" t="s">
-        <v>123</v>
-      </c>
+      <c r="A274" s="0"/>
+      <c r="B274" s="0"/>
+      <c r="C274" s="0"/>
       <c r="D274" s="0"/>
-      <c r="E274" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F274" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="G274" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="E274" s="0"/>
+      <c r="F274" s="0"/>
+      <c r="G274" s="0"/>
       <c r="H274" s="0"/>
       <c r="I274" s="0"/>
       <c r="J274" s="0"/>
@@ -20229,25 +19315,13 @@
       <c r="R274" s="0"/>
     </row>
     <row r="275" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A275" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B275" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="C275" s="27" t="s">
-        <v>123</v>
-      </c>
+      <c r="A275" s="0"/>
+      <c r="B275" s="0"/>
+      <c r="C275" s="0"/>
       <c r="D275" s="0"/>
-      <c r="E275" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F275" s="22" t="s">
-        <v>378</v>
-      </c>
-      <c r="G275" s="23" t="s">
-        <v>38</v>
-      </c>
+      <c r="E275" s="0"/>
+      <c r="F275" s="0"/>
+      <c r="G275" s="0"/>
       <c r="H275" s="0"/>
       <c r="I275" s="0"/>
       <c r="J275" s="0"/>
@@ -20260,25 +19334,13 @@
       <c r="R275" s="0"/>
     </row>
     <row r="276" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A276" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B276" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="C276" s="23" t="s">
-        <v>300</v>
-      </c>
+      <c r="A276" s="0"/>
+      <c r="B276" s="0"/>
+      <c r="C276" s="0"/>
       <c r="D276" s="0"/>
-      <c r="E276" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F276" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="G276" s="27" t="s">
-        <v>113</v>
-      </c>
+      <c r="E276" s="0"/>
+      <c r="F276" s="0"/>
+      <c r="G276" s="0"/>
       <c r="H276" s="0"/>
       <c r="I276" s="0"/>
       <c r="J276" s="0"/>
@@ -20291,25 +19353,13 @@
       <c r="R276" s="0"/>
     </row>
     <row r="277" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A277" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B277" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="C277" s="27" t="s">
-        <v>300</v>
-      </c>
+      <c r="A277" s="0"/>
+      <c r="B277" s="0"/>
+      <c r="C277" s="0"/>
       <c r="D277" s="0"/>
-      <c r="E277" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F277" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="G277" s="23" t="s">
-        <v>72</v>
-      </c>
+      <c r="E277" s="0"/>
+      <c r="F277" s="0"/>
+      <c r="G277" s="0"/>
       <c r="H277" s="0"/>
       <c r="I277" s="0"/>
       <c r="J277" s="0"/>
@@ -20322,19 +19372,13 @@
       <c r="R277" s="0"/>
     </row>
     <row r="278" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A278" s="5"/>
-      <c r="B278" s="6"/>
-      <c r="C278" s="7"/>
+      <c r="A278" s="0"/>
+      <c r="B278" s="0"/>
+      <c r="C278" s="0"/>
       <c r="D278" s="0"/>
-      <c r="E278" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F278" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="G278" s="27" t="s">
-        <v>123</v>
-      </c>
+      <c r="E278" s="0"/>
+      <c r="F278" s="0"/>
+      <c r="G278" s="0"/>
       <c r="H278" s="0"/>
       <c r="I278" s="0"/>
       <c r="J278" s="0"/>
@@ -20351,15 +19395,9 @@
       <c r="B279" s="0"/>
       <c r="C279" s="0"/>
       <c r="D279" s="0"/>
-      <c r="E279" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F279" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="G279" s="23" t="s">
-        <v>38</v>
-      </c>
+      <c r="E279" s="0"/>
+      <c r="F279" s="0"/>
+      <c r="G279" s="0"/>
       <c r="H279" s="0"/>
       <c r="I279" s="0"/>
       <c r="J279" s="0"/>
@@ -20372,23 +19410,13 @@
       <c r="R279" s="0"/>
     </row>
     <row r="280" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A280" s="36"/>
-      <c r="B280" s="37" t="s">
-        <v>533</v>
-      </c>
-      <c r="C280" s="36" t="s">
-        <v>286</v>
-      </c>
+      <c r="A280" s="0"/>
+      <c r="B280" s="0"/>
+      <c r="C280" s="0"/>
       <c r="D280" s="0"/>
-      <c r="E280" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F280" s="26" t="s">
-        <v>488</v>
-      </c>
-      <c r="G280" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="E280" s="0"/>
+      <c r="F280" s="0"/>
+      <c r="G280" s="0"/>
       <c r="H280" s="0"/>
       <c r="I280" s="0"/>
       <c r="J280" s="0"/>
@@ -20401,25 +19429,13 @@
       <c r="R280" s="0"/>
     </row>
     <row r="281" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A281" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B281" s="38" t="s">
-        <v>460</v>
-      </c>
-      <c r="C281" s="39" t="s">
-        <v>534</v>
-      </c>
+      <c r="A281" s="0"/>
+      <c r="B281" s="0"/>
+      <c r="C281" s="0"/>
       <c r="D281" s="0"/>
-      <c r="E281" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F281" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="G281" s="23" t="s">
-        <v>38</v>
-      </c>
+      <c r="E281" s="0"/>
+      <c r="F281" s="0"/>
+      <c r="G281" s="0"/>
       <c r="H281" s="0"/>
       <c r="I281" s="0"/>
       <c r="J281" s="0"/>
@@ -20432,25 +19448,13 @@
       <c r="R281" s="0"/>
     </row>
     <row r="282" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A282" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B282" s="22" t="s">
-        <v>535</v>
-      </c>
-      <c r="C282" s="23" t="s">
-        <v>536</v>
-      </c>
+      <c r="A282" s="0"/>
+      <c r="B282" s="0"/>
+      <c r="C282" s="0"/>
       <c r="D282" s="0"/>
-      <c r="E282" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F282" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="G282" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="E282" s="0"/>
+      <c r="F282" s="0"/>
+      <c r="G282" s="0"/>
       <c r="H282" s="0"/>
       <c r="I282" s="0"/>
       <c r="J282" s="0"/>
@@ -20463,19 +19467,13 @@
       <c r="R282" s="0"/>
     </row>
     <row r="283" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A283" s="8"/>
-      <c r="B283" s="8"/>
-      <c r="C283" s="8"/>
+      <c r="A283" s="0"/>
+      <c r="B283" s="0"/>
+      <c r="C283" s="0"/>
       <c r="D283" s="0"/>
-      <c r="E283" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F283" s="22" t="s">
-        <v>537</v>
-      </c>
-      <c r="G283" s="23" t="s">
-        <v>123</v>
-      </c>
+      <c r="E283" s="0"/>
+      <c r="F283" s="0"/>
+      <c r="G283" s="0"/>
       <c r="H283" s="0"/>
       <c r="I283" s="0"/>
       <c r="J283" s="0"/>
@@ -20492,15 +19490,9 @@
       <c r="B284" s="0"/>
       <c r="C284" s="0"/>
       <c r="D284" s="0"/>
-      <c r="E284" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F284" s="26" t="s">
-        <v>538</v>
-      </c>
-      <c r="G284" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="E284" s="0"/>
+      <c r="F284" s="0"/>
+      <c r="G284" s="0"/>
       <c r="H284" s="0"/>
       <c r="I284" s="0"/>
       <c r="J284" s="0"/>
@@ -20513,21 +19505,13 @@
       <c r="R284" s="0"/>
     </row>
     <row r="285" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A285" s="5"/>
-      <c r="B285" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="C285" s="7"/>
+      <c r="A285" s="0"/>
+      <c r="B285" s="0"/>
+      <c r="C285" s="0"/>
       <c r="D285" s="0"/>
-      <c r="E285" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F285" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="G285" s="23" t="s">
-        <v>154</v>
-      </c>
+      <c r="E285" s="0"/>
+      <c r="F285" s="0"/>
+      <c r="G285" s="0"/>
       <c r="H285" s="0"/>
       <c r="I285" s="0"/>
       <c r="J285" s="0"/>
@@ -20540,24 +19524,13 @@
       <c r="R285" s="0"/>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B286" s="26" t="s">
-        <v>465</v>
-      </c>
-      <c r="C286" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E286" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F286" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="G286" s="27" t="s">
-        <v>154</v>
-      </c>
+      <c r="A286" s="0"/>
+      <c r="B286" s="0"/>
+      <c r="C286" s="0"/>
+      <c r="D286" s="0"/>
+      <c r="E286" s="0"/>
+      <c r="F286" s="0"/>
+      <c r="G286" s="0"/>
       <c r="L286" s="0"/>
       <c r="M286" s="0"/>
       <c r="N286" s="0"/>
@@ -20567,24 +19540,13 @@
       <c r="R286" s="0"/>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B287" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="C287" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="E287" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F287" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="G287" s="23" t="s">
-        <v>29</v>
-      </c>
+      <c r="A287" s="0"/>
+      <c r="B287" s="0"/>
+      <c r="C287" s="0"/>
+      <c r="D287" s="0"/>
+      <c r="E287" s="0"/>
+      <c r="F287" s="0"/>
+      <c r="G287" s="0"/>
       <c r="H287" s="0"/>
       <c r="I287" s="0"/>
       <c r="J287" s="0"/>
@@ -20597,24 +19559,13 @@
       <c r="R287" s="0"/>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B288" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="C288" s="27" t="s">
-        <v>476</v>
-      </c>
-      <c r="E288" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F288" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="G288" s="27" t="s">
-        <v>123</v>
-      </c>
+      <c r="A288" s="0"/>
+      <c r="B288" s="0"/>
+      <c r="C288" s="0"/>
+      <c r="D288" s="0"/>
+      <c r="E288" s="0"/>
+      <c r="F288" s="0"/>
+      <c r="G288" s="0"/>
       <c r="H288" s="0"/>
       <c r="I288" s="0"/>
       <c r="J288" s="0"/>
@@ -20627,24 +19578,13 @@
       <c r="R288" s="0"/>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B289" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="C289" s="23" t="s">
-        <v>540</v>
-      </c>
-      <c r="E289" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F289" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="G289" s="23" t="s">
-        <v>123</v>
-      </c>
+      <c r="A289" s="0"/>
+      <c r="B289" s="0"/>
+      <c r="C289" s="0"/>
+      <c r="D289" s="0"/>
+      <c r="E289" s="0"/>
+      <c r="F289" s="0"/>
+      <c r="G289" s="0"/>
       <c r="H289" s="0"/>
       <c r="I289" s="0"/>
       <c r="J289" s="0"/>
@@ -20657,24 +19597,13 @@
       <c r="R289" s="0"/>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B290" s="26" t="s">
-        <v>541</v>
-      </c>
-      <c r="C290" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E290" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F290" s="26" t="s">
-        <v>323</v>
-      </c>
-      <c r="G290" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="A290" s="0"/>
+      <c r="B290" s="0"/>
+      <c r="C290" s="0"/>
+      <c r="D290" s="0"/>
+      <c r="E290" s="0"/>
+      <c r="F290" s="0"/>
+      <c r="G290" s="0"/>
       <c r="H290" s="0"/>
       <c r="I290" s="0"/>
       <c r="J290" s="0"/>
@@ -20687,24 +19616,13 @@
       <c r="R290" s="0"/>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B291" s="22" t="s">
-        <v>542</v>
-      </c>
-      <c r="C291" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E291" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F291" s="22" t="s">
-        <v>401</v>
-      </c>
-      <c r="G291" s="23" t="s">
-        <v>543</v>
-      </c>
+      <c r="A291" s="0"/>
+      <c r="B291" s="0"/>
+      <c r="C291" s="0"/>
+      <c r="D291" s="0"/>
+      <c r="E291" s="0"/>
+      <c r="F291" s="0"/>
+      <c r="G291" s="0"/>
       <c r="H291" s="0"/>
       <c r="I291" s="0"/>
       <c r="J291" s="0"/>
@@ -20717,20 +19635,13 @@
       <c r="R291" s="0"/>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="17"/>
-      <c r="B292" s="18" t="s">
-        <v>544</v>
-      </c>
-      <c r="C292" s="19"/>
-      <c r="E292" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F292" s="26" t="s">
-        <v>393</v>
-      </c>
-      <c r="G292" s="27" t="s">
-        <v>219</v>
-      </c>
+      <c r="A292" s="0"/>
+      <c r="B292" s="0"/>
+      <c r="C292" s="0"/>
+      <c r="D292" s="0"/>
+      <c r="E292" s="0"/>
+      <c r="F292" s="0"/>
+      <c r="G292" s="0"/>
       <c r="H292" s="0"/>
       <c r="I292" s="0"/>
       <c r="J292" s="0"/>
@@ -20743,18 +19654,13 @@
       <c r="R292" s="0"/>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="B293" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="C293" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="E293" s="5"/>
-      <c r="F293" s="6"/>
-      <c r="G293" s="7"/>
+      <c r="A293" s="0"/>
+      <c r="B293" s="0"/>
+      <c r="C293" s="0"/>
+      <c r="D293" s="0"/>
+      <c r="E293" s="0"/>
+      <c r="F293" s="0"/>
+      <c r="G293" s="0"/>
       <c r="H293" s="0"/>
       <c r="I293" s="0"/>
       <c r="J293" s="0"/>
@@ -20767,15 +19673,10 @@
       <c r="R293" s="0"/>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B294" s="22" t="s">
-        <v>450</v>
-      </c>
-      <c r="C294" s="23" t="s">
-        <v>42</v>
-      </c>
+      <c r="A294" s="0"/>
+      <c r="B294" s="0"/>
+      <c r="C294" s="0"/>
+      <c r="D294" s="0"/>
       <c r="E294" s="0"/>
       <c r="F294" s="0"/>
       <c r="G294" s="0"/>
@@ -20791,22 +19692,13 @@
       <c r="R294" s="0"/>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="B295" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="C295" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="E295" s="36"/>
-      <c r="F295" s="37" t="s">
-        <v>545</v>
-      </c>
-      <c r="G295" s="36" t="s">
-        <v>14</v>
-      </c>
+      <c r="A295" s="0"/>
+      <c r="B295" s="0"/>
+      <c r="C295" s="0"/>
+      <c r="D295" s="0"/>
+      <c r="E295" s="0"/>
+      <c r="F295" s="0"/>
+      <c r="G295" s="0"/>
       <c r="H295" s="0"/>
       <c r="I295" s="0"/>
       <c r="J295" s="0"/>
@@ -20819,24 +19711,13 @@
       <c r="R295" s="0"/>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B296" s="22" t="s">
-        <v>445</v>
-      </c>
-      <c r="C296" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E296" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F296" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="G296" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="A296" s="0"/>
+      <c r="B296" s="0"/>
+      <c r="C296" s="0"/>
+      <c r="D296" s="0"/>
+      <c r="E296" s="0"/>
+      <c r="F296" s="0"/>
+      <c r="G296" s="0"/>
       <c r="H296" s="0"/>
       <c r="I296" s="0"/>
       <c r="J296" s="0"/>
@@ -20849,24 +19730,13 @@
       <c r="R296" s="0"/>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="B297" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C297" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="E297" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F297" s="22" t="s">
-        <v>488</v>
-      </c>
-      <c r="G297" s="23" t="s">
-        <v>38</v>
-      </c>
+      <c r="A297" s="0"/>
+      <c r="B297" s="0"/>
+      <c r="C297" s="0"/>
+      <c r="D297" s="0"/>
+      <c r="E297" s="0"/>
+      <c r="F297" s="0"/>
+      <c r="G297" s="0"/>
       <c r="H297" s="0"/>
       <c r="I297" s="0"/>
       <c r="J297" s="0"/>
@@ -20879,24 +19749,13 @@
       <c r="R297" s="0"/>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B298" s="22" t="s">
-        <v>439</v>
-      </c>
-      <c r="C298" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E298" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F298" s="26" t="s">
-        <v>546</v>
-      </c>
-      <c r="G298" s="27" t="s">
-        <v>42</v>
-      </c>
+      <c r="A298" s="0"/>
+      <c r="B298" s="0"/>
+      <c r="C298" s="0"/>
+      <c r="D298" s="0"/>
+      <c r="E298" s="0"/>
+      <c r="F298" s="0"/>
+      <c r="G298" s="0"/>
       <c r="H298" s="0"/>
       <c r="I298" s="0"/>
       <c r="J298" s="0"/>
@@ -20909,24 +19768,13 @@
       <c r="R298" s="0"/>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B299" s="26" t="s">
-        <v>473</v>
-      </c>
-      <c r="C299" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E299" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F299" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="G299" s="23" t="s">
-        <v>547</v>
-      </c>
+      <c r="A299" s="0"/>
+      <c r="B299" s="0"/>
+      <c r="C299" s="0"/>
+      <c r="D299" s="0"/>
+      <c r="E299" s="0"/>
+      <c r="F299" s="0"/>
+      <c r="G299" s="0"/>
       <c r="H299" s="0"/>
       <c r="I299" s="0"/>
       <c r="J299" s="0"/>
@@ -20939,24 +19787,13 @@
       <c r="R299" s="0"/>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="B300" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="C300" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="E300" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F300" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="G300" s="27" t="s">
-        <v>42</v>
-      </c>
+      <c r="A300" s="0"/>
+      <c r="B300" s="0"/>
+      <c r="C300" s="0"/>
+      <c r="D300" s="0"/>
+      <c r="E300" s="0"/>
+      <c r="F300" s="0"/>
+      <c r="G300" s="0"/>
       <c r="H300" s="0"/>
       <c r="I300" s="0"/>
       <c r="J300" s="0"/>
@@ -20969,24 +19806,13 @@
       <c r="R300" s="0"/>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B301" s="26" t="s">
-        <v>548</v>
-      </c>
-      <c r="C301" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E301" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F301" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="G301" s="23" t="s">
-        <v>532</v>
-      </c>
+      <c r="A301" s="0"/>
+      <c r="B301" s="0"/>
+      <c r="C301" s="0"/>
+      <c r="D301" s="0"/>
+      <c r="E301" s="0"/>
+      <c r="F301" s="0"/>
+      <c r="G301" s="0"/>
       <c r="H301" s="0"/>
       <c r="I301" s="0"/>
       <c r="J301" s="0"/>
@@ -20999,24 +19825,13 @@
       <c r="R301" s="0"/>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="B302" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="C302" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="E302" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="F302" s="26" t="s">
-        <v>362</v>
-      </c>
-      <c r="G302" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="A302" s="0"/>
+      <c r="B302" s="0"/>
+      <c r="C302" s="0"/>
+      <c r="D302" s="0"/>
+      <c r="E302" s="0"/>
+      <c r="F302" s="0"/>
+      <c r="G302" s="0"/>
       <c r="H302" s="0"/>
       <c r="I302" s="0"/>
       <c r="J302" s="0"/>
@@ -21029,18 +19844,13 @@
       <c r="R302" s="0"/>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B303" s="26" t="s">
-        <v>550</v>
-      </c>
-      <c r="C303" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E303" s="8"/>
-      <c r="F303" s="8"/>
-      <c r="G303" s="8"/>
+      <c r="A303" s="0"/>
+      <c r="B303" s="0"/>
+      <c r="C303" s="0"/>
+      <c r="D303" s="0"/>
+      <c r="E303" s="0"/>
+      <c r="F303" s="0"/>
+      <c r="G303" s="0"/>
       <c r="H303" s="0"/>
       <c r="I303" s="0"/>
       <c r="J303" s="0"/>
@@ -21053,15 +19863,10 @@
       <c r="R303" s="0"/>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B304" s="22" t="s">
-        <v>551</v>
-      </c>
-      <c r="C304" s="23" t="s">
-        <v>552</v>
-      </c>
+      <c r="A304" s="0"/>
+      <c r="B304" s="0"/>
+      <c r="C304" s="0"/>
+      <c r="D304" s="0"/>
       <c r="E304" s="0"/>
       <c r="F304" s="0"/>
       <c r="G304" s="0"/>
@@ -21077,20 +19882,13 @@
       <c r="R304" s="0"/>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B305" s="26" t="s">
-        <v>553</v>
-      </c>
-      <c r="C305" s="27" t="s">
-        <v>552</v>
-      </c>
-      <c r="E305" s="28"/>
-      <c r="F305" s="29" t="s">
-        <v>554</v>
-      </c>
-      <c r="G305" s="29"/>
+      <c r="A305" s="0"/>
+      <c r="B305" s="0"/>
+      <c r="C305" s="0"/>
+      <c r="D305" s="0"/>
+      <c r="E305" s="0"/>
+      <c r="F305" s="0"/>
+      <c r="G305" s="0"/>
       <c r="H305" s="0"/>
       <c r="I305" s="0"/>
       <c r="J305" s="0"/>
@@ -21103,20 +19901,13 @@
       <c r="R305" s="0"/>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="17"/>
-      <c r="B306" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="C306" s="19"/>
-      <c r="E306" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F306" s="26" t="s">
-        <v>555</v>
-      </c>
-      <c r="G306" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="A306" s="0"/>
+      <c r="B306" s="0"/>
+      <c r="C306" s="0"/>
+      <c r="D306" s="0"/>
+      <c r="E306" s="0"/>
+      <c r="F306" s="0"/>
+      <c r="G306" s="0"/>
       <c r="H306" s="0"/>
       <c r="I306" s="0"/>
       <c r="J306" s="0"/>
@@ -21129,24 +19920,13 @@
       <c r="R306" s="0"/>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B307" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="C307" s="23" t="s">
-        <v>540</v>
-      </c>
-      <c r="E307" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F307" s="22" t="s">
-        <v>556</v>
-      </c>
-      <c r="G307" s="23" t="s">
-        <v>38</v>
-      </c>
+      <c r="A307" s="0"/>
+      <c r="B307" s="0"/>
+      <c r="C307" s="0"/>
+      <c r="D307" s="0"/>
+      <c r="E307" s="0"/>
+      <c r="F307" s="0"/>
+      <c r="G307" s="0"/>
       <c r="H307" s="0"/>
       <c r="I307" s="0"/>
       <c r="J307" s="0"/>
@@ -21159,24 +19939,13 @@
       <c r="R307" s="0"/>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B308" s="26" t="s">
-        <v>557</v>
-      </c>
-      <c r="C308" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E308" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F308" s="26" t="s">
-        <v>558</v>
-      </c>
-      <c r="G308" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="A308" s="0"/>
+      <c r="B308" s="0"/>
+      <c r="C308" s="0"/>
+      <c r="D308" s="0"/>
+      <c r="E308" s="0"/>
+      <c r="F308" s="0"/>
+      <c r="G308" s="0"/>
       <c r="H308" s="0"/>
       <c r="I308" s="0"/>
       <c r="J308" s="0"/>
@@ -21189,24 +19958,13 @@
       <c r="R308" s="0"/>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B309" s="22" t="s">
-        <v>559</v>
-      </c>
-      <c r="C309" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E309" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F309" s="22" t="s">
-        <v>560</v>
-      </c>
-      <c r="G309" s="23" t="s">
-        <v>38</v>
-      </c>
+      <c r="A309" s="0"/>
+      <c r="B309" s="0"/>
+      <c r="C309" s="0"/>
+      <c r="D309" s="0"/>
+      <c r="E309" s="0"/>
+      <c r="F309" s="0"/>
+      <c r="G309" s="0"/>
       <c r="H309" s="0"/>
       <c r="I309" s="0"/>
       <c r="J309" s="0"/>
@@ -21219,18 +19977,13 @@
       <c r="R309" s="0"/>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="5"/>
-      <c r="B310" s="6"/>
-      <c r="C310" s="7"/>
-      <c r="E310" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F310" s="26" t="s">
-        <v>561</v>
-      </c>
-      <c r="G310" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="A310" s="0"/>
+      <c r="B310" s="0"/>
+      <c r="C310" s="0"/>
+      <c r="D310" s="0"/>
+      <c r="E310" s="0"/>
+      <c r="F310" s="0"/>
+      <c r="G310" s="0"/>
       <c r="H310" s="0"/>
       <c r="I310" s="0"/>
       <c r="J310" s="0"/>
@@ -21243,15 +19996,13 @@
       <c r="R310" s="0"/>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E311" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F311" s="22" t="s">
-        <v>562</v>
-      </c>
-      <c r="G311" s="23" t="s">
-        <v>38</v>
-      </c>
+      <c r="A311" s="0"/>
+      <c r="B311" s="0"/>
+      <c r="C311" s="0"/>
+      <c r="D311" s="0"/>
+      <c r="E311" s="0"/>
+      <c r="F311" s="0"/>
+      <c r="G311" s="0"/>
       <c r="H311" s="0"/>
       <c r="I311" s="0"/>
       <c r="J311" s="0"/>
@@ -21264,22 +20015,13 @@
       <c r="R311" s="0"/>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="36"/>
-      <c r="B312" s="37" t="s">
-        <v>563</v>
-      </c>
-      <c r="C312" s="36" t="s">
-        <v>286</v>
-      </c>
-      <c r="E312" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F312" s="26" t="s">
-        <v>564</v>
-      </c>
-      <c r="G312" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="A312" s="0"/>
+      <c r="B312" s="0"/>
+      <c r="C312" s="0"/>
+      <c r="D312" s="0"/>
+      <c r="E312" s="0"/>
+      <c r="F312" s="0"/>
+      <c r="G312" s="0"/>
       <c r="H312" s="0"/>
       <c r="I312" s="0"/>
       <c r="J312" s="0"/>
@@ -21292,24 +20034,13 @@
       <c r="R312" s="0"/>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="B313" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="C313" s="39" t="s">
-        <v>476</v>
-      </c>
-      <c r="E313" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F313" s="22" t="s">
-        <v>565</v>
-      </c>
-      <c r="G313" s="23" t="s">
-        <v>38</v>
-      </c>
+      <c r="A313" s="0"/>
+      <c r="B313" s="0"/>
+      <c r="C313" s="0"/>
+      <c r="D313" s="0"/>
+      <c r="E313" s="0"/>
+      <c r="F313" s="0"/>
+      <c r="G313" s="0"/>
       <c r="H313" s="0"/>
       <c r="I313" s="0"/>
       <c r="J313" s="0"/>
@@ -21322,24 +20053,13 @@
       <c r="R313" s="0"/>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="B314" s="22" t="s">
-        <v>566</v>
-      </c>
-      <c r="C314" s="23" t="s">
-        <v>540</v>
-      </c>
-      <c r="E314" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F314" s="26" t="s">
-        <v>567</v>
-      </c>
-      <c r="G314" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="A314" s="0"/>
+      <c r="B314" s="0"/>
+      <c r="C314" s="0"/>
+      <c r="D314" s="0"/>
+      <c r="E314" s="0"/>
+      <c r="F314" s="0"/>
+      <c r="G314" s="0"/>
       <c r="H314" s="0"/>
       <c r="I314" s="0"/>
       <c r="J314" s="0"/>
@@ -21352,49 +20072,35 @@
       <c r="R314" s="0"/>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="B315" s="38" t="s">
-        <v>473</v>
-      </c>
-      <c r="C315" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E315" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F315" s="22" t="s">
-        <v>568</v>
-      </c>
-      <c r="G315" s="23" t="s">
-        <v>38</v>
-      </c>
+      <c r="A315" s="0"/>
+      <c r="B315" s="0"/>
+      <c r="C315" s="0"/>
+      <c r="D315" s="0"/>
+      <c r="E315" s="0"/>
+      <c r="F315" s="0"/>
+      <c r="G315" s="0"/>
       <c r="H315" s="0"/>
       <c r="I315" s="0"/>
       <c r="J315" s="0"/>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="B316" s="22" t="s">
-        <v>384</v>
-      </c>
-      <c r="C316" s="23" t="s">
-        <v>569</v>
-      </c>
-      <c r="E316" s="28"/>
-      <c r="F316" s="29"/>
-      <c r="G316" s="29"/>
+      <c r="A316" s="0"/>
+      <c r="B316" s="0"/>
+      <c r="C316" s="0"/>
+      <c r="D316" s="0"/>
+      <c r="E316" s="0"/>
+      <c r="F316" s="0"/>
+      <c r="G316" s="0"/>
       <c r="H316" s="0"/>
       <c r="I316" s="0"/>
       <c r="J316" s="0"/>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="8"/>
-      <c r="B317" s="8"/>
-      <c r="C317" s="8"/>
+      <c r="A317" s="0"/>
+      <c r="B317" s="0"/>
+      <c r="C317" s="0"/>
+      <c r="D317" s="0"/>
+      <c r="E317" s="0"/>
       <c r="F317" s="0"/>
       <c r="G317" s="0"/>
       <c r="H317" s="0"/>
@@ -21405,13 +20111,10 @@
       <c r="A318" s="0"/>
       <c r="B318" s="0"/>
       <c r="C318" s="0"/>
-      <c r="E318" s="36"/>
-      <c r="F318" s="37" t="s">
-        <v>545</v>
-      </c>
-      <c r="G318" s="36" t="s">
-        <v>14</v>
-      </c>
+      <c r="D318" s="0"/>
+      <c r="E318" s="0"/>
+      <c r="F318" s="0"/>
+      <c r="G318" s="0"/>
       <c r="H318" s="0"/>
       <c r="I318" s="0"/>
       <c r="J318" s="0"/>
@@ -21423,15 +20126,9 @@
       <c r="B319" s="0"/>
       <c r="C319" s="0"/>
       <c r="D319" s="0"/>
-      <c r="E319" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F319" s="26" t="s">
-        <v>570</v>
-      </c>
-      <c r="G319" s="41" t="s">
-        <v>38</v>
-      </c>
+      <c r="E319" s="0"/>
+      <c r="F319" s="0"/>
+      <c r="G319" s="0"/>
       <c r="H319" s="0"/>
       <c r="I319" s="0"/>
       <c r="J319" s="0"/>
@@ -22455,15 +21152,9 @@
       <c r="B320" s="0"/>
       <c r="C320" s="0"/>
       <c r="D320" s="0"/>
-      <c r="E320" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F320" s="22" t="s">
-        <v>560</v>
-      </c>
-      <c r="G320" s="42" t="s">
-        <v>38</v>
-      </c>
+      <c r="E320" s="0"/>
+      <c r="F320" s="0"/>
+      <c r="G320" s="0"/>
       <c r="H320" s="0"/>
       <c r="I320" s="0"/>
       <c r="J320" s="0"/>
@@ -23486,15 +22177,10 @@
       <c r="A321" s="0"/>
       <c r="B321" s="0"/>
       <c r="C321" s="0"/>
-      <c r="E321" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F321" s="26" t="s">
-        <v>561</v>
-      </c>
-      <c r="G321" s="41" t="s">
-        <v>38</v>
-      </c>
+      <c r="D321" s="0"/>
+      <c r="E321" s="0"/>
+      <c r="F321" s="0"/>
+      <c r="G321" s="0"/>
       <c r="H321" s="0"/>
       <c r="I321" s="0"/>
       <c r="J321" s="0"/>
@@ -23503,15 +22189,10 @@
       <c r="A322" s="0"/>
       <c r="B322" s="0"/>
       <c r="C322" s="0"/>
-      <c r="E322" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F322" s="22" t="s">
-        <v>562</v>
-      </c>
-      <c r="G322" s="42" t="s">
-        <v>38</v>
-      </c>
+      <c r="D322" s="0"/>
+      <c r="E322" s="0"/>
+      <c r="F322" s="0"/>
+      <c r="G322" s="0"/>
       <c r="H322" s="0"/>
       <c r="I322" s="0"/>
       <c r="J322" s="0"/>
@@ -23520,9 +22201,10 @@
       <c r="A323" s="0"/>
       <c r="B323" s="0"/>
       <c r="C323" s="0"/>
-      <c r="E323" s="8"/>
-      <c r="F323" s="8"/>
-      <c r="G323" s="8"/>
+      <c r="D323" s="0"/>
+      <c r="E323" s="0"/>
+      <c r="F323" s="0"/>
+      <c r="G323" s="0"/>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0"/>
@@ -24096,7 +22778,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="66" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="66" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/documentation/KPCrew Flows.xlsx
+++ b/documentation/KPCrew Flows.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Zibo 738NG" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2116" uniqueCount="772">
   <si>
     <t xml:space="preserve">KPCREW FOR ZIBO BOEING 737-800 FREEWARE (V2.3)</t>
   </si>
@@ -1739,484 +1739,604 @@
     <t xml:space="preserve">KPCREW FOR LAMINAR XP12 CITATION X CL750 FREEWARE (V2.3)</t>
   </si>
   <si>
+    <t xml:space="preserve">ORIGINATING CHECK</t>
+  </si>
+  <si>
     <t xml:space="preserve">Preflight Inspection completed</t>
   </si>
   <si>
     <t xml:space="preserve"> == INITIAL CHECKS</t>
   </si>
   <si>
+    <t xml:space="preserve">BATTERY SWITCHES 1 &amp; 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUX HYD PUMP A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOORS CLOSED READY TO START</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LANDING GEAR HANDLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOORS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPEED BRAKES &amp; GROUND SPOILERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXT PWR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISCONNECTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POWER LEVERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUT OFF</t>
+  </si>
+  <si>
     <t xml:space="preserve">PANEL LIGHTS</t>
   </si>
   <si>
+    <t xml:space="preserve">GND REC (BEACON)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAY/NITE DIM SWITCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAC ISOL VALVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EICAS SWITCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APU BLEED AIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BATTERIES, 23 VOLTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEAT BELT LTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASS SAFETY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">START PRESSURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 PSI (26 PSI MIN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN GREEN ARC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDBY</t>
+  </si>
+  <si>
     <t xml:space="preserve">EMERG LT</t>
   </si>
   <si>
-    <t xml:space="preserve">PRE START</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAY/NITE DIM SWITCH</t>
+    <t xml:space="preserve">CHECKED &amp; ARMED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CKPT PAC &amp; CAB PAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LH &amp; RH ENG BLD AIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HP/LP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYDRAULIC A PRESSURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHECK &gt; 2000 PSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC LOAD SHED/EMER PWR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NORM/CHECKED</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> == APU START</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APU SYSTEM MASTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APU TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APU STARTER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOLD TILL START</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGINE START</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APU N1 100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">READY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Wait for start clearance from ground crew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APU GEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">START SEQUENCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APU AMPS LESS 200A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">START FIRST ENG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">START ENGINE x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABIN POWER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ENGINE START SWITCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRESS x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVIONICS SWITCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1ST ENGINE N2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCREASING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISPLAYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  POWER LEVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEVER x IDLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AILERON TRIM/RUDDER TRIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  STARTER LIGHT OUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANNOUNCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROTARY TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">START ENGINE __</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUEL XFER SELECTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2ND ENGINE N2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAV LIGHTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORIGINATING CHECKLIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LH &amp; RH GEN SWITCHES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTERNAL POWER OR APU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FGC/YAW DAMPER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAXI CHECK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEN LH &amp; RH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTR WING XFER LH &amp; RH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOTH NORM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDU PREFLIGHT BY CAPTAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREPARE KPCREW DEPARTURE BRIEFING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET UP FMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APU GEN BLEED AIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRESSURIZATION SOURCES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL NORM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGINE START CHECK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EICAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHECK WARNING / ERRORS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PITOT STATIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EICAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGINE ANTI-ICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDBY ATTITUDE ADI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNCAGED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STABILIZER ANTI-ICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRIEFED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUEL QTY BALANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTIMETERS (3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET QNH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYD PUMP A &amp; B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLEARANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THRUST REVERSERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLIGHT DIRECTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAKEOFF BRIEFING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROGRAMMED/VERIFIED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V SPEEDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUEL QTY/BALANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET CRUISE ALT 7500 FT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGNITION SWITCHES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRE-TAXI CHECKLIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUSHBACK OPTIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET GREEN ARC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INTERNAL LIGHTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAXI LIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLEARED FOR TAKEOFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESCENT CHECKLIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHECK T/O FLAPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APPROACH BRIEFING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERFORMED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP ALTITUDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET CHECKED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAVIGATION RADIOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET FOR THE APPROACH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP HEADING BUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINIMUMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP HDG MODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AP VNAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSITION LEVEL DESCENT FORECAST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WINDSHIELD HEAT LH &amp; RH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTI SKID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASSENGER BRIEFING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUNWAY ENTRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(BOTH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STROBE LIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LANDING PROCEDURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET QNH DESTINATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATC ALT ON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LANDING LIGHT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PACS &amp; BLEEDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENG SYNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COURSE NAV 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> == FLAPS &amp; GEAR Schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> == TAKEOFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> === GEAR DOWN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAKEOFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> === FLAPS 5 (&lt;250kts)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> === FLAPS 5 (&lt;210kts)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> === FLAPS 5 (&lt;180kts)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> == GEAR UP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLAPS 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMMAND GEAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> == RETRACT FLAPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOWN 3 GREEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A/P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETRACTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET CLIMB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAC &amp; BLEED SWITCHES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUTOPILOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APU STARTERP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRESS DOWN TO STOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOPPED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFTER LANDING </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> === Whatever comes first</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AILERON &amp; RUDDER TRIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESET </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS REQUIRED </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STBY </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =====</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHRONO &amp; ET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000 FT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PITOT/STATIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOTH OFF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPEED BRAKES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETRACTED  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXTERNAL LIGHTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFTER TAKEOFF CHECK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">START IF REQUIRED </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLB THRUST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESCENT CHECK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THROTTLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KPCREW APPROACH BRIEFING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHECK IN FMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHEEL CHOCKS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SET LAND ALT __ FT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON IF NEEDED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOTH OFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LH &amp; RH WNDSHLD ANTI-ICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOTH ON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PSG BELT &amp; SAFETY LT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  === Whatever comes first</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QNH AT DEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L &amp; R ENG BLD AIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMEG LIGHTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUEL BOOST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PITOT / STATIC</t>
   </si>
   <si>
     <t xml:space="preserve">AUX PUMP A</t>
   </si>
   <si>
-    <t xml:space="preserve">LH &amp; RH GEN SWITCHES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOORS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LH &amp; RH FUEL BOOST SWITCHES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEAT BELT LTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PASS SAFETY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LH &amp; RH FADEC SWITCHES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CKPT PAC &amp; CAB PAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LH &amp; RH IGNITION SWITCHES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L &amp; R ENG BLD AIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HP/LP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POWER LEVERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CUT OFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APU BLEED AIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXT PWR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BATTERY SWITCHES 1 &amp; 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LANDING GEAR HANDLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STARTUP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(BOTH)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IGNITION SWITCHES</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> == APU ON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISCONNECTED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APU SYSTEM MASTER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APU TEST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Wait for start clearance from ground crew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APU STARTER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOLD TILL START</t>
-  </si>
-  <si>
-    <t xml:space="preserve">START SEQUENCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APU N1 100%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">READY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">START FIRST ENG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">START ENGINE x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APU GEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  ENGINE START SWITCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRESS x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APU AMPS LESS 200A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1ST ENGINE N2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INCREASING</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> == AVIONICS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  POWER LEVER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEVER x IDLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVIONICS SWITCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  STARTER LIGHT OUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANNOUNCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EICAS SWITCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">START ENGINE __</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISPLAYS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BATTERIES, 24 VOLTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2ND ENGINE N2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAV LIGHTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COCKPIT PREPARATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ==== LEFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PASSENGER OXYGEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RH AHRS DG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SLV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RH AHRS SLEW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFTER START</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OXY PRESSURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN GREEN AREA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUEL XFER SELECTOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GEN LH &amp; RH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRVTY XFLOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTR WING XFER LH &amp; RH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOTH NORM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOAD SHED</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ==== CENTER/GLARE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APU GEN BLEED AIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUEL QUANTITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHECK BAL IN EICAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APU STARTERP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRESS DOWN TO STOP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRESS STBY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STOPPED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LH &amp; RH STOW EMER REVERSERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ==== RIGHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRESSURIZATION SOURCES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALL NORM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WING XOVER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPEED BRAKES &amp; GROUND SPOILERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CABIN DUMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFF/GUARDED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISO VLV CLOSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EICASCHECK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHECK WARNING / ERRORS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PITOT STATIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRESSURIZATION ALT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENGINE ANTI-ICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ==== PEDESTAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STABILIZER ANTI-ICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GND IDLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUEL QTY BALANCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENG SYNC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HYD PUMP A &amp; B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AILERON LATCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUSHED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PITCH ROLL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECONNECT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ==== CAPTAIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LH AHRS DG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRE TAXI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LH AHRS SLEW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROTARY TEST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SET GREEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INTERNAL LIGHTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAXI LIGHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDU PREFLIGHT BY CAPTAIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(CAPTAIN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREPARE KPCREW DEPARTURE BRIEFING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SET UP FMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEFORE TAKEOFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHECK T/O FLAPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V SPEEDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP ALTITUDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SET CHECKED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP HEADING BUG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP HDG MODE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP VNAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AP MAC TRIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WINDSHIELD HEAT LH &amp; RH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTI SKID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUNWAY ENTRY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STROBE LIGHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATC ALT ON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PACS &amp; BLEEDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LANDING LIGHT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> == TAKEOFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAKEOFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> == GEAR UP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMMAND GEAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> == RETRACT FLAPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A/P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SET CLIMB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAC &amp; BLEED SWITCHES</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> === Whatever comes first</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> =====</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10000 FT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESCENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KPCREW APPROACH BRIEFING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHECK IN FMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAVIGATION RADIOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SET FOR THE APPROACH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRANSITION LEVEL DESCENT FORECAST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SET FOR APPROACH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APPROACH BRIEFING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PERFORMED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SET LAND ALT __ FT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOTH OFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LH &amp; RH WNDSHLD ANTI-ICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOTH ON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  === Whatever comes first</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QNH AT DEST</t>
+    <t xml:space="preserve">CAGED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BATTERY SWITCHES</t>
   </si>
 </sst>
 </file>
@@ -2757,8 +2877,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ411"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B168" activeCellId="0" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13586,8 +13706,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ411"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B137" activeCellId="0" sqref="B137"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13626,11 +13746,9 @@
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>2</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="C3" s="7"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="8" t="s">
@@ -13662,7 +13780,7 @@
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="14"/>
@@ -13680,7 +13798,7 @@
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="17"/>
       <c r="B6" s="18" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C6" s="19"/>
       <c r="G6" s="20" t="s">
@@ -13697,11 +13815,11 @@
       <c r="A7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>42</v>
+      <c r="B7" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>123</v>
       </c>
       <c r="F7" s="0"/>
       <c r="G7" s="0"/>
@@ -13716,11 +13834,11 @@
       <c r="A8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>574</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>275</v>
+      <c r="B8" s="22" t="s">
+        <v>576</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -13741,20 +13859,18 @@
       <c r="A9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>575</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>318</v>
+      <c r="B9" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>123</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>2</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="G9" s="7"/>
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
       <c r="J9" s="0"/>
@@ -13766,21 +13882,21 @@
       <c r="A10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>577</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>275</v>
+      <c r="B10" s="22" t="s">
+        <v>578</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>54</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
@@ -13793,21 +13909,21 @@
       <c r="A11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>579</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>38</v>
+      <c r="B11" s="26" t="s">
+        <v>580</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>54</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>176</v>
+        <v>582</v>
       </c>
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
@@ -13820,21 +13936,21 @@
       <c r="A12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>581</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>225</v>
+      <c r="B12" s="22" t="s">
+        <v>583</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>584</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>583</v>
+        <v>123</v>
       </c>
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
@@ -13847,20 +13963,20 @@
       <c r="A13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>584</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>92</v>
+      <c r="B13" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>44</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>585</v>
+        <v>43</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
@@ -13873,20 +13989,20 @@
       <c r="A14" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="22" t="s">
+        <v>585</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="26" t="s">
         <v>586</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>587</v>
-      </c>
       <c r="G14" s="27" t="s">
-        <v>588</v>
+        <v>123</v>
       </c>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
@@ -13899,20 +14015,20 @@
       <c r="A15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>64</v>
+      <c r="B15" s="26" t="s">
+        <v>587</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>275</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>590</v>
+        <v>176</v>
       </c>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
@@ -13925,17 +14041,17 @@
       <c r="A16" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="27" t="s">
+      <c r="B16" s="22" t="s">
+        <v>589</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>123</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G16" s="27" t="s">
         <v>123</v>
@@ -13951,15 +14067,21 @@
       <c r="A17" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="26" t="s">
+        <v>591</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="22" t="s">
         <v>592</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
+      <c r="G17" s="23" t="s">
+        <v>593</v>
+      </c>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
@@ -13971,15 +14093,21 @@
       <c r="A18" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>593</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
-      <c r="G18" s="0"/>
+      <c r="B18" s="22" t="s">
+        <v>581</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>594</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>595</v>
+      </c>
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
       <c r="J18" s="0"/>
@@ -13991,18 +14119,20 @@
       <c r="A19" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>594</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="B19" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="27" t="s">
         <v>596</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>597</v>
       </c>
       <c r="H19" s="0"/>
       <c r="I19" s="0"/>
@@ -14015,20 +14145,20 @@
       <c r="A20" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>57</v>
+      <c r="B20" s="22" t="s">
+        <v>598</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>599</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>136</v>
+        <v>600</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
@@ -14041,20 +14171,20 @@
       <c r="A21" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>44</v>
+      <c r="B21" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>64</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>92</v>
+        <v>602</v>
       </c>
       <c r="H21" s="0"/>
       <c r="I21" s="0"/>
@@ -14064,19 +14194,23 @@
       <c r="M21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18" t="s">
-        <v>598</v>
-      </c>
-      <c r="C22" s="19"/>
+      <c r="A22" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>123</v>
+      </c>
       <c r="E22" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="H22" s="0"/>
       <c r="I22" s="0"/>
@@ -14090,19 +14224,19 @@
         <v>14</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="C23" s="27" t="s">
+        <v>606</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="23" t="s">
         <v>123</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>578</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>38</v>
       </c>
       <c r="H23" s="0"/>
       <c r="I23" s="0"/>
@@ -14112,20 +14246,20 @@
       <c r="M23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>601</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18" t="s">
-        <v>602</v>
-      </c>
-      <c r="G24" s="19"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="18" t="s">
+        <v>607</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="E24" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>584</v>
+      </c>
       <c r="H24" s="0"/>
       <c r="I24" s="0"/>
       <c r="J24" s="0"/>
@@ -14138,20 +14272,14 @@
         <v>14</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>604</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>605</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>275</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
       <c r="H25" s="0"/>
       <c r="I25" s="0"/>
       <c r="J25" s="0"/>
@@ -14164,20 +14292,14 @@
         <v>14</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>607</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>608</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>609</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
       <c r="H26" s="0"/>
       <c r="I26" s="0"/>
       <c r="J26" s="0"/>
@@ -14193,17 +14315,13 @@
         <v>610</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="26" t="s">
         <v>611</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="E27" s="5"/>
+      <c r="F27" s="6" t="s">
         <v>612</v>
       </c>
+      <c r="G27" s="7"/>
       <c r="H27" s="0"/>
       <c r="I27" s="0"/>
       <c r="J27" s="0"/>
@@ -14219,17 +14337,13 @@
         <v>613</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="22" t="s">
         <v>614</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="E28" s="17"/>
+      <c r="F28" s="18" t="s">
         <v>615</v>
       </c>
+      <c r="G28" s="19"/>
       <c r="H28" s="0"/>
       <c r="I28" s="0"/>
       <c r="J28" s="0"/>
@@ -14238,11 +14352,15 @@
       <c r="M28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="26" t="s">
         <v>616</v>
       </c>
-      <c r="C29" s="19"/>
+      <c r="C29" s="27" t="s">
+        <v>123</v>
+      </c>
       <c r="E29" s="31" t="s">
         <v>27</v>
       </c>
@@ -14250,7 +14368,7 @@
         <v>617</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>618</v>
+        <v>275</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="0"/>
@@ -14263,20 +14381,20 @@
       <c r="A30" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="26" t="s">
-        <v>619</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>123</v>
+      <c r="B30" s="22" t="s">
+        <v>618</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>158</v>
       </c>
       <c r="E30" s="31" t="s">
         <v>27</v>
       </c>
       <c r="F30" s="22" t="s">
+        <v>619</v>
+      </c>
+      <c r="G30" s="23" t="s">
         <v>620</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>621</v>
       </c>
       <c r="H30" s="0"/>
       <c r="I30" s="0"/>
@@ -14289,17 +14407,17 @@
       <c r="A31" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="22" t="s">
-        <v>622</v>
-      </c>
-      <c r="C31" s="23" t="s">
+      <c r="B31" s="26" t="s">
+        <v>621</v>
+      </c>
+      <c r="C31" s="27" t="s">
         <v>123</v>
       </c>
       <c r="E31" s="31" t="s">
         <v>27</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>449</v>
+        <v>622</v>
       </c>
       <c r="G31" s="27" t="s">
         <v>623</v>
@@ -14315,20 +14433,20 @@
       <c r="A32" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="22" t="s">
         <v>624</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="23" t="s">
         <v>123</v>
       </c>
       <c r="E32" s="31" t="s">
         <v>27</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="G32" s="23" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="H32" s="0"/>
       <c r="I32" s="0"/>
@@ -14341,20 +14459,20 @@
       <c r="A33" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="22" t="s">
-        <v>625</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>158</v>
+      <c r="B33" s="26" t="s">
+        <v>627</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>123</v>
       </c>
       <c r="E33" s="31" t="s">
         <v>27</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="H33" s="0"/>
       <c r="I33" s="0"/>
@@ -14367,20 +14485,20 @@
       <c r="A34" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="26" t="s">
-        <v>627</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>628</v>
+      <c r="B34" s="22" t="s">
+        <v>630</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>219</v>
       </c>
       <c r="E34" s="31" t="s">
         <v>27</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="H34" s="0"/>
       <c r="I34" s="0"/>
@@ -14390,17 +14508,23 @@
       <c r="M34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
+      <c r="A35" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>633</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>158</v>
+      </c>
       <c r="E35" s="31" t="s">
         <v>27</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>620</v>
+        <v>449</v>
       </c>
       <c r="G35" s="27" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="H35" s="0"/>
       <c r="I35" s="0"/>
@@ -14410,14 +14534,24 @@
       <c r="M35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0"/>
-      <c r="B36" s="0"/>
-      <c r="C36" s="0"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="18" t="s">
-        <v>459</v>
-      </c>
-      <c r="G36" s="19"/>
+      <c r="A36" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>635</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>622</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>623</v>
+      </c>
       <c r="H36" s="0"/>
       <c r="I36" s="0"/>
       <c r="J36" s="0"/>
@@ -14426,21 +14560,23 @@
       <c r="M36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>596</v>
+      <c r="A37" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>123</v>
       </c>
       <c r="E37" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="22" t="s">
-        <v>462</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>118</v>
+      <c r="F37" s="26" t="s">
+        <v>636</v>
+      </c>
+      <c r="G37" s="27" t="s">
+        <v>626</v>
       </c>
       <c r="H37" s="0"/>
       <c r="I37" s="0"/>
@@ -14450,19 +14586,23 @@
       <c r="M37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18" t="s">
-        <v>630</v>
-      </c>
-      <c r="C38" s="19"/>
+      <c r="A38" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>637</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>123</v>
+      </c>
       <c r="E38" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="G38" s="27" t="s">
-        <v>118</v>
+      <c r="F38" s="22" t="s">
+        <v>628</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>629</v>
       </c>
       <c r="H38" s="0"/>
       <c r="I38" s="0"/>
@@ -14472,23 +14612,17 @@
       <c r="M38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="22" t="s">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="E39" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="26" t="s">
         <v>631</v>
       </c>
-      <c r="C39" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="G39" s="23" t="s">
-        <v>42</v>
+      <c r="G39" s="27" t="s">
+        <v>632</v>
       </c>
       <c r="H39" s="0"/>
       <c r="I39" s="0"/>
@@ -14498,18 +14632,14 @@
       <c r="M39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>632</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="5"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="7"/>
+      <c r="A40" s="0"/>
+      <c r="B40" s="0"/>
+      <c r="C40" s="0"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="G40" s="19"/>
       <c r="H40" s="0"/>
       <c r="I40" s="0"/>
       <c r="J40" s="0"/>
@@ -14518,18 +14648,20 @@
       <c r="M40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>632</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>633</v>
-      </c>
-      <c r="E41" s="0"/>
-      <c r="F41" s="0"/>
-      <c r="G41" s="0"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="37" t="s">
+        <v>638</v>
+      </c>
+      <c r="C41" s="36"/>
+      <c r="E41" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>118</v>
+      </c>
       <c r="H41" s="1"/>
       <c r="I41" s="0"/>
       <c r="J41" s="0"/>
@@ -14541,18 +14673,20 @@
       <c r="A42" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="26" t="s">
-        <v>634</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>633</v>
-      </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>596</v>
+      <c r="B42" s="38" t="s">
+        <v>575</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>463</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="H42" s="0"/>
       <c r="I42" s="0"/>
@@ -14562,22 +14696,22 @@
       <c r="M42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="31" t="s">
-        <v>27</v>
+      <c r="A43" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>637</v>
+        <v>38</v>
       </c>
       <c r="E43" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F43" s="22" t="s">
+      <c r="F43" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="G43" s="23" t="s">
+      <c r="G43" s="27" t="s">
         <v>42</v>
       </c>
       <c r="H43" s="0"/>
@@ -14591,20 +14725,20 @@
       <c r="A44" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="26" t="s">
-        <v>638</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>38</v>
+      <c r="B44" s="38" t="s">
+        <v>640</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>123</v>
       </c>
       <c r="E44" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F44" s="26" t="s">
-        <v>639</v>
-      </c>
-      <c r="G44" s="27" t="s">
-        <v>123</v>
+      <c r="F44" s="22" t="s">
+        <v>568</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>491</v>
       </c>
       <c r="H44" s="0"/>
       <c r="I44" s="0"/>
@@ -14618,19 +14752,19 @@
         <v>14</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="E45" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="22" t="s">
+      <c r="F45" s="26" t="s">
         <v>641</v>
       </c>
-      <c r="G45" s="23" t="s">
-        <v>642</v>
+      <c r="G45" s="27" t="s">
+        <v>123</v>
       </c>
       <c r="H45" s="0"/>
       <c r="I45" s="0"/>
@@ -14643,21 +14777,15 @@
       <c r="A46" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="26" t="s">
-        <v>641</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="26" t="s">
-        <v>585</v>
-      </c>
-      <c r="G46" s="27" t="s">
+      <c r="B46" s="38" t="s">
+        <v>589</v>
+      </c>
+      <c r="C46" s="39" t="s">
         <v>123</v>
       </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="7"/>
       <c r="H46" s="0"/>
       <c r="I46" s="0"/>
       <c r="J46" s="0"/>
@@ -14670,20 +14798,14 @@
         <v>14</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>643</v>
+        <v>576</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>610</v>
-      </c>
-      <c r="G47" s="23" t="s">
-        <v>38</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E47" s="0"/>
+      <c r="F47" s="0"/>
+      <c r="G47" s="0"/>
       <c r="H47" s="0"/>
       <c r="I47" s="0"/>
       <c r="J47" s="0"/>
@@ -14692,20 +14814,20 @@
       <c r="M47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="17"/>
-      <c r="B48" s="18" t="s">
-        <v>644</v>
-      </c>
-      <c r="C48" s="19"/>
-      <c r="E48" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="26" t="s">
-        <v>645</v>
-      </c>
-      <c r="G48" s="27" t="s">
-        <v>38</v>
-      </c>
+      <c r="A48" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="G48" s="7"/>
       <c r="H48" s="0"/>
       <c r="I48" s="0"/>
       <c r="J48" s="0"/>
@@ -14717,20 +14839,20 @@
       <c r="A49" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="26" t="s">
-        <v>646</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>647</v>
+      <c r="B49" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="E49" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F49" s="22" t="s">
-        <v>648</v>
-      </c>
-      <c r="G49" s="23" t="s">
-        <v>649</v>
+      <c r="F49" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="G49" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="H49" s="0"/>
       <c r="I49" s="0"/>
@@ -14740,23 +14862,17 @@
       <c r="M49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>650</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>651</v>
-      </c>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
       <c r="E50" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="G50" s="27" t="s">
-        <v>652</v>
+      <c r="F50" s="22" t="s">
+        <v>643</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="H50" s="0"/>
       <c r="I50" s="0"/>
@@ -14767,23 +14883,17 @@
       <c r="N50" s="22"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>653</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>225</v>
-      </c>
+      <c r="A51" s="0"/>
+      <c r="B51" s="0"/>
+      <c r="C51" s="0"/>
       <c r="E51" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="22" t="s">
-        <v>600</v>
-      </c>
-      <c r="G51" s="23" t="s">
-        <v>38</v>
+      <c r="F51" s="26" t="s">
+        <v>644</v>
+      </c>
+      <c r="G51" s="27" t="s">
+        <v>645</v>
       </c>
       <c r="H51" s="0"/>
       <c r="I51" s="0"/>
@@ -14794,19 +14904,19 @@
       <c r="N51" s="22"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="17"/>
-      <c r="B52" s="18" t="s">
-        <v>654</v>
-      </c>
-      <c r="C52" s="19"/>
+      <c r="A52" s="5"/>
+      <c r="B52" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="C52" s="7"/>
       <c r="E52" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F52" s="26" t="s">
-        <v>655</v>
-      </c>
-      <c r="G52" s="27" t="s">
-        <v>656</v>
+      <c r="F52" s="22" t="s">
+        <v>600</v>
+      </c>
+      <c r="G52" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="H52" s="0"/>
       <c r="I52" s="0"/>
@@ -14817,23 +14927,19 @@
       <c r="N52" s="22"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" s="22" t="s">
-        <v>657</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>225</v>
-      </c>
+      <c r="A53" s="17"/>
+      <c r="B53" s="18" t="s">
+        <v>647</v>
+      </c>
+      <c r="C53" s="19"/>
       <c r="E53" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F53" s="22" t="s">
-        <v>658</v>
-      </c>
-      <c r="G53" s="23" t="s">
-        <v>54</v>
+      <c r="F53" s="26" t="s">
+        <v>616</v>
+      </c>
+      <c r="G53" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="H53" s="0"/>
       <c r="I53" s="0"/>
@@ -14844,20 +14950,20 @@
       <c r="N53" s="22"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>659</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>660</v>
-      </c>
-      <c r="E54" s="17"/>
-      <c r="F54" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="G54" s="19"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="18" t="s">
+        <v>648</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="E54" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>649</v>
+      </c>
+      <c r="G54" s="23" t="s">
+        <v>38</v>
+      </c>
       <c r="H54" s="0"/>
       <c r="I54" s="0"/>
       <c r="J54" s="0"/>
@@ -14867,23 +14973,17 @@
       <c r="N54" s="22"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55" s="22" t="s">
-        <v>661</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>660</v>
-      </c>
-      <c r="E55" s="31" t="s">
-        <v>27</v>
+      <c r="A55" s="5"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="7"/>
+      <c r="E55" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="G55" s="27" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="H55" s="0"/>
       <c r="I55" s="0"/>
@@ -14894,23 +14994,17 @@
       <c r="N55" s="22"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>655</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>656</v>
-      </c>
+      <c r="A56" s="0"/>
+      <c r="B56" s="0"/>
+      <c r="C56" s="0"/>
       <c r="E56" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>664</v>
+        <v>580</v>
       </c>
       <c r="G56" s="23" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="H56" s="0"/>
       <c r="I56" s="0"/>
@@ -14937,24 +15031,16 @@
       <c r="AF56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" s="22" t="s">
-        <v>665</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="26" t="s">
-        <v>666</v>
-      </c>
-      <c r="G57" s="27" t="s">
-        <v>275</v>
-      </c>
+      <c r="A57" s="5"/>
+      <c r="B57" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="G57" s="19"/>
       <c r="H57" s="0"/>
       <c r="I57" s="0"/>
       <c r="J57" s="0"/>
@@ -14978,19 +15064,23 @@
       <c r="AD57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="17"/>
-      <c r="B58" s="18" t="s">
-        <v>667</v>
-      </c>
-      <c r="C58" s="19"/>
-      <c r="E58" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" s="22" t="s">
-        <v>668</v>
-      </c>
-      <c r="G58" s="23" t="s">
-        <v>275</v>
+      <c r="A58" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>576</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>653</v>
+      </c>
+      <c r="G58" s="27" t="s">
+        <v>654</v>
       </c>
       <c r="H58" s="0"/>
       <c r="I58" s="0"/>
@@ -15018,20 +15108,20 @@
       <c r="A59" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="26" t="s">
-        <v>669</v>
-      </c>
-      <c r="C59" s="27" t="s">
-        <v>225</v>
+      <c r="B59" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="E59" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F59" s="26" t="s">
-        <v>670</v>
-      </c>
-      <c r="G59" s="27" t="s">
-        <v>158</v>
+      <c r="F59" s="22" t="s">
+        <v>655</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="H59" s="0"/>
       <c r="I59" s="0"/>
@@ -15056,23 +15146,23 @@
       <c r="AD59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B60" s="22" t="s">
-        <v>671</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>38</v>
+      <c r="A60" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>656</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>654</v>
       </c>
       <c r="E60" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="22" t="s">
-        <v>672</v>
-      </c>
-      <c r="G60" s="23" t="s">
-        <v>225</v>
+      <c r="F60" s="26" t="s">
+        <v>657</v>
+      </c>
+      <c r="G60" s="27" t="s">
+        <v>275</v>
       </c>
       <c r="H60" s="0"/>
       <c r="I60" s="0"/>
@@ -15097,23 +15187,23 @@
       <c r="AD60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>673</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>674</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="F61" s="26" t="s">
-        <v>482</v>
-      </c>
-      <c r="G61" s="27" t="s">
-        <v>158</v>
+      <c r="A61" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>658</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>659</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="G61" s="23" t="s">
+        <v>275</v>
       </c>
       <c r="H61" s="0"/>
       <c r="I61" s="0"/>
@@ -15138,18 +15228,24 @@
       <c r="AD61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B62" s="22" t="s">
-        <v>675</v>
-      </c>
-      <c r="C62" s="23" t="s">
-        <v>676</v>
-      </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="7"/>
+      <c r="A62" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>661</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>662</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="G62" s="27" t="s">
+        <v>158</v>
+      </c>
       <c r="H62" s="0"/>
       <c r="I62" s="0"/>
       <c r="J62" s="0"/>
@@ -15173,14 +15269,24 @@
       <c r="AD62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="17"/>
-      <c r="B63" s="18" t="s">
-        <v>677</v>
-      </c>
-      <c r="C63" s="19"/>
-      <c r="E63" s="0"/>
-      <c r="F63" s="0"/>
-      <c r="G63" s="0"/>
+      <c r="A63" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>664</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>665</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="22" t="s">
+        <v>666</v>
+      </c>
+      <c r="G63" s="23" t="s">
+        <v>225</v>
+      </c>
       <c r="H63" s="0"/>
       <c r="I63" s="0"/>
       <c r="J63" s="0"/>
@@ -15208,17 +15314,19 @@
         <v>27</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="E64" s="5"/>
-      <c r="F64" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>596</v>
+        <v>662</v>
+      </c>
+      <c r="E64" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="F64" s="26" t="s">
+        <v>668</v>
+      </c>
+      <c r="G64" s="27" t="s">
+        <v>491</v>
       </c>
       <c r="H64" s="0"/>
       <c r="I64" s="0"/>
@@ -15243,23 +15351,23 @@
       <c r="AD64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="31" t="s">
-        <v>27</v>
+      <c r="A65" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>633</v>
-      </c>
-      <c r="E65" s="21" t="s">
-        <v>14</v>
+        <v>42</v>
+      </c>
+      <c r="E65" s="31" t="s">
+        <v>297</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>384</v>
+        <v>670</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="H65" s="0"/>
       <c r="I65" s="0"/>
@@ -15288,19 +15396,19 @@
         <v>27</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>633</v>
-      </c>
-      <c r="E66" s="21" t="s">
-        <v>14</v>
+        <v>672</v>
+      </c>
+      <c r="E66" s="31" t="s">
+        <v>297</v>
       </c>
       <c r="F66" s="26" t="s">
-        <v>401</v>
+        <v>673</v>
       </c>
       <c r="G66" s="27" t="s">
-        <v>275</v>
+        <v>536</v>
       </c>
       <c r="H66" s="0"/>
       <c r="I66" s="0"/>
@@ -15325,23 +15433,23 @@
       <c r="AD66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="31" t="s">
-        <v>27</v>
+      <c r="A67" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="C67" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="E67" s="31" t="s">
-        <v>27</v>
+      <c r="E67" s="10" t="s">
+        <v>281</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>388</v>
+        <v>482</v>
       </c>
       <c r="G67" s="23" t="s">
-        <v>682</v>
+        <v>158</v>
       </c>
       <c r="H67" s="0"/>
       <c r="I67" s="0"/>
@@ -15366,18 +15474,18 @@
       <c r="AD67" s="0"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="7"/>
-      <c r="E68" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="26" t="s">
-        <v>683</v>
-      </c>
-      <c r="G68" s="27" t="s">
-        <v>42</v>
-      </c>
+      <c r="A68" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>650</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>651</v>
+      </c>
+      <c r="E68" s="5"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="7"/>
       <c r="H68" s="0"/>
       <c r="I68" s="0"/>
       <c r="J68" s="0"/>
@@ -15401,18 +15509,18 @@
       <c r="AD68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0"/>
-      <c r="B69" s="0"/>
-      <c r="C69" s="0"/>
-      <c r="E69" s="31" t="s">
+      <c r="A69" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F69" s="22" t="s">
-        <v>684</v>
-      </c>
-      <c r="G69" s="23" t="s">
-        <v>123</v>
-      </c>
+      <c r="B69" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>675</v>
+      </c>
+      <c r="E69" s="0"/>
+      <c r="F69" s="0"/>
+      <c r="G69" s="0"/>
       <c r="H69" s="0"/>
       <c r="I69" s="0"/>
       <c r="J69" s="0"/>
@@ -15436,22 +15544,20 @@
       <c r="AD69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5"/>
-      <c r="B70" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="E70" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F70" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="G70" s="27" t="s">
-        <v>421</v>
-      </c>
+      <c r="A70" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>676</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E70" s="36"/>
+      <c r="F70" s="37" t="s">
+        <v>677</v>
+      </c>
+      <c r="G70" s="36"/>
       <c r="H70" s="0"/>
       <c r="I70" s="0"/>
       <c r="J70" s="0"/>
@@ -15475,14 +15581,18 @@
       <c r="AD70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="17"/>
-      <c r="B71" s="18" t="s">
-        <v>687</v>
-      </c>
-      <c r="C71" s="19"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="7"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="7"/>
+      <c r="E71" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="G71" s="39" t="s">
+        <v>320</v>
+      </c>
       <c r="H71" s="0"/>
       <c r="I71" s="0"/>
       <c r="J71" s="0"/>
@@ -15506,14 +15616,18 @@
       <c r="AD71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="17"/>
-      <c r="B72" s="18" t="s">
-        <v>688</v>
-      </c>
-      <c r="C72" s="19"/>
-      <c r="E72" s="0"/>
-      <c r="F72" s="0"/>
-      <c r="G72" s="0"/>
+      <c r="A72" s="0"/>
+      <c r="B72" s="0"/>
+      <c r="C72" s="0"/>
+      <c r="E72" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="G72" s="23" t="s">
+        <v>275</v>
+      </c>
       <c r="H72" s="0"/>
       <c r="I72" s="0"/>
       <c r="J72" s="0"/>
@@ -15538,11 +15652,19 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5"/>
-      <c r="B73" s="6"/>
+      <c r="B73" s="6" t="s">
+        <v>678</v>
+      </c>
       <c r="C73" s="7"/>
-      <c r="E73" s="0"/>
-      <c r="F73" s="0"/>
-      <c r="G73" s="0"/>
+      <c r="E73" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="38" t="s">
+        <v>388</v>
+      </c>
+      <c r="G73" s="39" t="s">
+        <v>679</v>
+      </c>
       <c r="H73" s="0"/>
       <c r="I73" s="0"/>
       <c r="J73" s="0"/>
@@ -15566,12 +15688,24 @@
       <c r="AD73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0"/>
-      <c r="B74" s="0"/>
-      <c r="C74" s="0"/>
-      <c r="E74" s="0"/>
-      <c r="F74" s="0"/>
-      <c r="G74" s="0"/>
+      <c r="A74" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" s="26" t="s">
+        <v>579</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="22" t="s">
+        <v>680</v>
+      </c>
+      <c r="G74" s="23" t="s">
+        <v>42</v>
+      </c>
       <c r="H74" s="0"/>
       <c r="I74" s="0"/>
       <c r="J74" s="0"/>
@@ -15595,12 +15729,24 @@
       <c r="AD74" s="0"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0"/>
-      <c r="B75" s="0"/>
-      <c r="C75" s="0"/>
-      <c r="E75" s="0"/>
-      <c r="F75" s="0"/>
-      <c r="G75" s="0"/>
+      <c r="A75" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E75" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="38" t="s">
+        <v>681</v>
+      </c>
+      <c r="G75" s="39" t="s">
+        <v>123</v>
+      </c>
       <c r="H75" s="0"/>
       <c r="I75" s="0"/>
       <c r="J75" s="0"/>
@@ -15624,12 +15770,24 @@
       <c r="AD75" s="0"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0"/>
-      <c r="B76" s="0"/>
-      <c r="C76" s="0"/>
-      <c r="E76" s="0"/>
-      <c r="F76" s="0"/>
-      <c r="G76" s="0"/>
+      <c r="A76" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>676</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="G76" s="23" t="s">
+        <v>421</v>
+      </c>
       <c r="H76" s="0"/>
       <c r="I76" s="0"/>
       <c r="J76" s="0"/>
@@ -15653,12 +15811,18 @@
       <c r="AD76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0"/>
-      <c r="B77" s="0"/>
-      <c r="C77" s="0"/>
-      <c r="E77" s="0"/>
-      <c r="F77" s="0"/>
-      <c r="G77" s="0"/>
+      <c r="A77" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>581</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
       <c r="H77" s="0"/>
       <c r="I77" s="0"/>
       <c r="J77" s="0"/>
@@ -15682,9 +15846,15 @@
       <c r="AD77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0"/>
-      <c r="B78" s="0"/>
-      <c r="C78" s="0"/>
+      <c r="A78" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>576</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="E78" s="0"/>
       <c r="F78" s="0"/>
       <c r="G78" s="0"/>
@@ -15711,9 +15881,15 @@
       <c r="AD78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0"/>
-      <c r="B79" s="0"/>
-      <c r="C79" s="0"/>
+      <c r="A79" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>413</v>
+      </c>
       <c r="E79" s="0"/>
       <c r="F79" s="0"/>
       <c r="G79" s="0"/>
@@ -15740,9 +15916,15 @@
       <c r="AD79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0"/>
-      <c r="B80" s="0"/>
-      <c r="C80" s="0"/>
+      <c r="A80" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="C80" s="27" t="s">
+        <v>413</v>
+      </c>
       <c r="E80" s="0"/>
       <c r="F80" s="0"/>
       <c r="G80" s="0"/>
@@ -15769,9 +15951,15 @@
       <c r="AD80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0"/>
-      <c r="B81" s="0"/>
-      <c r="C81" s="0"/>
+      <c r="A81" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>421</v>
+      </c>
       <c r="E81" s="0"/>
       <c r="F81" s="0"/>
       <c r="G81" s="0"/>
@@ -15798,9 +15986,9 @@
       <c r="AD81" s="0"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0"/>
-      <c r="B82" s="0"/>
-      <c r="C82" s="0"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="7"/>
       <c r="E82" s="0"/>
       <c r="F82" s="0"/>
       <c r="G82" s="0"/>
@@ -15859,14 +16047,14 @@
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5"/>
       <c r="B85" s="6" t="s">
-        <v>689</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="E85" s="0"/>
-      <c r="F85" s="0"/>
-      <c r="G85" s="0"/>
+        <v>682</v>
+      </c>
+      <c r="C85" s="7"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="37" t="s">
+        <v>683</v>
+      </c>
+      <c r="G85" s="36"/>
       <c r="H85" s="0"/>
       <c r="I85" s="0"/>
       <c r="J85" s="0"/>
@@ -15883,11 +16071,17 @@
         <v>384</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>690</v>
-      </c>
-      <c r="E86" s="0"/>
-      <c r="F86" s="0"/>
-      <c r="G86" s="0"/>
+        <v>684</v>
+      </c>
+      <c r="E86" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="F86" s="38" t="s">
+        <v>685</v>
+      </c>
+      <c r="G86" s="39" t="s">
+        <v>686</v>
+      </c>
       <c r="H86" s="0"/>
       <c r="I86" s="0"/>
       <c r="J86" s="0"/>
@@ -15901,14 +16095,20 @@
         <v>27</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>536</v>
-      </c>
-      <c r="E87" s="0"/>
-      <c r="F87" s="0"/>
-      <c r="G87" s="0"/>
+        <v>688</v>
+      </c>
+      <c r="E87" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="F87" s="22" t="s">
+        <v>689</v>
+      </c>
+      <c r="G87" s="23" t="s">
+        <v>690</v>
+      </c>
       <c r="H87" s="0"/>
       <c r="I87" s="0"/>
       <c r="J87" s="0"/>
@@ -15922,14 +16122,20 @@
         <v>27</v>
       </c>
       <c r="B88" s="26" t="s">
+        <v>691</v>
+      </c>
+      <c r="C88" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E88" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="F88" s="38" t="s">
         <v>692</v>
       </c>
-      <c r="C88" s="27" t="s">
-        <v>693</v>
-      </c>
-      <c r="E88" s="0"/>
-      <c r="F88" s="0"/>
-      <c r="G88" s="0"/>
+      <c r="G88" s="39" t="s">
+        <v>42</v>
+      </c>
       <c r="H88" s="0"/>
       <c r="I88" s="0"/>
       <c r="J88" s="0"/>
@@ -15943,14 +16149,20 @@
         <v>27</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C89" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E89" s="0"/>
-      <c r="F89" s="0"/>
-      <c r="G89" s="0"/>
+      <c r="E89" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="F89" s="22" t="s">
+        <v>671</v>
+      </c>
+      <c r="G89" s="23" t="s">
+        <v>672</v>
+      </c>
       <c r="I89" s="0"/>
       <c r="J89" s="0"/>
       <c r="K89" s="0"/>
@@ -15963,14 +16175,20 @@
         <v>27</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C90" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E90" s="0"/>
-      <c r="F90" s="0"/>
-      <c r="G90" s="0"/>
+      <c r="E90" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="F90" s="38" t="s">
+        <v>511</v>
+      </c>
+      <c r="G90" s="39" t="s">
+        <v>695</v>
+      </c>
       <c r="H90" s="0"/>
       <c r="I90" s="0"/>
       <c r="J90" s="0"/>
@@ -15980,18 +16198,24 @@
       <c r="N90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="31" t="s">
-        <v>27</v>
+      <c r="A91" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>696</v>
+        <v>657</v>
       </c>
       <c r="C91" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="E91" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="F91" s="22" t="s">
+        <v>673</v>
+      </c>
+      <c r="G91" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E91" s="0"/>
-      <c r="F91" s="0"/>
-      <c r="G91" s="0"/>
       <c r="H91" s="0"/>
       <c r="I91" s="0"/>
       <c r="J91" s="0"/>
@@ -16001,18 +16225,24 @@
       <c r="N91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="31" t="s">
-        <v>27</v>
+      <c r="A92" s="21" t="s">
+        <v>14</v>
       </c>
       <c r="B92" s="26" t="s">
-        <v>697</v>
+        <v>660</v>
       </c>
       <c r="C92" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E92" s="0"/>
-      <c r="F92" s="0"/>
-      <c r="G92" s="0"/>
+        <v>275</v>
+      </c>
+      <c r="E92" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="F92" s="38" t="s">
+        <v>696</v>
+      </c>
+      <c r="G92" s="39" t="s">
+        <v>42</v>
+      </c>
       <c r="H92" s="0"/>
       <c r="I92" s="0"/>
       <c r="J92" s="0"/>
@@ -16026,14 +16256,20 @@
         <v>14</v>
       </c>
       <c r="B93" s="22" t="s">
-        <v>666</v>
+        <v>697</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="E93" s="0"/>
-      <c r="F93" s="0"/>
-      <c r="G93" s="0"/>
+        <v>123</v>
+      </c>
+      <c r="E93" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="F93" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="G93" s="23" t="s">
+        <v>42</v>
+      </c>
       <c r="H93" s="0"/>
       <c r="I93" s="0"/>
       <c r="J93" s="0"/>
@@ -16047,14 +16283,20 @@
         <v>14</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>668</v>
+        <v>698</v>
       </c>
       <c r="C94" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="E94" s="0"/>
-      <c r="F94" s="0"/>
-      <c r="G94" s="0"/>
+        <v>225</v>
+      </c>
+      <c r="E94" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="F94" s="38" t="s">
+        <v>699</v>
+      </c>
+      <c r="G94" s="39" t="s">
+        <v>400</v>
+      </c>
       <c r="H94" s="0"/>
       <c r="I94" s="0"/>
       <c r="J94" s="0"/>
@@ -16064,18 +16306,18 @@
       <c r="N94" s="0"/>
     </row>
     <row r="95" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B95" s="22" t="s">
-        <v>698</v>
-      </c>
-      <c r="C95" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="E95" s="0"/>
-      <c r="F95" s="0"/>
-      <c r="G95" s="0"/>
+      <c r="A95" s="5"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="7"/>
+      <c r="E95" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="F95" s="22" t="s">
+        <v>592</v>
+      </c>
+      <c r="G95" s="23" t="s">
+        <v>593</v>
+      </c>
       <c r="H95" s="0"/>
       <c r="I95" s="0"/>
       <c r="J95" s="0"/>
@@ -16085,18 +16327,12 @@
       <c r="N95" s="0"/>
     </row>
     <row r="96" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B96" s="26" t="s">
-        <v>699</v>
-      </c>
-      <c r="C96" s="27" t="s">
-        <v>225</v>
-      </c>
-      <c r="E96" s="0"/>
-      <c r="F96" s="0"/>
-      <c r="G96" s="0"/>
+      <c r="A96" s="0"/>
+      <c r="B96" s="0"/>
+      <c r="C96" s="0"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
       <c r="H96" s="0"/>
       <c r="I96" s="0"/>
       <c r="J96" s="0"/>
@@ -16107,8 +16343,12 @@
     </row>
     <row r="97" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="5"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="7"/>
+      <c r="B97" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>701</v>
+      </c>
       <c r="E97" s="0"/>
       <c r="F97" s="0"/>
       <c r="G97" s="0"/>
@@ -16121,12 +16361,20 @@
       <c r="N97" s="0"/>
     </row>
     <row r="98" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0"/>
-      <c r="B98" s="0"/>
-      <c r="C98" s="0"/>
-      <c r="E98" s="0"/>
-      <c r="F98" s="0"/>
-      <c r="G98" s="0"/>
+      <c r="A98" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="C98" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E98" s="5"/>
+      <c r="F98" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="G98" s="7"/>
       <c r="H98" s="0"/>
       <c r="I98" s="0"/>
       <c r="J98" s="0"/>
@@ -16136,16 +16384,24 @@
       <c r="N98" s="0"/>
     </row>
     <row r="99" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="5"/>
-      <c r="B99" s="6" t="s">
-        <v>700</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="E99" s="0"/>
-      <c r="F99" s="0"/>
-      <c r="G99" s="0"/>
+      <c r="A99" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B99" s="22" t="s">
+        <v>681</v>
+      </c>
+      <c r="C99" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F99" s="26" t="s">
+        <v>664</v>
+      </c>
+      <c r="G99" s="27" t="s">
+        <v>704</v>
+      </c>
       <c r="H99" s="0"/>
       <c r="I99" s="0"/>
       <c r="J99" s="0"/>
@@ -16159,14 +16415,20 @@
         <v>14</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>701</v>
+        <v>401</v>
       </c>
       <c r="C100" s="27" t="s">
+        <v>705</v>
+      </c>
+      <c r="E100" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="F100" s="22" t="s">
+        <v>706</v>
+      </c>
+      <c r="G100" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="E100" s="0"/>
-      <c r="F100" s="0"/>
-      <c r="G100" s="0"/>
       <c r="H100" s="0"/>
       <c r="I100" s="0"/>
       <c r="J100" s="0"/>
@@ -16179,14 +16441,20 @@
         <v>14</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>684</v>
+        <v>707</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E101" s="0"/>
-      <c r="F101" s="0"/>
-      <c r="G101" s="0"/>
+        <v>275</v>
+      </c>
+      <c r="E101" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="F101" s="26" t="s">
+        <v>676</v>
+      </c>
+      <c r="G101" s="27" t="s">
+        <v>225</v>
+      </c>
       <c r="H101" s="0"/>
       <c r="I101" s="0"/>
       <c r="J101" s="0"/>
@@ -16196,18 +16464,24 @@
       <c r="N101" s="0"/>
     </row>
     <row r="102" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="21" t="s">
-        <v>14</v>
+      <c r="A102" s="31" t="s">
+        <v>27</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>401</v>
+        <v>706</v>
       </c>
       <c r="C102" s="27" t="s">
-        <v>702</v>
-      </c>
-      <c r="E102" s="0"/>
-      <c r="F102" s="0"/>
-      <c r="G102" s="0"/>
+        <v>123</v>
+      </c>
+      <c r="E102" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="F102" s="22" t="s">
+        <v>708</v>
+      </c>
+      <c r="G102" s="23" t="s">
+        <v>38</v>
+      </c>
       <c r="H102" s="0"/>
       <c r="I102" s="0"/>
       <c r="J102" s="0"/>
@@ -16221,14 +16495,20 @@
         <v>14</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>703</v>
+        <v>362</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="E103" s="0"/>
-      <c r="F103" s="0"/>
-      <c r="G103" s="0"/>
+        <v>123</v>
+      </c>
+      <c r="E103" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="F103" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="G103" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="H103" s="0"/>
       <c r="I103" s="0"/>
       <c r="J103" s="0"/>
@@ -16238,18 +16518,18 @@
       <c r="N103" s="0"/>
     </row>
     <row r="104" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B104" s="26" t="s">
-        <v>704</v>
-      </c>
-      <c r="C104" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E104" s="0"/>
-      <c r="F104" s="0"/>
-      <c r="G104" s="0"/>
+      <c r="A104" s="5"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="7"/>
+      <c r="E104" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="F104" s="22" t="s">
+        <v>709</v>
+      </c>
+      <c r="G104" s="23" t="s">
+        <v>42</v>
+      </c>
       <c r="H104" s="0"/>
       <c r="I104" s="0"/>
       <c r="J104" s="0"/>
@@ -16259,12 +16539,18 @@
       <c r="N104" s="0"/>
     </row>
     <row r="105" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="5"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="7"/>
-      <c r="E105" s="0"/>
-      <c r="F105" s="0"/>
-      <c r="G105" s="0"/>
+      <c r="A105" s="0"/>
+      <c r="B105" s="0"/>
+      <c r="C105" s="0"/>
+      <c r="E105" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="G105" s="27" t="s">
+        <v>275</v>
+      </c>
       <c r="H105" s="1"/>
       <c r="I105" s="0"/>
       <c r="J105" s="0"/>
@@ -16274,12 +16560,16 @@
       <c r="N105" s="0"/>
     </row>
     <row r="106" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0"/>
-      <c r="B106" s="0"/>
-      <c r="C106" s="0"/>
-      <c r="E106" s="0"/>
-      <c r="F106" s="0"/>
-      <c r="G106" s="0"/>
+      <c r="A106" s="5"/>
+      <c r="B106" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C106" s="7"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="18" t="s">
+        <v>710</v>
+      </c>
+      <c r="G106" s="19"/>
       <c r="H106" s="0"/>
       <c r="I106" s="0"/>
       <c r="J106" s="0"/>
@@ -16289,16 +16579,16 @@
       <c r="N106" s="0"/>
     </row>
     <row r="107" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="5"/>
-      <c r="B107" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="E107" s="0"/>
-      <c r="F107" s="0"/>
-      <c r="G107" s="0"/>
+      <c r="A107" s="17"/>
+      <c r="B107" s="18" t="s">
+        <v>711</v>
+      </c>
+      <c r="C107" s="19"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="18" t="s">
+        <v>712</v>
+      </c>
+      <c r="G107" s="19"/>
       <c r="H107" s="0"/>
       <c r="I107" s="0"/>
       <c r="J107" s="0"/>
@@ -16308,14 +16598,20 @@
       <c r="N107" s="0"/>
     </row>
     <row r="108" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="17"/>
-      <c r="B108" s="18" t="s">
-        <v>705</v>
-      </c>
-      <c r="C108" s="19"/>
-      <c r="E108" s="0"/>
-      <c r="F108" s="0"/>
-      <c r="G108" s="0"/>
+      <c r="A108" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="B108" s="26" t="s">
+        <v>713</v>
+      </c>
+      <c r="C108" s="27" t="s">
+        <v>632</v>
+      </c>
+      <c r="E108" s="17"/>
+      <c r="F108" s="18" t="s">
+        <v>714</v>
+      </c>
+      <c r="G108" s="19"/>
       <c r="H108" s="0"/>
       <c r="I108" s="0"/>
       <c r="J108" s="0"/>
@@ -16328,15 +16624,17 @@
       <c r="A109" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="B109" s="26" t="s">
-        <v>706</v>
-      </c>
-      <c r="C109" s="27" t="s">
-        <v>621</v>
-      </c>
-      <c r="E109" s="0"/>
-      <c r="F109" s="0"/>
-      <c r="G109" s="0"/>
+      <c r="B109" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="C109" s="23" t="s">
+        <v>713</v>
+      </c>
+      <c r="E109" s="17"/>
+      <c r="F109" s="18" t="s">
+        <v>715</v>
+      </c>
+      <c r="G109" s="19"/>
       <c r="H109" s="0"/>
       <c r="I109" s="0"/>
       <c r="J109" s="0"/>
@@ -16346,18 +16644,20 @@
       <c r="N109" s="0"/>
     </row>
     <row r="110" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="B110" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="C110" s="23" t="s">
-        <v>706</v>
-      </c>
-      <c r="E110" s="0"/>
-      <c r="F110" s="0"/>
-      <c r="G110" s="0"/>
+      <c r="A110" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="B110" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="C110" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="E110" s="17"/>
+      <c r="F110" s="18" t="s">
+        <v>716</v>
+      </c>
+      <c r="G110" s="19"/>
       <c r="H110" s="0"/>
       <c r="I110" s="0"/>
       <c r="J110" s="0"/>
@@ -16367,18 +16667,20 @@
       <c r="N110" s="0"/>
     </row>
     <row r="111" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="21" t="s">
+      <c r="A111" s="17"/>
+      <c r="B111" s="18" t="s">
+        <v>717</v>
+      </c>
+      <c r="C111" s="19"/>
+      <c r="E111" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="B111" s="26" t="s">
-        <v>426</v>
-      </c>
-      <c r="C111" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="E111" s="0"/>
-      <c r="F111" s="0"/>
-      <c r="G111" s="0"/>
+      <c r="F111" s="26" t="s">
+        <v>718</v>
+      </c>
+      <c r="G111" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="H111" s="0"/>
       <c r="I111" s="0"/>
       <c r="J111" s="0"/>
@@ -16388,14 +16690,24 @@
       <c r="N111" s="0"/>
     </row>
     <row r="112" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="17"/>
-      <c r="B112" s="18" t="s">
-        <v>707</v>
-      </c>
-      <c r="C112" s="19"/>
-      <c r="E112" s="0"/>
-      <c r="F112" s="0"/>
-      <c r="G112" s="0"/>
+      <c r="A112" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="B112" s="22" t="s">
+        <v>719</v>
+      </c>
+      <c r="C112" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E112" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="F112" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="G112" s="23" t="s">
+        <v>42</v>
+      </c>
       <c r="H112" s="0"/>
       <c r="I112" s="0"/>
       <c r="J112" s="0"/>
@@ -16405,18 +16717,20 @@
       <c r="N112" s="0"/>
     </row>
     <row r="113" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="21" t="s">
+      <c r="A113" s="17"/>
+      <c r="B113" s="18" t="s">
+        <v>720</v>
+      </c>
+      <c r="C113" s="19"/>
+      <c r="E113" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="B113" s="22" t="s">
-        <v>708</v>
-      </c>
-      <c r="C113" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E113" s="0"/>
-      <c r="F113" s="0"/>
-      <c r="G113" s="0"/>
+      <c r="F113" s="26" t="s">
+        <v>559</v>
+      </c>
+      <c r="G113" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="H113" s="0"/>
       <c r="I113" s="0"/>
       <c r="J113" s="0"/>
@@ -16425,14 +16739,18 @@
       <c r="N113" s="0"/>
     </row>
     <row r="114" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="17"/>
-      <c r="B114" s="18" t="s">
-        <v>709</v>
-      </c>
-      <c r="C114" s="19"/>
-      <c r="E114" s="0"/>
-      <c r="F114" s="0"/>
-      <c r="G114" s="0"/>
+      <c r="A114" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="B114" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="C114" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="E114" s="5"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="7"/>
       <c r="H114" s="0"/>
       <c r="I114" s="0"/>
       <c r="J114" s="0"/>
@@ -16445,11 +16763,11 @@
       <c r="A115" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="B115" s="26" t="s">
-        <v>436</v>
-      </c>
-      <c r="C115" s="27" t="s">
-        <v>437</v>
+      <c r="B115" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="C115" s="23" t="s">
+        <v>440</v>
       </c>
       <c r="E115" s="0"/>
       <c r="F115" s="0"/>
@@ -16466,18 +16784,21 @@
       <c r="A116" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="B116" s="22" t="s">
-        <v>445</v>
-      </c>
-      <c r="C116" s="23" t="s">
-        <v>440</v>
-      </c>
-      <c r="E116" s="0"/>
-      <c r="F116" s="0"/>
-      <c r="G116" s="0"/>
+      <c r="B116" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="C116" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="E116" s="36"/>
+      <c r="F116" s="37" t="s">
+        <v>683</v>
+      </c>
+      <c r="G116" s="36"/>
       <c r="H116" s="0"/>
       <c r="I116" s="0"/>
       <c r="J116" s="0"/>
+      <c r="K116" s="0"/>
       <c r="L116" s="0"/>
       <c r="M116" s="0"/>
       <c r="N116" s="0"/>
@@ -16486,18 +16807,25 @@
       <c r="A117" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="B117" s="26" t="s">
-        <v>447</v>
-      </c>
-      <c r="C117" s="27" t="s">
-        <v>448</v>
-      </c>
-      <c r="E117" s="0"/>
-      <c r="F117" s="0"/>
-      <c r="G117" s="0"/>
+      <c r="B117" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="C117" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E117" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="F117" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="G117" s="39" t="s">
+        <v>721</v>
+      </c>
       <c r="H117" s="0"/>
       <c r="I117" s="0"/>
       <c r="J117" s="0"/>
+      <c r="K117" s="0"/>
       <c r="L117" s="0"/>
       <c r="M117" s="0"/>
       <c r="N117" s="0"/>
@@ -16506,18 +16834,25 @@
       <c r="A118" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="B118" s="22" t="s">
-        <v>452</v>
-      </c>
-      <c r="C118" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E118" s="0"/>
-      <c r="F118" s="0"/>
-      <c r="G118" s="0"/>
+      <c r="B118" s="26" t="s">
+        <v>722</v>
+      </c>
+      <c r="C118" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E118" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="F118" s="22" t="s">
+        <v>580</v>
+      </c>
+      <c r="G118" s="23" t="s">
+        <v>723</v>
+      </c>
       <c r="H118" s="0"/>
       <c r="I118" s="0"/>
       <c r="J118" s="0"/>
+      <c r="K118" s="0"/>
       <c r="L118" s="0"/>
       <c r="M118" s="0"/>
       <c r="N118" s="0"/>
@@ -16526,126 +16861,162 @@
       <c r="A119" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="B119" s="26" t="s">
-        <v>710</v>
-      </c>
-      <c r="C119" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E119" s="0"/>
-      <c r="F119" s="0"/>
-      <c r="G119" s="0"/>
+      <c r="B119" s="22" t="s">
+        <v>583</v>
+      </c>
+      <c r="C119" s="23" t="s">
+        <v>724</v>
+      </c>
+      <c r="E119" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="F119" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="G119" s="39" t="s">
+        <v>725</v>
+      </c>
       <c r="H119" s="0"/>
       <c r="I119" s="0"/>
       <c r="J119" s="0"/>
+      <c r="K119" s="0"/>
       <c r="L119" s="0"/>
       <c r="M119" s="0"/>
       <c r="N119" s="0"/>
     </row>
     <row r="120" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="31" t="s">
+      <c r="A120" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="B120" s="26" t="s">
+        <v>726</v>
+      </c>
+      <c r="C120" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E120" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="B120" s="22" t="s">
-        <v>589</v>
-      </c>
-      <c r="C120" s="23" t="s">
-        <v>711</v>
-      </c>
-      <c r="E120" s="0"/>
-      <c r="F120" s="0"/>
-      <c r="G120" s="0"/>
+      <c r="F120" s="22" t="s">
+        <v>727</v>
+      </c>
+      <c r="G120" s="23" t="s">
+        <v>38</v>
+      </c>
       <c r="H120" s="0"/>
       <c r="I120" s="0"/>
       <c r="J120" s="0"/>
+      <c r="K120" s="0"/>
       <c r="M120" s="0"/>
       <c r="N120" s="0"/>
     </row>
     <row r="121" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B121" s="26" t="s">
-        <v>712</v>
-      </c>
-      <c r="C121" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E121" s="0"/>
-      <c r="F121" s="0"/>
-      <c r="G121" s="0"/>
+        <v>14</v>
+      </c>
+      <c r="B121" s="22" t="s">
+        <v>728</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>729</v>
+      </c>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
       <c r="H121" s="0"/>
       <c r="I121" s="0"/>
       <c r="J121" s="0"/>
+      <c r="K121" s="0"/>
       <c r="L121" s="0"/>
       <c r="M121" s="0"/>
       <c r="N121" s="0"/>
     </row>
     <row r="122" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="17"/>
-      <c r="B122" s="18" t="s">
-        <v>713</v>
-      </c>
-      <c r="C122" s="19"/>
+      <c r="A122" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C122" s="27" t="s">
+        <v>730</v>
+      </c>
       <c r="E122" s="0"/>
       <c r="F122" s="0"/>
       <c r="G122" s="0"/>
       <c r="H122" s="0"/>
       <c r="I122" s="0"/>
       <c r="J122" s="0"/>
+      <c r="K122" s="0"/>
       <c r="L122" s="0"/>
       <c r="M122" s="0"/>
       <c r="N122" s="0"/>
     </row>
     <row r="123" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="21" t="s">
-        <v>286</v>
+        <v>14</v>
       </c>
       <c r="B123" s="22" t="s">
-        <v>457</v>
+        <v>608</v>
       </c>
       <c r="C123" s="23" t="s">
-        <v>458</v>
-      </c>
-      <c r="E123" s="0"/>
-      <c r="F123" s="0"/>
-      <c r="G123" s="0"/>
+        <v>38</v>
+      </c>
+      <c r="E123" s="5"/>
+      <c r="F123" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="G123" s="7"/>
       <c r="H123" s="0"/>
       <c r="I123" s="0"/>
       <c r="J123" s="0"/>
+      <c r="K123" s="0"/>
       <c r="L123" s="0"/>
       <c r="M123" s="0"/>
       <c r="N123" s="0"/>
     </row>
     <row r="124" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B124" s="26" t="s">
-        <v>460</v>
-      </c>
-      <c r="C124" s="27" t="s">
-        <v>461</v>
-      </c>
-      <c r="E124" s="0"/>
-      <c r="F124" s="0"/>
-      <c r="G124" s="0"/>
+      <c r="A124" s="17"/>
+      <c r="B124" s="18" t="s">
+        <v>732</v>
+      </c>
+      <c r="C124" s="19"/>
+      <c r="E124" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" s="26" t="s">
+        <v>733</v>
+      </c>
+      <c r="G124" s="27" t="s">
+        <v>734</v>
+      </c>
       <c r="H124" s="0"/>
       <c r="I124" s="0"/>
       <c r="J124" s="0"/>
+      <c r="K124" s="0"/>
       <c r="L124" s="0"/>
       <c r="M124" s="0"/>
       <c r="N124" s="0"/>
     </row>
     <row r="125" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="17"/>
-      <c r="B125" s="18" t="s">
-        <v>714</v>
-      </c>
-      <c r="C125" s="19"/>
-      <c r="E125" s="0"/>
-      <c r="F125" s="0"/>
-      <c r="G125" s="0"/>
+      <c r="A125" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="B125" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="C125" s="27" t="s">
+        <v>458</v>
+      </c>
+      <c r="E125" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="G125" s="23" t="s">
+        <v>735</v>
+      </c>
       <c r="H125" s="0"/>
       <c r="I125" s="0"/>
       <c r="J125" s="0"/>
@@ -16654,41 +17025,51 @@
       <c r="N125" s="0"/>
     </row>
     <row r="126" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="21" t="s">
-        <v>286</v>
+      <c r="A126" s="10" t="s">
+        <v>281</v>
       </c>
       <c r="B126" s="22" t="s">
-        <v>715</v>
+        <v>460</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>458</v>
-      </c>
-      <c r="E126" s="0"/>
-      <c r="F126" s="0"/>
-      <c r="G126" s="0"/>
+        <v>461</v>
+      </c>
+      <c r="E126" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="G126" s="27" t="s">
+        <v>736</v>
+      </c>
       <c r="H126" s="0"/>
       <c r="I126" s="0"/>
       <c r="J126" s="0"/>
+      <c r="K126" s="0"/>
       <c r="L126" s="0"/>
       <c r="M126" s="0"/>
       <c r="N126" s="0"/>
     </row>
     <row r="127" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B127" s="26" t="s">
-        <v>465</v>
-      </c>
-      <c r="C127" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E127" s="0"/>
-      <c r="F127" s="0"/>
-      <c r="G127" s="0"/>
+      <c r="A127" s="17"/>
+      <c r="B127" s="18" t="s">
+        <v>737</v>
+      </c>
+      <c r="C127" s="19"/>
+      <c r="E127" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" s="22" t="s">
+        <v>738</v>
+      </c>
+      <c r="G127" s="23" t="s">
+        <v>739</v>
+      </c>
       <c r="H127" s="0"/>
       <c r="I127" s="0"/>
       <c r="J127" s="0"/>
+      <c r="K127" s="0"/>
       <c r="L127" s="0"/>
       <c r="M127" s="0"/>
       <c r="N127" s="0"/>
@@ -16697,136 +17078,184 @@
       <c r="A128" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="B128" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="C128" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E128" s="0"/>
-      <c r="F128" s="0"/>
-      <c r="G128" s="0"/>
+      <c r="B128" s="26" t="s">
+        <v>740</v>
+      </c>
+      <c r="C128" s="27" t="s">
+        <v>458</v>
+      </c>
+      <c r="E128" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" s="26" t="s">
+        <v>741</v>
+      </c>
+      <c r="G128" s="27" t="s">
+        <v>742</v>
+      </c>
       <c r="H128" s="0"/>
       <c r="I128" s="0"/>
       <c r="J128" s="0"/>
+      <c r="K128" s="0"/>
       <c r="L128" s="0"/>
       <c r="M128" s="0"/>
       <c r="N128" s="0"/>
     </row>
     <row r="129" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="5"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="7"/>
-      <c r="E129" s="0"/>
-      <c r="F129" s="0"/>
-      <c r="G129" s="0"/>
+      <c r="A129" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="B129" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="C129" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E129" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="G129" s="23" t="s">
+        <v>743</v>
+      </c>
       <c r="H129" s="0"/>
       <c r="I129" s="0"/>
       <c r="J129" s="0"/>
+      <c r="K129" s="0"/>
     </row>
     <row r="130" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0"/>
-      <c r="B130" s="0"/>
-      <c r="C130" s="0"/>
-      <c r="E130" s="0"/>
-      <c r="F130" s="0"/>
-      <c r="G130" s="0"/>
+      <c r="A130" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="B130" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C130" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E130" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F130" s="26" t="s">
+        <v>744</v>
+      </c>
+      <c r="G130" s="27" t="s">
+        <v>745</v>
+      </c>
       <c r="H130" s="0"/>
       <c r="I130" s="0"/>
       <c r="J130" s="0"/>
+      <c r="K130" s="0"/>
     </row>
     <row r="131" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="5"/>
-      <c r="B131" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="E131" s="0"/>
-      <c r="F131" s="0"/>
-      <c r="G131" s="0"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="7"/>
+      <c r="E131" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" s="22" t="s">
+        <v>746</v>
+      </c>
+      <c r="G131" s="23" t="s">
+        <v>735</v>
+      </c>
       <c r="H131" s="0"/>
       <c r="I131" s="0"/>
       <c r="J131" s="0"/>
+      <c r="K131" s="0"/>
     </row>
     <row r="132" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="B132" s="26" t="s">
-        <v>717</v>
-      </c>
-      <c r="C132" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E132" s="0"/>
-      <c r="F132" s="0"/>
-      <c r="G132" s="0"/>
+      <c r="A132" s="0"/>
+      <c r="B132" s="0"/>
+      <c r="C132" s="0"/>
+      <c r="E132" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132" s="26" t="s">
+        <v>660</v>
+      </c>
+      <c r="G132" s="27" t="s">
+        <v>747</v>
+      </c>
       <c r="H132" s="0"/>
       <c r="I132" s="0"/>
       <c r="J132" s="0"/>
+      <c r="K132" s="0"/>
     </row>
     <row r="133" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="B133" s="22" t="s">
-        <v>508</v>
-      </c>
-      <c r="C133" s="23" t="s">
-        <v>718</v>
-      </c>
-      <c r="E133" s="0"/>
-      <c r="F133" s="0"/>
-      <c r="G133" s="0"/>
+      <c r="A133" s="36"/>
+      <c r="B133" s="37" t="s">
+        <v>748</v>
+      </c>
+      <c r="C133" s="36"/>
+      <c r="E133" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F133" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="G133" s="23" t="s">
+        <v>747</v>
+      </c>
       <c r="H133" s="0"/>
       <c r="I133" s="0"/>
       <c r="J133" s="0"/>
+      <c r="K133" s="0"/>
     </row>
     <row r="134" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="B134" s="26" t="s">
-        <v>511</v>
-      </c>
-      <c r="C134" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="E134" s="0"/>
-      <c r="F134" s="0"/>
-      <c r="G134" s="0"/>
+      <c r="A134" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="B134" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="C134" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E134" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F134" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="G134" s="27" t="s">
+        <v>749</v>
+      </c>
       <c r="H134" s="0"/>
       <c r="I134" s="0"/>
       <c r="J134" s="0"/>
+      <c r="K134" s="0"/>
     </row>
     <row r="135" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="31" t="s">
-        <v>297</v>
+      <c r="A135" s="21" t="s">
+        <v>286</v>
       </c>
       <c r="B135" s="22" t="s">
-        <v>719</v>
+        <v>750</v>
       </c>
       <c r="C135" s="23" t="s">
-        <v>720</v>
-      </c>
-      <c r="E135" s="0"/>
-      <c r="F135" s="0"/>
-      <c r="G135" s="0"/>
+        <v>42</v>
+      </c>
+      <c r="E135" s="5"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="7"/>
       <c r="H135" s="1"/>
       <c r="I135" s="0"/>
       <c r="J135" s="0"/>
+      <c r="K135" s="0"/>
     </row>
     <row r="136" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="B136" s="26" t="s">
-        <v>721</v>
-      </c>
-      <c r="C136" s="27" t="s">
-        <v>42</v>
+      <c r="A136" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="B136" s="38" t="s">
+        <v>681</v>
+      </c>
+      <c r="C136" s="39" t="s">
+        <v>123</v>
       </c>
       <c r="E136" s="0"/>
       <c r="F136" s="0"/>
@@ -16834,198 +17263,270 @@
       <c r="H136" s="0"/>
       <c r="I136" s="0"/>
       <c r="J136" s="0"/>
+      <c r="K136" s="0"/>
     </row>
     <row r="137" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="B137" s="22" t="s">
-        <v>722</v>
-      </c>
-      <c r="C137" s="23" t="s">
-        <v>723</v>
-      </c>
-      <c r="E137" s="0"/>
-      <c r="F137" s="0"/>
-      <c r="G137" s="0"/>
+      <c r="A137" s="8"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="G137" s="7"/>
       <c r="H137" s="0"/>
       <c r="I137" s="0"/>
       <c r="J137" s="0"/>
+      <c r="K137" s="0"/>
     </row>
     <row r="138" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="B138" s="26" t="s">
-        <v>724</v>
-      </c>
-      <c r="C138" s="27" t="s">
-        <v>725</v>
-      </c>
-      <c r="E138" s="0"/>
-      <c r="F138" s="0"/>
-      <c r="G138" s="0"/>
+      <c r="A138" s="0"/>
+      <c r="B138" s="0"/>
+      <c r="C138" s="0"/>
+      <c r="E138" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F138" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="G138" s="27" t="s">
+        <v>597</v>
+      </c>
       <c r="H138" s="0"/>
       <c r="I138" s="0"/>
       <c r="J138" s="0"/>
+      <c r="K138" s="0"/>
     </row>
     <row r="139" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="17"/>
-      <c r="B139" s="18" t="s">
-        <v>714</v>
-      </c>
-      <c r="C139" s="19"/>
-      <c r="E139" s="0"/>
-      <c r="F139" s="0"/>
-      <c r="G139" s="0"/>
+      <c r="A139" s="5"/>
+      <c r="B139" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C139" s="7"/>
+      <c r="E139" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F139" s="22" t="s">
+        <v>752</v>
+      </c>
+      <c r="G139" s="23" t="s">
+        <v>753</v>
+      </c>
       <c r="H139" s="0"/>
       <c r="I139" s="0"/>
       <c r="J139" s="0"/>
+      <c r="K139" s="0"/>
     </row>
     <row r="140" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B140" s="22" t="s">
-        <v>504</v>
-      </c>
-      <c r="C140" s="23" t="s">
-        <v>726</v>
-      </c>
-      <c r="E140" s="0"/>
-      <c r="F140" s="0"/>
-      <c r="G140" s="0"/>
+      <c r="A140" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="B140" s="26" t="s">
+        <v>754</v>
+      </c>
+      <c r="C140" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E140" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F140" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="G140" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="H140" s="0"/>
       <c r="I140" s="0"/>
       <c r="J140" s="0"/>
+      <c r="K140" s="0"/>
     </row>
     <row r="141" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B141" s="26" t="s">
-        <v>666</v>
-      </c>
-      <c r="C141" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="E141" s="0"/>
-      <c r="F141" s="0"/>
-      <c r="G141" s="0"/>
+      <c r="A141" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="B141" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="C141" s="23" t="s">
+        <v>755</v>
+      </c>
+      <c r="E141" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F141" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="G141" s="23" t="s">
+        <v>42</v>
+      </c>
       <c r="H141" s="0"/>
       <c r="I141" s="0"/>
       <c r="J141" s="0"/>
+      <c r="K141" s="0"/>
       <c r="AA141" s="2" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B142" s="22" t="s">
-        <v>668</v>
-      </c>
-      <c r="C142" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="E142" s="0"/>
-      <c r="F142" s="0"/>
-      <c r="G142" s="0"/>
+      <c r="A142" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="B142" s="26" t="s">
+        <v>511</v>
+      </c>
+      <c r="C142" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="E142" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F142" s="26" t="s">
+        <v>756</v>
+      </c>
+      <c r="G142" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="H142" s="0"/>
       <c r="I142" s="0"/>
       <c r="J142" s="0"/>
+      <c r="K142" s="0"/>
     </row>
     <row r="143" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="B143" s="26" t="s">
-        <v>641</v>
-      </c>
-      <c r="C143" s="27" t="s">
-        <v>727</v>
-      </c>
-      <c r="E143" s="0"/>
-      <c r="F143" s="0"/>
-      <c r="G143" s="0"/>
+      <c r="B143" s="22" t="s">
+        <v>504</v>
+      </c>
+      <c r="C143" s="23" t="s">
+        <v>757</v>
+      </c>
+      <c r="E143" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F143" s="22" t="s">
+        <v>616</v>
+      </c>
+      <c r="G143" s="23" t="s">
+        <v>758</v>
+      </c>
       <c r="H143" s="1"/>
       <c r="I143" s="0"/>
       <c r="J143" s="0"/>
+      <c r="K143" s="0"/>
     </row>
     <row r="144" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="B144" s="22" t="s">
-        <v>728</v>
-      </c>
-      <c r="C144" s="23" t="s">
-        <v>729</v>
-      </c>
-      <c r="E144" s="0"/>
-      <c r="F144" s="0"/>
-      <c r="G144" s="0"/>
+      <c r="B144" s="26" t="s">
+        <v>657</v>
+      </c>
+      <c r="C144" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="E144" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144" s="26" t="s">
+        <v>590</v>
+      </c>
+      <c r="G144" s="27" t="s">
+        <v>758</v>
+      </c>
       <c r="H144" s="0"/>
       <c r="I144" s="0"/>
       <c r="J144" s="0"/>
+      <c r="K144" s="0"/>
     </row>
     <row r="145" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="17"/>
-      <c r="B145" s="18" t="s">
-        <v>730</v>
-      </c>
-      <c r="C145" s="19"/>
-      <c r="E145" s="0"/>
-      <c r="F145" s="0"/>
-      <c r="G145" s="0"/>
+      <c r="A145" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="B145" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="C145" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="E145" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F145" s="22" t="s">
+        <v>581</v>
+      </c>
+      <c r="G145" s="23" t="s">
+        <v>275</v>
+      </c>
       <c r="H145" s="0"/>
       <c r="I145" s="0"/>
       <c r="J145" s="0"/>
+      <c r="K145" s="0"/>
     </row>
     <row r="146" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="21" t="s">
         <v>286</v>
       </c>
       <c r="B146" s="26" t="s">
-        <v>528</v>
+        <v>644</v>
       </c>
       <c r="C146" s="27" t="s">
-        <v>458</v>
-      </c>
-      <c r="E146" s="0"/>
-      <c r="F146" s="0"/>
-      <c r="G146" s="0"/>
+        <v>759</v>
+      </c>
+      <c r="E146" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F146" s="26" t="s">
+        <v>752</v>
+      </c>
+      <c r="G146" s="27" t="s">
+        <v>584</v>
+      </c>
       <c r="H146" s="0"/>
       <c r="I146" s="0"/>
       <c r="J146" s="0"/>
+      <c r="K146" s="0"/>
     </row>
     <row r="147" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="10" t="s">
-        <v>281</v>
+      <c r="A147" s="21" t="s">
+        <v>286</v>
       </c>
       <c r="B147" s="22" t="s">
-        <v>460</v>
+        <v>760</v>
       </c>
       <c r="C147" s="23" t="s">
-        <v>731</v>
-      </c>
-      <c r="E147" s="0"/>
-      <c r="F147" s="0"/>
-      <c r="G147" s="0"/>
+        <v>761</v>
+      </c>
+      <c r="E147" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F147" s="22" t="s">
+        <v>762</v>
+      </c>
+      <c r="G147" s="23" t="s">
+        <v>38</v>
+      </c>
       <c r="H147" s="0"/>
       <c r="I147" s="0"/>
       <c r="J147" s="0"/>
+      <c r="K147" s="0"/>
     </row>
     <row r="148" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="17"/>
       <c r="B148" s="18" t="s">
-        <v>714</v>
+        <v>763</v>
       </c>
       <c r="C148" s="19"/>
-      <c r="E148" s="0"/>
-      <c r="F148" s="0"/>
-      <c r="G148" s="0"/>
+      <c r="E148" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F148" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="G148" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="H148" s="0"/>
       <c r="I148" s="0"/>
       <c r="J148" s="0"/>
@@ -17035,92 +17536,148 @@
         <v>286</v>
       </c>
       <c r="B149" s="26" t="s">
-        <v>715</v>
+        <v>528</v>
       </c>
       <c r="C149" s="27" t="s">
         <v>458</v>
       </c>
-      <c r="E149" s="0"/>
-      <c r="F149" s="0"/>
-      <c r="G149" s="0"/>
+      <c r="E149" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F149" s="22" t="s">
+        <v>697</v>
+      </c>
+      <c r="G149" s="23" t="s">
+        <v>38</v>
+      </c>
       <c r="H149" s="1"/>
       <c r="I149" s="0"/>
       <c r="J149" s="0"/>
     </row>
     <row r="150" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="21" t="s">
-        <v>286</v>
+      <c r="A150" s="10" t="s">
+        <v>281</v>
       </c>
       <c r="B150" s="22" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C150" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="E150" s="0"/>
-      <c r="F150" s="0"/>
-      <c r="G150" s="0"/>
+        <v>764</v>
+      </c>
+      <c r="E150" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F150" s="26" t="s">
+        <v>765</v>
+      </c>
+      <c r="G150" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="H150" s="0"/>
       <c r="I150" s="0"/>
       <c r="J150" s="0"/>
     </row>
     <row r="151" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B151" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="C151" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="E151" s="0"/>
-      <c r="F151" s="0"/>
-      <c r="G151" s="0"/>
+      <c r="A151" s="17"/>
+      <c r="B151" s="18" t="s">
+        <v>737</v>
+      </c>
+      <c r="C151" s="19"/>
+      <c r="E151" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F151" s="22" t="s">
+        <v>766</v>
+      </c>
+      <c r="G151" s="23" t="s">
+        <v>38</v>
+      </c>
       <c r="H151" s="0"/>
       <c r="I151" s="0"/>
       <c r="J151" s="0"/>
     </row>
     <row r="152" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="5"/>
-      <c r="B152" s="6"/>
-      <c r="C152" s="7"/>
-      <c r="E152" s="0"/>
-      <c r="F152" s="0"/>
-      <c r="G152" s="0"/>
+      <c r="A152" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="B152" s="26" t="s">
+        <v>740</v>
+      </c>
+      <c r="C152" s="27" t="s">
+        <v>458</v>
+      </c>
+      <c r="E152" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F152" s="26" t="s">
+        <v>767</v>
+      </c>
+      <c r="G152" s="27" t="s">
+        <v>759</v>
+      </c>
       <c r="H152" s="0"/>
       <c r="I152" s="0"/>
       <c r="J152" s="0"/>
     </row>
     <row r="153" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0"/>
-      <c r="B153" s="0"/>
-      <c r="C153" s="0"/>
-      <c r="E153" s="0"/>
-      <c r="F153" s="0"/>
-      <c r="G153" s="0"/>
+      <c r="A153" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="B153" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="C153" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E153" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F153" s="22" t="s">
+        <v>768</v>
+      </c>
+      <c r="G153" s="23" t="s">
+        <v>38</v>
+      </c>
       <c r="H153" s="0"/>
       <c r="I153" s="0"/>
       <c r="J153" s="0"/>
     </row>
     <row r="154" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0"/>
-      <c r="B154" s="0"/>
-      <c r="C154" s="0"/>
-      <c r="E154" s="0"/>
-      <c r="F154" s="0"/>
-      <c r="G154" s="0"/>
+      <c r="A154" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="B154" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="C154" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E154" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F154" s="26" t="s">
+        <v>657</v>
+      </c>
+      <c r="G154" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="H154" s="0"/>
       <c r="I154" s="0"/>
       <c r="J154" s="0"/>
     </row>
     <row r="155" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0"/>
-      <c r="B155" s="0"/>
-      <c r="C155" s="0"/>
-      <c r="E155" s="0"/>
-      <c r="F155" s="0"/>
-      <c r="G155" s="0"/>
+      <c r="A155" s="5"/>
+      <c r="B155" s="6"/>
+      <c r="C155" s="7"/>
+      <c r="E155" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F155" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="G155" s="23" t="s">
+        <v>38</v>
+      </c>
       <c r="H155" s="0"/>
       <c r="I155" s="0"/>
       <c r="J155" s="0"/>
@@ -17129,9 +17686,15 @@
       <c r="A156" s="0"/>
       <c r="B156" s="0"/>
       <c r="C156" s="0"/>
-      <c r="E156" s="0"/>
-      <c r="F156" s="0"/>
-      <c r="G156" s="0"/>
+      <c r="E156" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F156" s="26" t="s">
+        <v>666</v>
+      </c>
+      <c r="G156" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="H156" s="0"/>
       <c r="I156" s="0"/>
       <c r="J156" s="0"/>
@@ -17140,9 +17703,15 @@
       <c r="A157" s="0"/>
       <c r="B157" s="0"/>
       <c r="C157" s="0"/>
-      <c r="E157" s="0"/>
-      <c r="F157" s="0"/>
-      <c r="G157" s="0"/>
+      <c r="E157" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F157" s="22" t="s">
+        <v>769</v>
+      </c>
+      <c r="G157" s="23" t="s">
+        <v>38</v>
+      </c>
       <c r="H157" s="0"/>
       <c r="I157" s="0"/>
       <c r="J157" s="0"/>
@@ -17151,9 +17720,15 @@
       <c r="A158" s="0"/>
       <c r="B158" s="0"/>
       <c r="C158" s="0"/>
-      <c r="E158" s="0"/>
-      <c r="F158" s="0"/>
-      <c r="G158" s="0"/>
+      <c r="E158" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F158" s="26" t="s">
+        <v>658</v>
+      </c>
+      <c r="G158" s="27" t="s">
+        <v>770</v>
+      </c>
       <c r="H158" s="0"/>
       <c r="I158" s="0"/>
       <c r="J158" s="0"/>
@@ -17163,9 +17738,15 @@
       <c r="B159" s="0"/>
       <c r="C159" s="0"/>
       <c r="D159" s="0"/>
-      <c r="E159" s="0"/>
-      <c r="F159" s="0"/>
-      <c r="G159" s="0"/>
+      <c r="E159" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F159" s="22" t="s">
+        <v>624</v>
+      </c>
+      <c r="G159" s="23" t="s">
+        <v>38</v>
+      </c>
       <c r="H159" s="0"/>
       <c r="I159" s="0"/>
       <c r="J159" s="0"/>
@@ -17175,9 +17756,15 @@
       <c r="B160" s="0"/>
       <c r="C160" s="0"/>
       <c r="D160" s="0"/>
-      <c r="E160" s="0"/>
-      <c r="F160" s="0"/>
-      <c r="G160" s="0"/>
+      <c r="E160" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F160" s="26" t="s">
+        <v>589</v>
+      </c>
+      <c r="G160" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="H160" s="0"/>
       <c r="I160" s="0"/>
       <c r="J160" s="0"/>
@@ -17187,9 +17774,15 @@
       <c r="B161" s="0"/>
       <c r="C161" s="0"/>
       <c r="D161" s="0"/>
-      <c r="E161" s="0"/>
-      <c r="F161" s="0"/>
-      <c r="G161" s="0"/>
+      <c r="E161" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F161" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G161" s="23" t="s">
+        <v>38</v>
+      </c>
       <c r="H161" s="0"/>
       <c r="I161" s="0"/>
       <c r="J161" s="0"/>
@@ -17199,9 +17792,15 @@
       <c r="B162" s="0"/>
       <c r="C162" s="0"/>
       <c r="D162" s="0"/>
-      <c r="E162" s="0"/>
-      <c r="F162" s="0"/>
-      <c r="G162" s="0"/>
+      <c r="E162" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F162" s="26" t="s">
+        <v>771</v>
+      </c>
+      <c r="G162" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="H162" s="0"/>
       <c r="I162" s="0"/>
       <c r="J162" s="0"/>
@@ -17211,9 +17810,9 @@
       <c r="B163" s="0"/>
       <c r="C163" s="0"/>
       <c r="D163" s="0"/>
-      <c r="E163" s="0"/>
-      <c r="F163" s="0"/>
-      <c r="G163" s="0"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="7"/>
       <c r="H163" s="0"/>
       <c r="I163" s="0"/>
       <c r="J163" s="0"/>
@@ -17230,9 +17829,7 @@
       <c r="J164" s="0"/>
     </row>
     <row r="165" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -18780,9 +19377,7 @@
       <c r="R246" s="0"/>
     </row>
     <row r="247" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B247" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="B247" s="3"/>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
